--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="47">
   <si>
     <t xml:space="preserve">Model</t>
   </si>
@@ -137,6 +137,30 @@
   </si>
   <si>
     <t xml:space="preserve">-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine_huge_score</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StepLR/20/0.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">StepLR/20/0.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine_delele_repet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.00E-05/3.00E-04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">分阶段训练</t>
+  </si>
+  <si>
+    <t xml:space="preserve">combine_delele_repet/train_data</t>
   </si>
 </sst>
 </file>
@@ -278,7 +302,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -332,6 +356,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -412,26 +440,26 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="H1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T10" activeCellId="0" sqref="T10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D16" activeCellId="0" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="20.81"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="9.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="18.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="34.56"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="15.64"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="7.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="9"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.75"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="19"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="19.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="24.25"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="9"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="9.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="18.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="14.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="1" width="12.7"/>
@@ -846,7 +874,7 @@
         <v>0.958</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="12" t="s">
         <v>33</v>
       </c>
@@ -908,7 +936,7 @@
         <v>0.959</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="12" t="s">
         <v>33</v>
       </c>
@@ -970,7 +998,7 @@
         <v>0.961</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="17.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="12" t="s">
         <v>33</v>
       </c>
@@ -1030,6 +1058,322 @@
       </c>
       <c r="T10" s="12" t="n">
         <v>0.964</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="19.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="12" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J12" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K12" s="12" t="n">
+        <v>50</v>
+      </c>
+      <c r="L12" s="14" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="M12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P12" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q12" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R12" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S12" s="1" t="n">
+        <v>0.9804</v>
+      </c>
+      <c r="T12" s="1" t="n">
+        <v>0.964</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J13" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K13" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="L13" s="14" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="M13" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="N13" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P13" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S13" s="1" t="n">
+        <v>0.9783</v>
+      </c>
+      <c r="T13" s="1" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J14" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K14" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P14" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S14" s="1" t="n">
+        <v>0.9827</v>
+      </c>
+      <c r="T14" s="1" t="n">
+        <v>0.971</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I15" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J15" s="12" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" s="12" t="n">
+        <v>30</v>
+      </c>
+      <c r="L15" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N15" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P15" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R15" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S15" s="1" t="n">
+        <v>0.9837</v>
+      </c>
+      <c r="T15" s="1" t="n">
+        <v>0.974</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="20.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J17" s="12" t="n">
+        <v>24</v>
+      </c>
+      <c r="K17" s="12" t="n">
+        <v>60</v>
+      </c>
+      <c r="L17" s="14" t="n">
+        <v>0.0003</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" s="14" t="n">
+        <v>0.0005</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="P17" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="S17" s="1" t="n">
+        <v>0.9827</v>
+      </c>
+      <c r="T17" s="1" t="n">
+        <v>0.955</v>
       </c>
     </row>
   </sheetData>

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
   <si>
     <t>Model</t>
   </si>
@@ -47,6 +47,9 @@
     <t>Summary</t>
   </si>
   <si>
+    <t>改进</t>
+  </si>
+  <si>
     <t>model name</t>
   </si>
   <si>
@@ -92,6 +95,9 @@
     <t>weight decay</t>
   </si>
   <si>
+    <t>sparsity</t>
+  </si>
+  <si>
     <t>optimizer</t>
   </si>
   <si>
@@ -185,6 +191,9 @@
     <t>Cut_Mix优于Random_Erase</t>
   </si>
   <si>
+    <t>增大cut_mix的概率</t>
+  </si>
+  <si>
     <t>log-2019-12-13T22-33-39</t>
   </si>
   <si>
@@ -219,6 +228,21 @@
   </si>
   <si>
     <t>passthrough几乎没有作用</t>
+  </si>
+  <si>
+    <t>log-2019-12-15T19-48-23</t>
+  </si>
+  <si>
+    <t>加入稀疏度训练可以稍微缓解过拟合</t>
+  </si>
+  <si>
+    <t>加大稀疏度比例</t>
+  </si>
+  <si>
+    <t>log-2019-12-16T09-09-11</t>
+  </si>
+  <si>
+    <t>早停有效</t>
   </si>
 </sst>
 </file>
@@ -226,12 +250,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -265,12 +289,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -278,16 +301,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -317,27 +340,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,23 +356,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -379,14 +378,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -401,7 +393,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -413,15 +451,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="43">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -466,6 +497,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF9DC3E6"/>
         <bgColor rgb="FFBDD7EE"/>
       </patternFill>
@@ -496,19 +533,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,43 +593,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,13 +605,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -592,19 +623,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -616,13 +635,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,37 +701,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -843,56 +880,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -923,6 +915,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -932,11 +933,47 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -945,142 +982,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="40" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="36" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="42" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1195,7 +1232,7 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1204,12 +1241,15 @@
     <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1222,31 +1262,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1636,10 +1679,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AML27"/>
+  <dimension ref="A1:AMM29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1657,18 +1700,19 @@
     <col min="12" max="12" width="9" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.3416666666667" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.6333333333333" style="5" customWidth="1"/>
-    <col min="15" max="15" width="16" style="5" customWidth="1"/>
-    <col min="16" max="16" width="12.7" style="5" customWidth="1"/>
-    <col min="17" max="18" width="18.1166666666667" style="5" customWidth="1"/>
-    <col min="19" max="19" width="27.8833333333333" style="5" customWidth="1"/>
-    <col min="20" max="20" width="12.3833333333333" style="5" customWidth="1"/>
-    <col min="21" max="21" width="10.9916666666667" style="5" customWidth="1"/>
-    <col min="22" max="22" width="23.75" style="5" customWidth="1"/>
-    <col min="23" max="23" width="35.9333333333333" style="5" customWidth="1"/>
-    <col min="24" max="1026" width="9" style="5" customWidth="1"/>
+    <col min="15" max="16" width="16" style="5" customWidth="1"/>
+    <col min="17" max="17" width="12.7" style="5" customWidth="1"/>
+    <col min="18" max="19" width="18.1166666666667" style="5" customWidth="1"/>
+    <col min="20" max="20" width="27.8833333333333" style="5" customWidth="1"/>
+    <col min="21" max="21" width="12.3833333333333" style="5" customWidth="1"/>
+    <col min="22" max="22" width="10.9916666666667" style="5" customWidth="1"/>
+    <col min="23" max="23" width="23.75" style="5" customWidth="1"/>
+    <col min="24" max="24" width="35.9333333333333" style="5" customWidth="1"/>
+    <col min="25" max="25" width="19.4083333333333" style="5" customWidth="1"/>
+    <col min="26" max="1027" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1693,94 +1737,101 @@
       <c r="N1" s="29"/>
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
-      <c r="Q1" s="38" t="s">
+      <c r="Q1" s="29"/>
+      <c r="R1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="R1" s="38"/>
-      <c r="S1" s="39" t="s">
+      <c r="S1" s="39"/>
+      <c r="T1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="U1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="U1" s="40" t="s">
+      <c r="V1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="X1" s="43" t="s">
         <v>9</v>
       </c>
+      <c r="Y1" s="55" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:21">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
       <c r="A2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K2" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="M2" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="Q2" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="R2" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="S2" s="8"/>
+        <v>28</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>29</v>
+      </c>
       <c r="T2" s="8"/>
       <c r="U2" s="8"/>
+      <c r="V2" s="8"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:22">
+    <row r="3" ht="22.5" customHeight="1" spans="1:23">
       <c r="A3" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B3" s="9">
         <v>0.5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D3" s="9">
         <v>256</v>
@@ -1799,7 +1850,7 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K3" s="9">
         <v>24</v>
@@ -1811,40 +1862,41 @@
         <v>0.01</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O3" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P3" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P3" s="31"/>
       <c r="Q3" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R3" s="9">
+        <v>34</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S3" s="9">
         <v>1</v>
       </c>
-      <c r="S3" s="9" t="s">
-        <v>34</v>
-      </c>
       <c r="T3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U3" s="9">
+        <v>36</v>
+      </c>
+      <c r="U3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V3" s="9">
         <v>0.954</v>
       </c>
-      <c r="V3" s="43"/>
+      <c r="W3" s="44"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:22">
+    <row r="4" ht="22.5" customHeight="1" spans="1:23">
       <c r="A4" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D4" s="9">
         <v>256</v>
@@ -1863,7 +1915,7 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K4" s="9">
         <v>24</v>
@@ -1875,40 +1927,41 @@
         <v>0.01</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O4" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P4" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P4" s="31"/>
       <c r="Q4" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R4" s="9">
+        <v>34</v>
+      </c>
+      <c r="R4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S4" s="9">
         <v>1</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="T4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U4" s="9">
+        <v>0.957</v>
+      </c>
+      <c r="V4" s="9">
+        <v>0.946</v>
+      </c>
+      <c r="W4" s="44"/>
+    </row>
+    <row r="5" ht="21.75" customHeight="1" spans="1:23">
+      <c r="A5" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="T4" s="9">
-        <v>0.957</v>
-      </c>
-      <c r="U4" s="9">
-        <v>0.946</v>
-      </c>
-      <c r="V4" s="43"/>
-    </row>
-    <row r="5" ht="21.75" customHeight="1" spans="1:22">
-      <c r="A5" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D5" s="9">
         <v>256</v>
@@ -1927,7 +1980,7 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K5" s="9">
         <v>24</v>
@@ -1939,40 +1992,41 @@
         <v>0.01</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O5" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P5" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P5" s="31"/>
       <c r="Q5" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R5" s="9">
+        <v>34</v>
+      </c>
+      <c r="R5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S5" s="9">
         <v>1</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="T5" s="9">
+      <c r="T5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="U5" s="9">
         <v>0.9643</v>
       </c>
-      <c r="U5" s="9">
+      <c r="V5" s="9">
         <v>0.949</v>
       </c>
-      <c r="V5" s="43"/>
+      <c r="W5" s="44"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:22">
+    <row r="6" ht="18.75" customHeight="1" spans="1:23">
       <c r="A6" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D6" s="9">
         <v>256</v>
@@ -1991,7 +2045,7 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K6" s="9">
         <v>24</v>
@@ -2003,40 +2057,41 @@
         <v>0.01</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O6" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P6" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P6" s="31"/>
       <c r="Q6" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R6" s="9">
+        <v>34</v>
+      </c>
+      <c r="R6" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S6" s="9">
         <v>1</v>
       </c>
-      <c r="S6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T6" s="9">
+      <c r="T6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U6" s="9">
         <v>0.9669</v>
       </c>
-      <c r="U6" s="9">
+      <c r="V6" s="9">
         <v>0.952</v>
       </c>
-      <c r="V6" s="43"/>
+      <c r="W6" s="44"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:22">
+    <row r="7" ht="18.75" customHeight="1" spans="1:23">
       <c r="A7" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D7" s="9">
         <v>256</v>
@@ -2055,7 +2110,7 @@
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7" s="9">
         <v>24</v>
@@ -2067,40 +2122,41 @@
         <v>0.01</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O7" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P7" s="31"/>
       <c r="Q7" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R7" s="9">
+        <v>34</v>
+      </c>
+      <c r="R7" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S7" s="9">
         <v>1</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>40</v>
-      </c>
       <c r="T7" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U7" s="9">
+        <v>42</v>
+      </c>
+      <c r="U7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="V7" s="9">
         <v>0.958</v>
       </c>
-      <c r="V7" s="43"/>
+      <c r="W7" s="44"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:22">
+    <row r="8" ht="19.5" customHeight="1" spans="1:23">
       <c r="A8" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8" s="9">
         <v>256</v>
@@ -2119,7 +2175,7 @@
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K8" s="9">
         <v>24</v>
@@ -2131,40 +2187,41 @@
         <v>0.01</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O8" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P8" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P8" s="31"/>
       <c r="Q8" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" s="9">
+        <v>34</v>
+      </c>
+      <c r="R8" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S8" s="9">
         <v>1</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="T8" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="U8" s="9">
+        <v>0.9663</v>
+      </c>
+      <c r="V8" s="9">
+        <v>0.959</v>
+      </c>
+      <c r="W8" s="44"/>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:23">
+      <c r="A9" s="9" t="s">
         <v>38</v>
-      </c>
-      <c r="T8" s="9">
-        <v>0.9663</v>
-      </c>
-      <c r="U8" s="9">
-        <v>0.959</v>
-      </c>
-      <c r="V8" s="43"/>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:22">
-      <c r="A9" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D9" s="9">
         <v>256</v>
@@ -2183,7 +2240,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K9" s="9">
         <v>24</v>
@@ -2195,40 +2252,41 @@
         <v>0.01</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O9" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P9" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P9" s="31"/>
       <c r="Q9" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R9" s="9">
+        <v>34</v>
+      </c>
+      <c r="R9" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S9" s="9">
         <v>1</v>
       </c>
-      <c r="S9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T9" s="9">
+      <c r="T9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U9" s="9">
         <v>0.9673</v>
       </c>
-      <c r="U9" s="9">
+      <c r="V9" s="9">
         <v>0.961</v>
       </c>
-      <c r="V9" s="43"/>
+      <c r="W9" s="44"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:22">
+    <row r="10" ht="17.25" customHeight="1" spans="1:23">
       <c r="A10" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D10" s="9">
         <v>256</v>
@@ -2247,7 +2305,7 @@
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K10" s="9">
         <v>24</v>
@@ -2259,41 +2317,42 @@
         <v>0.01</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O10" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P10" s="9" t="s">
-        <v>32</v>
-      </c>
+      <c r="P10" s="31"/>
       <c r="Q10" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R10" s="9">
+        <v>34</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S10" s="9">
         <v>0</v>
       </c>
-      <c r="S10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T10" s="9">
+      <c r="T10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U10" s="9">
         <v>0.981</v>
       </c>
-      <c r="U10" s="9">
+      <c r="V10" s="9">
         <v>0.964</v>
       </c>
-      <c r="V10" s="43"/>
+      <c r="W10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1"/>
-    <row r="12" ht="18" customHeight="1" spans="1:22">
+    <row r="12" ht="18" customHeight="1" spans="1:23">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D12" s="10">
         <v>256</v>
@@ -2312,7 +2371,7 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K12" s="9">
         <v>24</v>
@@ -2324,40 +2383,41 @@
         <v>0.002</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O12" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P12" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R12" s="10">
+      <c r="P12" s="31"/>
+      <c r="Q12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R12" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S12" s="10">
         <v>2</v>
       </c>
-      <c r="S12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T12" s="10">
+      <c r="T12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U12" s="10">
         <v>0.9804</v>
       </c>
-      <c r="U12" s="10">
+      <c r="V12" s="10">
         <v>0.964</v>
       </c>
-      <c r="V12" s="43"/>
+      <c r="W12" s="44"/>
     </row>
-    <row r="13" ht="15.75" spans="1:22">
+    <row r="13" ht="15.75" spans="1:23">
       <c r="A13" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D13" s="10">
         <v>256</v>
@@ -2376,7 +2436,7 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K13" s="9">
         <v>24</v>
@@ -2388,40 +2448,41 @@
         <v>0.001</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="O13" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P13" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R13" s="10">
+      <c r="P13" s="31"/>
+      <c r="Q13" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="R13" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S13" s="10">
         <v>2</v>
       </c>
-      <c r="S13" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T13" s="10">
+      <c r="T13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U13" s="10">
         <v>0.9783</v>
       </c>
-      <c r="U13" s="10">
+      <c r="V13" s="10">
         <v>0.955</v>
       </c>
-      <c r="V13" s="43"/>
+      <c r="W13" s="44"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:22">
+    <row r="14" ht="18" customHeight="1" spans="1:23">
       <c r="A14" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D14" s="10">
         <v>256</v>
@@ -2440,7 +2501,7 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K14" s="9">
         <v>24</v>
@@ -2449,37 +2510,38 @@
         <v>30</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O14" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P14" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R14" s="10">
+      <c r="P14" s="31"/>
+      <c r="Q14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R14" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S14" s="10">
         <v>0</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T14" s="10">
+      <c r="T14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U14" s="10">
         <v>0.9827</v>
       </c>
-      <c r="U14" s="21">
+      <c r="V14" s="21">
         <v>0.971</v>
       </c>
-      <c r="V14" s="43"/>
+      <c r="W14" s="44"/>
     </row>
-    <row r="15" ht="20.25" customHeight="1" spans="1:21">
+    <row r="15" ht="20.25" customHeight="1" spans="1:22">
       <c r="A15" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2501,16 +2563,17 @@
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
+      <c r="V15" s="11"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:22">
+    <row r="16" ht="18" customHeight="1" spans="1:23">
       <c r="A16" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D16" s="13">
         <v>416</v>
@@ -2529,7 +2592,7 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K16" s="12">
         <v>8</v>
@@ -2538,43 +2601,44 @@
         <v>30</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O16" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P16" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q16" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R16" s="13">
+      <c r="P16" s="32"/>
+      <c r="Q16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R16" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S16" s="13">
         <v>0</v>
       </c>
-      <c r="S16" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T16" s="13">
+      <c r="T16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U16" s="13">
         <v>0.9837</v>
       </c>
-      <c r="U16" s="44">
+      <c r="V16" s="45">
         <v>0.974</v>
       </c>
-      <c r="V16" s="43"/>
+      <c r="W16" s="44"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:1026">
+    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:1027">
       <c r="A17" s="12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B17" s="13">
         <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D17" s="13">
         <v>256</v>
@@ -2593,7 +2657,7 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K17" s="12">
         <v>24</v>
@@ -2605,1036 +2669,1037 @@
         <v>0.0003</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O17" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P17" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q17" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="R17" s="13">
+      <c r="P17" s="32"/>
+      <c r="Q17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="R17" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="S17" s="13">
         <v>0</v>
       </c>
-      <c r="S17" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="T17" s="13">
+      <c r="T17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="U17" s="13">
         <v>0.9827</v>
       </c>
-      <c r="U17" s="13">
+      <c r="V17" s="13">
         <v>0.955</v>
       </c>
-      <c r="V17" s="45"/>
       <c r="W17" s="46"/>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="46"/>
-      <c r="Z17" s="46"/>
-      <c r="AA17" s="46"/>
-      <c r="AB17" s="46"/>
-      <c r="AC17" s="46"/>
-      <c r="AD17" s="46"/>
-      <c r="AE17" s="46"/>
-      <c r="AF17" s="46"/>
-      <c r="AG17" s="46"/>
-      <c r="AH17" s="46"/>
-      <c r="AI17" s="46"/>
-      <c r="AJ17" s="46"/>
-      <c r="AK17" s="46"/>
-      <c r="AL17" s="46"/>
-      <c r="AM17" s="46"/>
-      <c r="AN17" s="46"/>
-      <c r="AO17" s="46"/>
-      <c r="AP17" s="46"/>
-      <c r="AQ17" s="46"/>
-      <c r="AR17" s="46"/>
-      <c r="AS17" s="46"/>
-      <c r="AT17" s="46"/>
-      <c r="AU17" s="46"/>
-      <c r="AV17" s="46"/>
-      <c r="AW17" s="46"/>
-      <c r="AX17" s="46"/>
-      <c r="AY17" s="46"/>
-      <c r="AZ17" s="46"/>
-      <c r="BA17" s="46"/>
-      <c r="BB17" s="46"/>
-      <c r="BC17" s="46"/>
-      <c r="BD17" s="46"/>
-      <c r="BE17" s="46"/>
-      <c r="BF17" s="46"/>
-      <c r="BG17" s="46"/>
-      <c r="BH17" s="46"/>
-      <c r="BI17" s="46"/>
-      <c r="BJ17" s="46"/>
-      <c r="BK17" s="46"/>
-      <c r="BL17" s="46"/>
-      <c r="BM17" s="46"/>
-      <c r="BN17" s="46"/>
-      <c r="BO17" s="46"/>
-      <c r="BP17" s="46"/>
-      <c r="BQ17" s="46"/>
-      <c r="BR17" s="46"/>
-      <c r="BS17" s="46"/>
-      <c r="BT17" s="46"/>
-      <c r="BU17" s="46"/>
-      <c r="BV17" s="46"/>
-      <c r="BW17" s="46"/>
-      <c r="BX17" s="46"/>
-      <c r="BY17" s="46"/>
-      <c r="BZ17" s="46"/>
-      <c r="CA17" s="46"/>
-      <c r="CB17" s="46"/>
-      <c r="CC17" s="46"/>
-      <c r="CD17" s="46"/>
-      <c r="CE17" s="46"/>
-      <c r="CF17" s="46"/>
-      <c r="CG17" s="46"/>
-      <c r="CH17" s="46"/>
-      <c r="CI17" s="46"/>
-      <c r="CJ17" s="46"/>
-      <c r="CK17" s="46"/>
-      <c r="CL17" s="46"/>
-      <c r="CM17" s="46"/>
-      <c r="CN17" s="46"/>
-      <c r="CO17" s="46"/>
-      <c r="CP17" s="46"/>
-      <c r="CQ17" s="46"/>
-      <c r="CR17" s="46"/>
-      <c r="CS17" s="46"/>
-      <c r="CT17" s="46"/>
-      <c r="CU17" s="46"/>
-      <c r="CV17" s="46"/>
-      <c r="CW17" s="46"/>
-      <c r="CX17" s="46"/>
-      <c r="CY17" s="46"/>
-      <c r="CZ17" s="46"/>
-      <c r="DA17" s="46"/>
-      <c r="DB17" s="46"/>
-      <c r="DC17" s="46"/>
-      <c r="DD17" s="46"/>
-      <c r="DE17" s="46"/>
-      <c r="DF17" s="46"/>
-      <c r="DG17" s="46"/>
-      <c r="DH17" s="46"/>
-      <c r="DI17" s="46"/>
-      <c r="DJ17" s="46"/>
-      <c r="DK17" s="46"/>
-      <c r="DL17" s="46"/>
-      <c r="DM17" s="46"/>
-      <c r="DN17" s="46"/>
-      <c r="DO17" s="46"/>
-      <c r="DP17" s="46"/>
-      <c r="DQ17" s="46"/>
-      <c r="DR17" s="46"/>
-      <c r="DS17" s="46"/>
-      <c r="DT17" s="46"/>
-      <c r="DU17" s="46"/>
-      <c r="DV17" s="46"/>
-      <c r="DW17" s="46"/>
-      <c r="DX17" s="46"/>
-      <c r="DY17" s="46"/>
-      <c r="DZ17" s="46"/>
-      <c r="EA17" s="46"/>
-      <c r="EB17" s="46"/>
-      <c r="EC17" s="46"/>
-      <c r="ED17" s="46"/>
-      <c r="EE17" s="46"/>
-      <c r="EF17" s="46"/>
-      <c r="EG17" s="46"/>
-      <c r="EH17" s="46"/>
-      <c r="EI17" s="46"/>
-      <c r="EJ17" s="46"/>
-      <c r="EK17" s="46"/>
-      <c r="EL17" s="46"/>
-      <c r="EM17" s="46"/>
-      <c r="EN17" s="46"/>
-      <c r="EO17" s="46"/>
-      <c r="EP17" s="46"/>
-      <c r="EQ17" s="46"/>
-      <c r="ER17" s="46"/>
-      <c r="ES17" s="46"/>
-      <c r="ET17" s="46"/>
-      <c r="EU17" s="46"/>
-      <c r="EV17" s="46"/>
-      <c r="EW17" s="46"/>
-      <c r="EX17" s="46"/>
-      <c r="EY17" s="46"/>
-      <c r="EZ17" s="46"/>
-      <c r="FA17" s="46"/>
-      <c r="FB17" s="46"/>
-      <c r="FC17" s="46"/>
-      <c r="FD17" s="46"/>
-      <c r="FE17" s="46"/>
-      <c r="FF17" s="46"/>
-      <c r="FG17" s="46"/>
-      <c r="FH17" s="46"/>
-      <c r="FI17" s="46"/>
-      <c r="FJ17" s="46"/>
-      <c r="FK17" s="46"/>
-      <c r="FL17" s="46"/>
-      <c r="FM17" s="46"/>
-      <c r="FN17" s="46"/>
-      <c r="FO17" s="46"/>
-      <c r="FP17" s="46"/>
-      <c r="FQ17" s="46"/>
-      <c r="FR17" s="46"/>
-      <c r="FS17" s="46"/>
-      <c r="FT17" s="46"/>
-      <c r="FU17" s="46"/>
-      <c r="FV17" s="46"/>
-      <c r="FW17" s="46"/>
-      <c r="FX17" s="46"/>
-      <c r="FY17" s="46"/>
-      <c r="FZ17" s="46"/>
-      <c r="GA17" s="46"/>
-      <c r="GB17" s="46"/>
-      <c r="GC17" s="46"/>
-      <c r="GD17" s="46"/>
-      <c r="GE17" s="46"/>
-      <c r="GF17" s="46"/>
-      <c r="GG17" s="46"/>
-      <c r="GH17" s="46"/>
-      <c r="GI17" s="46"/>
-      <c r="GJ17" s="46"/>
-      <c r="GK17" s="46"/>
-      <c r="GL17" s="46"/>
-      <c r="GM17" s="46"/>
-      <c r="GN17" s="46"/>
-      <c r="GO17" s="46"/>
-      <c r="GP17" s="46"/>
-      <c r="GQ17" s="46"/>
-      <c r="GR17" s="46"/>
-      <c r="GS17" s="46"/>
-      <c r="GT17" s="46"/>
-      <c r="GU17" s="46"/>
-      <c r="GV17" s="46"/>
-      <c r="GW17" s="46"/>
-      <c r="GX17" s="46"/>
-      <c r="GY17" s="46"/>
-      <c r="GZ17" s="46"/>
-      <c r="HA17" s="46"/>
-      <c r="HB17" s="46"/>
-      <c r="HC17" s="46"/>
-      <c r="HD17" s="46"/>
-      <c r="HE17" s="46"/>
-      <c r="HF17" s="46"/>
-      <c r="HG17" s="46"/>
-      <c r="HH17" s="46"/>
-      <c r="HI17" s="46"/>
-      <c r="HJ17" s="46"/>
-      <c r="HK17" s="46"/>
-      <c r="HL17" s="46"/>
-      <c r="HM17" s="46"/>
-      <c r="HN17" s="46"/>
-      <c r="HO17" s="46"/>
-      <c r="HP17" s="46"/>
-      <c r="HQ17" s="46"/>
-      <c r="HR17" s="46"/>
-      <c r="HS17" s="46"/>
-      <c r="HT17" s="46"/>
-      <c r="HU17" s="46"/>
-      <c r="HV17" s="46"/>
-      <c r="HW17" s="46"/>
-      <c r="HX17" s="46"/>
-      <c r="HY17" s="46"/>
-      <c r="HZ17" s="46"/>
-      <c r="IA17" s="46"/>
-      <c r="IB17" s="46"/>
-      <c r="IC17" s="46"/>
-      <c r="ID17" s="46"/>
-      <c r="IE17" s="46"/>
-      <c r="IF17" s="46"/>
-      <c r="IG17" s="46"/>
-      <c r="IH17" s="46"/>
-      <c r="II17" s="46"/>
-      <c r="IJ17" s="46"/>
-      <c r="IK17" s="46"/>
-      <c r="IL17" s="46"/>
-      <c r="IM17" s="46"/>
-      <c r="IN17" s="46"/>
-      <c r="IO17" s="46"/>
-      <c r="IP17" s="46"/>
-      <c r="IQ17" s="46"/>
-      <c r="IR17" s="46"/>
-      <c r="IS17" s="46"/>
-      <c r="IT17" s="46"/>
-      <c r="IU17" s="46"/>
-      <c r="IV17" s="46"/>
-      <c r="IW17" s="46"/>
-      <c r="IX17" s="46"/>
-      <c r="IY17" s="46"/>
-      <c r="IZ17" s="46"/>
-      <c r="JA17" s="46"/>
-      <c r="JB17" s="46"/>
-      <c r="JC17" s="46"/>
-      <c r="JD17" s="46"/>
-      <c r="JE17" s="46"/>
-      <c r="JF17" s="46"/>
-      <c r="JG17" s="46"/>
-      <c r="JH17" s="46"/>
-      <c r="JI17" s="46"/>
-      <c r="JJ17" s="46"/>
-      <c r="JK17" s="46"/>
-      <c r="JL17" s="46"/>
-      <c r="JM17" s="46"/>
-      <c r="JN17" s="46"/>
-      <c r="JO17" s="46"/>
-      <c r="JP17" s="46"/>
-      <c r="JQ17" s="46"/>
-      <c r="JR17" s="46"/>
-      <c r="JS17" s="46"/>
-      <c r="JT17" s="46"/>
-      <c r="JU17" s="46"/>
-      <c r="JV17" s="46"/>
-      <c r="JW17" s="46"/>
-      <c r="JX17" s="46"/>
-      <c r="JY17" s="46"/>
-      <c r="JZ17" s="46"/>
-      <c r="KA17" s="46"/>
-      <c r="KB17" s="46"/>
-      <c r="KC17" s="46"/>
-      <c r="KD17" s="46"/>
-      <c r="KE17" s="46"/>
-      <c r="KF17" s="46"/>
-      <c r="KG17" s="46"/>
-      <c r="KH17" s="46"/>
-      <c r="KI17" s="46"/>
-      <c r="KJ17" s="46"/>
-      <c r="KK17" s="46"/>
-      <c r="KL17" s="46"/>
-      <c r="KM17" s="46"/>
-      <c r="KN17" s="46"/>
-      <c r="KO17" s="46"/>
-      <c r="KP17" s="46"/>
-      <c r="KQ17" s="46"/>
-      <c r="KR17" s="46"/>
-      <c r="KS17" s="46"/>
-      <c r="KT17" s="46"/>
-      <c r="KU17" s="46"/>
-      <c r="KV17" s="46"/>
-      <c r="KW17" s="46"/>
-      <c r="KX17" s="46"/>
-      <c r="KY17" s="46"/>
-      <c r="KZ17" s="46"/>
-      <c r="LA17" s="46"/>
-      <c r="LB17" s="46"/>
-      <c r="LC17" s="46"/>
-      <c r="LD17" s="46"/>
-      <c r="LE17" s="46"/>
-      <c r="LF17" s="46"/>
-      <c r="LG17" s="46"/>
-      <c r="LH17" s="46"/>
-      <c r="LI17" s="46"/>
-      <c r="LJ17" s="46"/>
-      <c r="LK17" s="46"/>
-      <c r="LL17" s="46"/>
-      <c r="LM17" s="46"/>
-      <c r="LN17" s="46"/>
-      <c r="LO17" s="46"/>
-      <c r="LP17" s="46"/>
-      <c r="LQ17" s="46"/>
-      <c r="LR17" s="46"/>
-      <c r="LS17" s="46"/>
-      <c r="LT17" s="46"/>
-      <c r="LU17" s="46"/>
-      <c r="LV17" s="46"/>
-      <c r="LW17" s="46"/>
-      <c r="LX17" s="46"/>
-      <c r="LY17" s="46"/>
-      <c r="LZ17" s="46"/>
-      <c r="MA17" s="46"/>
-      <c r="MB17" s="46"/>
-      <c r="MC17" s="46"/>
-      <c r="MD17" s="46"/>
-      <c r="ME17" s="46"/>
-      <c r="MF17" s="46"/>
-      <c r="MG17" s="46"/>
-      <c r="MH17" s="46"/>
-      <c r="MI17" s="46"/>
-      <c r="MJ17" s="46"/>
-      <c r="MK17" s="46"/>
-      <c r="ML17" s="46"/>
-      <c r="MM17" s="46"/>
-      <c r="MN17" s="46"/>
-      <c r="MO17" s="46"/>
-      <c r="MP17" s="46"/>
-      <c r="MQ17" s="46"/>
-      <c r="MR17" s="46"/>
-      <c r="MS17" s="46"/>
-      <c r="MT17" s="46"/>
-      <c r="MU17" s="46"/>
-      <c r="MV17" s="46"/>
-      <c r="MW17" s="46"/>
-      <c r="MX17" s="46"/>
-      <c r="MY17" s="46"/>
-      <c r="MZ17" s="46"/>
-      <c r="NA17" s="46"/>
-      <c r="NB17" s="46"/>
-      <c r="NC17" s="46"/>
-      <c r="ND17" s="46"/>
-      <c r="NE17" s="46"/>
-      <c r="NF17" s="46"/>
-      <c r="NG17" s="46"/>
-      <c r="NH17" s="46"/>
-      <c r="NI17" s="46"/>
-      <c r="NJ17" s="46"/>
-      <c r="NK17" s="46"/>
-      <c r="NL17" s="46"/>
-      <c r="NM17" s="46"/>
-      <c r="NN17" s="46"/>
-      <c r="NO17" s="46"/>
-      <c r="NP17" s="46"/>
-      <c r="NQ17" s="46"/>
-      <c r="NR17" s="46"/>
-      <c r="NS17" s="46"/>
-      <c r="NT17" s="46"/>
-      <c r="NU17" s="46"/>
-      <c r="NV17" s="46"/>
-      <c r="NW17" s="46"/>
-      <c r="NX17" s="46"/>
-      <c r="NY17" s="46"/>
-      <c r="NZ17" s="46"/>
-      <c r="OA17" s="46"/>
-      <c r="OB17" s="46"/>
-      <c r="OC17" s="46"/>
-      <c r="OD17" s="46"/>
-      <c r="OE17" s="46"/>
-      <c r="OF17" s="46"/>
-      <c r="OG17" s="46"/>
-      <c r="OH17" s="46"/>
-      <c r="OI17" s="46"/>
-      <c r="OJ17" s="46"/>
-      <c r="OK17" s="46"/>
-      <c r="OL17" s="46"/>
-      <c r="OM17" s="46"/>
-      <c r="ON17" s="46"/>
-      <c r="OO17" s="46"/>
-      <c r="OP17" s="46"/>
-      <c r="OQ17" s="46"/>
-      <c r="OR17" s="46"/>
-      <c r="OS17" s="46"/>
-      <c r="OT17" s="46"/>
-      <c r="OU17" s="46"/>
-      <c r="OV17" s="46"/>
-      <c r="OW17" s="46"/>
-      <c r="OX17" s="46"/>
-      <c r="OY17" s="46"/>
-      <c r="OZ17" s="46"/>
-      <c r="PA17" s="46"/>
-      <c r="PB17" s="46"/>
-      <c r="PC17" s="46"/>
-      <c r="PD17" s="46"/>
-      <c r="PE17" s="46"/>
-      <c r="PF17" s="46"/>
-      <c r="PG17" s="46"/>
-      <c r="PH17" s="46"/>
-      <c r="PI17" s="46"/>
-      <c r="PJ17" s="46"/>
-      <c r="PK17" s="46"/>
-      <c r="PL17" s="46"/>
-      <c r="PM17" s="46"/>
-      <c r="PN17" s="46"/>
-      <c r="PO17" s="46"/>
-      <c r="PP17" s="46"/>
-      <c r="PQ17" s="46"/>
-      <c r="PR17" s="46"/>
-      <c r="PS17" s="46"/>
-      <c r="PT17" s="46"/>
-      <c r="PU17" s="46"/>
-      <c r="PV17" s="46"/>
-      <c r="PW17" s="46"/>
-      <c r="PX17" s="46"/>
-      <c r="PY17" s="46"/>
-      <c r="PZ17" s="46"/>
-      <c r="QA17" s="46"/>
-      <c r="QB17" s="46"/>
-      <c r="QC17" s="46"/>
-      <c r="QD17" s="46"/>
-      <c r="QE17" s="46"/>
-      <c r="QF17" s="46"/>
-      <c r="QG17" s="46"/>
-      <c r="QH17" s="46"/>
-      <c r="QI17" s="46"/>
-      <c r="QJ17" s="46"/>
-      <c r="QK17" s="46"/>
-      <c r="QL17" s="46"/>
-      <c r="QM17" s="46"/>
-      <c r="QN17" s="46"/>
-      <c r="QO17" s="46"/>
-      <c r="QP17" s="46"/>
-      <c r="QQ17" s="46"/>
-      <c r="QR17" s="46"/>
-      <c r="QS17" s="46"/>
-      <c r="QT17" s="46"/>
-      <c r="QU17" s="46"/>
-      <c r="QV17" s="46"/>
-      <c r="QW17" s="46"/>
-      <c r="QX17" s="46"/>
-      <c r="QY17" s="46"/>
-      <c r="QZ17" s="46"/>
-      <c r="RA17" s="46"/>
-      <c r="RB17" s="46"/>
-      <c r="RC17" s="46"/>
-      <c r="RD17" s="46"/>
-      <c r="RE17" s="46"/>
-      <c r="RF17" s="46"/>
-      <c r="RG17" s="46"/>
-      <c r="RH17" s="46"/>
-      <c r="RI17" s="46"/>
-      <c r="RJ17" s="46"/>
-      <c r="RK17" s="46"/>
-      <c r="RL17" s="46"/>
-      <c r="RM17" s="46"/>
-      <c r="RN17" s="46"/>
-      <c r="RO17" s="46"/>
-      <c r="RP17" s="46"/>
-      <c r="RQ17" s="46"/>
-      <c r="RR17" s="46"/>
-      <c r="RS17" s="46"/>
-      <c r="RT17" s="46"/>
-      <c r="RU17" s="46"/>
-      <c r="RV17" s="46"/>
-      <c r="RW17" s="46"/>
-      <c r="RX17" s="46"/>
-      <c r="RY17" s="46"/>
-      <c r="RZ17" s="46"/>
-      <c r="SA17" s="46"/>
-      <c r="SB17" s="46"/>
-      <c r="SC17" s="46"/>
-      <c r="SD17" s="46"/>
-      <c r="SE17" s="46"/>
-      <c r="SF17" s="46"/>
-      <c r="SG17" s="46"/>
-      <c r="SH17" s="46"/>
-      <c r="SI17" s="46"/>
-      <c r="SJ17" s="46"/>
-      <c r="SK17" s="46"/>
-      <c r="SL17" s="46"/>
-      <c r="SM17" s="46"/>
-      <c r="SN17" s="46"/>
-      <c r="SO17" s="46"/>
-      <c r="SP17" s="46"/>
-      <c r="SQ17" s="46"/>
-      <c r="SR17" s="46"/>
-      <c r="SS17" s="46"/>
-      <c r="ST17" s="46"/>
-      <c r="SU17" s="46"/>
-      <c r="SV17" s="46"/>
-      <c r="SW17" s="46"/>
-      <c r="SX17" s="46"/>
-      <c r="SY17" s="46"/>
-      <c r="SZ17" s="46"/>
-      <c r="TA17" s="46"/>
-      <c r="TB17" s="46"/>
-      <c r="TC17" s="46"/>
-      <c r="TD17" s="46"/>
-      <c r="TE17" s="46"/>
-      <c r="TF17" s="46"/>
-      <c r="TG17" s="46"/>
-      <c r="TH17" s="46"/>
-      <c r="TI17" s="46"/>
-      <c r="TJ17" s="46"/>
-      <c r="TK17" s="46"/>
-      <c r="TL17" s="46"/>
-      <c r="TM17" s="46"/>
-      <c r="TN17" s="46"/>
-      <c r="TO17" s="46"/>
-      <c r="TP17" s="46"/>
-      <c r="TQ17" s="46"/>
-      <c r="TR17" s="46"/>
-      <c r="TS17" s="46"/>
-      <c r="TT17" s="46"/>
-      <c r="TU17" s="46"/>
-      <c r="TV17" s="46"/>
-      <c r="TW17" s="46"/>
-      <c r="TX17" s="46"/>
-      <c r="TY17" s="46"/>
-      <c r="TZ17" s="46"/>
-      <c r="UA17" s="46"/>
-      <c r="UB17" s="46"/>
-      <c r="UC17" s="46"/>
-      <c r="UD17" s="46"/>
-      <c r="UE17" s="46"/>
-      <c r="UF17" s="46"/>
-      <c r="UG17" s="46"/>
-      <c r="UH17" s="46"/>
-      <c r="UI17" s="46"/>
-      <c r="UJ17" s="46"/>
-      <c r="UK17" s="46"/>
-      <c r="UL17" s="46"/>
-      <c r="UM17" s="46"/>
-      <c r="UN17" s="46"/>
-      <c r="UO17" s="46"/>
-      <c r="UP17" s="46"/>
-      <c r="UQ17" s="46"/>
-      <c r="UR17" s="46"/>
-      <c r="US17" s="46"/>
-      <c r="UT17" s="46"/>
-      <c r="UU17" s="46"/>
-      <c r="UV17" s="46"/>
-      <c r="UW17" s="46"/>
-      <c r="UX17" s="46"/>
-      <c r="UY17" s="46"/>
-      <c r="UZ17" s="46"/>
-      <c r="VA17" s="46"/>
-      <c r="VB17" s="46"/>
-      <c r="VC17" s="46"/>
-      <c r="VD17" s="46"/>
-      <c r="VE17" s="46"/>
-      <c r="VF17" s="46"/>
-      <c r="VG17" s="46"/>
-      <c r="VH17" s="46"/>
-      <c r="VI17" s="46"/>
-      <c r="VJ17" s="46"/>
-      <c r="VK17" s="46"/>
-      <c r="VL17" s="46"/>
-      <c r="VM17" s="46"/>
-      <c r="VN17" s="46"/>
-      <c r="VO17" s="46"/>
-      <c r="VP17" s="46"/>
-      <c r="VQ17" s="46"/>
-      <c r="VR17" s="46"/>
-      <c r="VS17" s="46"/>
-      <c r="VT17" s="46"/>
-      <c r="VU17" s="46"/>
-      <c r="VV17" s="46"/>
-      <c r="VW17" s="46"/>
-      <c r="VX17" s="46"/>
-      <c r="VY17" s="46"/>
-      <c r="VZ17" s="46"/>
-      <c r="WA17" s="46"/>
-      <c r="WB17" s="46"/>
-      <c r="WC17" s="46"/>
-      <c r="WD17" s="46"/>
-      <c r="WE17" s="46"/>
-      <c r="WF17" s="46"/>
-      <c r="WG17" s="46"/>
-      <c r="WH17" s="46"/>
-      <c r="WI17" s="46"/>
-      <c r="WJ17" s="46"/>
-      <c r="WK17" s="46"/>
-      <c r="WL17" s="46"/>
-      <c r="WM17" s="46"/>
-      <c r="WN17" s="46"/>
-      <c r="WO17" s="46"/>
-      <c r="WP17" s="46"/>
-      <c r="WQ17" s="46"/>
-      <c r="WR17" s="46"/>
-      <c r="WS17" s="46"/>
-      <c r="WT17" s="46"/>
-      <c r="WU17" s="46"/>
-      <c r="WV17" s="46"/>
-      <c r="WW17" s="46"/>
-      <c r="WX17" s="46"/>
-      <c r="WY17" s="46"/>
-      <c r="WZ17" s="46"/>
-      <c r="XA17" s="46"/>
-      <c r="XB17" s="46"/>
-      <c r="XC17" s="46"/>
-      <c r="XD17" s="46"/>
-      <c r="XE17" s="46"/>
-      <c r="XF17" s="46"/>
-      <c r="XG17" s="46"/>
-      <c r="XH17" s="46"/>
-      <c r="XI17" s="46"/>
-      <c r="XJ17" s="46"/>
-      <c r="XK17" s="46"/>
-      <c r="XL17" s="46"/>
-      <c r="XM17" s="46"/>
-      <c r="XN17" s="46"/>
-      <c r="XO17" s="46"/>
-      <c r="XP17" s="46"/>
-      <c r="XQ17" s="46"/>
-      <c r="XR17" s="46"/>
-      <c r="XS17" s="46"/>
-      <c r="XT17" s="46"/>
-      <c r="XU17" s="46"/>
-      <c r="XV17" s="46"/>
-      <c r="XW17" s="46"/>
-      <c r="XX17" s="46"/>
-      <c r="XY17" s="46"/>
-      <c r="XZ17" s="46"/>
-      <c r="YA17" s="46"/>
-      <c r="YB17" s="46"/>
-      <c r="YC17" s="46"/>
-      <c r="YD17" s="46"/>
-      <c r="YE17" s="46"/>
-      <c r="YF17" s="46"/>
-      <c r="YG17" s="46"/>
-      <c r="YH17" s="46"/>
-      <c r="YI17" s="46"/>
-      <c r="YJ17" s="46"/>
-      <c r="YK17" s="46"/>
-      <c r="YL17" s="46"/>
-      <c r="YM17" s="46"/>
-      <c r="YN17" s="46"/>
-      <c r="YO17" s="46"/>
-      <c r="YP17" s="46"/>
-      <c r="YQ17" s="46"/>
-      <c r="YR17" s="46"/>
-      <c r="YS17" s="46"/>
-      <c r="YT17" s="46"/>
-      <c r="YU17" s="46"/>
-      <c r="YV17" s="46"/>
-      <c r="YW17" s="46"/>
-      <c r="YX17" s="46"/>
-      <c r="YY17" s="46"/>
-      <c r="YZ17" s="46"/>
-      <c r="ZA17" s="46"/>
-      <c r="ZB17" s="46"/>
-      <c r="ZC17" s="46"/>
-      <c r="ZD17" s="46"/>
-      <c r="ZE17" s="46"/>
-      <c r="ZF17" s="46"/>
-      <c r="ZG17" s="46"/>
-      <c r="ZH17" s="46"/>
-      <c r="ZI17" s="46"/>
-      <c r="ZJ17" s="46"/>
-      <c r="ZK17" s="46"/>
-      <c r="ZL17" s="46"/>
-      <c r="ZM17" s="46"/>
-      <c r="ZN17" s="46"/>
-      <c r="ZO17" s="46"/>
-      <c r="ZP17" s="46"/>
-      <c r="ZQ17" s="46"/>
-      <c r="ZR17" s="46"/>
-      <c r="ZS17" s="46"/>
-      <c r="ZT17" s="46"/>
-      <c r="ZU17" s="46"/>
-      <c r="ZV17" s="46"/>
-      <c r="ZW17" s="46"/>
-      <c r="ZX17" s="46"/>
-      <c r="ZY17" s="46"/>
-      <c r="ZZ17" s="46"/>
-      <c r="AAA17" s="46"/>
-      <c r="AAB17" s="46"/>
-      <c r="AAC17" s="46"/>
-      <c r="AAD17" s="46"/>
-      <c r="AAE17" s="46"/>
-      <c r="AAF17" s="46"/>
-      <c r="AAG17" s="46"/>
-      <c r="AAH17" s="46"/>
-      <c r="AAI17" s="46"/>
-      <c r="AAJ17" s="46"/>
-      <c r="AAK17" s="46"/>
-      <c r="AAL17" s="46"/>
-      <c r="AAM17" s="46"/>
-      <c r="AAN17" s="46"/>
-      <c r="AAO17" s="46"/>
-      <c r="AAP17" s="46"/>
-      <c r="AAQ17" s="46"/>
-      <c r="AAR17" s="46"/>
-      <c r="AAS17" s="46"/>
-      <c r="AAT17" s="46"/>
-      <c r="AAU17" s="46"/>
-      <c r="AAV17" s="46"/>
-      <c r="AAW17" s="46"/>
-      <c r="AAX17" s="46"/>
-      <c r="AAY17" s="46"/>
-      <c r="AAZ17" s="46"/>
-      <c r="ABA17" s="46"/>
-      <c r="ABB17" s="46"/>
-      <c r="ABC17" s="46"/>
-      <c r="ABD17" s="46"/>
-      <c r="ABE17" s="46"/>
-      <c r="ABF17" s="46"/>
-      <c r="ABG17" s="46"/>
-      <c r="ABH17" s="46"/>
-      <c r="ABI17" s="46"/>
-      <c r="ABJ17" s="46"/>
-      <c r="ABK17" s="46"/>
-      <c r="ABL17" s="46"/>
-      <c r="ABM17" s="46"/>
-      <c r="ABN17" s="46"/>
-      <c r="ABO17" s="46"/>
-      <c r="ABP17" s="46"/>
-      <c r="ABQ17" s="46"/>
-      <c r="ABR17" s="46"/>
-      <c r="ABS17" s="46"/>
-      <c r="ABT17" s="46"/>
-      <c r="ABU17" s="46"/>
-      <c r="ABV17" s="46"/>
-      <c r="ABW17" s="46"/>
-      <c r="ABX17" s="46"/>
-      <c r="ABY17" s="46"/>
-      <c r="ABZ17" s="46"/>
-      <c r="ACA17" s="46"/>
-      <c r="ACB17" s="46"/>
-      <c r="ACC17" s="46"/>
-      <c r="ACD17" s="46"/>
-      <c r="ACE17" s="46"/>
-      <c r="ACF17" s="46"/>
-      <c r="ACG17" s="46"/>
-      <c r="ACH17" s="46"/>
-      <c r="ACI17" s="46"/>
-      <c r="ACJ17" s="46"/>
-      <c r="ACK17" s="46"/>
-      <c r="ACL17" s="46"/>
-      <c r="ACM17" s="46"/>
-      <c r="ACN17" s="46"/>
-      <c r="ACO17" s="46"/>
-      <c r="ACP17" s="46"/>
-      <c r="ACQ17" s="46"/>
-      <c r="ACR17" s="46"/>
-      <c r="ACS17" s="46"/>
-      <c r="ACT17" s="46"/>
-      <c r="ACU17" s="46"/>
-      <c r="ACV17" s="46"/>
-      <c r="ACW17" s="46"/>
-      <c r="ACX17" s="46"/>
-      <c r="ACY17" s="46"/>
-      <c r="ACZ17" s="46"/>
-      <c r="ADA17" s="46"/>
-      <c r="ADB17" s="46"/>
-      <c r="ADC17" s="46"/>
-      <c r="ADD17" s="46"/>
-      <c r="ADE17" s="46"/>
-      <c r="ADF17" s="46"/>
-      <c r="ADG17" s="46"/>
-      <c r="ADH17" s="46"/>
-      <c r="ADI17" s="46"/>
-      <c r="ADJ17" s="46"/>
-      <c r="ADK17" s="46"/>
-      <c r="ADL17" s="46"/>
-      <c r="ADM17" s="46"/>
-      <c r="ADN17" s="46"/>
-      <c r="ADO17" s="46"/>
-      <c r="ADP17" s="46"/>
-      <c r="ADQ17" s="46"/>
-      <c r="ADR17" s="46"/>
-      <c r="ADS17" s="46"/>
-      <c r="ADT17" s="46"/>
-      <c r="ADU17" s="46"/>
-      <c r="ADV17" s="46"/>
-      <c r="ADW17" s="46"/>
-      <c r="ADX17" s="46"/>
-      <c r="ADY17" s="46"/>
-      <c r="ADZ17" s="46"/>
-      <c r="AEA17" s="46"/>
-      <c r="AEB17" s="46"/>
-      <c r="AEC17" s="46"/>
-      <c r="AED17" s="46"/>
-      <c r="AEE17" s="46"/>
-      <c r="AEF17" s="46"/>
-      <c r="AEG17" s="46"/>
-      <c r="AEH17" s="46"/>
-      <c r="AEI17" s="46"/>
-      <c r="AEJ17" s="46"/>
-      <c r="AEK17" s="46"/>
-      <c r="AEL17" s="46"/>
-      <c r="AEM17" s="46"/>
-      <c r="AEN17" s="46"/>
-      <c r="AEO17" s="46"/>
-      <c r="AEP17" s="46"/>
-      <c r="AEQ17" s="46"/>
-      <c r="AER17" s="46"/>
-      <c r="AES17" s="46"/>
-      <c r="AET17" s="46"/>
-      <c r="AEU17" s="46"/>
-      <c r="AEV17" s="46"/>
-      <c r="AEW17" s="46"/>
-      <c r="AEX17" s="46"/>
-      <c r="AEY17" s="46"/>
-      <c r="AEZ17" s="46"/>
-      <c r="AFA17" s="46"/>
-      <c r="AFB17" s="46"/>
-      <c r="AFC17" s="46"/>
-      <c r="AFD17" s="46"/>
-      <c r="AFE17" s="46"/>
-      <c r="AFF17" s="46"/>
-      <c r="AFG17" s="46"/>
-      <c r="AFH17" s="46"/>
-      <c r="AFI17" s="46"/>
-      <c r="AFJ17" s="46"/>
-      <c r="AFK17" s="46"/>
-      <c r="AFL17" s="46"/>
-      <c r="AFM17" s="46"/>
-      <c r="AFN17" s="46"/>
-      <c r="AFO17" s="46"/>
-      <c r="AFP17" s="46"/>
-      <c r="AFQ17" s="46"/>
-      <c r="AFR17" s="46"/>
-      <c r="AFS17" s="46"/>
-      <c r="AFT17" s="46"/>
-      <c r="AFU17" s="46"/>
-      <c r="AFV17" s="46"/>
-      <c r="AFW17" s="46"/>
-      <c r="AFX17" s="46"/>
-      <c r="AFY17" s="46"/>
-      <c r="AFZ17" s="46"/>
-      <c r="AGA17" s="46"/>
-      <c r="AGB17" s="46"/>
-      <c r="AGC17" s="46"/>
-      <c r="AGD17" s="46"/>
-      <c r="AGE17" s="46"/>
-      <c r="AGF17" s="46"/>
-      <c r="AGG17" s="46"/>
-      <c r="AGH17" s="46"/>
-      <c r="AGI17" s="46"/>
-      <c r="AGJ17" s="46"/>
-      <c r="AGK17" s="46"/>
-      <c r="AGL17" s="46"/>
-      <c r="AGM17" s="46"/>
-      <c r="AGN17" s="46"/>
-      <c r="AGO17" s="46"/>
-      <c r="AGP17" s="46"/>
-      <c r="AGQ17" s="46"/>
-      <c r="AGR17" s="46"/>
-      <c r="AGS17" s="46"/>
-      <c r="AGT17" s="46"/>
-      <c r="AGU17" s="46"/>
-      <c r="AGV17" s="46"/>
-      <c r="AGW17" s="46"/>
-      <c r="AGX17" s="46"/>
-      <c r="AGY17" s="46"/>
-      <c r="AGZ17" s="46"/>
-      <c r="AHA17" s="46"/>
-      <c r="AHB17" s="46"/>
-      <c r="AHC17" s="46"/>
-      <c r="AHD17" s="46"/>
-      <c r="AHE17" s="46"/>
-      <c r="AHF17" s="46"/>
-      <c r="AHG17" s="46"/>
-      <c r="AHH17" s="46"/>
-      <c r="AHI17" s="46"/>
-      <c r="AHJ17" s="46"/>
-      <c r="AHK17" s="46"/>
-      <c r="AHL17" s="46"/>
-      <c r="AHM17" s="46"/>
-      <c r="AHN17" s="46"/>
-      <c r="AHO17" s="46"/>
-      <c r="AHP17" s="46"/>
-      <c r="AHQ17" s="46"/>
-      <c r="AHR17" s="46"/>
-      <c r="AHS17" s="46"/>
-      <c r="AHT17" s="46"/>
-      <c r="AHU17" s="46"/>
-      <c r="AHV17" s="46"/>
-      <c r="AHW17" s="46"/>
-      <c r="AHX17" s="46"/>
-      <c r="AHY17" s="46"/>
-      <c r="AHZ17" s="46"/>
-      <c r="AIA17" s="46"/>
-      <c r="AIB17" s="46"/>
-      <c r="AIC17" s="46"/>
-      <c r="AID17" s="46"/>
-      <c r="AIE17" s="46"/>
-      <c r="AIF17" s="46"/>
-      <c r="AIG17" s="46"/>
-      <c r="AIH17" s="46"/>
-      <c r="AII17" s="46"/>
-      <c r="AIJ17" s="46"/>
-      <c r="AIK17" s="46"/>
-      <c r="AIL17" s="46"/>
-      <c r="AIM17" s="46"/>
-      <c r="AIN17" s="46"/>
-      <c r="AIO17" s="46"/>
-      <c r="AIP17" s="46"/>
-      <c r="AIQ17" s="46"/>
-      <c r="AIR17" s="46"/>
-      <c r="AIS17" s="46"/>
-      <c r="AIT17" s="46"/>
-      <c r="AIU17" s="46"/>
-      <c r="AIV17" s="46"/>
-      <c r="AIW17" s="46"/>
-      <c r="AIX17" s="46"/>
-      <c r="AIY17" s="46"/>
-      <c r="AIZ17" s="46"/>
-      <c r="AJA17" s="46"/>
-      <c r="AJB17" s="46"/>
-      <c r="AJC17" s="46"/>
-      <c r="AJD17" s="46"/>
-      <c r="AJE17" s="46"/>
-      <c r="AJF17" s="46"/>
-      <c r="AJG17" s="46"/>
-      <c r="AJH17" s="46"/>
-      <c r="AJI17" s="46"/>
-      <c r="AJJ17" s="46"/>
-      <c r="AJK17" s="46"/>
-      <c r="AJL17" s="46"/>
-      <c r="AJM17" s="46"/>
-      <c r="AJN17" s="46"/>
-      <c r="AJO17" s="46"/>
-      <c r="AJP17" s="46"/>
-      <c r="AJQ17" s="46"/>
-      <c r="AJR17" s="46"/>
-      <c r="AJS17" s="46"/>
-      <c r="AJT17" s="46"/>
-      <c r="AJU17" s="46"/>
-      <c r="AJV17" s="46"/>
-      <c r="AJW17" s="46"/>
-      <c r="AJX17" s="46"/>
-      <c r="AJY17" s="46"/>
-      <c r="AJZ17" s="46"/>
-      <c r="AKA17" s="46"/>
-      <c r="AKB17" s="46"/>
-      <c r="AKC17" s="46"/>
-      <c r="AKD17" s="46"/>
-      <c r="AKE17" s="46"/>
-      <c r="AKF17" s="46"/>
-      <c r="AKG17" s="46"/>
-      <c r="AKH17" s="46"/>
-      <c r="AKI17" s="46"/>
-      <c r="AKJ17" s="46"/>
-      <c r="AKK17" s="46"/>
-      <c r="AKL17" s="46"/>
-      <c r="AKM17" s="46"/>
-      <c r="AKN17" s="46"/>
-      <c r="AKO17" s="46"/>
-      <c r="AKP17" s="46"/>
-      <c r="AKQ17" s="46"/>
-      <c r="AKR17" s="46"/>
-      <c r="AKS17" s="46"/>
-      <c r="AKT17" s="46"/>
-      <c r="AKU17" s="46"/>
-      <c r="AKV17" s="46"/>
-      <c r="AKW17" s="46"/>
-      <c r="AKX17" s="46"/>
-      <c r="AKY17" s="46"/>
-      <c r="AKZ17" s="46"/>
-      <c r="ALA17" s="46"/>
-      <c r="ALB17" s="46"/>
-      <c r="ALC17" s="46"/>
-      <c r="ALD17" s="46"/>
-      <c r="ALE17" s="46"/>
-      <c r="ALF17" s="46"/>
-      <c r="ALG17" s="46"/>
-      <c r="ALH17" s="46"/>
-      <c r="ALI17" s="46"/>
-      <c r="ALJ17" s="46"/>
-      <c r="ALK17" s="46"/>
-      <c r="ALL17" s="46"/>
-      <c r="ALM17" s="46"/>
-      <c r="ALN17" s="46"/>
-      <c r="ALO17" s="46"/>
-      <c r="ALP17" s="46"/>
-      <c r="ALQ17" s="46"/>
-      <c r="ALR17" s="46"/>
-      <c r="ALS17" s="46"/>
-      <c r="ALT17" s="46"/>
-      <c r="ALU17" s="46"/>
-      <c r="ALV17" s="46"/>
-      <c r="ALW17" s="46"/>
-      <c r="ALX17" s="46"/>
-      <c r="ALY17" s="46"/>
-      <c r="ALZ17" s="46"/>
-      <c r="AMA17" s="46"/>
-      <c r="AMB17" s="46"/>
-      <c r="AMC17" s="46"/>
-      <c r="AMD17" s="46"/>
-      <c r="AME17" s="46"/>
-      <c r="AMF17" s="46"/>
-      <c r="AMG17" s="46"/>
-      <c r="AMH17" s="46"/>
-      <c r="AMI17" s="46"/>
-      <c r="AMJ17" s="46"/>
-      <c r="AMK17" s="46"/>
-      <c r="AML17" s="46"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="47"/>
+      <c r="Z17" s="47"/>
+      <c r="AA17" s="47"/>
+      <c r="AB17" s="47"/>
+      <c r="AC17" s="47"/>
+      <c r="AD17" s="47"/>
+      <c r="AE17" s="47"/>
+      <c r="AF17" s="47"/>
+      <c r="AG17" s="47"/>
+      <c r="AH17" s="47"/>
+      <c r="AI17" s="47"/>
+      <c r="AJ17" s="47"/>
+      <c r="AK17" s="47"/>
+      <c r="AL17" s="47"/>
+      <c r="AM17" s="47"/>
+      <c r="AN17" s="47"/>
+      <c r="AO17" s="47"/>
+      <c r="AP17" s="47"/>
+      <c r="AQ17" s="47"/>
+      <c r="AR17" s="47"/>
+      <c r="AS17" s="47"/>
+      <c r="AT17" s="47"/>
+      <c r="AU17" s="47"/>
+      <c r="AV17" s="47"/>
+      <c r="AW17" s="47"/>
+      <c r="AX17" s="47"/>
+      <c r="AY17" s="47"/>
+      <c r="AZ17" s="47"/>
+      <c r="BA17" s="47"/>
+      <c r="BB17" s="47"/>
+      <c r="BC17" s="47"/>
+      <c r="BD17" s="47"/>
+      <c r="BE17" s="47"/>
+      <c r="BF17" s="47"/>
+      <c r="BG17" s="47"/>
+      <c r="BH17" s="47"/>
+      <c r="BI17" s="47"/>
+      <c r="BJ17" s="47"/>
+      <c r="BK17" s="47"/>
+      <c r="BL17" s="47"/>
+      <c r="BM17" s="47"/>
+      <c r="BN17" s="47"/>
+      <c r="BO17" s="47"/>
+      <c r="BP17" s="47"/>
+      <c r="BQ17" s="47"/>
+      <c r="BR17" s="47"/>
+      <c r="BS17" s="47"/>
+      <c r="BT17" s="47"/>
+      <c r="BU17" s="47"/>
+      <c r="BV17" s="47"/>
+      <c r="BW17" s="47"/>
+      <c r="BX17" s="47"/>
+      <c r="BY17" s="47"/>
+      <c r="BZ17" s="47"/>
+      <c r="CA17" s="47"/>
+      <c r="CB17" s="47"/>
+      <c r="CC17" s="47"/>
+      <c r="CD17" s="47"/>
+      <c r="CE17" s="47"/>
+      <c r="CF17" s="47"/>
+      <c r="CG17" s="47"/>
+      <c r="CH17" s="47"/>
+      <c r="CI17" s="47"/>
+      <c r="CJ17" s="47"/>
+      <c r="CK17" s="47"/>
+      <c r="CL17" s="47"/>
+      <c r="CM17" s="47"/>
+      <c r="CN17" s="47"/>
+      <c r="CO17" s="47"/>
+      <c r="CP17" s="47"/>
+      <c r="CQ17" s="47"/>
+      <c r="CR17" s="47"/>
+      <c r="CS17" s="47"/>
+      <c r="CT17" s="47"/>
+      <c r="CU17" s="47"/>
+      <c r="CV17" s="47"/>
+      <c r="CW17" s="47"/>
+      <c r="CX17" s="47"/>
+      <c r="CY17" s="47"/>
+      <c r="CZ17" s="47"/>
+      <c r="DA17" s="47"/>
+      <c r="DB17" s="47"/>
+      <c r="DC17" s="47"/>
+      <c r="DD17" s="47"/>
+      <c r="DE17" s="47"/>
+      <c r="DF17" s="47"/>
+      <c r="DG17" s="47"/>
+      <c r="DH17" s="47"/>
+      <c r="DI17" s="47"/>
+      <c r="DJ17" s="47"/>
+      <c r="DK17" s="47"/>
+      <c r="DL17" s="47"/>
+      <c r="DM17" s="47"/>
+      <c r="DN17" s="47"/>
+      <c r="DO17" s="47"/>
+      <c r="DP17" s="47"/>
+      <c r="DQ17" s="47"/>
+      <c r="DR17" s="47"/>
+      <c r="DS17" s="47"/>
+      <c r="DT17" s="47"/>
+      <c r="DU17" s="47"/>
+      <c r="DV17" s="47"/>
+      <c r="DW17" s="47"/>
+      <c r="DX17" s="47"/>
+      <c r="DY17" s="47"/>
+      <c r="DZ17" s="47"/>
+      <c r="EA17" s="47"/>
+      <c r="EB17" s="47"/>
+      <c r="EC17" s="47"/>
+      <c r="ED17" s="47"/>
+      <c r="EE17" s="47"/>
+      <c r="EF17" s="47"/>
+      <c r="EG17" s="47"/>
+      <c r="EH17" s="47"/>
+      <c r="EI17" s="47"/>
+      <c r="EJ17" s="47"/>
+      <c r="EK17" s="47"/>
+      <c r="EL17" s="47"/>
+      <c r="EM17" s="47"/>
+      <c r="EN17" s="47"/>
+      <c r="EO17" s="47"/>
+      <c r="EP17" s="47"/>
+      <c r="EQ17" s="47"/>
+      <c r="ER17" s="47"/>
+      <c r="ES17" s="47"/>
+      <c r="ET17" s="47"/>
+      <c r="EU17" s="47"/>
+      <c r="EV17" s="47"/>
+      <c r="EW17" s="47"/>
+      <c r="EX17" s="47"/>
+      <c r="EY17" s="47"/>
+      <c r="EZ17" s="47"/>
+      <c r="FA17" s="47"/>
+      <c r="FB17" s="47"/>
+      <c r="FC17" s="47"/>
+      <c r="FD17" s="47"/>
+      <c r="FE17" s="47"/>
+      <c r="FF17" s="47"/>
+      <c r="FG17" s="47"/>
+      <c r="FH17" s="47"/>
+      <c r="FI17" s="47"/>
+      <c r="FJ17" s="47"/>
+      <c r="FK17" s="47"/>
+      <c r="FL17" s="47"/>
+      <c r="FM17" s="47"/>
+      <c r="FN17" s="47"/>
+      <c r="FO17" s="47"/>
+      <c r="FP17" s="47"/>
+      <c r="FQ17" s="47"/>
+      <c r="FR17" s="47"/>
+      <c r="FS17" s="47"/>
+      <c r="FT17" s="47"/>
+      <c r="FU17" s="47"/>
+      <c r="FV17" s="47"/>
+      <c r="FW17" s="47"/>
+      <c r="FX17" s="47"/>
+      <c r="FY17" s="47"/>
+      <c r="FZ17" s="47"/>
+      <c r="GA17" s="47"/>
+      <c r="GB17" s="47"/>
+      <c r="GC17" s="47"/>
+      <c r="GD17" s="47"/>
+      <c r="GE17" s="47"/>
+      <c r="GF17" s="47"/>
+      <c r="GG17" s="47"/>
+      <c r="GH17" s="47"/>
+      <c r="GI17" s="47"/>
+      <c r="GJ17" s="47"/>
+      <c r="GK17" s="47"/>
+      <c r="GL17" s="47"/>
+      <c r="GM17" s="47"/>
+      <c r="GN17" s="47"/>
+      <c r="GO17" s="47"/>
+      <c r="GP17" s="47"/>
+      <c r="GQ17" s="47"/>
+      <c r="GR17" s="47"/>
+      <c r="GS17" s="47"/>
+      <c r="GT17" s="47"/>
+      <c r="GU17" s="47"/>
+      <c r="GV17" s="47"/>
+      <c r="GW17" s="47"/>
+      <c r="GX17" s="47"/>
+      <c r="GY17" s="47"/>
+      <c r="GZ17" s="47"/>
+      <c r="HA17" s="47"/>
+      <c r="HB17" s="47"/>
+      <c r="HC17" s="47"/>
+      <c r="HD17" s="47"/>
+      <c r="HE17" s="47"/>
+      <c r="HF17" s="47"/>
+      <c r="HG17" s="47"/>
+      <c r="HH17" s="47"/>
+      <c r="HI17" s="47"/>
+      <c r="HJ17" s="47"/>
+      <c r="HK17" s="47"/>
+      <c r="HL17" s="47"/>
+      <c r="HM17" s="47"/>
+      <c r="HN17" s="47"/>
+      <c r="HO17" s="47"/>
+      <c r="HP17" s="47"/>
+      <c r="HQ17" s="47"/>
+      <c r="HR17" s="47"/>
+      <c r="HS17" s="47"/>
+      <c r="HT17" s="47"/>
+      <c r="HU17" s="47"/>
+      <c r="HV17" s="47"/>
+      <c r="HW17" s="47"/>
+      <c r="HX17" s="47"/>
+      <c r="HY17" s="47"/>
+      <c r="HZ17" s="47"/>
+      <c r="IA17" s="47"/>
+      <c r="IB17" s="47"/>
+      <c r="IC17" s="47"/>
+      <c r="ID17" s="47"/>
+      <c r="IE17" s="47"/>
+      <c r="IF17" s="47"/>
+      <c r="IG17" s="47"/>
+      <c r="IH17" s="47"/>
+      <c r="II17" s="47"/>
+      <c r="IJ17" s="47"/>
+      <c r="IK17" s="47"/>
+      <c r="IL17" s="47"/>
+      <c r="IM17" s="47"/>
+      <c r="IN17" s="47"/>
+      <c r="IO17" s="47"/>
+      <c r="IP17" s="47"/>
+      <c r="IQ17" s="47"/>
+      <c r="IR17" s="47"/>
+      <c r="IS17" s="47"/>
+      <c r="IT17" s="47"/>
+      <c r="IU17" s="47"/>
+      <c r="IV17" s="47"/>
+      <c r="IW17" s="47"/>
+      <c r="IX17" s="47"/>
+      <c r="IY17" s="47"/>
+      <c r="IZ17" s="47"/>
+      <c r="JA17" s="47"/>
+      <c r="JB17" s="47"/>
+      <c r="JC17" s="47"/>
+      <c r="JD17" s="47"/>
+      <c r="JE17" s="47"/>
+      <c r="JF17" s="47"/>
+      <c r="JG17" s="47"/>
+      <c r="JH17" s="47"/>
+      <c r="JI17" s="47"/>
+      <c r="JJ17" s="47"/>
+      <c r="JK17" s="47"/>
+      <c r="JL17" s="47"/>
+      <c r="JM17" s="47"/>
+      <c r="JN17" s="47"/>
+      <c r="JO17" s="47"/>
+      <c r="JP17" s="47"/>
+      <c r="JQ17" s="47"/>
+      <c r="JR17" s="47"/>
+      <c r="JS17" s="47"/>
+      <c r="JT17" s="47"/>
+      <c r="JU17" s="47"/>
+      <c r="JV17" s="47"/>
+      <c r="JW17" s="47"/>
+      <c r="JX17" s="47"/>
+      <c r="JY17" s="47"/>
+      <c r="JZ17" s="47"/>
+      <c r="KA17" s="47"/>
+      <c r="KB17" s="47"/>
+      <c r="KC17" s="47"/>
+      <c r="KD17" s="47"/>
+      <c r="KE17" s="47"/>
+      <c r="KF17" s="47"/>
+      <c r="KG17" s="47"/>
+      <c r="KH17" s="47"/>
+      <c r="KI17" s="47"/>
+      <c r="KJ17" s="47"/>
+      <c r="KK17" s="47"/>
+      <c r="KL17" s="47"/>
+      <c r="KM17" s="47"/>
+      <c r="KN17" s="47"/>
+      <c r="KO17" s="47"/>
+      <c r="KP17" s="47"/>
+      <c r="KQ17" s="47"/>
+      <c r="KR17" s="47"/>
+      <c r="KS17" s="47"/>
+      <c r="KT17" s="47"/>
+      <c r="KU17" s="47"/>
+      <c r="KV17" s="47"/>
+      <c r="KW17" s="47"/>
+      <c r="KX17" s="47"/>
+      <c r="KY17" s="47"/>
+      <c r="KZ17" s="47"/>
+      <c r="LA17" s="47"/>
+      <c r="LB17" s="47"/>
+      <c r="LC17" s="47"/>
+      <c r="LD17" s="47"/>
+      <c r="LE17" s="47"/>
+      <c r="LF17" s="47"/>
+      <c r="LG17" s="47"/>
+      <c r="LH17" s="47"/>
+      <c r="LI17" s="47"/>
+      <c r="LJ17" s="47"/>
+      <c r="LK17" s="47"/>
+      <c r="LL17" s="47"/>
+      <c r="LM17" s="47"/>
+      <c r="LN17" s="47"/>
+      <c r="LO17" s="47"/>
+      <c r="LP17" s="47"/>
+      <c r="LQ17" s="47"/>
+      <c r="LR17" s="47"/>
+      <c r="LS17" s="47"/>
+      <c r="LT17" s="47"/>
+      <c r="LU17" s="47"/>
+      <c r="LV17" s="47"/>
+      <c r="LW17" s="47"/>
+      <c r="LX17" s="47"/>
+      <c r="LY17" s="47"/>
+      <c r="LZ17" s="47"/>
+      <c r="MA17" s="47"/>
+      <c r="MB17" s="47"/>
+      <c r="MC17" s="47"/>
+      <c r="MD17" s="47"/>
+      <c r="ME17" s="47"/>
+      <c r="MF17" s="47"/>
+      <c r="MG17" s="47"/>
+      <c r="MH17" s="47"/>
+      <c r="MI17" s="47"/>
+      <c r="MJ17" s="47"/>
+      <c r="MK17" s="47"/>
+      <c r="ML17" s="47"/>
+      <c r="MM17" s="47"/>
+      <c r="MN17" s="47"/>
+      <c r="MO17" s="47"/>
+      <c r="MP17" s="47"/>
+      <c r="MQ17" s="47"/>
+      <c r="MR17" s="47"/>
+      <c r="MS17" s="47"/>
+      <c r="MT17" s="47"/>
+      <c r="MU17" s="47"/>
+      <c r="MV17" s="47"/>
+      <c r="MW17" s="47"/>
+      <c r="MX17" s="47"/>
+      <c r="MY17" s="47"/>
+      <c r="MZ17" s="47"/>
+      <c r="NA17" s="47"/>
+      <c r="NB17" s="47"/>
+      <c r="NC17" s="47"/>
+      <c r="ND17" s="47"/>
+      <c r="NE17" s="47"/>
+      <c r="NF17" s="47"/>
+      <c r="NG17" s="47"/>
+      <c r="NH17" s="47"/>
+      <c r="NI17" s="47"/>
+      <c r="NJ17" s="47"/>
+      <c r="NK17" s="47"/>
+      <c r="NL17" s="47"/>
+      <c r="NM17" s="47"/>
+      <c r="NN17" s="47"/>
+      <c r="NO17" s="47"/>
+      <c r="NP17" s="47"/>
+      <c r="NQ17" s="47"/>
+      <c r="NR17" s="47"/>
+      <c r="NS17" s="47"/>
+      <c r="NT17" s="47"/>
+      <c r="NU17" s="47"/>
+      <c r="NV17" s="47"/>
+      <c r="NW17" s="47"/>
+      <c r="NX17" s="47"/>
+      <c r="NY17" s="47"/>
+      <c r="NZ17" s="47"/>
+      <c r="OA17" s="47"/>
+      <c r="OB17" s="47"/>
+      <c r="OC17" s="47"/>
+      <c r="OD17" s="47"/>
+      <c r="OE17" s="47"/>
+      <c r="OF17" s="47"/>
+      <c r="OG17" s="47"/>
+      <c r="OH17" s="47"/>
+      <c r="OI17" s="47"/>
+      <c r="OJ17" s="47"/>
+      <c r="OK17" s="47"/>
+      <c r="OL17" s="47"/>
+      <c r="OM17" s="47"/>
+      <c r="ON17" s="47"/>
+      <c r="OO17" s="47"/>
+      <c r="OP17" s="47"/>
+      <c r="OQ17" s="47"/>
+      <c r="OR17" s="47"/>
+      <c r="OS17" s="47"/>
+      <c r="OT17" s="47"/>
+      <c r="OU17" s="47"/>
+      <c r="OV17" s="47"/>
+      <c r="OW17" s="47"/>
+      <c r="OX17" s="47"/>
+      <c r="OY17" s="47"/>
+      <c r="OZ17" s="47"/>
+      <c r="PA17" s="47"/>
+      <c r="PB17" s="47"/>
+      <c r="PC17" s="47"/>
+      <c r="PD17" s="47"/>
+      <c r="PE17" s="47"/>
+      <c r="PF17" s="47"/>
+      <c r="PG17" s="47"/>
+      <c r="PH17" s="47"/>
+      <c r="PI17" s="47"/>
+      <c r="PJ17" s="47"/>
+      <c r="PK17" s="47"/>
+      <c r="PL17" s="47"/>
+      <c r="PM17" s="47"/>
+      <c r="PN17" s="47"/>
+      <c r="PO17" s="47"/>
+      <c r="PP17" s="47"/>
+      <c r="PQ17" s="47"/>
+      <c r="PR17" s="47"/>
+      <c r="PS17" s="47"/>
+      <c r="PT17" s="47"/>
+      <c r="PU17" s="47"/>
+      <c r="PV17" s="47"/>
+      <c r="PW17" s="47"/>
+      <c r="PX17" s="47"/>
+      <c r="PY17" s="47"/>
+      <c r="PZ17" s="47"/>
+      <c r="QA17" s="47"/>
+      <c r="QB17" s="47"/>
+      <c r="QC17" s="47"/>
+      <c r="QD17" s="47"/>
+      <c r="QE17" s="47"/>
+      <c r="QF17" s="47"/>
+      <c r="QG17" s="47"/>
+      <c r="QH17" s="47"/>
+      <c r="QI17" s="47"/>
+      <c r="QJ17" s="47"/>
+      <c r="QK17" s="47"/>
+      <c r="QL17" s="47"/>
+      <c r="QM17" s="47"/>
+      <c r="QN17" s="47"/>
+      <c r="QO17" s="47"/>
+      <c r="QP17" s="47"/>
+      <c r="QQ17" s="47"/>
+      <c r="QR17" s="47"/>
+      <c r="QS17" s="47"/>
+      <c r="QT17" s="47"/>
+      <c r="QU17" s="47"/>
+      <c r="QV17" s="47"/>
+      <c r="QW17" s="47"/>
+      <c r="QX17" s="47"/>
+      <c r="QY17" s="47"/>
+      <c r="QZ17" s="47"/>
+      <c r="RA17" s="47"/>
+      <c r="RB17" s="47"/>
+      <c r="RC17" s="47"/>
+      <c r="RD17" s="47"/>
+      <c r="RE17" s="47"/>
+      <c r="RF17" s="47"/>
+      <c r="RG17" s="47"/>
+      <c r="RH17" s="47"/>
+      <c r="RI17" s="47"/>
+      <c r="RJ17" s="47"/>
+      <c r="RK17" s="47"/>
+      <c r="RL17" s="47"/>
+      <c r="RM17" s="47"/>
+      <c r="RN17" s="47"/>
+      <c r="RO17" s="47"/>
+      <c r="RP17" s="47"/>
+      <c r="RQ17" s="47"/>
+      <c r="RR17" s="47"/>
+      <c r="RS17" s="47"/>
+      <c r="RT17" s="47"/>
+      <c r="RU17" s="47"/>
+      <c r="RV17" s="47"/>
+      <c r="RW17" s="47"/>
+      <c r="RX17" s="47"/>
+      <c r="RY17" s="47"/>
+      <c r="RZ17" s="47"/>
+      <c r="SA17" s="47"/>
+      <c r="SB17" s="47"/>
+      <c r="SC17" s="47"/>
+      <c r="SD17" s="47"/>
+      <c r="SE17" s="47"/>
+      <c r="SF17" s="47"/>
+      <c r="SG17" s="47"/>
+      <c r="SH17" s="47"/>
+      <c r="SI17" s="47"/>
+      <c r="SJ17" s="47"/>
+      <c r="SK17" s="47"/>
+      <c r="SL17" s="47"/>
+      <c r="SM17" s="47"/>
+      <c r="SN17" s="47"/>
+      <c r="SO17" s="47"/>
+      <c r="SP17" s="47"/>
+      <c r="SQ17" s="47"/>
+      <c r="SR17" s="47"/>
+      <c r="SS17" s="47"/>
+      <c r="ST17" s="47"/>
+      <c r="SU17" s="47"/>
+      <c r="SV17" s="47"/>
+      <c r="SW17" s="47"/>
+      <c r="SX17" s="47"/>
+      <c r="SY17" s="47"/>
+      <c r="SZ17" s="47"/>
+      <c r="TA17" s="47"/>
+      <c r="TB17" s="47"/>
+      <c r="TC17" s="47"/>
+      <c r="TD17" s="47"/>
+      <c r="TE17" s="47"/>
+      <c r="TF17" s="47"/>
+      <c r="TG17" s="47"/>
+      <c r="TH17" s="47"/>
+      <c r="TI17" s="47"/>
+      <c r="TJ17" s="47"/>
+      <c r="TK17" s="47"/>
+      <c r="TL17" s="47"/>
+      <c r="TM17" s="47"/>
+      <c r="TN17" s="47"/>
+      <c r="TO17" s="47"/>
+      <c r="TP17" s="47"/>
+      <c r="TQ17" s="47"/>
+      <c r="TR17" s="47"/>
+      <c r="TS17" s="47"/>
+      <c r="TT17" s="47"/>
+      <c r="TU17" s="47"/>
+      <c r="TV17" s="47"/>
+      <c r="TW17" s="47"/>
+      <c r="TX17" s="47"/>
+      <c r="TY17" s="47"/>
+      <c r="TZ17" s="47"/>
+      <c r="UA17" s="47"/>
+      <c r="UB17" s="47"/>
+      <c r="UC17" s="47"/>
+      <c r="UD17" s="47"/>
+      <c r="UE17" s="47"/>
+      <c r="UF17" s="47"/>
+      <c r="UG17" s="47"/>
+      <c r="UH17" s="47"/>
+      <c r="UI17" s="47"/>
+      <c r="UJ17" s="47"/>
+      <c r="UK17" s="47"/>
+      <c r="UL17" s="47"/>
+      <c r="UM17" s="47"/>
+      <c r="UN17" s="47"/>
+      <c r="UO17" s="47"/>
+      <c r="UP17" s="47"/>
+      <c r="UQ17" s="47"/>
+      <c r="UR17" s="47"/>
+      <c r="US17" s="47"/>
+      <c r="UT17" s="47"/>
+      <c r="UU17" s="47"/>
+      <c r="UV17" s="47"/>
+      <c r="UW17" s="47"/>
+      <c r="UX17" s="47"/>
+      <c r="UY17" s="47"/>
+      <c r="UZ17" s="47"/>
+      <c r="VA17" s="47"/>
+      <c r="VB17" s="47"/>
+      <c r="VC17" s="47"/>
+      <c r="VD17" s="47"/>
+      <c r="VE17" s="47"/>
+      <c r="VF17" s="47"/>
+      <c r="VG17" s="47"/>
+      <c r="VH17" s="47"/>
+      <c r="VI17" s="47"/>
+      <c r="VJ17" s="47"/>
+      <c r="VK17" s="47"/>
+      <c r="VL17" s="47"/>
+      <c r="VM17" s="47"/>
+      <c r="VN17" s="47"/>
+      <c r="VO17" s="47"/>
+      <c r="VP17" s="47"/>
+      <c r="VQ17" s="47"/>
+      <c r="VR17" s="47"/>
+      <c r="VS17" s="47"/>
+      <c r="VT17" s="47"/>
+      <c r="VU17" s="47"/>
+      <c r="VV17" s="47"/>
+      <c r="VW17" s="47"/>
+      <c r="VX17" s="47"/>
+      <c r="VY17" s="47"/>
+      <c r="VZ17" s="47"/>
+      <c r="WA17" s="47"/>
+      <c r="WB17" s="47"/>
+      <c r="WC17" s="47"/>
+      <c r="WD17" s="47"/>
+      <c r="WE17" s="47"/>
+      <c r="WF17" s="47"/>
+      <c r="WG17" s="47"/>
+      <c r="WH17" s="47"/>
+      <c r="WI17" s="47"/>
+      <c r="WJ17" s="47"/>
+      <c r="WK17" s="47"/>
+      <c r="WL17" s="47"/>
+      <c r="WM17" s="47"/>
+      <c r="WN17" s="47"/>
+      <c r="WO17" s="47"/>
+      <c r="WP17" s="47"/>
+      <c r="WQ17" s="47"/>
+      <c r="WR17" s="47"/>
+      <c r="WS17" s="47"/>
+      <c r="WT17" s="47"/>
+      <c r="WU17" s="47"/>
+      <c r="WV17" s="47"/>
+      <c r="WW17" s="47"/>
+      <c r="WX17" s="47"/>
+      <c r="WY17" s="47"/>
+      <c r="WZ17" s="47"/>
+      <c r="XA17" s="47"/>
+      <c r="XB17" s="47"/>
+      <c r="XC17" s="47"/>
+      <c r="XD17" s="47"/>
+      <c r="XE17" s="47"/>
+      <c r="XF17" s="47"/>
+      <c r="XG17" s="47"/>
+      <c r="XH17" s="47"/>
+      <c r="XI17" s="47"/>
+      <c r="XJ17" s="47"/>
+      <c r="XK17" s="47"/>
+      <c r="XL17" s="47"/>
+      <c r="XM17" s="47"/>
+      <c r="XN17" s="47"/>
+      <c r="XO17" s="47"/>
+      <c r="XP17" s="47"/>
+      <c r="XQ17" s="47"/>
+      <c r="XR17" s="47"/>
+      <c r="XS17" s="47"/>
+      <c r="XT17" s="47"/>
+      <c r="XU17" s="47"/>
+      <c r="XV17" s="47"/>
+      <c r="XW17" s="47"/>
+      <c r="XX17" s="47"/>
+      <c r="XY17" s="47"/>
+      <c r="XZ17" s="47"/>
+      <c r="YA17" s="47"/>
+      <c r="YB17" s="47"/>
+      <c r="YC17" s="47"/>
+      <c r="YD17" s="47"/>
+      <c r="YE17" s="47"/>
+      <c r="YF17" s="47"/>
+      <c r="YG17" s="47"/>
+      <c r="YH17" s="47"/>
+      <c r="YI17" s="47"/>
+      <c r="YJ17" s="47"/>
+      <c r="YK17" s="47"/>
+      <c r="YL17" s="47"/>
+      <c r="YM17" s="47"/>
+      <c r="YN17" s="47"/>
+      <c r="YO17" s="47"/>
+      <c r="YP17" s="47"/>
+      <c r="YQ17" s="47"/>
+      <c r="YR17" s="47"/>
+      <c r="YS17" s="47"/>
+      <c r="YT17" s="47"/>
+      <c r="YU17" s="47"/>
+      <c r="YV17" s="47"/>
+      <c r="YW17" s="47"/>
+      <c r="YX17" s="47"/>
+      <c r="YY17" s="47"/>
+      <c r="YZ17" s="47"/>
+      <c r="ZA17" s="47"/>
+      <c r="ZB17" s="47"/>
+      <c r="ZC17" s="47"/>
+      <c r="ZD17" s="47"/>
+      <c r="ZE17" s="47"/>
+      <c r="ZF17" s="47"/>
+      <c r="ZG17" s="47"/>
+      <c r="ZH17" s="47"/>
+      <c r="ZI17" s="47"/>
+      <c r="ZJ17" s="47"/>
+      <c r="ZK17" s="47"/>
+      <c r="ZL17" s="47"/>
+      <c r="ZM17" s="47"/>
+      <c r="ZN17" s="47"/>
+      <c r="ZO17" s="47"/>
+      <c r="ZP17" s="47"/>
+      <c r="ZQ17" s="47"/>
+      <c r="ZR17" s="47"/>
+      <c r="ZS17" s="47"/>
+      <c r="ZT17" s="47"/>
+      <c r="ZU17" s="47"/>
+      <c r="ZV17" s="47"/>
+      <c r="ZW17" s="47"/>
+      <c r="ZX17" s="47"/>
+      <c r="ZY17" s="47"/>
+      <c r="ZZ17" s="47"/>
+      <c r="AAA17" s="47"/>
+      <c r="AAB17" s="47"/>
+      <c r="AAC17" s="47"/>
+      <c r="AAD17" s="47"/>
+      <c r="AAE17" s="47"/>
+      <c r="AAF17" s="47"/>
+      <c r="AAG17" s="47"/>
+      <c r="AAH17" s="47"/>
+      <c r="AAI17" s="47"/>
+      <c r="AAJ17" s="47"/>
+      <c r="AAK17" s="47"/>
+      <c r="AAL17" s="47"/>
+      <c r="AAM17" s="47"/>
+      <c r="AAN17" s="47"/>
+      <c r="AAO17" s="47"/>
+      <c r="AAP17" s="47"/>
+      <c r="AAQ17" s="47"/>
+      <c r="AAR17" s="47"/>
+      <c r="AAS17" s="47"/>
+      <c r="AAT17" s="47"/>
+      <c r="AAU17" s="47"/>
+      <c r="AAV17" s="47"/>
+      <c r="AAW17" s="47"/>
+      <c r="AAX17" s="47"/>
+      <c r="AAY17" s="47"/>
+      <c r="AAZ17" s="47"/>
+      <c r="ABA17" s="47"/>
+      <c r="ABB17" s="47"/>
+      <c r="ABC17" s="47"/>
+      <c r="ABD17" s="47"/>
+      <c r="ABE17" s="47"/>
+      <c r="ABF17" s="47"/>
+      <c r="ABG17" s="47"/>
+      <c r="ABH17" s="47"/>
+      <c r="ABI17" s="47"/>
+      <c r="ABJ17" s="47"/>
+      <c r="ABK17" s="47"/>
+      <c r="ABL17" s="47"/>
+      <c r="ABM17" s="47"/>
+      <c r="ABN17" s="47"/>
+      <c r="ABO17" s="47"/>
+      <c r="ABP17" s="47"/>
+      <c r="ABQ17" s="47"/>
+      <c r="ABR17" s="47"/>
+      <c r="ABS17" s="47"/>
+      <c r="ABT17" s="47"/>
+      <c r="ABU17" s="47"/>
+      <c r="ABV17" s="47"/>
+      <c r="ABW17" s="47"/>
+      <c r="ABX17" s="47"/>
+      <c r="ABY17" s="47"/>
+      <c r="ABZ17" s="47"/>
+      <c r="ACA17" s="47"/>
+      <c r="ACB17" s="47"/>
+      <c r="ACC17" s="47"/>
+      <c r="ACD17" s="47"/>
+      <c r="ACE17" s="47"/>
+      <c r="ACF17" s="47"/>
+      <c r="ACG17" s="47"/>
+      <c r="ACH17" s="47"/>
+      <c r="ACI17" s="47"/>
+      <c r="ACJ17" s="47"/>
+      <c r="ACK17" s="47"/>
+      <c r="ACL17" s="47"/>
+      <c r="ACM17" s="47"/>
+      <c r="ACN17" s="47"/>
+      <c r="ACO17" s="47"/>
+      <c r="ACP17" s="47"/>
+      <c r="ACQ17" s="47"/>
+      <c r="ACR17" s="47"/>
+      <c r="ACS17" s="47"/>
+      <c r="ACT17" s="47"/>
+      <c r="ACU17" s="47"/>
+      <c r="ACV17" s="47"/>
+      <c r="ACW17" s="47"/>
+      <c r="ACX17" s="47"/>
+      <c r="ACY17" s="47"/>
+      <c r="ACZ17" s="47"/>
+      <c r="ADA17" s="47"/>
+      <c r="ADB17" s="47"/>
+      <c r="ADC17" s="47"/>
+      <c r="ADD17" s="47"/>
+      <c r="ADE17" s="47"/>
+      <c r="ADF17" s="47"/>
+      <c r="ADG17" s="47"/>
+      <c r="ADH17" s="47"/>
+      <c r="ADI17" s="47"/>
+      <c r="ADJ17" s="47"/>
+      <c r="ADK17" s="47"/>
+      <c r="ADL17" s="47"/>
+      <c r="ADM17" s="47"/>
+      <c r="ADN17" s="47"/>
+      <c r="ADO17" s="47"/>
+      <c r="ADP17" s="47"/>
+      <c r="ADQ17" s="47"/>
+      <c r="ADR17" s="47"/>
+      <c r="ADS17" s="47"/>
+      <c r="ADT17" s="47"/>
+      <c r="ADU17" s="47"/>
+      <c r="ADV17" s="47"/>
+      <c r="ADW17" s="47"/>
+      <c r="ADX17" s="47"/>
+      <c r="ADY17" s="47"/>
+      <c r="ADZ17" s="47"/>
+      <c r="AEA17" s="47"/>
+      <c r="AEB17" s="47"/>
+      <c r="AEC17" s="47"/>
+      <c r="AED17" s="47"/>
+      <c r="AEE17" s="47"/>
+      <c r="AEF17" s="47"/>
+      <c r="AEG17" s="47"/>
+      <c r="AEH17" s="47"/>
+      <c r="AEI17" s="47"/>
+      <c r="AEJ17" s="47"/>
+      <c r="AEK17" s="47"/>
+      <c r="AEL17" s="47"/>
+      <c r="AEM17" s="47"/>
+      <c r="AEN17" s="47"/>
+      <c r="AEO17" s="47"/>
+      <c r="AEP17" s="47"/>
+      <c r="AEQ17" s="47"/>
+      <c r="AER17" s="47"/>
+      <c r="AES17" s="47"/>
+      <c r="AET17" s="47"/>
+      <c r="AEU17" s="47"/>
+      <c r="AEV17" s="47"/>
+      <c r="AEW17" s="47"/>
+      <c r="AEX17" s="47"/>
+      <c r="AEY17" s="47"/>
+      <c r="AEZ17" s="47"/>
+      <c r="AFA17" s="47"/>
+      <c r="AFB17" s="47"/>
+      <c r="AFC17" s="47"/>
+      <c r="AFD17" s="47"/>
+      <c r="AFE17" s="47"/>
+      <c r="AFF17" s="47"/>
+      <c r="AFG17" s="47"/>
+      <c r="AFH17" s="47"/>
+      <c r="AFI17" s="47"/>
+      <c r="AFJ17" s="47"/>
+      <c r="AFK17" s="47"/>
+      <c r="AFL17" s="47"/>
+      <c r="AFM17" s="47"/>
+      <c r="AFN17" s="47"/>
+      <c r="AFO17" s="47"/>
+      <c r="AFP17" s="47"/>
+      <c r="AFQ17" s="47"/>
+      <c r="AFR17" s="47"/>
+      <c r="AFS17" s="47"/>
+      <c r="AFT17" s="47"/>
+      <c r="AFU17" s="47"/>
+      <c r="AFV17" s="47"/>
+      <c r="AFW17" s="47"/>
+      <c r="AFX17" s="47"/>
+      <c r="AFY17" s="47"/>
+      <c r="AFZ17" s="47"/>
+      <c r="AGA17" s="47"/>
+      <c r="AGB17" s="47"/>
+      <c r="AGC17" s="47"/>
+      <c r="AGD17" s="47"/>
+      <c r="AGE17" s="47"/>
+      <c r="AGF17" s="47"/>
+      <c r="AGG17" s="47"/>
+      <c r="AGH17" s="47"/>
+      <c r="AGI17" s="47"/>
+      <c r="AGJ17" s="47"/>
+      <c r="AGK17" s="47"/>
+      <c r="AGL17" s="47"/>
+      <c r="AGM17" s="47"/>
+      <c r="AGN17" s="47"/>
+      <c r="AGO17" s="47"/>
+      <c r="AGP17" s="47"/>
+      <c r="AGQ17" s="47"/>
+      <c r="AGR17" s="47"/>
+      <c r="AGS17" s="47"/>
+      <c r="AGT17" s="47"/>
+      <c r="AGU17" s="47"/>
+      <c r="AGV17" s="47"/>
+      <c r="AGW17" s="47"/>
+      <c r="AGX17" s="47"/>
+      <c r="AGY17" s="47"/>
+      <c r="AGZ17" s="47"/>
+      <c r="AHA17" s="47"/>
+      <c r="AHB17" s="47"/>
+      <c r="AHC17" s="47"/>
+      <c r="AHD17" s="47"/>
+      <c r="AHE17" s="47"/>
+      <c r="AHF17" s="47"/>
+      <c r="AHG17" s="47"/>
+      <c r="AHH17" s="47"/>
+      <c r="AHI17" s="47"/>
+      <c r="AHJ17" s="47"/>
+      <c r="AHK17" s="47"/>
+      <c r="AHL17" s="47"/>
+      <c r="AHM17" s="47"/>
+      <c r="AHN17" s="47"/>
+      <c r="AHO17" s="47"/>
+      <c r="AHP17" s="47"/>
+      <c r="AHQ17" s="47"/>
+      <c r="AHR17" s="47"/>
+      <c r="AHS17" s="47"/>
+      <c r="AHT17" s="47"/>
+      <c r="AHU17" s="47"/>
+      <c r="AHV17" s="47"/>
+      <c r="AHW17" s="47"/>
+      <c r="AHX17" s="47"/>
+      <c r="AHY17" s="47"/>
+      <c r="AHZ17" s="47"/>
+      <c r="AIA17" s="47"/>
+      <c r="AIB17" s="47"/>
+      <c r="AIC17" s="47"/>
+      <c r="AID17" s="47"/>
+      <c r="AIE17" s="47"/>
+      <c r="AIF17" s="47"/>
+      <c r="AIG17" s="47"/>
+      <c r="AIH17" s="47"/>
+      <c r="AII17" s="47"/>
+      <c r="AIJ17" s="47"/>
+      <c r="AIK17" s="47"/>
+      <c r="AIL17" s="47"/>
+      <c r="AIM17" s="47"/>
+      <c r="AIN17" s="47"/>
+      <c r="AIO17" s="47"/>
+      <c r="AIP17" s="47"/>
+      <c r="AIQ17" s="47"/>
+      <c r="AIR17" s="47"/>
+      <c r="AIS17" s="47"/>
+      <c r="AIT17" s="47"/>
+      <c r="AIU17" s="47"/>
+      <c r="AIV17" s="47"/>
+      <c r="AIW17" s="47"/>
+      <c r="AIX17" s="47"/>
+      <c r="AIY17" s="47"/>
+      <c r="AIZ17" s="47"/>
+      <c r="AJA17" s="47"/>
+      <c r="AJB17" s="47"/>
+      <c r="AJC17" s="47"/>
+      <c r="AJD17" s="47"/>
+      <c r="AJE17" s="47"/>
+      <c r="AJF17" s="47"/>
+      <c r="AJG17" s="47"/>
+      <c r="AJH17" s="47"/>
+      <c r="AJI17" s="47"/>
+      <c r="AJJ17" s="47"/>
+      <c r="AJK17" s="47"/>
+      <c r="AJL17" s="47"/>
+      <c r="AJM17" s="47"/>
+      <c r="AJN17" s="47"/>
+      <c r="AJO17" s="47"/>
+      <c r="AJP17" s="47"/>
+      <c r="AJQ17" s="47"/>
+      <c r="AJR17" s="47"/>
+      <c r="AJS17" s="47"/>
+      <c r="AJT17" s="47"/>
+      <c r="AJU17" s="47"/>
+      <c r="AJV17" s="47"/>
+      <c r="AJW17" s="47"/>
+      <c r="AJX17" s="47"/>
+      <c r="AJY17" s="47"/>
+      <c r="AJZ17" s="47"/>
+      <c r="AKA17" s="47"/>
+      <c r="AKB17" s="47"/>
+      <c r="AKC17" s="47"/>
+      <c r="AKD17" s="47"/>
+      <c r="AKE17" s="47"/>
+      <c r="AKF17" s="47"/>
+      <c r="AKG17" s="47"/>
+      <c r="AKH17" s="47"/>
+      <c r="AKI17" s="47"/>
+      <c r="AKJ17" s="47"/>
+      <c r="AKK17" s="47"/>
+      <c r="AKL17" s="47"/>
+      <c r="AKM17" s="47"/>
+      <c r="AKN17" s="47"/>
+      <c r="AKO17" s="47"/>
+      <c r="AKP17" s="47"/>
+      <c r="AKQ17" s="47"/>
+      <c r="AKR17" s="47"/>
+      <c r="AKS17" s="47"/>
+      <c r="AKT17" s="47"/>
+      <c r="AKU17" s="47"/>
+      <c r="AKV17" s="47"/>
+      <c r="AKW17" s="47"/>
+      <c r="AKX17" s="47"/>
+      <c r="AKY17" s="47"/>
+      <c r="AKZ17" s="47"/>
+      <c r="ALA17" s="47"/>
+      <c r="ALB17" s="47"/>
+      <c r="ALC17" s="47"/>
+      <c r="ALD17" s="47"/>
+      <c r="ALE17" s="47"/>
+      <c r="ALF17" s="47"/>
+      <c r="ALG17" s="47"/>
+      <c r="ALH17" s="47"/>
+      <c r="ALI17" s="47"/>
+      <c r="ALJ17" s="47"/>
+      <c r="ALK17" s="47"/>
+      <c r="ALL17" s="47"/>
+      <c r="ALM17" s="47"/>
+      <c r="ALN17" s="47"/>
+      <c r="ALO17" s="47"/>
+      <c r="ALP17" s="47"/>
+      <c r="ALQ17" s="47"/>
+      <c r="ALR17" s="47"/>
+      <c r="ALS17" s="47"/>
+      <c r="ALT17" s="47"/>
+      <c r="ALU17" s="47"/>
+      <c r="ALV17" s="47"/>
+      <c r="ALW17" s="47"/>
+      <c r="ALX17" s="47"/>
+      <c r="ALY17" s="47"/>
+      <c r="ALZ17" s="47"/>
+      <c r="AMA17" s="47"/>
+      <c r="AMB17" s="47"/>
+      <c r="AMC17" s="47"/>
+      <c r="AMD17" s="47"/>
+      <c r="AME17" s="47"/>
+      <c r="AMF17" s="47"/>
+      <c r="AMG17" s="47"/>
+      <c r="AMH17" s="47"/>
+      <c r="AMI17" s="47"/>
+      <c r="AMJ17" s="47"/>
+      <c r="AMK17" s="47"/>
+      <c r="AML17" s="47"/>
+      <c r="AMM17" s="47"/>
     </row>
-    <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:1026">
+    <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:1027">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3650,14 +3715,14 @@
       <c r="M18" s="33"/>
       <c r="N18" s="15"/>
       <c r="O18" s="33"/>
-      <c r="P18" s="15"/>
-      <c r="Q18" s="30"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="15"/>
+      <c r="P18" s="33"/>
+      <c r="Q18" s="15"/>
+      <c r="R18" s="30"/>
+      <c r="S18" s="15"/>
+      <c r="T18" s="30"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-      <c r="W18" s="5"/>
+      <c r="W18" s="15"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
@@ -4661,10 +4726,11 @@
       <c r="AMJ18" s="5"/>
       <c r="AMK18" s="5"/>
       <c r="AML18" s="5"/>
+      <c r="AMM18" s="5"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:23">
+    <row r="19" ht="23" customHeight="1" spans="1:25">
       <c r="A19" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4687,17 +4753,19 @@
       <c r="T19" s="17"/>
       <c r="U19" s="17"/>
       <c r="V19" s="17"/>
-      <c r="W19" s="47"/>
+      <c r="W19" s="17"/>
+      <c r="X19" s="17"/>
+      <c r="Y19" s="56"/>
     </row>
-    <row r="20" ht="15.75" spans="1:23">
+    <row r="20" ht="15.75" spans="1:25">
       <c r="A20" s="18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D20" s="19">
         <v>416</v>
@@ -4718,7 +4786,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K20" s="18">
         <v>24</v>
@@ -4730,45 +4798,47 @@
         <v>0.0003</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O20" s="34">
         <v>0.0005</v>
       </c>
-      <c r="P20" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q20" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="R20" s="19">
+      <c r="P20" s="34"/>
+      <c r="Q20" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="R20" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="S20" s="19">
         <v>0</v>
       </c>
-      <c r="S20" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="T20" s="19">
+      <c r="T20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="U20" s="19">
         <v>0.9837</v>
       </c>
-      <c r="U20" s="48">
+      <c r="V20" s="48">
         <v>0.972</v>
       </c>
-      <c r="V20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="W20" s="49" t="s">
-        <v>52</v>
-      </c>
+      <c r="W20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="X20" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y20" s="44"/>
     </row>
-    <row r="21" ht="15.75" spans="1:23">
+    <row r="21" ht="15.75" spans="1:25">
       <c r="A21" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="10">
         <v>416</v>
@@ -4789,7 +4859,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K21" s="9">
         <v>24</v>
@@ -4801,43 +4871,45 @@
         <v>0.0001</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O21" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P21" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R21" s="10">
+      <c r="P21" s="31"/>
+      <c r="Q21" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S21" s="10">
         <v>0</v>
       </c>
-      <c r="S21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T21" s="10">
+      <c r="T21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U21" s="10">
         <v>0.9846</v>
       </c>
-      <c r="U21" s="50">
+      <c r="V21" s="50">
         <v>0.973</v>
       </c>
-      <c r="V21" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="W21" s="43"/>
+      <c r="W21" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="X21" s="44"/>
+      <c r="Y21" s="44"/>
     </row>
-    <row r="22" ht="15.75" spans="1:23">
+    <row r="22" spans="1:25">
       <c r="A22" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B22" s="21">
         <v>0</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D22" s="21">
         <v>416</v>
@@ -4858,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K22" s="22">
         <v>24</v>
@@ -4870,45 +4942,49 @@
         <v>0.0003</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O22" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P22" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="P22" s="36"/>
       <c r="Q22" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="R22" s="22">
+        <v>49</v>
+      </c>
+      <c r="R22" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S22" s="22">
         <v>0</v>
       </c>
-      <c r="S22" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="T22" s="22">
+      <c r="T22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U22" s="22">
         <v>0.9846</v>
       </c>
-      <c r="U22" s="51">
+      <c r="V22" s="51">
         <v>0.974</v>
       </c>
-      <c r="V22" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="W22" s="43" t="s">
-        <v>55</v>
+      <c r="W22" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="X22" s="44" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y22" s="44" t="s">
+        <v>58</v>
       </c>
     </row>
-    <row r="23" ht="15.75" spans="1:23">
+    <row r="23" ht="15.75" spans="1:25">
       <c r="A23" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B23" s="10">
         <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D23" s="10">
         <v>416</v>
@@ -4929,7 +5005,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K23" s="9">
         <v>24</v>
@@ -4941,43 +5017,45 @@
         <v>0.0001</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O23" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P23" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q23" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R23" s="10">
+      <c r="P23" s="31"/>
+      <c r="Q23" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R23" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S23" s="10">
         <v>0</v>
       </c>
-      <c r="S23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T23" s="10">
+      <c r="T23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U23" s="10">
         <v>0.9861</v>
       </c>
-      <c r="U23" s="52">
+      <c r="V23" s="52">
         <v>0.971</v>
       </c>
-      <c r="V23" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="W23" s="43"/>
+      <c r="W23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="X23" s="44"/>
+      <c r="Y23" s="44"/>
     </row>
-    <row r="24" ht="15.75" spans="1:23">
+    <row r="24" ht="15.75" spans="1:25">
       <c r="A24" s="9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D24" s="10">
         <v>416</v>
@@ -4998,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K24" s="9">
         <v>24</v>
@@ -5010,45 +5088,47 @@
         <v>0.0003</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="O24" s="31">
         <v>0.0005</v>
       </c>
-      <c r="P24" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q24" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="R24" s="10">
+      <c r="P24" s="31"/>
+      <c r="Q24" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R24" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="S24" s="10">
         <v>0</v>
       </c>
-      <c r="S24" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="T24" s="10">
+      <c r="T24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="U24" s="10">
         <v>0.9856</v>
       </c>
-      <c r="U24" s="52">
+      <c r="V24" s="52">
         <v>0.97</v>
       </c>
-      <c r="V24" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="W24" s="43" t="s">
-        <v>59</v>
-      </c>
+      <c r="W24" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="X24" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="Y24" s="44"/>
     </row>
-    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:1026">
+    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:1027">
       <c r="A25" s="22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B25" s="22">
         <v>0</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D25" s="23">
         <v>384</v>
@@ -5069,7 +5149,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K25" s="22">
         <v>24</v>
@@ -5081,1048 +5161,1049 @@
         <v>0.0003</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O25" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P25" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="P25" s="36"/>
       <c r="Q25" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="R25" s="22">
+        <v>49</v>
+      </c>
+      <c r="R25" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S25" s="22">
         <v>0</v>
       </c>
-      <c r="S25" s="22" t="s">
-        <v>34</v>
-      </c>
       <c r="T25" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="U25" s="51">
+        <v>36</v>
+      </c>
+      <c r="U25" s="22" t="s">
+        <v>63</v>
+      </c>
+      <c r="V25" s="51">
         <v>0.976</v>
       </c>
-      <c r="V25" s="22" t="s">
-        <v>54</v>
-      </c>
-      <c r="W25" s="53" t="s">
-        <v>61</v>
-      </c>
-      <c r="X25" s="54"/>
-      <c r="Y25" s="54"/>
-      <c r="Z25" s="54"/>
-      <c r="AA25" s="54"/>
-      <c r="AB25" s="54"/>
-      <c r="AC25" s="54"/>
-      <c r="AD25" s="54"/>
-      <c r="AE25" s="54"/>
-      <c r="AF25" s="54"/>
-      <c r="AG25" s="54"/>
-      <c r="AH25" s="54"/>
-      <c r="AI25" s="54"/>
-      <c r="AJ25" s="54"/>
-      <c r="AK25" s="54"/>
-      <c r="AL25" s="54"/>
-      <c r="AM25" s="54"/>
-      <c r="AN25" s="54"/>
-      <c r="AO25" s="54"/>
-      <c r="AP25" s="54"/>
-      <c r="AQ25" s="54"/>
-      <c r="AR25" s="54"/>
-      <c r="AS25" s="54"/>
-      <c r="AT25" s="54"/>
-      <c r="AU25" s="54"/>
-      <c r="AV25" s="54"/>
-      <c r="AW25" s="54"/>
-      <c r="AX25" s="54"/>
-      <c r="AY25" s="54"/>
-      <c r="AZ25" s="54"/>
-      <c r="BA25" s="54"/>
-      <c r="BB25" s="54"/>
-      <c r="BC25" s="54"/>
-      <c r="BD25" s="54"/>
-      <c r="BE25" s="54"/>
-      <c r="BF25" s="54"/>
-      <c r="BG25" s="54"/>
-      <c r="BH25" s="54"/>
-      <c r="BI25" s="54"/>
-      <c r="BJ25" s="54"/>
-      <c r="BK25" s="54"/>
-      <c r="BL25" s="54"/>
-      <c r="BM25" s="54"/>
-      <c r="BN25" s="54"/>
-      <c r="BO25" s="54"/>
-      <c r="BP25" s="54"/>
-      <c r="BQ25" s="54"/>
-      <c r="BR25" s="54"/>
-      <c r="BS25" s="54"/>
-      <c r="BT25" s="54"/>
-      <c r="BU25" s="54"/>
-      <c r="BV25" s="54"/>
-      <c r="BW25" s="54"/>
-      <c r="BX25" s="54"/>
-      <c r="BY25" s="54"/>
-      <c r="BZ25" s="54"/>
-      <c r="CA25" s="54"/>
-      <c r="CB25" s="54"/>
-      <c r="CC25" s="54"/>
-      <c r="CD25" s="54"/>
-      <c r="CE25" s="54"/>
-      <c r="CF25" s="54"/>
-      <c r="CG25" s="54"/>
-      <c r="CH25" s="54"/>
-      <c r="CI25" s="54"/>
-      <c r="CJ25" s="54"/>
-      <c r="CK25" s="54"/>
-      <c r="CL25" s="54"/>
-      <c r="CM25" s="54"/>
-      <c r="CN25" s="54"/>
-      <c r="CO25" s="54"/>
-      <c r="CP25" s="54"/>
-      <c r="CQ25" s="54"/>
-      <c r="CR25" s="54"/>
-      <c r="CS25" s="54"/>
-      <c r="CT25" s="54"/>
-      <c r="CU25" s="54"/>
-      <c r="CV25" s="54"/>
-      <c r="CW25" s="54"/>
-      <c r="CX25" s="54"/>
-      <c r="CY25" s="54"/>
-      <c r="CZ25" s="54"/>
-      <c r="DA25" s="54"/>
-      <c r="DB25" s="54"/>
-      <c r="DC25" s="54"/>
-      <c r="DD25" s="54"/>
-      <c r="DE25" s="54"/>
-      <c r="DF25" s="54"/>
-      <c r="DG25" s="54"/>
-      <c r="DH25" s="54"/>
-      <c r="DI25" s="54"/>
-      <c r="DJ25" s="54"/>
-      <c r="DK25" s="54"/>
-      <c r="DL25" s="54"/>
-      <c r="DM25" s="54"/>
-      <c r="DN25" s="54"/>
-      <c r="DO25" s="54"/>
-      <c r="DP25" s="54"/>
-      <c r="DQ25" s="54"/>
-      <c r="DR25" s="54"/>
-      <c r="DS25" s="54"/>
-      <c r="DT25" s="54"/>
-      <c r="DU25" s="54"/>
-      <c r="DV25" s="54"/>
-      <c r="DW25" s="54"/>
-      <c r="DX25" s="54"/>
-      <c r="DY25" s="54"/>
-      <c r="DZ25" s="54"/>
-      <c r="EA25" s="54"/>
-      <c r="EB25" s="54"/>
-      <c r="EC25" s="54"/>
-      <c r="ED25" s="54"/>
-      <c r="EE25" s="54"/>
-      <c r="EF25" s="54"/>
-      <c r="EG25" s="54"/>
-      <c r="EH25" s="54"/>
-      <c r="EI25" s="54"/>
-      <c r="EJ25" s="54"/>
-      <c r="EK25" s="54"/>
-      <c r="EL25" s="54"/>
-      <c r="EM25" s="54"/>
-      <c r="EN25" s="54"/>
-      <c r="EO25" s="54"/>
-      <c r="EP25" s="54"/>
-      <c r="EQ25" s="54"/>
-      <c r="ER25" s="54"/>
-      <c r="ES25" s="54"/>
-      <c r="ET25" s="54"/>
-      <c r="EU25" s="54"/>
-      <c r="EV25" s="54"/>
-      <c r="EW25" s="54"/>
-      <c r="EX25" s="54"/>
-      <c r="EY25" s="54"/>
-      <c r="EZ25" s="54"/>
-      <c r="FA25" s="54"/>
-      <c r="FB25" s="54"/>
-      <c r="FC25" s="54"/>
-      <c r="FD25" s="54"/>
-      <c r="FE25" s="54"/>
-      <c r="FF25" s="54"/>
-      <c r="FG25" s="54"/>
-      <c r="FH25" s="54"/>
-      <c r="FI25" s="54"/>
-      <c r="FJ25" s="54"/>
-      <c r="FK25" s="54"/>
-      <c r="FL25" s="54"/>
-      <c r="FM25" s="54"/>
-      <c r="FN25" s="54"/>
-      <c r="FO25" s="54"/>
-      <c r="FP25" s="54"/>
-      <c r="FQ25" s="54"/>
-      <c r="FR25" s="54"/>
-      <c r="FS25" s="54"/>
-      <c r="FT25" s="54"/>
-      <c r="FU25" s="54"/>
-      <c r="FV25" s="54"/>
-      <c r="FW25" s="54"/>
-      <c r="FX25" s="54"/>
-      <c r="FY25" s="54"/>
-      <c r="FZ25" s="54"/>
-      <c r="GA25" s="54"/>
-      <c r="GB25" s="54"/>
-      <c r="GC25" s="54"/>
-      <c r="GD25" s="54"/>
-      <c r="GE25" s="54"/>
-      <c r="GF25" s="54"/>
-      <c r="GG25" s="54"/>
-      <c r="GH25" s="54"/>
-      <c r="GI25" s="54"/>
-      <c r="GJ25" s="54"/>
-      <c r="GK25" s="54"/>
-      <c r="GL25" s="54"/>
-      <c r="GM25" s="54"/>
-      <c r="GN25" s="54"/>
-      <c r="GO25" s="54"/>
-      <c r="GP25" s="54"/>
-      <c r="GQ25" s="54"/>
-      <c r="GR25" s="54"/>
-      <c r="GS25" s="54"/>
-      <c r="GT25" s="54"/>
-      <c r="GU25" s="54"/>
-      <c r="GV25" s="54"/>
-      <c r="GW25" s="54"/>
-      <c r="GX25" s="54"/>
-      <c r="GY25" s="54"/>
-      <c r="GZ25" s="54"/>
-      <c r="HA25" s="54"/>
-      <c r="HB25" s="54"/>
-      <c r="HC25" s="54"/>
-      <c r="HD25" s="54"/>
-      <c r="HE25" s="54"/>
-      <c r="HF25" s="54"/>
-      <c r="HG25" s="54"/>
-      <c r="HH25" s="54"/>
-      <c r="HI25" s="54"/>
-      <c r="HJ25" s="54"/>
-      <c r="HK25" s="54"/>
-      <c r="HL25" s="54"/>
-      <c r="HM25" s="54"/>
-      <c r="HN25" s="54"/>
-      <c r="HO25" s="54"/>
-      <c r="HP25" s="54"/>
-      <c r="HQ25" s="54"/>
-      <c r="HR25" s="54"/>
-      <c r="HS25" s="54"/>
-      <c r="HT25" s="54"/>
-      <c r="HU25" s="54"/>
-      <c r="HV25" s="54"/>
-      <c r="HW25" s="54"/>
-      <c r="HX25" s="54"/>
-      <c r="HY25" s="54"/>
-      <c r="HZ25" s="54"/>
-      <c r="IA25" s="54"/>
-      <c r="IB25" s="54"/>
-      <c r="IC25" s="54"/>
-      <c r="ID25" s="54"/>
-      <c r="IE25" s="54"/>
-      <c r="IF25" s="54"/>
-      <c r="IG25" s="54"/>
-      <c r="IH25" s="54"/>
-      <c r="II25" s="54"/>
-      <c r="IJ25" s="54"/>
-      <c r="IK25" s="54"/>
-      <c r="IL25" s="54"/>
-      <c r="IM25" s="54"/>
-      <c r="IN25" s="54"/>
-      <c r="IO25" s="54"/>
-      <c r="IP25" s="54"/>
-      <c r="IQ25" s="54"/>
-      <c r="IR25" s="54"/>
-      <c r="IS25" s="54"/>
-      <c r="IT25" s="54"/>
-      <c r="IU25" s="54"/>
-      <c r="IV25" s="54"/>
-      <c r="IW25" s="54"/>
-      <c r="IX25" s="54"/>
-      <c r="IY25" s="54"/>
-      <c r="IZ25" s="54"/>
-      <c r="JA25" s="54"/>
-      <c r="JB25" s="54"/>
-      <c r="JC25" s="54"/>
-      <c r="JD25" s="54"/>
-      <c r="JE25" s="54"/>
-      <c r="JF25" s="54"/>
-      <c r="JG25" s="54"/>
-      <c r="JH25" s="54"/>
-      <c r="JI25" s="54"/>
-      <c r="JJ25" s="54"/>
-      <c r="JK25" s="54"/>
-      <c r="JL25" s="54"/>
-      <c r="JM25" s="54"/>
-      <c r="JN25" s="54"/>
-      <c r="JO25" s="54"/>
-      <c r="JP25" s="54"/>
-      <c r="JQ25" s="54"/>
-      <c r="JR25" s="54"/>
-      <c r="JS25" s="54"/>
-      <c r="JT25" s="54"/>
-      <c r="JU25" s="54"/>
-      <c r="JV25" s="54"/>
-      <c r="JW25" s="54"/>
-      <c r="JX25" s="54"/>
-      <c r="JY25" s="54"/>
-      <c r="JZ25" s="54"/>
-      <c r="KA25" s="54"/>
-      <c r="KB25" s="54"/>
-      <c r="KC25" s="54"/>
-      <c r="KD25" s="54"/>
-      <c r="KE25" s="54"/>
-      <c r="KF25" s="54"/>
-      <c r="KG25" s="54"/>
-      <c r="KH25" s="54"/>
-      <c r="KI25" s="54"/>
-      <c r="KJ25" s="54"/>
-      <c r="KK25" s="54"/>
-      <c r="KL25" s="54"/>
-      <c r="KM25" s="54"/>
-      <c r="KN25" s="54"/>
-      <c r="KO25" s="54"/>
-      <c r="KP25" s="54"/>
-      <c r="KQ25" s="54"/>
-      <c r="KR25" s="54"/>
-      <c r="KS25" s="54"/>
-      <c r="KT25" s="54"/>
-      <c r="KU25" s="54"/>
-      <c r="KV25" s="54"/>
-      <c r="KW25" s="54"/>
-      <c r="KX25" s="54"/>
-      <c r="KY25" s="54"/>
-      <c r="KZ25" s="54"/>
-      <c r="LA25" s="54"/>
-      <c r="LB25" s="54"/>
-      <c r="LC25" s="54"/>
-      <c r="LD25" s="54"/>
-      <c r="LE25" s="54"/>
-      <c r="LF25" s="54"/>
-      <c r="LG25" s="54"/>
-      <c r="LH25" s="54"/>
-      <c r="LI25" s="54"/>
-      <c r="LJ25" s="54"/>
-      <c r="LK25" s="54"/>
-      <c r="LL25" s="54"/>
-      <c r="LM25" s="54"/>
-      <c r="LN25" s="54"/>
-      <c r="LO25" s="54"/>
-      <c r="LP25" s="54"/>
-      <c r="LQ25" s="54"/>
-      <c r="LR25" s="54"/>
-      <c r="LS25" s="54"/>
-      <c r="LT25" s="54"/>
-      <c r="LU25" s="54"/>
-      <c r="LV25" s="54"/>
-      <c r="LW25" s="54"/>
-      <c r="LX25" s="54"/>
-      <c r="LY25" s="54"/>
-      <c r="LZ25" s="54"/>
-      <c r="MA25" s="54"/>
-      <c r="MB25" s="54"/>
-      <c r="MC25" s="54"/>
-      <c r="MD25" s="54"/>
-      <c r="ME25" s="54"/>
-      <c r="MF25" s="54"/>
-      <c r="MG25" s="54"/>
-      <c r="MH25" s="54"/>
-      <c r="MI25" s="54"/>
-      <c r="MJ25" s="54"/>
-      <c r="MK25" s="54"/>
-      <c r="ML25" s="54"/>
-      <c r="MM25" s="54"/>
-      <c r="MN25" s="54"/>
-      <c r="MO25" s="54"/>
-      <c r="MP25" s="54"/>
-      <c r="MQ25" s="54"/>
-      <c r="MR25" s="54"/>
-      <c r="MS25" s="54"/>
-      <c r="MT25" s="54"/>
-      <c r="MU25" s="54"/>
-      <c r="MV25" s="54"/>
-      <c r="MW25" s="54"/>
-      <c r="MX25" s="54"/>
-      <c r="MY25" s="54"/>
-      <c r="MZ25" s="54"/>
-      <c r="NA25" s="54"/>
-      <c r="NB25" s="54"/>
-      <c r="NC25" s="54"/>
-      <c r="ND25" s="54"/>
-      <c r="NE25" s="54"/>
-      <c r="NF25" s="54"/>
-      <c r="NG25" s="54"/>
-      <c r="NH25" s="54"/>
-      <c r="NI25" s="54"/>
-      <c r="NJ25" s="54"/>
-      <c r="NK25" s="54"/>
-      <c r="NL25" s="54"/>
-      <c r="NM25" s="54"/>
-      <c r="NN25" s="54"/>
-      <c r="NO25" s="54"/>
-      <c r="NP25" s="54"/>
-      <c r="NQ25" s="54"/>
-      <c r="NR25" s="54"/>
-      <c r="NS25" s="54"/>
-      <c r="NT25" s="54"/>
-      <c r="NU25" s="54"/>
-      <c r="NV25" s="54"/>
-      <c r="NW25" s="54"/>
-      <c r="NX25" s="54"/>
-      <c r="NY25" s="54"/>
-      <c r="NZ25" s="54"/>
-      <c r="OA25" s="54"/>
-      <c r="OB25" s="54"/>
-      <c r="OC25" s="54"/>
-      <c r="OD25" s="54"/>
-      <c r="OE25" s="54"/>
-      <c r="OF25" s="54"/>
-      <c r="OG25" s="54"/>
-      <c r="OH25" s="54"/>
-      <c r="OI25" s="54"/>
-      <c r="OJ25" s="54"/>
-      <c r="OK25" s="54"/>
-      <c r="OL25" s="54"/>
-      <c r="OM25" s="54"/>
-      <c r="ON25" s="54"/>
-      <c r="OO25" s="54"/>
-      <c r="OP25" s="54"/>
-      <c r="OQ25" s="54"/>
-      <c r="OR25" s="54"/>
-      <c r="OS25" s="54"/>
-      <c r="OT25" s="54"/>
-      <c r="OU25" s="54"/>
-      <c r="OV25" s="54"/>
-      <c r="OW25" s="54"/>
-      <c r="OX25" s="54"/>
-      <c r="OY25" s="54"/>
-      <c r="OZ25" s="54"/>
-      <c r="PA25" s="54"/>
-      <c r="PB25" s="54"/>
-      <c r="PC25" s="54"/>
-      <c r="PD25" s="54"/>
-      <c r="PE25" s="54"/>
-      <c r="PF25" s="54"/>
-      <c r="PG25" s="54"/>
-      <c r="PH25" s="54"/>
-      <c r="PI25" s="54"/>
-      <c r="PJ25" s="54"/>
-      <c r="PK25" s="54"/>
-      <c r="PL25" s="54"/>
-      <c r="PM25" s="54"/>
-      <c r="PN25" s="54"/>
-      <c r="PO25" s="54"/>
-      <c r="PP25" s="54"/>
-      <c r="PQ25" s="54"/>
-      <c r="PR25" s="54"/>
-      <c r="PS25" s="54"/>
-      <c r="PT25" s="54"/>
-      <c r="PU25" s="54"/>
-      <c r="PV25" s="54"/>
-      <c r="PW25" s="54"/>
-      <c r="PX25" s="54"/>
-      <c r="PY25" s="54"/>
-      <c r="PZ25" s="54"/>
-      <c r="QA25" s="54"/>
-      <c r="QB25" s="54"/>
-      <c r="QC25" s="54"/>
-      <c r="QD25" s="54"/>
-      <c r="QE25" s="54"/>
-      <c r="QF25" s="54"/>
-      <c r="QG25" s="54"/>
-      <c r="QH25" s="54"/>
-      <c r="QI25" s="54"/>
-      <c r="QJ25" s="54"/>
-      <c r="QK25" s="54"/>
-      <c r="QL25" s="54"/>
-      <c r="QM25" s="54"/>
-      <c r="QN25" s="54"/>
-      <c r="QO25" s="54"/>
-      <c r="QP25" s="54"/>
-      <c r="QQ25" s="54"/>
-      <c r="QR25" s="54"/>
-      <c r="QS25" s="54"/>
-      <c r="QT25" s="54"/>
-      <c r="QU25" s="54"/>
-      <c r="QV25" s="54"/>
-      <c r="QW25" s="54"/>
-      <c r="QX25" s="54"/>
-      <c r="QY25" s="54"/>
-      <c r="QZ25" s="54"/>
-      <c r="RA25" s="54"/>
-      <c r="RB25" s="54"/>
-      <c r="RC25" s="54"/>
-      <c r="RD25" s="54"/>
-      <c r="RE25" s="54"/>
-      <c r="RF25" s="54"/>
-      <c r="RG25" s="54"/>
-      <c r="RH25" s="54"/>
-      <c r="RI25" s="54"/>
-      <c r="RJ25" s="54"/>
-      <c r="RK25" s="54"/>
-      <c r="RL25" s="54"/>
-      <c r="RM25" s="54"/>
-      <c r="RN25" s="54"/>
-      <c r="RO25" s="54"/>
-      <c r="RP25" s="54"/>
-      <c r="RQ25" s="54"/>
-      <c r="RR25" s="54"/>
-      <c r="RS25" s="54"/>
-      <c r="RT25" s="54"/>
-      <c r="RU25" s="54"/>
-      <c r="RV25" s="54"/>
-      <c r="RW25" s="54"/>
-      <c r="RX25" s="54"/>
-      <c r="RY25" s="54"/>
-      <c r="RZ25" s="54"/>
-      <c r="SA25" s="54"/>
-      <c r="SB25" s="54"/>
-      <c r="SC25" s="54"/>
-      <c r="SD25" s="54"/>
-      <c r="SE25" s="54"/>
-      <c r="SF25" s="54"/>
-      <c r="SG25" s="54"/>
-      <c r="SH25" s="54"/>
-      <c r="SI25" s="54"/>
-      <c r="SJ25" s="54"/>
-      <c r="SK25" s="54"/>
-      <c r="SL25" s="54"/>
-      <c r="SM25" s="54"/>
-      <c r="SN25" s="54"/>
-      <c r="SO25" s="54"/>
-      <c r="SP25" s="54"/>
-      <c r="SQ25" s="54"/>
-      <c r="SR25" s="54"/>
-      <c r="SS25" s="54"/>
-      <c r="ST25" s="54"/>
-      <c r="SU25" s="54"/>
-      <c r="SV25" s="54"/>
-      <c r="SW25" s="54"/>
-      <c r="SX25" s="54"/>
-      <c r="SY25" s="54"/>
-      <c r="SZ25" s="54"/>
-      <c r="TA25" s="54"/>
-      <c r="TB25" s="54"/>
-      <c r="TC25" s="54"/>
-      <c r="TD25" s="54"/>
-      <c r="TE25" s="54"/>
-      <c r="TF25" s="54"/>
-      <c r="TG25" s="54"/>
-      <c r="TH25" s="54"/>
-      <c r="TI25" s="54"/>
-      <c r="TJ25" s="54"/>
-      <c r="TK25" s="54"/>
-      <c r="TL25" s="54"/>
-      <c r="TM25" s="54"/>
-      <c r="TN25" s="54"/>
-      <c r="TO25" s="54"/>
-      <c r="TP25" s="54"/>
-      <c r="TQ25" s="54"/>
-      <c r="TR25" s="54"/>
-      <c r="TS25" s="54"/>
-      <c r="TT25" s="54"/>
-      <c r="TU25" s="54"/>
-      <c r="TV25" s="54"/>
-      <c r="TW25" s="54"/>
-      <c r="TX25" s="54"/>
-      <c r="TY25" s="54"/>
-      <c r="TZ25" s="54"/>
-      <c r="UA25" s="54"/>
-      <c r="UB25" s="54"/>
-      <c r="UC25" s="54"/>
-      <c r="UD25" s="54"/>
-      <c r="UE25" s="54"/>
-      <c r="UF25" s="54"/>
-      <c r="UG25" s="54"/>
-      <c r="UH25" s="54"/>
-      <c r="UI25" s="54"/>
-      <c r="UJ25" s="54"/>
-      <c r="UK25" s="54"/>
-      <c r="UL25" s="54"/>
-      <c r="UM25" s="54"/>
-      <c r="UN25" s="54"/>
-      <c r="UO25" s="54"/>
-      <c r="UP25" s="54"/>
-      <c r="UQ25" s="54"/>
-      <c r="UR25" s="54"/>
-      <c r="US25" s="54"/>
-      <c r="UT25" s="54"/>
-      <c r="UU25" s="54"/>
-      <c r="UV25" s="54"/>
-      <c r="UW25" s="54"/>
-      <c r="UX25" s="54"/>
-      <c r="UY25" s="54"/>
-      <c r="UZ25" s="54"/>
-      <c r="VA25" s="54"/>
-      <c r="VB25" s="54"/>
-      <c r="VC25" s="54"/>
-      <c r="VD25" s="54"/>
-      <c r="VE25" s="54"/>
-      <c r="VF25" s="54"/>
-      <c r="VG25" s="54"/>
-      <c r="VH25" s="54"/>
-      <c r="VI25" s="54"/>
-      <c r="VJ25" s="54"/>
-      <c r="VK25" s="54"/>
-      <c r="VL25" s="54"/>
-      <c r="VM25" s="54"/>
-      <c r="VN25" s="54"/>
-      <c r="VO25" s="54"/>
-      <c r="VP25" s="54"/>
-      <c r="VQ25" s="54"/>
-      <c r="VR25" s="54"/>
-      <c r="VS25" s="54"/>
-      <c r="VT25" s="54"/>
-      <c r="VU25" s="54"/>
-      <c r="VV25" s="54"/>
-      <c r="VW25" s="54"/>
-      <c r="VX25" s="54"/>
-      <c r="VY25" s="54"/>
-      <c r="VZ25" s="54"/>
-      <c r="WA25" s="54"/>
-      <c r="WB25" s="54"/>
-      <c r="WC25" s="54"/>
-      <c r="WD25" s="54"/>
-      <c r="WE25" s="54"/>
-      <c r="WF25" s="54"/>
-      <c r="WG25" s="54"/>
-      <c r="WH25" s="54"/>
-      <c r="WI25" s="54"/>
-      <c r="WJ25" s="54"/>
-      <c r="WK25" s="54"/>
-      <c r="WL25" s="54"/>
-      <c r="WM25" s="54"/>
-      <c r="WN25" s="54"/>
-      <c r="WO25" s="54"/>
-      <c r="WP25" s="54"/>
-      <c r="WQ25" s="54"/>
-      <c r="WR25" s="54"/>
-      <c r="WS25" s="54"/>
-      <c r="WT25" s="54"/>
-      <c r="WU25" s="54"/>
-      <c r="WV25" s="54"/>
-      <c r="WW25" s="54"/>
-      <c r="WX25" s="54"/>
-      <c r="WY25" s="54"/>
-      <c r="WZ25" s="54"/>
-      <c r="XA25" s="54"/>
-      <c r="XB25" s="54"/>
-      <c r="XC25" s="54"/>
-      <c r="XD25" s="54"/>
-      <c r="XE25" s="54"/>
-      <c r="XF25" s="54"/>
-      <c r="XG25" s="54"/>
-      <c r="XH25" s="54"/>
-      <c r="XI25" s="54"/>
-      <c r="XJ25" s="54"/>
-      <c r="XK25" s="54"/>
-      <c r="XL25" s="54"/>
-      <c r="XM25" s="54"/>
-      <c r="XN25" s="54"/>
-      <c r="XO25" s="54"/>
-      <c r="XP25" s="54"/>
-      <c r="XQ25" s="54"/>
-      <c r="XR25" s="54"/>
-      <c r="XS25" s="54"/>
-      <c r="XT25" s="54"/>
-      <c r="XU25" s="54"/>
-      <c r="XV25" s="54"/>
-      <c r="XW25" s="54"/>
-      <c r="XX25" s="54"/>
-      <c r="XY25" s="54"/>
-      <c r="XZ25" s="54"/>
-      <c r="YA25" s="54"/>
-      <c r="YB25" s="54"/>
-      <c r="YC25" s="54"/>
-      <c r="YD25" s="54"/>
-      <c r="YE25" s="54"/>
-      <c r="YF25" s="54"/>
-      <c r="YG25" s="54"/>
-      <c r="YH25" s="54"/>
-      <c r="YI25" s="54"/>
-      <c r="YJ25" s="54"/>
-      <c r="YK25" s="54"/>
-      <c r="YL25" s="54"/>
-      <c r="YM25" s="54"/>
-      <c r="YN25" s="54"/>
-      <c r="YO25" s="54"/>
-      <c r="YP25" s="54"/>
-      <c r="YQ25" s="54"/>
-      <c r="YR25" s="54"/>
-      <c r="YS25" s="54"/>
-      <c r="YT25" s="54"/>
-      <c r="YU25" s="54"/>
-      <c r="YV25" s="54"/>
-      <c r="YW25" s="54"/>
-      <c r="YX25" s="54"/>
-      <c r="YY25" s="54"/>
-      <c r="YZ25" s="54"/>
-      <c r="ZA25" s="54"/>
-      <c r="ZB25" s="54"/>
-      <c r="ZC25" s="54"/>
-      <c r="ZD25" s="54"/>
-      <c r="ZE25" s="54"/>
-      <c r="ZF25" s="54"/>
-      <c r="ZG25" s="54"/>
-      <c r="ZH25" s="54"/>
-      <c r="ZI25" s="54"/>
-      <c r="ZJ25" s="54"/>
-      <c r="ZK25" s="54"/>
-      <c r="ZL25" s="54"/>
-      <c r="ZM25" s="54"/>
-      <c r="ZN25" s="54"/>
-      <c r="ZO25" s="54"/>
-      <c r="ZP25" s="54"/>
-      <c r="ZQ25" s="54"/>
-      <c r="ZR25" s="54"/>
-      <c r="ZS25" s="54"/>
-      <c r="ZT25" s="54"/>
-      <c r="ZU25" s="54"/>
-      <c r="ZV25" s="54"/>
-      <c r="ZW25" s="54"/>
-      <c r="ZX25" s="54"/>
-      <c r="ZY25" s="54"/>
-      <c r="ZZ25" s="54"/>
-      <c r="AAA25" s="54"/>
-      <c r="AAB25" s="54"/>
-      <c r="AAC25" s="54"/>
-      <c r="AAD25" s="54"/>
-      <c r="AAE25" s="54"/>
-      <c r="AAF25" s="54"/>
-      <c r="AAG25" s="54"/>
-      <c r="AAH25" s="54"/>
-      <c r="AAI25" s="54"/>
-      <c r="AAJ25" s="54"/>
-      <c r="AAK25" s="54"/>
-      <c r="AAL25" s="54"/>
-      <c r="AAM25" s="54"/>
-      <c r="AAN25" s="54"/>
-      <c r="AAO25" s="54"/>
-      <c r="AAP25" s="54"/>
-      <c r="AAQ25" s="54"/>
-      <c r="AAR25" s="54"/>
-      <c r="AAS25" s="54"/>
-      <c r="AAT25" s="54"/>
-      <c r="AAU25" s="54"/>
-      <c r="AAV25" s="54"/>
-      <c r="AAW25" s="54"/>
-      <c r="AAX25" s="54"/>
-      <c r="AAY25" s="54"/>
-      <c r="AAZ25" s="54"/>
-      <c r="ABA25" s="54"/>
-      <c r="ABB25" s="54"/>
-      <c r="ABC25" s="54"/>
-      <c r="ABD25" s="54"/>
-      <c r="ABE25" s="54"/>
-      <c r="ABF25" s="54"/>
-      <c r="ABG25" s="54"/>
-      <c r="ABH25" s="54"/>
-      <c r="ABI25" s="54"/>
-      <c r="ABJ25" s="54"/>
-      <c r="ABK25" s="54"/>
-      <c r="ABL25" s="54"/>
-      <c r="ABM25" s="54"/>
-      <c r="ABN25" s="54"/>
-      <c r="ABO25" s="54"/>
-      <c r="ABP25" s="54"/>
-      <c r="ABQ25" s="54"/>
-      <c r="ABR25" s="54"/>
-      <c r="ABS25" s="54"/>
-      <c r="ABT25" s="54"/>
-      <c r="ABU25" s="54"/>
-      <c r="ABV25" s="54"/>
-      <c r="ABW25" s="54"/>
-      <c r="ABX25" s="54"/>
-      <c r="ABY25" s="54"/>
-      <c r="ABZ25" s="54"/>
-      <c r="ACA25" s="54"/>
-      <c r="ACB25" s="54"/>
-      <c r="ACC25" s="54"/>
-      <c r="ACD25" s="54"/>
-      <c r="ACE25" s="54"/>
-      <c r="ACF25" s="54"/>
-      <c r="ACG25" s="54"/>
-      <c r="ACH25" s="54"/>
-      <c r="ACI25" s="54"/>
-      <c r="ACJ25" s="54"/>
-      <c r="ACK25" s="54"/>
-      <c r="ACL25" s="54"/>
-      <c r="ACM25" s="54"/>
-      <c r="ACN25" s="54"/>
-      <c r="ACO25" s="54"/>
-      <c r="ACP25" s="54"/>
-      <c r="ACQ25" s="54"/>
-      <c r="ACR25" s="54"/>
-      <c r="ACS25" s="54"/>
-      <c r="ACT25" s="54"/>
-      <c r="ACU25" s="54"/>
-      <c r="ACV25" s="54"/>
-      <c r="ACW25" s="54"/>
-      <c r="ACX25" s="54"/>
-      <c r="ACY25" s="54"/>
-      <c r="ACZ25" s="54"/>
-      <c r="ADA25" s="54"/>
-      <c r="ADB25" s="54"/>
-      <c r="ADC25" s="54"/>
-      <c r="ADD25" s="54"/>
-      <c r="ADE25" s="54"/>
-      <c r="ADF25" s="54"/>
-      <c r="ADG25" s="54"/>
-      <c r="ADH25" s="54"/>
-      <c r="ADI25" s="54"/>
-      <c r="ADJ25" s="54"/>
-      <c r="ADK25" s="54"/>
-      <c r="ADL25" s="54"/>
-      <c r="ADM25" s="54"/>
-      <c r="ADN25" s="54"/>
-      <c r="ADO25" s="54"/>
-      <c r="ADP25" s="54"/>
-      <c r="ADQ25" s="54"/>
-      <c r="ADR25" s="54"/>
-      <c r="ADS25" s="54"/>
-      <c r="ADT25" s="54"/>
-      <c r="ADU25" s="54"/>
-      <c r="ADV25" s="54"/>
-      <c r="ADW25" s="54"/>
-      <c r="ADX25" s="54"/>
-      <c r="ADY25" s="54"/>
-      <c r="ADZ25" s="54"/>
-      <c r="AEA25" s="54"/>
-      <c r="AEB25" s="54"/>
-      <c r="AEC25" s="54"/>
-      <c r="AED25" s="54"/>
-      <c r="AEE25" s="54"/>
-      <c r="AEF25" s="54"/>
-      <c r="AEG25" s="54"/>
-      <c r="AEH25" s="54"/>
-      <c r="AEI25" s="54"/>
-      <c r="AEJ25" s="54"/>
-      <c r="AEK25" s="54"/>
-      <c r="AEL25" s="54"/>
-      <c r="AEM25" s="54"/>
-      <c r="AEN25" s="54"/>
-      <c r="AEO25" s="54"/>
-      <c r="AEP25" s="54"/>
-      <c r="AEQ25" s="54"/>
-      <c r="AER25" s="54"/>
-      <c r="AES25" s="54"/>
-      <c r="AET25" s="54"/>
-      <c r="AEU25" s="54"/>
-      <c r="AEV25" s="54"/>
-      <c r="AEW25" s="54"/>
-      <c r="AEX25" s="54"/>
-      <c r="AEY25" s="54"/>
-      <c r="AEZ25" s="54"/>
-      <c r="AFA25" s="54"/>
-      <c r="AFB25" s="54"/>
-      <c r="AFC25" s="54"/>
-      <c r="AFD25" s="54"/>
-      <c r="AFE25" s="54"/>
-      <c r="AFF25" s="54"/>
-      <c r="AFG25" s="54"/>
-      <c r="AFH25" s="54"/>
-      <c r="AFI25" s="54"/>
-      <c r="AFJ25" s="54"/>
-      <c r="AFK25" s="54"/>
-      <c r="AFL25" s="54"/>
-      <c r="AFM25" s="54"/>
-      <c r="AFN25" s="54"/>
-      <c r="AFO25" s="54"/>
-      <c r="AFP25" s="54"/>
-      <c r="AFQ25" s="54"/>
-      <c r="AFR25" s="54"/>
-      <c r="AFS25" s="54"/>
-      <c r="AFT25" s="54"/>
-      <c r="AFU25" s="54"/>
-      <c r="AFV25" s="54"/>
-      <c r="AFW25" s="54"/>
-      <c r="AFX25" s="54"/>
-      <c r="AFY25" s="54"/>
-      <c r="AFZ25" s="54"/>
-      <c r="AGA25" s="54"/>
-      <c r="AGB25" s="54"/>
-      <c r="AGC25" s="54"/>
-      <c r="AGD25" s="54"/>
-      <c r="AGE25" s="54"/>
-      <c r="AGF25" s="54"/>
-      <c r="AGG25" s="54"/>
-      <c r="AGH25" s="54"/>
-      <c r="AGI25" s="54"/>
-      <c r="AGJ25" s="54"/>
-      <c r="AGK25" s="54"/>
-      <c r="AGL25" s="54"/>
-      <c r="AGM25" s="54"/>
-      <c r="AGN25" s="54"/>
-      <c r="AGO25" s="54"/>
-      <c r="AGP25" s="54"/>
-      <c r="AGQ25" s="54"/>
-      <c r="AGR25" s="54"/>
-      <c r="AGS25" s="54"/>
-      <c r="AGT25" s="54"/>
-      <c r="AGU25" s="54"/>
-      <c r="AGV25" s="54"/>
-      <c r="AGW25" s="54"/>
-      <c r="AGX25" s="54"/>
-      <c r="AGY25" s="54"/>
-      <c r="AGZ25" s="54"/>
-      <c r="AHA25" s="54"/>
-      <c r="AHB25" s="54"/>
-      <c r="AHC25" s="54"/>
-      <c r="AHD25" s="54"/>
-      <c r="AHE25" s="54"/>
-      <c r="AHF25" s="54"/>
-      <c r="AHG25" s="54"/>
-      <c r="AHH25" s="54"/>
-      <c r="AHI25" s="54"/>
-      <c r="AHJ25" s="54"/>
-      <c r="AHK25" s="54"/>
-      <c r="AHL25" s="54"/>
-      <c r="AHM25" s="54"/>
-      <c r="AHN25" s="54"/>
-      <c r="AHO25" s="54"/>
-      <c r="AHP25" s="54"/>
-      <c r="AHQ25" s="54"/>
-      <c r="AHR25" s="54"/>
-      <c r="AHS25" s="54"/>
-      <c r="AHT25" s="54"/>
-      <c r="AHU25" s="54"/>
-      <c r="AHV25" s="54"/>
-      <c r="AHW25" s="54"/>
-      <c r="AHX25" s="54"/>
-      <c r="AHY25" s="54"/>
-      <c r="AHZ25" s="54"/>
-      <c r="AIA25" s="54"/>
-      <c r="AIB25" s="54"/>
-      <c r="AIC25" s="54"/>
-      <c r="AID25" s="54"/>
-      <c r="AIE25" s="54"/>
-      <c r="AIF25" s="54"/>
-      <c r="AIG25" s="54"/>
-      <c r="AIH25" s="54"/>
-      <c r="AII25" s="54"/>
-      <c r="AIJ25" s="54"/>
-      <c r="AIK25" s="54"/>
-      <c r="AIL25" s="54"/>
-      <c r="AIM25" s="54"/>
-      <c r="AIN25" s="54"/>
-      <c r="AIO25" s="54"/>
-      <c r="AIP25" s="54"/>
-      <c r="AIQ25" s="54"/>
-      <c r="AIR25" s="54"/>
-      <c r="AIS25" s="54"/>
-      <c r="AIT25" s="54"/>
-      <c r="AIU25" s="54"/>
-      <c r="AIV25" s="54"/>
-      <c r="AIW25" s="54"/>
-      <c r="AIX25" s="54"/>
-      <c r="AIY25" s="54"/>
-      <c r="AIZ25" s="54"/>
-      <c r="AJA25" s="54"/>
-      <c r="AJB25" s="54"/>
-      <c r="AJC25" s="54"/>
-      <c r="AJD25" s="54"/>
-      <c r="AJE25" s="54"/>
-      <c r="AJF25" s="54"/>
-      <c r="AJG25" s="54"/>
-      <c r="AJH25" s="54"/>
-      <c r="AJI25" s="54"/>
-      <c r="AJJ25" s="54"/>
-      <c r="AJK25" s="54"/>
-      <c r="AJL25" s="54"/>
-      <c r="AJM25" s="54"/>
-      <c r="AJN25" s="54"/>
-      <c r="AJO25" s="54"/>
-      <c r="AJP25" s="54"/>
-      <c r="AJQ25" s="54"/>
-      <c r="AJR25" s="54"/>
-      <c r="AJS25" s="54"/>
-      <c r="AJT25" s="54"/>
-      <c r="AJU25" s="54"/>
-      <c r="AJV25" s="54"/>
-      <c r="AJW25" s="54"/>
-      <c r="AJX25" s="54"/>
-      <c r="AJY25" s="54"/>
-      <c r="AJZ25" s="54"/>
-      <c r="AKA25" s="54"/>
-      <c r="AKB25" s="54"/>
-      <c r="AKC25" s="54"/>
-      <c r="AKD25" s="54"/>
-      <c r="AKE25" s="54"/>
-      <c r="AKF25" s="54"/>
-      <c r="AKG25" s="54"/>
-      <c r="AKH25" s="54"/>
-      <c r="AKI25" s="54"/>
-      <c r="AKJ25" s="54"/>
-      <c r="AKK25" s="54"/>
-      <c r="AKL25" s="54"/>
-      <c r="AKM25" s="54"/>
-      <c r="AKN25" s="54"/>
-      <c r="AKO25" s="54"/>
-      <c r="AKP25" s="54"/>
-      <c r="AKQ25" s="54"/>
-      <c r="AKR25" s="54"/>
-      <c r="AKS25" s="54"/>
-      <c r="AKT25" s="54"/>
-      <c r="AKU25" s="54"/>
-      <c r="AKV25" s="54"/>
-      <c r="AKW25" s="54"/>
-      <c r="AKX25" s="54"/>
-      <c r="AKY25" s="54"/>
-      <c r="AKZ25" s="54"/>
-      <c r="ALA25" s="54"/>
-      <c r="ALB25" s="54"/>
-      <c r="ALC25" s="54"/>
-      <c r="ALD25" s="54"/>
-      <c r="ALE25" s="54"/>
-      <c r="ALF25" s="54"/>
-      <c r="ALG25" s="54"/>
-      <c r="ALH25" s="54"/>
-      <c r="ALI25" s="54"/>
-      <c r="ALJ25" s="54"/>
-      <c r="ALK25" s="54"/>
-      <c r="ALL25" s="54"/>
-      <c r="ALM25" s="54"/>
-      <c r="ALN25" s="54"/>
-      <c r="ALO25" s="54"/>
-      <c r="ALP25" s="54"/>
-      <c r="ALQ25" s="54"/>
-      <c r="ALR25" s="54"/>
-      <c r="ALS25" s="54"/>
-      <c r="ALT25" s="54"/>
-      <c r="ALU25" s="54"/>
-      <c r="ALV25" s="54"/>
-      <c r="ALW25" s="54"/>
-      <c r="ALX25" s="54"/>
-      <c r="ALY25" s="54"/>
-      <c r="ALZ25" s="54"/>
-      <c r="AMA25" s="54"/>
-      <c r="AMB25" s="54"/>
-      <c r="AMC25" s="54"/>
-      <c r="AMD25" s="54"/>
-      <c r="AME25" s="54"/>
-      <c r="AMF25" s="54"/>
-      <c r="AMG25" s="54"/>
-      <c r="AMH25" s="54"/>
-      <c r="AMI25" s="54"/>
-      <c r="AMJ25" s="54"/>
-      <c r="AMK25" s="54"/>
-      <c r="AML25" s="54"/>
+      <c r="W25" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="X25" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="Y25" s="53"/>
+      <c r="Z25" s="57"/>
+      <c r="AA25" s="57"/>
+      <c r="AB25" s="57"/>
+      <c r="AC25" s="57"/>
+      <c r="AD25" s="57"/>
+      <c r="AE25" s="57"/>
+      <c r="AF25" s="57"/>
+      <c r="AG25" s="57"/>
+      <c r="AH25" s="57"/>
+      <c r="AI25" s="57"/>
+      <c r="AJ25" s="57"/>
+      <c r="AK25" s="57"/>
+      <c r="AL25" s="57"/>
+      <c r="AM25" s="57"/>
+      <c r="AN25" s="57"/>
+      <c r="AO25" s="57"/>
+      <c r="AP25" s="57"/>
+      <c r="AQ25" s="57"/>
+      <c r="AR25" s="57"/>
+      <c r="AS25" s="57"/>
+      <c r="AT25" s="57"/>
+      <c r="AU25" s="57"/>
+      <c r="AV25" s="57"/>
+      <c r="AW25" s="57"/>
+      <c r="AX25" s="57"/>
+      <c r="AY25" s="57"/>
+      <c r="AZ25" s="57"/>
+      <c r="BA25" s="57"/>
+      <c r="BB25" s="57"/>
+      <c r="BC25" s="57"/>
+      <c r="BD25" s="57"/>
+      <c r="BE25" s="57"/>
+      <c r="BF25" s="57"/>
+      <c r="BG25" s="57"/>
+      <c r="BH25" s="57"/>
+      <c r="BI25" s="57"/>
+      <c r="BJ25" s="57"/>
+      <c r="BK25" s="57"/>
+      <c r="BL25" s="57"/>
+      <c r="BM25" s="57"/>
+      <c r="BN25" s="57"/>
+      <c r="BO25" s="57"/>
+      <c r="BP25" s="57"/>
+      <c r="BQ25" s="57"/>
+      <c r="BR25" s="57"/>
+      <c r="BS25" s="57"/>
+      <c r="BT25" s="57"/>
+      <c r="BU25" s="57"/>
+      <c r="BV25" s="57"/>
+      <c r="BW25" s="57"/>
+      <c r="BX25" s="57"/>
+      <c r="BY25" s="57"/>
+      <c r="BZ25" s="57"/>
+      <c r="CA25" s="57"/>
+      <c r="CB25" s="57"/>
+      <c r="CC25" s="57"/>
+      <c r="CD25" s="57"/>
+      <c r="CE25" s="57"/>
+      <c r="CF25" s="57"/>
+      <c r="CG25" s="57"/>
+      <c r="CH25" s="57"/>
+      <c r="CI25" s="57"/>
+      <c r="CJ25" s="57"/>
+      <c r="CK25" s="57"/>
+      <c r="CL25" s="57"/>
+      <c r="CM25" s="57"/>
+      <c r="CN25" s="57"/>
+      <c r="CO25" s="57"/>
+      <c r="CP25" s="57"/>
+      <c r="CQ25" s="57"/>
+      <c r="CR25" s="57"/>
+      <c r="CS25" s="57"/>
+      <c r="CT25" s="57"/>
+      <c r="CU25" s="57"/>
+      <c r="CV25" s="57"/>
+      <c r="CW25" s="57"/>
+      <c r="CX25" s="57"/>
+      <c r="CY25" s="57"/>
+      <c r="CZ25" s="57"/>
+      <c r="DA25" s="57"/>
+      <c r="DB25" s="57"/>
+      <c r="DC25" s="57"/>
+      <c r="DD25" s="57"/>
+      <c r="DE25" s="57"/>
+      <c r="DF25" s="57"/>
+      <c r="DG25" s="57"/>
+      <c r="DH25" s="57"/>
+      <c r="DI25" s="57"/>
+      <c r="DJ25" s="57"/>
+      <c r="DK25" s="57"/>
+      <c r="DL25" s="57"/>
+      <c r="DM25" s="57"/>
+      <c r="DN25" s="57"/>
+      <c r="DO25" s="57"/>
+      <c r="DP25" s="57"/>
+      <c r="DQ25" s="57"/>
+      <c r="DR25" s="57"/>
+      <c r="DS25" s="57"/>
+      <c r="DT25" s="57"/>
+      <c r="DU25" s="57"/>
+      <c r="DV25" s="57"/>
+      <c r="DW25" s="57"/>
+      <c r="DX25" s="57"/>
+      <c r="DY25" s="57"/>
+      <c r="DZ25" s="57"/>
+      <c r="EA25" s="57"/>
+      <c r="EB25" s="57"/>
+      <c r="EC25" s="57"/>
+      <c r="ED25" s="57"/>
+      <c r="EE25" s="57"/>
+      <c r="EF25" s="57"/>
+      <c r="EG25" s="57"/>
+      <c r="EH25" s="57"/>
+      <c r="EI25" s="57"/>
+      <c r="EJ25" s="57"/>
+      <c r="EK25" s="57"/>
+      <c r="EL25" s="57"/>
+      <c r="EM25" s="57"/>
+      <c r="EN25" s="57"/>
+      <c r="EO25" s="57"/>
+      <c r="EP25" s="57"/>
+      <c r="EQ25" s="57"/>
+      <c r="ER25" s="57"/>
+      <c r="ES25" s="57"/>
+      <c r="ET25" s="57"/>
+      <c r="EU25" s="57"/>
+      <c r="EV25" s="57"/>
+      <c r="EW25" s="57"/>
+      <c r="EX25" s="57"/>
+      <c r="EY25" s="57"/>
+      <c r="EZ25" s="57"/>
+      <c r="FA25" s="57"/>
+      <c r="FB25" s="57"/>
+      <c r="FC25" s="57"/>
+      <c r="FD25" s="57"/>
+      <c r="FE25" s="57"/>
+      <c r="FF25" s="57"/>
+      <c r="FG25" s="57"/>
+      <c r="FH25" s="57"/>
+      <c r="FI25" s="57"/>
+      <c r="FJ25" s="57"/>
+      <c r="FK25" s="57"/>
+      <c r="FL25" s="57"/>
+      <c r="FM25" s="57"/>
+      <c r="FN25" s="57"/>
+      <c r="FO25" s="57"/>
+      <c r="FP25" s="57"/>
+      <c r="FQ25" s="57"/>
+      <c r="FR25" s="57"/>
+      <c r="FS25" s="57"/>
+      <c r="FT25" s="57"/>
+      <c r="FU25" s="57"/>
+      <c r="FV25" s="57"/>
+      <c r="FW25" s="57"/>
+      <c r="FX25" s="57"/>
+      <c r="FY25" s="57"/>
+      <c r="FZ25" s="57"/>
+      <c r="GA25" s="57"/>
+      <c r="GB25" s="57"/>
+      <c r="GC25" s="57"/>
+      <c r="GD25" s="57"/>
+      <c r="GE25" s="57"/>
+      <c r="GF25" s="57"/>
+      <c r="GG25" s="57"/>
+      <c r="GH25" s="57"/>
+      <c r="GI25" s="57"/>
+      <c r="GJ25" s="57"/>
+      <c r="GK25" s="57"/>
+      <c r="GL25" s="57"/>
+      <c r="GM25" s="57"/>
+      <c r="GN25" s="57"/>
+      <c r="GO25" s="57"/>
+      <c r="GP25" s="57"/>
+      <c r="GQ25" s="57"/>
+      <c r="GR25" s="57"/>
+      <c r="GS25" s="57"/>
+      <c r="GT25" s="57"/>
+      <c r="GU25" s="57"/>
+      <c r="GV25" s="57"/>
+      <c r="GW25" s="57"/>
+      <c r="GX25" s="57"/>
+      <c r="GY25" s="57"/>
+      <c r="GZ25" s="57"/>
+      <c r="HA25" s="57"/>
+      <c r="HB25" s="57"/>
+      <c r="HC25" s="57"/>
+      <c r="HD25" s="57"/>
+      <c r="HE25" s="57"/>
+      <c r="HF25" s="57"/>
+      <c r="HG25" s="57"/>
+      <c r="HH25" s="57"/>
+      <c r="HI25" s="57"/>
+      <c r="HJ25" s="57"/>
+      <c r="HK25" s="57"/>
+      <c r="HL25" s="57"/>
+      <c r="HM25" s="57"/>
+      <c r="HN25" s="57"/>
+      <c r="HO25" s="57"/>
+      <c r="HP25" s="57"/>
+      <c r="HQ25" s="57"/>
+      <c r="HR25" s="57"/>
+      <c r="HS25" s="57"/>
+      <c r="HT25" s="57"/>
+      <c r="HU25" s="57"/>
+      <c r="HV25" s="57"/>
+      <c r="HW25" s="57"/>
+      <c r="HX25" s="57"/>
+      <c r="HY25" s="57"/>
+      <c r="HZ25" s="57"/>
+      <c r="IA25" s="57"/>
+      <c r="IB25" s="57"/>
+      <c r="IC25" s="57"/>
+      <c r="ID25" s="57"/>
+      <c r="IE25" s="57"/>
+      <c r="IF25" s="57"/>
+      <c r="IG25" s="57"/>
+      <c r="IH25" s="57"/>
+      <c r="II25" s="57"/>
+      <c r="IJ25" s="57"/>
+      <c r="IK25" s="57"/>
+      <c r="IL25" s="57"/>
+      <c r="IM25" s="57"/>
+      <c r="IN25" s="57"/>
+      <c r="IO25" s="57"/>
+      <c r="IP25" s="57"/>
+      <c r="IQ25" s="57"/>
+      <c r="IR25" s="57"/>
+      <c r="IS25" s="57"/>
+      <c r="IT25" s="57"/>
+      <c r="IU25" s="57"/>
+      <c r="IV25" s="57"/>
+      <c r="IW25" s="57"/>
+      <c r="IX25" s="57"/>
+      <c r="IY25" s="57"/>
+      <c r="IZ25" s="57"/>
+      <c r="JA25" s="57"/>
+      <c r="JB25" s="57"/>
+      <c r="JC25" s="57"/>
+      <c r="JD25" s="57"/>
+      <c r="JE25" s="57"/>
+      <c r="JF25" s="57"/>
+      <c r="JG25" s="57"/>
+      <c r="JH25" s="57"/>
+      <c r="JI25" s="57"/>
+      <c r="JJ25" s="57"/>
+      <c r="JK25" s="57"/>
+      <c r="JL25" s="57"/>
+      <c r="JM25" s="57"/>
+      <c r="JN25" s="57"/>
+      <c r="JO25" s="57"/>
+      <c r="JP25" s="57"/>
+      <c r="JQ25" s="57"/>
+      <c r="JR25" s="57"/>
+      <c r="JS25" s="57"/>
+      <c r="JT25" s="57"/>
+      <c r="JU25" s="57"/>
+      <c r="JV25" s="57"/>
+      <c r="JW25" s="57"/>
+      <c r="JX25" s="57"/>
+      <c r="JY25" s="57"/>
+      <c r="JZ25" s="57"/>
+      <c r="KA25" s="57"/>
+      <c r="KB25" s="57"/>
+      <c r="KC25" s="57"/>
+      <c r="KD25" s="57"/>
+      <c r="KE25" s="57"/>
+      <c r="KF25" s="57"/>
+      <c r="KG25" s="57"/>
+      <c r="KH25" s="57"/>
+      <c r="KI25" s="57"/>
+      <c r="KJ25" s="57"/>
+      <c r="KK25" s="57"/>
+      <c r="KL25" s="57"/>
+      <c r="KM25" s="57"/>
+      <c r="KN25" s="57"/>
+      <c r="KO25" s="57"/>
+      <c r="KP25" s="57"/>
+      <c r="KQ25" s="57"/>
+      <c r="KR25" s="57"/>
+      <c r="KS25" s="57"/>
+      <c r="KT25" s="57"/>
+      <c r="KU25" s="57"/>
+      <c r="KV25" s="57"/>
+      <c r="KW25" s="57"/>
+      <c r="KX25" s="57"/>
+      <c r="KY25" s="57"/>
+      <c r="KZ25" s="57"/>
+      <c r="LA25" s="57"/>
+      <c r="LB25" s="57"/>
+      <c r="LC25" s="57"/>
+      <c r="LD25" s="57"/>
+      <c r="LE25" s="57"/>
+      <c r="LF25" s="57"/>
+      <c r="LG25" s="57"/>
+      <c r="LH25" s="57"/>
+      <c r="LI25" s="57"/>
+      <c r="LJ25" s="57"/>
+      <c r="LK25" s="57"/>
+      <c r="LL25" s="57"/>
+      <c r="LM25" s="57"/>
+      <c r="LN25" s="57"/>
+      <c r="LO25" s="57"/>
+      <c r="LP25" s="57"/>
+      <c r="LQ25" s="57"/>
+      <c r="LR25" s="57"/>
+      <c r="LS25" s="57"/>
+      <c r="LT25" s="57"/>
+      <c r="LU25" s="57"/>
+      <c r="LV25" s="57"/>
+      <c r="LW25" s="57"/>
+      <c r="LX25" s="57"/>
+      <c r="LY25" s="57"/>
+      <c r="LZ25" s="57"/>
+      <c r="MA25" s="57"/>
+      <c r="MB25" s="57"/>
+      <c r="MC25" s="57"/>
+      <c r="MD25" s="57"/>
+      <c r="ME25" s="57"/>
+      <c r="MF25" s="57"/>
+      <c r="MG25" s="57"/>
+      <c r="MH25" s="57"/>
+      <c r="MI25" s="57"/>
+      <c r="MJ25" s="57"/>
+      <c r="MK25" s="57"/>
+      <c r="ML25" s="57"/>
+      <c r="MM25" s="57"/>
+      <c r="MN25" s="57"/>
+      <c r="MO25" s="57"/>
+      <c r="MP25" s="57"/>
+      <c r="MQ25" s="57"/>
+      <c r="MR25" s="57"/>
+      <c r="MS25" s="57"/>
+      <c r="MT25" s="57"/>
+      <c r="MU25" s="57"/>
+      <c r="MV25" s="57"/>
+      <c r="MW25" s="57"/>
+      <c r="MX25" s="57"/>
+      <c r="MY25" s="57"/>
+      <c r="MZ25" s="57"/>
+      <c r="NA25" s="57"/>
+      <c r="NB25" s="57"/>
+      <c r="NC25" s="57"/>
+      <c r="ND25" s="57"/>
+      <c r="NE25" s="57"/>
+      <c r="NF25" s="57"/>
+      <c r="NG25" s="57"/>
+      <c r="NH25" s="57"/>
+      <c r="NI25" s="57"/>
+      <c r="NJ25" s="57"/>
+      <c r="NK25" s="57"/>
+      <c r="NL25" s="57"/>
+      <c r="NM25" s="57"/>
+      <c r="NN25" s="57"/>
+      <c r="NO25" s="57"/>
+      <c r="NP25" s="57"/>
+      <c r="NQ25" s="57"/>
+      <c r="NR25" s="57"/>
+      <c r="NS25" s="57"/>
+      <c r="NT25" s="57"/>
+      <c r="NU25" s="57"/>
+      <c r="NV25" s="57"/>
+      <c r="NW25" s="57"/>
+      <c r="NX25" s="57"/>
+      <c r="NY25" s="57"/>
+      <c r="NZ25" s="57"/>
+      <c r="OA25" s="57"/>
+      <c r="OB25" s="57"/>
+      <c r="OC25" s="57"/>
+      <c r="OD25" s="57"/>
+      <c r="OE25" s="57"/>
+      <c r="OF25" s="57"/>
+      <c r="OG25" s="57"/>
+      <c r="OH25" s="57"/>
+      <c r="OI25" s="57"/>
+      <c r="OJ25" s="57"/>
+      <c r="OK25" s="57"/>
+      <c r="OL25" s="57"/>
+      <c r="OM25" s="57"/>
+      <c r="ON25" s="57"/>
+      <c r="OO25" s="57"/>
+      <c r="OP25" s="57"/>
+      <c r="OQ25" s="57"/>
+      <c r="OR25" s="57"/>
+      <c r="OS25" s="57"/>
+      <c r="OT25" s="57"/>
+      <c r="OU25" s="57"/>
+      <c r="OV25" s="57"/>
+      <c r="OW25" s="57"/>
+      <c r="OX25" s="57"/>
+      <c r="OY25" s="57"/>
+      <c r="OZ25" s="57"/>
+      <c r="PA25" s="57"/>
+      <c r="PB25" s="57"/>
+      <c r="PC25" s="57"/>
+      <c r="PD25" s="57"/>
+      <c r="PE25" s="57"/>
+      <c r="PF25" s="57"/>
+      <c r="PG25" s="57"/>
+      <c r="PH25" s="57"/>
+      <c r="PI25" s="57"/>
+      <c r="PJ25" s="57"/>
+      <c r="PK25" s="57"/>
+      <c r="PL25" s="57"/>
+      <c r="PM25" s="57"/>
+      <c r="PN25" s="57"/>
+      <c r="PO25" s="57"/>
+      <c r="PP25" s="57"/>
+      <c r="PQ25" s="57"/>
+      <c r="PR25" s="57"/>
+      <c r="PS25" s="57"/>
+      <c r="PT25" s="57"/>
+      <c r="PU25" s="57"/>
+      <c r="PV25" s="57"/>
+      <c r="PW25" s="57"/>
+      <c r="PX25" s="57"/>
+      <c r="PY25" s="57"/>
+      <c r="PZ25" s="57"/>
+      <c r="QA25" s="57"/>
+      <c r="QB25" s="57"/>
+      <c r="QC25" s="57"/>
+      <c r="QD25" s="57"/>
+      <c r="QE25" s="57"/>
+      <c r="QF25" s="57"/>
+      <c r="QG25" s="57"/>
+      <c r="QH25" s="57"/>
+      <c r="QI25" s="57"/>
+      <c r="QJ25" s="57"/>
+      <c r="QK25" s="57"/>
+      <c r="QL25" s="57"/>
+      <c r="QM25" s="57"/>
+      <c r="QN25" s="57"/>
+      <c r="QO25" s="57"/>
+      <c r="QP25" s="57"/>
+      <c r="QQ25" s="57"/>
+      <c r="QR25" s="57"/>
+      <c r="QS25" s="57"/>
+      <c r="QT25" s="57"/>
+      <c r="QU25" s="57"/>
+      <c r="QV25" s="57"/>
+      <c r="QW25" s="57"/>
+      <c r="QX25" s="57"/>
+      <c r="QY25" s="57"/>
+      <c r="QZ25" s="57"/>
+      <c r="RA25" s="57"/>
+      <c r="RB25" s="57"/>
+      <c r="RC25" s="57"/>
+      <c r="RD25" s="57"/>
+      <c r="RE25" s="57"/>
+      <c r="RF25" s="57"/>
+      <c r="RG25" s="57"/>
+      <c r="RH25" s="57"/>
+      <c r="RI25" s="57"/>
+      <c r="RJ25" s="57"/>
+      <c r="RK25" s="57"/>
+      <c r="RL25" s="57"/>
+      <c r="RM25" s="57"/>
+      <c r="RN25" s="57"/>
+      <c r="RO25" s="57"/>
+      <c r="RP25" s="57"/>
+      <c r="RQ25" s="57"/>
+      <c r="RR25" s="57"/>
+      <c r="RS25" s="57"/>
+      <c r="RT25" s="57"/>
+      <c r="RU25" s="57"/>
+      <c r="RV25" s="57"/>
+      <c r="RW25" s="57"/>
+      <c r="RX25" s="57"/>
+      <c r="RY25" s="57"/>
+      <c r="RZ25" s="57"/>
+      <c r="SA25" s="57"/>
+      <c r="SB25" s="57"/>
+      <c r="SC25" s="57"/>
+      <c r="SD25" s="57"/>
+      <c r="SE25" s="57"/>
+      <c r="SF25" s="57"/>
+      <c r="SG25" s="57"/>
+      <c r="SH25" s="57"/>
+      <c r="SI25" s="57"/>
+      <c r="SJ25" s="57"/>
+      <c r="SK25" s="57"/>
+      <c r="SL25" s="57"/>
+      <c r="SM25" s="57"/>
+      <c r="SN25" s="57"/>
+      <c r="SO25" s="57"/>
+      <c r="SP25" s="57"/>
+      <c r="SQ25" s="57"/>
+      <c r="SR25" s="57"/>
+      <c r="SS25" s="57"/>
+      <c r="ST25" s="57"/>
+      <c r="SU25" s="57"/>
+      <c r="SV25" s="57"/>
+      <c r="SW25" s="57"/>
+      <c r="SX25" s="57"/>
+      <c r="SY25" s="57"/>
+      <c r="SZ25" s="57"/>
+      <c r="TA25" s="57"/>
+      <c r="TB25" s="57"/>
+      <c r="TC25" s="57"/>
+      <c r="TD25" s="57"/>
+      <c r="TE25" s="57"/>
+      <c r="TF25" s="57"/>
+      <c r="TG25" s="57"/>
+      <c r="TH25" s="57"/>
+      <c r="TI25" s="57"/>
+      <c r="TJ25" s="57"/>
+      <c r="TK25" s="57"/>
+      <c r="TL25" s="57"/>
+      <c r="TM25" s="57"/>
+      <c r="TN25" s="57"/>
+      <c r="TO25" s="57"/>
+      <c r="TP25" s="57"/>
+      <c r="TQ25" s="57"/>
+      <c r="TR25" s="57"/>
+      <c r="TS25" s="57"/>
+      <c r="TT25" s="57"/>
+      <c r="TU25" s="57"/>
+      <c r="TV25" s="57"/>
+      <c r="TW25" s="57"/>
+      <c r="TX25" s="57"/>
+      <c r="TY25" s="57"/>
+      <c r="TZ25" s="57"/>
+      <c r="UA25" s="57"/>
+      <c r="UB25" s="57"/>
+      <c r="UC25" s="57"/>
+      <c r="UD25" s="57"/>
+      <c r="UE25" s="57"/>
+      <c r="UF25" s="57"/>
+      <c r="UG25" s="57"/>
+      <c r="UH25" s="57"/>
+      <c r="UI25" s="57"/>
+      <c r="UJ25" s="57"/>
+      <c r="UK25" s="57"/>
+      <c r="UL25" s="57"/>
+      <c r="UM25" s="57"/>
+      <c r="UN25" s="57"/>
+      <c r="UO25" s="57"/>
+      <c r="UP25" s="57"/>
+      <c r="UQ25" s="57"/>
+      <c r="UR25" s="57"/>
+      <c r="US25" s="57"/>
+      <c r="UT25" s="57"/>
+      <c r="UU25" s="57"/>
+      <c r="UV25" s="57"/>
+      <c r="UW25" s="57"/>
+      <c r="UX25" s="57"/>
+      <c r="UY25" s="57"/>
+      <c r="UZ25" s="57"/>
+      <c r="VA25" s="57"/>
+      <c r="VB25" s="57"/>
+      <c r="VC25" s="57"/>
+      <c r="VD25" s="57"/>
+      <c r="VE25" s="57"/>
+      <c r="VF25" s="57"/>
+      <c r="VG25" s="57"/>
+      <c r="VH25" s="57"/>
+      <c r="VI25" s="57"/>
+      <c r="VJ25" s="57"/>
+      <c r="VK25" s="57"/>
+      <c r="VL25" s="57"/>
+      <c r="VM25" s="57"/>
+      <c r="VN25" s="57"/>
+      <c r="VO25" s="57"/>
+      <c r="VP25" s="57"/>
+      <c r="VQ25" s="57"/>
+      <c r="VR25" s="57"/>
+      <c r="VS25" s="57"/>
+      <c r="VT25" s="57"/>
+      <c r="VU25" s="57"/>
+      <c r="VV25" s="57"/>
+      <c r="VW25" s="57"/>
+      <c r="VX25" s="57"/>
+      <c r="VY25" s="57"/>
+      <c r="VZ25" s="57"/>
+      <c r="WA25" s="57"/>
+      <c r="WB25" s="57"/>
+      <c r="WC25" s="57"/>
+      <c r="WD25" s="57"/>
+      <c r="WE25" s="57"/>
+      <c r="WF25" s="57"/>
+      <c r="WG25" s="57"/>
+      <c r="WH25" s="57"/>
+      <c r="WI25" s="57"/>
+      <c r="WJ25" s="57"/>
+      <c r="WK25" s="57"/>
+      <c r="WL25" s="57"/>
+      <c r="WM25" s="57"/>
+      <c r="WN25" s="57"/>
+      <c r="WO25" s="57"/>
+      <c r="WP25" s="57"/>
+      <c r="WQ25" s="57"/>
+      <c r="WR25" s="57"/>
+      <c r="WS25" s="57"/>
+      <c r="WT25" s="57"/>
+      <c r="WU25" s="57"/>
+      <c r="WV25" s="57"/>
+      <c r="WW25" s="57"/>
+      <c r="WX25" s="57"/>
+      <c r="WY25" s="57"/>
+      <c r="WZ25" s="57"/>
+      <c r="XA25" s="57"/>
+      <c r="XB25" s="57"/>
+      <c r="XC25" s="57"/>
+      <c r="XD25" s="57"/>
+      <c r="XE25" s="57"/>
+      <c r="XF25" s="57"/>
+      <c r="XG25" s="57"/>
+      <c r="XH25" s="57"/>
+      <c r="XI25" s="57"/>
+      <c r="XJ25" s="57"/>
+      <c r="XK25" s="57"/>
+      <c r="XL25" s="57"/>
+      <c r="XM25" s="57"/>
+      <c r="XN25" s="57"/>
+      <c r="XO25" s="57"/>
+      <c r="XP25" s="57"/>
+      <c r="XQ25" s="57"/>
+      <c r="XR25" s="57"/>
+      <c r="XS25" s="57"/>
+      <c r="XT25" s="57"/>
+      <c r="XU25" s="57"/>
+      <c r="XV25" s="57"/>
+      <c r="XW25" s="57"/>
+      <c r="XX25" s="57"/>
+      <c r="XY25" s="57"/>
+      <c r="XZ25" s="57"/>
+      <c r="YA25" s="57"/>
+      <c r="YB25" s="57"/>
+      <c r="YC25" s="57"/>
+      <c r="YD25" s="57"/>
+      <c r="YE25" s="57"/>
+      <c r="YF25" s="57"/>
+      <c r="YG25" s="57"/>
+      <c r="YH25" s="57"/>
+      <c r="YI25" s="57"/>
+      <c r="YJ25" s="57"/>
+      <c r="YK25" s="57"/>
+      <c r="YL25" s="57"/>
+      <c r="YM25" s="57"/>
+      <c r="YN25" s="57"/>
+      <c r="YO25" s="57"/>
+      <c r="YP25" s="57"/>
+      <c r="YQ25" s="57"/>
+      <c r="YR25" s="57"/>
+      <c r="YS25" s="57"/>
+      <c r="YT25" s="57"/>
+      <c r="YU25" s="57"/>
+      <c r="YV25" s="57"/>
+      <c r="YW25" s="57"/>
+      <c r="YX25" s="57"/>
+      <c r="YY25" s="57"/>
+      <c r="YZ25" s="57"/>
+      <c r="ZA25" s="57"/>
+      <c r="ZB25" s="57"/>
+      <c r="ZC25" s="57"/>
+      <c r="ZD25" s="57"/>
+      <c r="ZE25" s="57"/>
+      <c r="ZF25" s="57"/>
+      <c r="ZG25" s="57"/>
+      <c r="ZH25" s="57"/>
+      <c r="ZI25" s="57"/>
+      <c r="ZJ25" s="57"/>
+      <c r="ZK25" s="57"/>
+      <c r="ZL25" s="57"/>
+      <c r="ZM25" s="57"/>
+      <c r="ZN25" s="57"/>
+      <c r="ZO25" s="57"/>
+      <c r="ZP25" s="57"/>
+      <c r="ZQ25" s="57"/>
+      <c r="ZR25" s="57"/>
+      <c r="ZS25" s="57"/>
+      <c r="ZT25" s="57"/>
+      <c r="ZU25" s="57"/>
+      <c r="ZV25" s="57"/>
+      <c r="ZW25" s="57"/>
+      <c r="ZX25" s="57"/>
+      <c r="ZY25" s="57"/>
+      <c r="ZZ25" s="57"/>
+      <c r="AAA25" s="57"/>
+      <c r="AAB25" s="57"/>
+      <c r="AAC25" s="57"/>
+      <c r="AAD25" s="57"/>
+      <c r="AAE25" s="57"/>
+      <c r="AAF25" s="57"/>
+      <c r="AAG25" s="57"/>
+      <c r="AAH25" s="57"/>
+      <c r="AAI25" s="57"/>
+      <c r="AAJ25" s="57"/>
+      <c r="AAK25" s="57"/>
+      <c r="AAL25" s="57"/>
+      <c r="AAM25" s="57"/>
+      <c r="AAN25" s="57"/>
+      <c r="AAO25" s="57"/>
+      <c r="AAP25" s="57"/>
+      <c r="AAQ25" s="57"/>
+      <c r="AAR25" s="57"/>
+      <c r="AAS25" s="57"/>
+      <c r="AAT25" s="57"/>
+      <c r="AAU25" s="57"/>
+      <c r="AAV25" s="57"/>
+      <c r="AAW25" s="57"/>
+      <c r="AAX25" s="57"/>
+      <c r="AAY25" s="57"/>
+      <c r="AAZ25" s="57"/>
+      <c r="ABA25" s="57"/>
+      <c r="ABB25" s="57"/>
+      <c r="ABC25" s="57"/>
+      <c r="ABD25" s="57"/>
+      <c r="ABE25" s="57"/>
+      <c r="ABF25" s="57"/>
+      <c r="ABG25" s="57"/>
+      <c r="ABH25" s="57"/>
+      <c r="ABI25" s="57"/>
+      <c r="ABJ25" s="57"/>
+      <c r="ABK25" s="57"/>
+      <c r="ABL25" s="57"/>
+      <c r="ABM25" s="57"/>
+      <c r="ABN25" s="57"/>
+      <c r="ABO25" s="57"/>
+      <c r="ABP25" s="57"/>
+      <c r="ABQ25" s="57"/>
+      <c r="ABR25" s="57"/>
+      <c r="ABS25" s="57"/>
+      <c r="ABT25" s="57"/>
+      <c r="ABU25" s="57"/>
+      <c r="ABV25" s="57"/>
+      <c r="ABW25" s="57"/>
+      <c r="ABX25" s="57"/>
+      <c r="ABY25" s="57"/>
+      <c r="ABZ25" s="57"/>
+      <c r="ACA25" s="57"/>
+      <c r="ACB25" s="57"/>
+      <c r="ACC25" s="57"/>
+      <c r="ACD25" s="57"/>
+      <c r="ACE25" s="57"/>
+      <c r="ACF25" s="57"/>
+      <c r="ACG25" s="57"/>
+      <c r="ACH25" s="57"/>
+      <c r="ACI25" s="57"/>
+      <c r="ACJ25" s="57"/>
+      <c r="ACK25" s="57"/>
+      <c r="ACL25" s="57"/>
+      <c r="ACM25" s="57"/>
+      <c r="ACN25" s="57"/>
+      <c r="ACO25" s="57"/>
+      <c r="ACP25" s="57"/>
+      <c r="ACQ25" s="57"/>
+      <c r="ACR25" s="57"/>
+      <c r="ACS25" s="57"/>
+      <c r="ACT25" s="57"/>
+      <c r="ACU25" s="57"/>
+      <c r="ACV25" s="57"/>
+      <c r="ACW25" s="57"/>
+      <c r="ACX25" s="57"/>
+      <c r="ACY25" s="57"/>
+      <c r="ACZ25" s="57"/>
+      <c r="ADA25" s="57"/>
+      <c r="ADB25" s="57"/>
+      <c r="ADC25" s="57"/>
+      <c r="ADD25" s="57"/>
+      <c r="ADE25" s="57"/>
+      <c r="ADF25" s="57"/>
+      <c r="ADG25" s="57"/>
+      <c r="ADH25" s="57"/>
+      <c r="ADI25" s="57"/>
+      <c r="ADJ25" s="57"/>
+      <c r="ADK25" s="57"/>
+      <c r="ADL25" s="57"/>
+      <c r="ADM25" s="57"/>
+      <c r="ADN25" s="57"/>
+      <c r="ADO25" s="57"/>
+      <c r="ADP25" s="57"/>
+      <c r="ADQ25" s="57"/>
+      <c r="ADR25" s="57"/>
+      <c r="ADS25" s="57"/>
+      <c r="ADT25" s="57"/>
+      <c r="ADU25" s="57"/>
+      <c r="ADV25" s="57"/>
+      <c r="ADW25" s="57"/>
+      <c r="ADX25" s="57"/>
+      <c r="ADY25" s="57"/>
+      <c r="ADZ25" s="57"/>
+      <c r="AEA25" s="57"/>
+      <c r="AEB25" s="57"/>
+      <c r="AEC25" s="57"/>
+      <c r="AED25" s="57"/>
+      <c r="AEE25" s="57"/>
+      <c r="AEF25" s="57"/>
+      <c r="AEG25" s="57"/>
+      <c r="AEH25" s="57"/>
+      <c r="AEI25" s="57"/>
+      <c r="AEJ25" s="57"/>
+      <c r="AEK25" s="57"/>
+      <c r="AEL25" s="57"/>
+      <c r="AEM25" s="57"/>
+      <c r="AEN25" s="57"/>
+      <c r="AEO25" s="57"/>
+      <c r="AEP25" s="57"/>
+      <c r="AEQ25" s="57"/>
+      <c r="AER25" s="57"/>
+      <c r="AES25" s="57"/>
+      <c r="AET25" s="57"/>
+      <c r="AEU25" s="57"/>
+      <c r="AEV25" s="57"/>
+      <c r="AEW25" s="57"/>
+      <c r="AEX25" s="57"/>
+      <c r="AEY25" s="57"/>
+      <c r="AEZ25" s="57"/>
+      <c r="AFA25" s="57"/>
+      <c r="AFB25" s="57"/>
+      <c r="AFC25" s="57"/>
+      <c r="AFD25" s="57"/>
+      <c r="AFE25" s="57"/>
+      <c r="AFF25" s="57"/>
+      <c r="AFG25" s="57"/>
+      <c r="AFH25" s="57"/>
+      <c r="AFI25" s="57"/>
+      <c r="AFJ25" s="57"/>
+      <c r="AFK25" s="57"/>
+      <c r="AFL25" s="57"/>
+      <c r="AFM25" s="57"/>
+      <c r="AFN25" s="57"/>
+      <c r="AFO25" s="57"/>
+      <c r="AFP25" s="57"/>
+      <c r="AFQ25" s="57"/>
+      <c r="AFR25" s="57"/>
+      <c r="AFS25" s="57"/>
+      <c r="AFT25" s="57"/>
+      <c r="AFU25" s="57"/>
+      <c r="AFV25" s="57"/>
+      <c r="AFW25" s="57"/>
+      <c r="AFX25" s="57"/>
+      <c r="AFY25" s="57"/>
+      <c r="AFZ25" s="57"/>
+      <c r="AGA25" s="57"/>
+      <c r="AGB25" s="57"/>
+      <c r="AGC25" s="57"/>
+      <c r="AGD25" s="57"/>
+      <c r="AGE25" s="57"/>
+      <c r="AGF25" s="57"/>
+      <c r="AGG25" s="57"/>
+      <c r="AGH25" s="57"/>
+      <c r="AGI25" s="57"/>
+      <c r="AGJ25" s="57"/>
+      <c r="AGK25" s="57"/>
+      <c r="AGL25" s="57"/>
+      <c r="AGM25" s="57"/>
+      <c r="AGN25" s="57"/>
+      <c r="AGO25" s="57"/>
+      <c r="AGP25" s="57"/>
+      <c r="AGQ25" s="57"/>
+      <c r="AGR25" s="57"/>
+      <c r="AGS25" s="57"/>
+      <c r="AGT25" s="57"/>
+      <c r="AGU25" s="57"/>
+      <c r="AGV25" s="57"/>
+      <c r="AGW25" s="57"/>
+      <c r="AGX25" s="57"/>
+      <c r="AGY25" s="57"/>
+      <c r="AGZ25" s="57"/>
+      <c r="AHA25" s="57"/>
+      <c r="AHB25" s="57"/>
+      <c r="AHC25" s="57"/>
+      <c r="AHD25" s="57"/>
+      <c r="AHE25" s="57"/>
+      <c r="AHF25" s="57"/>
+      <c r="AHG25" s="57"/>
+      <c r="AHH25" s="57"/>
+      <c r="AHI25" s="57"/>
+      <c r="AHJ25" s="57"/>
+      <c r="AHK25" s="57"/>
+      <c r="AHL25" s="57"/>
+      <c r="AHM25" s="57"/>
+      <c r="AHN25" s="57"/>
+      <c r="AHO25" s="57"/>
+      <c r="AHP25" s="57"/>
+      <c r="AHQ25" s="57"/>
+      <c r="AHR25" s="57"/>
+      <c r="AHS25" s="57"/>
+      <c r="AHT25" s="57"/>
+      <c r="AHU25" s="57"/>
+      <c r="AHV25" s="57"/>
+      <c r="AHW25" s="57"/>
+      <c r="AHX25" s="57"/>
+      <c r="AHY25" s="57"/>
+      <c r="AHZ25" s="57"/>
+      <c r="AIA25" s="57"/>
+      <c r="AIB25" s="57"/>
+      <c r="AIC25" s="57"/>
+      <c r="AID25" s="57"/>
+      <c r="AIE25" s="57"/>
+      <c r="AIF25" s="57"/>
+      <c r="AIG25" s="57"/>
+      <c r="AIH25" s="57"/>
+      <c r="AII25" s="57"/>
+      <c r="AIJ25" s="57"/>
+      <c r="AIK25" s="57"/>
+      <c r="AIL25" s="57"/>
+      <c r="AIM25" s="57"/>
+      <c r="AIN25" s="57"/>
+      <c r="AIO25" s="57"/>
+      <c r="AIP25" s="57"/>
+      <c r="AIQ25" s="57"/>
+      <c r="AIR25" s="57"/>
+      <c r="AIS25" s="57"/>
+      <c r="AIT25" s="57"/>
+      <c r="AIU25" s="57"/>
+      <c r="AIV25" s="57"/>
+      <c r="AIW25" s="57"/>
+      <c r="AIX25" s="57"/>
+      <c r="AIY25" s="57"/>
+      <c r="AIZ25" s="57"/>
+      <c r="AJA25" s="57"/>
+      <c r="AJB25" s="57"/>
+      <c r="AJC25" s="57"/>
+      <c r="AJD25" s="57"/>
+      <c r="AJE25" s="57"/>
+      <c r="AJF25" s="57"/>
+      <c r="AJG25" s="57"/>
+      <c r="AJH25" s="57"/>
+      <c r="AJI25" s="57"/>
+      <c r="AJJ25" s="57"/>
+      <c r="AJK25" s="57"/>
+      <c r="AJL25" s="57"/>
+      <c r="AJM25" s="57"/>
+      <c r="AJN25" s="57"/>
+      <c r="AJO25" s="57"/>
+      <c r="AJP25" s="57"/>
+      <c r="AJQ25" s="57"/>
+      <c r="AJR25" s="57"/>
+      <c r="AJS25" s="57"/>
+      <c r="AJT25" s="57"/>
+      <c r="AJU25" s="57"/>
+      <c r="AJV25" s="57"/>
+      <c r="AJW25" s="57"/>
+      <c r="AJX25" s="57"/>
+      <c r="AJY25" s="57"/>
+      <c r="AJZ25" s="57"/>
+      <c r="AKA25" s="57"/>
+      <c r="AKB25" s="57"/>
+      <c r="AKC25" s="57"/>
+      <c r="AKD25" s="57"/>
+      <c r="AKE25" s="57"/>
+      <c r="AKF25" s="57"/>
+      <c r="AKG25" s="57"/>
+      <c r="AKH25" s="57"/>
+      <c r="AKI25" s="57"/>
+      <c r="AKJ25" s="57"/>
+      <c r="AKK25" s="57"/>
+      <c r="AKL25" s="57"/>
+      <c r="AKM25" s="57"/>
+      <c r="AKN25" s="57"/>
+      <c r="AKO25" s="57"/>
+      <c r="AKP25" s="57"/>
+      <c r="AKQ25" s="57"/>
+      <c r="AKR25" s="57"/>
+      <c r="AKS25" s="57"/>
+      <c r="AKT25" s="57"/>
+      <c r="AKU25" s="57"/>
+      <c r="AKV25" s="57"/>
+      <c r="AKW25" s="57"/>
+      <c r="AKX25" s="57"/>
+      <c r="AKY25" s="57"/>
+      <c r="AKZ25" s="57"/>
+      <c r="ALA25" s="57"/>
+      <c r="ALB25" s="57"/>
+      <c r="ALC25" s="57"/>
+      <c r="ALD25" s="57"/>
+      <c r="ALE25" s="57"/>
+      <c r="ALF25" s="57"/>
+      <c r="ALG25" s="57"/>
+      <c r="ALH25" s="57"/>
+      <c r="ALI25" s="57"/>
+      <c r="ALJ25" s="57"/>
+      <c r="ALK25" s="57"/>
+      <c r="ALL25" s="57"/>
+      <c r="ALM25" s="57"/>
+      <c r="ALN25" s="57"/>
+      <c r="ALO25" s="57"/>
+      <c r="ALP25" s="57"/>
+      <c r="ALQ25" s="57"/>
+      <c r="ALR25" s="57"/>
+      <c r="ALS25" s="57"/>
+      <c r="ALT25" s="57"/>
+      <c r="ALU25" s="57"/>
+      <c r="ALV25" s="57"/>
+      <c r="ALW25" s="57"/>
+      <c r="ALX25" s="57"/>
+      <c r="ALY25" s="57"/>
+      <c r="ALZ25" s="57"/>
+      <c r="AMA25" s="57"/>
+      <c r="AMB25" s="57"/>
+      <c r="AMC25" s="57"/>
+      <c r="AMD25" s="57"/>
+      <c r="AME25" s="57"/>
+      <c r="AMF25" s="57"/>
+      <c r="AMG25" s="57"/>
+      <c r="AMH25" s="57"/>
+      <c r="AMI25" s="57"/>
+      <c r="AMJ25" s="57"/>
+      <c r="AMK25" s="57"/>
+      <c r="AML25" s="57"/>
+      <c r="AMM25" s="57"/>
     </row>
-    <row r="26" ht="15.75" spans="1:23">
+    <row r="26" ht="15.75" spans="1:25">
       <c r="A26" s="20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B26" s="21">
         <v>0</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26" s="21">
         <v>416</v>
@@ -6143,7 +6224,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K26" s="22">
         <v>24</v>
@@ -6155,45 +6236,47 @@
         <v>0.0003</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O26" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P26" s="22" t="s">
-        <v>47</v>
-      </c>
+      <c r="P26" s="36"/>
       <c r="Q26" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="R26" s="22">
+        <v>49</v>
+      </c>
+      <c r="R26" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S26" s="22">
         <v>0</v>
       </c>
-      <c r="S26" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="T26" s="22">
+      <c r="T26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U26" s="22">
         <v>0.9918</v>
       </c>
-      <c r="U26" s="51">
+      <c r="V26" s="51">
         <v>0.976</v>
       </c>
-      <c r="V26" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="W26" s="43" t="s">
-        <v>64</v>
-      </c>
+      <c r="W26" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="X26" s="44" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y26" s="44"/>
     </row>
-    <row r="27" ht="15.75" spans="1:23">
+    <row r="27" ht="15.75" spans="1:25">
       <c r="A27" s="25" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B27" s="26">
         <v>0</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D27" s="26">
         <v>416</v>
@@ -6214,7 +6297,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K27" s="28">
         <v>24</v>
@@ -6226,45 +6309,197 @@
         <v>0.0003</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O27" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P27" s="28" t="s">
+      <c r="P27" s="37"/>
+      <c r="Q27" s="28" t="s">
+        <v>49</v>
+      </c>
+      <c r="R27" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="S27" s="28">
+        <v>0</v>
+      </c>
+      <c r="T27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="28">
+        <v>0.9861</v>
+      </c>
+      <c r="V27" s="54">
+        <v>0.974</v>
+      </c>
+      <c r="W27" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="X27" s="44" t="s">
+        <v>70</v>
+      </c>
+      <c r="Y27" s="44"/>
+    </row>
+    <row r="28" ht="15.75" spans="1:25">
+      <c r="A28" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="21">
+        <v>0</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="Q27" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="R27" s="28">
+      <c r="D28" s="21">
+        <v>416</v>
+      </c>
+      <c r="E28" s="21">
         <v>0</v>
       </c>
-      <c r="S27" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="T27" s="28">
+      <c r="F28" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G28" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="I28" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K28" s="22">
+        <v>24</v>
+      </c>
+      <c r="L28" s="22">
+        <v>40</v>
+      </c>
+      <c r="M28" s="36">
+        <v>0.0003</v>
+      </c>
+      <c r="N28" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="36">
+        <v>0.0005</v>
+      </c>
+      <c r="P28" s="38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R28" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S28" s="22">
+        <v>0</v>
+      </c>
+      <c r="T28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U28" s="22">
         <v>0.9861</v>
       </c>
-      <c r="U27" s="55">
-        <v>0.974</v>
-      </c>
-      <c r="V27" s="28" t="s">
-        <v>66</v>
-      </c>
-      <c r="W27" s="43" t="s">
-        <v>67</v>
-      </c>
+      <c r="V28" s="51">
+        <v>0.976</v>
+      </c>
+      <c r="W28" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="X28" s="44" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y28" s="44" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="29" ht="15.75" spans="1:25">
+      <c r="A29" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="21">
+        <v>0</v>
+      </c>
+      <c r="C29" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="D29" s="21">
+        <v>416</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.2</v>
+      </c>
+      <c r="G29" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="I29" s="23" t="b">
+        <v>1</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K29" s="22">
+        <v>24</v>
+      </c>
+      <c r="L29" s="22">
+        <v>30</v>
+      </c>
+      <c r="M29" s="36">
+        <v>0.0003</v>
+      </c>
+      <c r="N29" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O29" s="36">
+        <v>0.0005</v>
+      </c>
+      <c r="P29" s="36"/>
+      <c r="Q29" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="R29" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="S29" s="22">
+        <v>0</v>
+      </c>
+      <c r="T29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="U29" s="22">
+        <v>0.9875</v>
+      </c>
+      <c r="V29" s="51">
+        <v>0.976</v>
+      </c>
+      <c r="W29" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="X29" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y29" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:P1"/>
-    <mergeCell ref="Q1:R1"/>
-    <mergeCell ref="A15:U15"/>
-    <mergeCell ref="A19:W19"/>
+    <mergeCell ref="K1:Q1"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="A15:V15"/>
+    <mergeCell ref="A19:Y19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -9,13 +9,14 @@
   </bookViews>
   <sheets>
     <sheet name="record" sheetId="1" r:id="rId1"/>
+    <sheet name="实验" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
   <si>
     <t>Model</t>
   </si>
@@ -98,6 +99,9 @@
     <t>sparsity</t>
   </si>
   <si>
+    <t>l1_decay</t>
+  </si>
+  <si>
     <t>optimizer</t>
   </si>
   <si>
@@ -243,6 +247,30 @@
   </si>
   <si>
     <t>早停有效</t>
+  </si>
+  <si>
+    <t>log-2019-12-17T08-48-17</t>
+  </si>
+  <si>
+    <t>在大数据集上使用sparsity效果不明显</t>
+  </si>
+  <si>
+    <t>Apple</t>
+  </si>
+  <si>
+    <t>combine_delete_repeat，efficientnet-b5</t>
+  </si>
+  <si>
+    <t>MXQ</t>
+  </si>
+  <si>
+    <t>combine_delete_repeat，同时使用cut_mix和sparsity</t>
+  </si>
+  <si>
+    <t>Online</t>
+  </si>
+  <si>
+    <t>combine_expand，增大cut_mix的概率</t>
   </si>
 </sst>
 </file>
@@ -250,10 +278,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -296,6 +324,14 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
@@ -303,14 +339,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,19 +352,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -349,7 +368,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -357,7 +376,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -370,6 +404,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -377,8 +426,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -393,22 +443,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,8 +464,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -432,21 +475,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -545,7 +573,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,7 +609,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -569,19 +633,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -593,31 +705,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -629,85 +729,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -892,8 +920,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -913,11 +956,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -933,17 +982,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -962,158 +1005,143 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="40" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="36" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="42" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="39" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1247,46 +1275,46 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1679,10 +1707,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMM29"/>
+  <dimension ref="A1:AMN30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L5" workbookViewId="0">
+      <selection activeCell="Q31" sqref="Q31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1700,19 +1728,19 @@
     <col min="12" max="12" width="9" style="5" customWidth="1"/>
     <col min="13" max="13" width="18.3416666666667" style="5" customWidth="1"/>
     <col min="14" max="14" width="14.6333333333333" style="5" customWidth="1"/>
-    <col min="15" max="16" width="16" style="5" customWidth="1"/>
-    <col min="17" max="17" width="12.7" style="5" customWidth="1"/>
-    <col min="18" max="19" width="18.1166666666667" style="5" customWidth="1"/>
-    <col min="20" max="20" width="27.8833333333333" style="5" customWidth="1"/>
-    <col min="21" max="21" width="12.3833333333333" style="5" customWidth="1"/>
-    <col min="22" max="22" width="10.9916666666667" style="5" customWidth="1"/>
-    <col min="23" max="23" width="23.75" style="5" customWidth="1"/>
-    <col min="24" max="24" width="35.9333333333333" style="5" customWidth="1"/>
-    <col min="25" max="25" width="19.4083333333333" style="5" customWidth="1"/>
-    <col min="26" max="1027" width="9" style="5" customWidth="1"/>
+    <col min="15" max="17" width="16" style="5" customWidth="1"/>
+    <col min="18" max="18" width="12.7" style="5" customWidth="1"/>
+    <col min="19" max="20" width="18.1166666666667" style="5" customWidth="1"/>
+    <col min="21" max="21" width="27.8833333333333" style="5" customWidth="1"/>
+    <col min="22" max="22" width="12.3833333333333" style="5" customWidth="1"/>
+    <col min="23" max="23" width="10.9916666666667" style="5" customWidth="1"/>
+    <col min="24" max="24" width="23.75" style="5" customWidth="1"/>
+    <col min="25" max="25" width="35.9333333333333" style="5" customWidth="1"/>
+    <col min="26" max="26" width="19.4083333333333" style="5" customWidth="1"/>
+    <col min="27" max="1028" width="9" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:25">
+    <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:26">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1738,30 +1766,31 @@
       <c r="O1" s="29"/>
       <c r="P1" s="29"/>
       <c r="Q1" s="29"/>
-      <c r="R1" s="39" t="s">
+      <c r="R1" s="29"/>
+      <c r="S1" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="S1" s="39"/>
-      <c r="T1" s="40" t="s">
+      <c r="T1" s="39"/>
+      <c r="U1" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="U1" s="39" t="s">
+      <c r="V1" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="W1" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="X1" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="Y1" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="Y1" s="55" t="s">
+      <c r="Z1" s="52" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:22">
+    <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
       <c r="A2" s="8" t="s">
         <v>11</v>
       </c>
@@ -1819,19 +1848,22 @@
       <c r="S2" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="8"/>
+      <c r="T2" s="8" t="s">
+        <v>30</v>
+      </c>
       <c r="U2" s="8"/>
       <c r="V2" s="8"/>
+      <c r="W2" s="8"/>
     </row>
-    <row r="3" ht="22.5" customHeight="1" spans="1:23">
+    <row r="3" ht="22.5" customHeight="1" spans="1:24">
       <c r="A3" s="9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B3" s="9">
         <v>0.5</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" s="9">
         <v>256</v>
@@ -1850,7 +1882,7 @@
       </c>
       <c r="I3" s="9"/>
       <c r="J3" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3" s="9">
         <v>24</v>
@@ -1862,41 +1894,42 @@
         <v>0.01</v>
       </c>
       <c r="N3" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O3" s="31">
         <v>0.0005</v>
       </c>
       <c r="P3" s="31"/>
-      <c r="Q3" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q3" s="31"/>
       <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="9">
+      <c r="S3" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T3" s="9">
         <v>1</v>
-      </c>
-      <c r="T3" s="9" t="s">
-        <v>36</v>
       </c>
       <c r="U3" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="9">
+      <c r="V3" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="W3" s="9">
         <v>0.954</v>
       </c>
-      <c r="W3" s="44"/>
+      <c r="X3" s="43"/>
     </row>
-    <row r="4" ht="22.5" customHeight="1" spans="1:23">
+    <row r="4" ht="22.5" customHeight="1" spans="1:24">
       <c r="A4" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B4" s="9">
         <v>0</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D4" s="9">
         <v>256</v>
@@ -1915,7 +1948,7 @@
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4" s="9">
         <v>24</v>
@@ -1927,41 +1960,42 @@
         <v>0.01</v>
       </c>
       <c r="N4" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O4" s="31">
         <v>0.0005</v>
       </c>
       <c r="P4" s="31"/>
-      <c r="Q4" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q4" s="31"/>
       <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="9">
+      <c r="S4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="9">
         <v>1</v>
       </c>
-      <c r="T4" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U4" s="9">
+      <c r="U4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V4" s="9">
         <v>0.957</v>
       </c>
-      <c r="V4" s="9">
+      <c r="W4" s="9">
         <v>0.946</v>
       </c>
-      <c r="W4" s="44"/>
+      <c r="X4" s="43"/>
     </row>
-    <row r="5" ht="21.75" customHeight="1" spans="1:23">
+    <row r="5" ht="21.75" customHeight="1" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B5" s="9">
         <v>0</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D5" s="9">
         <v>256</v>
@@ -1980,7 +2014,7 @@
       </c>
       <c r="I5" s="9"/>
       <c r="J5" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5" s="9">
         <v>24</v>
@@ -1992,41 +2026,42 @@
         <v>0.01</v>
       </c>
       <c r="N5" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O5" s="31">
         <v>0.0005</v>
       </c>
       <c r="P5" s="31"/>
-      <c r="Q5" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q5" s="31"/>
       <c r="R5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="9">
+      <c r="S5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T5" s="9">
         <v>1</v>
       </c>
-      <c r="T5" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="U5" s="9">
+      <c r="U5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="V5" s="9">
         <v>0.9643</v>
       </c>
-      <c r="V5" s="9">
+      <c r="W5" s="9">
         <v>0.949</v>
       </c>
-      <c r="W5" s="44"/>
+      <c r="X5" s="43"/>
     </row>
-    <row r="6" ht="18.75" customHeight="1" spans="1:23">
+    <row r="6" ht="18.75" customHeight="1" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="9">
         <v>0</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D6" s="9">
         <v>256</v>
@@ -2045,7 +2080,7 @@
       </c>
       <c r="I6" s="9"/>
       <c r="J6" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6" s="9">
         <v>24</v>
@@ -2057,41 +2092,42 @@
         <v>0.01</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O6" s="31">
         <v>0.0005</v>
       </c>
       <c r="P6" s="31"/>
-      <c r="Q6" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q6" s="31"/>
       <c r="R6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T6" s="9">
         <v>1</v>
       </c>
-      <c r="T6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U6" s="9">
+      <c r="U6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V6" s="9">
         <v>0.9669</v>
       </c>
-      <c r="V6" s="9">
+      <c r="W6" s="9">
         <v>0.952</v>
       </c>
-      <c r="W6" s="44"/>
+      <c r="X6" s="43"/>
     </row>
-    <row r="7" ht="18.75" customHeight="1" spans="1:23">
+    <row r="7" ht="18.75" customHeight="1" spans="1:24">
       <c r="A7" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B7" s="9">
         <v>0</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" s="9">
         <v>256</v>
@@ -2110,7 +2146,7 @@
       </c>
       <c r="I7" s="9"/>
       <c r="J7" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7" s="9">
         <v>24</v>
@@ -2122,41 +2158,42 @@
         <v>0.01</v>
       </c>
       <c r="N7" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O7" s="31">
         <v>0.0005</v>
       </c>
       <c r="P7" s="31"/>
-      <c r="Q7" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q7" s="31"/>
       <c r="R7" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="9">
+      <c r="S7" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T7" s="9">
         <v>1</v>
-      </c>
-      <c r="T7" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="U7" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="9">
+      <c r="V7" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7" s="9">
         <v>0.958</v>
       </c>
-      <c r="W7" s="44"/>
+      <c r="X7" s="43"/>
     </row>
-    <row r="8" ht="19.5" customHeight="1" spans="1:23">
+    <row r="8" ht="19.5" customHeight="1" spans="1:24">
       <c r="A8" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B8" s="9">
         <v>0</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D8" s="9">
         <v>256</v>
@@ -2175,7 +2212,7 @@
       </c>
       <c r="I8" s="9"/>
       <c r="J8" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8" s="9">
         <v>24</v>
@@ -2187,41 +2224,42 @@
         <v>0.01</v>
       </c>
       <c r="N8" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O8" s="31">
         <v>0.0005</v>
       </c>
       <c r="P8" s="31"/>
-      <c r="Q8" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q8" s="31"/>
       <c r="R8" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="9">
+      <c r="S8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T8" s="9">
         <v>1</v>
       </c>
-      <c r="T8" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="9">
+      <c r="U8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="V8" s="9">
         <v>0.9663</v>
       </c>
-      <c r="V8" s="9">
+      <c r="W8" s="9">
         <v>0.959</v>
       </c>
-      <c r="W8" s="44"/>
+      <c r="X8" s="43"/>
     </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:23">
+    <row r="9" ht="17.25" customHeight="1" spans="1:24">
       <c r="A9" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9">
         <v>0</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D9" s="9">
         <v>256</v>
@@ -2240,7 +2278,7 @@
       </c>
       <c r="I9" s="9"/>
       <c r="J9" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9" s="9">
         <v>24</v>
@@ -2252,41 +2290,42 @@
         <v>0.01</v>
       </c>
       <c r="N9" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O9" s="31">
         <v>0.0005</v>
       </c>
       <c r="P9" s="31"/>
-      <c r="Q9" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q9" s="31"/>
       <c r="R9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="9">
+      <c r="S9" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T9" s="9">
         <v>1</v>
       </c>
-      <c r="T9" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U9" s="9">
+      <c r="U9" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V9" s="9">
         <v>0.9673</v>
       </c>
-      <c r="V9" s="9">
+      <c r="W9" s="9">
         <v>0.961</v>
       </c>
-      <c r="W9" s="44"/>
+      <c r="X9" s="43"/>
     </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:23">
+    <row r="10" ht="17.25" customHeight="1" spans="1:24">
       <c r="A10" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9">
         <v>0</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9">
         <v>256</v>
@@ -2305,7 +2344,7 @@
       </c>
       <c r="I10" s="9"/>
       <c r="J10" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K10" s="9">
         <v>24</v>
@@ -2317,42 +2356,43 @@
         <v>0.01</v>
       </c>
       <c r="N10" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="O10" s="31">
         <v>0.0005</v>
       </c>
       <c r="P10" s="31"/>
-      <c r="Q10" s="9" t="s">
-        <v>34</v>
-      </c>
+      <c r="Q10" s="31"/>
       <c r="R10" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="9">
+      <c r="S10" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T10" s="9">
         <v>0</v>
       </c>
-      <c r="T10" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U10" s="9">
+      <c r="U10" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V10" s="9">
         <v>0.981</v>
       </c>
-      <c r="V10" s="9">
+      <c r="W10" s="9">
         <v>0.964</v>
       </c>
-      <c r="W10" s="44"/>
+      <c r="X10" s="43"/>
     </row>
     <row r="11" ht="19.5" customHeight="1"/>
-    <row r="12" ht="18" customHeight="1" spans="1:23">
+    <row r="12" ht="18" customHeight="1" spans="1:24">
       <c r="A12" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B12" s="10">
         <v>0</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="10">
         <v>256</v>
@@ -2371,7 +2411,7 @@
       </c>
       <c r="I12" s="10"/>
       <c r="J12" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K12" s="9">
         <v>24</v>
@@ -2383,41 +2423,42 @@
         <v>0.002</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O12" s="31">
         <v>0.0005</v>
       </c>
       <c r="P12" s="31"/>
-      <c r="Q12" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R12" s="9" t="s">
+      <c r="Q12" s="31"/>
+      <c r="R12" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="10">
+      <c r="S12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="10">
         <v>2</v>
       </c>
-      <c r="T12" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U12" s="10">
+      <c r="U12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V12" s="10">
         <v>0.9804</v>
       </c>
-      <c r="V12" s="10">
+      <c r="W12" s="10">
         <v>0.964</v>
       </c>
-      <c r="W12" s="44"/>
+      <c r="X12" s="43"/>
     </row>
-    <row r="13" ht="15.75" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="10">
         <v>0</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D13" s="10">
         <v>256</v>
@@ -2436,7 +2477,7 @@
       </c>
       <c r="I13" s="10"/>
       <c r="J13" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K13" s="9">
         <v>24</v>
@@ -2448,41 +2489,42 @@
         <v>0.001</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O13" s="31">
         <v>0.0005</v>
       </c>
       <c r="P13" s="31"/>
-      <c r="Q13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="R13" s="9" t="s">
+      <c r="Q13" s="31"/>
+      <c r="R13" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="10">
+      <c r="S13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T13" s="10">
         <v>2</v>
       </c>
-      <c r="T13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U13" s="10">
+      <c r="U13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V13" s="10">
         <v>0.9783</v>
       </c>
-      <c r="V13" s="10">
+      <c r="W13" s="10">
         <v>0.955</v>
       </c>
-      <c r="W13" s="44"/>
+      <c r="X13" s="43"/>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:23">
+    <row r="14" ht="18" customHeight="1" spans="1:24">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B14" s="10">
         <v>0</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D14" s="10">
         <v>256</v>
@@ -2501,7 +2543,7 @@
       </c>
       <c r="I14" s="10"/>
       <c r="J14" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K14" s="9">
         <v>24</v>
@@ -2510,38 +2552,39 @@
         <v>30</v>
       </c>
       <c r="M14" s="31" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O14" s="31">
         <v>0.0005</v>
       </c>
       <c r="P14" s="31"/>
-      <c r="Q14" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R14" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S14" s="10">
+      <c r="Q14" s="31"/>
+      <c r="R14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S14" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T14" s="10">
         <v>0</v>
       </c>
-      <c r="T14" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U14" s="10">
+      <c r="U14" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V14" s="10">
         <v>0.9827</v>
       </c>
-      <c r="V14" s="21">
+      <c r="W14" s="21">
         <v>0.971</v>
       </c>
-      <c r="W14" s="44"/>
+      <c r="X14" s="43"/>
     </row>
-    <row r="15" ht="20.25" customHeight="1" spans="1:22">
+    <row r="15" ht="20.25" customHeight="1" spans="1:23">
       <c r="A15" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -2564,16 +2607,17 @@
       <c r="T15" s="11"/>
       <c r="U15" s="11"/>
       <c r="V15" s="11"/>
+      <c r="W15" s="11"/>
     </row>
-    <row r="16" ht="18" customHeight="1" spans="1:23">
+    <row r="16" ht="18" customHeight="1" spans="1:24">
       <c r="A16" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B16" s="13">
         <v>0</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D16" s="13">
         <v>416</v>
@@ -2592,7 +2636,7 @@
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K16" s="12">
         <v>8</v>
@@ -2601,44 +2645,45 @@
         <v>30</v>
       </c>
       <c r="M16" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N16" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O16" s="32">
         <v>0.0005</v>
       </c>
       <c r="P16" s="32"/>
-      <c r="Q16" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R16" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S16" s="13">
+      <c r="Q16" s="32"/>
+      <c r="R16" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S16" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T16" s="13">
         <v>0</v>
       </c>
-      <c r="T16" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U16" s="13">
+      <c r="U16" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V16" s="13">
         <v>0.9837</v>
       </c>
-      <c r="V16" s="45">
+      <c r="W16" s="44">
         <v>0.974</v>
       </c>
-      <c r="W16" s="44"/>
+      <c r="X16" s="43"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:1027">
+    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:1028">
       <c r="A17" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B17" s="13">
         <v>0</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D17" s="13">
         <v>256</v>
@@ -2657,7 +2702,7 @@
       </c>
       <c r="I17" s="13"/>
       <c r="J17" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K17" s="12">
         <v>24</v>
@@ -2669,1037 +2714,1038 @@
         <v>0.0003</v>
       </c>
       <c r="N17" s="13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O17" s="32">
         <v>0.0005</v>
       </c>
       <c r="P17" s="32"/>
-      <c r="Q17" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="R17" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="S17" s="13">
+      <c r="Q17" s="32"/>
+      <c r="R17" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="S17" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="T17" s="13">
         <v>0</v>
       </c>
-      <c r="T17" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="U17" s="13">
+      <c r="U17" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="V17" s="13">
         <v>0.9827</v>
       </c>
-      <c r="V17" s="13">
+      <c r="W17" s="13">
         <v>0.955</v>
       </c>
-      <c r="W17" s="46"/>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="47"/>
-      <c r="Z17" s="47"/>
-      <c r="AA17" s="47"/>
-      <c r="AB17" s="47"/>
-      <c r="AC17" s="47"/>
-      <c r="AD17" s="47"/>
-      <c r="AE17" s="47"/>
-      <c r="AF17" s="47"/>
-      <c r="AG17" s="47"/>
-      <c r="AH17" s="47"/>
-      <c r="AI17" s="47"/>
-      <c r="AJ17" s="47"/>
-      <c r="AK17" s="47"/>
-      <c r="AL17" s="47"/>
-      <c r="AM17" s="47"/>
-      <c r="AN17" s="47"/>
-      <c r="AO17" s="47"/>
-      <c r="AP17" s="47"/>
-      <c r="AQ17" s="47"/>
-      <c r="AR17" s="47"/>
-      <c r="AS17" s="47"/>
-      <c r="AT17" s="47"/>
-      <c r="AU17" s="47"/>
-      <c r="AV17" s="47"/>
-      <c r="AW17" s="47"/>
-      <c r="AX17" s="47"/>
-      <c r="AY17" s="47"/>
-      <c r="AZ17" s="47"/>
-      <c r="BA17" s="47"/>
-      <c r="BB17" s="47"/>
-      <c r="BC17" s="47"/>
-      <c r="BD17" s="47"/>
-      <c r="BE17" s="47"/>
-      <c r="BF17" s="47"/>
-      <c r="BG17" s="47"/>
-      <c r="BH17" s="47"/>
-      <c r="BI17" s="47"/>
-      <c r="BJ17" s="47"/>
-      <c r="BK17" s="47"/>
-      <c r="BL17" s="47"/>
-      <c r="BM17" s="47"/>
-      <c r="BN17" s="47"/>
-      <c r="BO17" s="47"/>
-      <c r="BP17" s="47"/>
-      <c r="BQ17" s="47"/>
-      <c r="BR17" s="47"/>
-      <c r="BS17" s="47"/>
-      <c r="BT17" s="47"/>
-      <c r="BU17" s="47"/>
-      <c r="BV17" s="47"/>
-      <c r="BW17" s="47"/>
-      <c r="BX17" s="47"/>
-      <c r="BY17" s="47"/>
-      <c r="BZ17" s="47"/>
-      <c r="CA17" s="47"/>
-      <c r="CB17" s="47"/>
-      <c r="CC17" s="47"/>
-      <c r="CD17" s="47"/>
-      <c r="CE17" s="47"/>
-      <c r="CF17" s="47"/>
-      <c r="CG17" s="47"/>
-      <c r="CH17" s="47"/>
-      <c r="CI17" s="47"/>
-      <c r="CJ17" s="47"/>
-      <c r="CK17" s="47"/>
-      <c r="CL17" s="47"/>
-      <c r="CM17" s="47"/>
-      <c r="CN17" s="47"/>
-      <c r="CO17" s="47"/>
-      <c r="CP17" s="47"/>
-      <c r="CQ17" s="47"/>
-      <c r="CR17" s="47"/>
-      <c r="CS17" s="47"/>
-      <c r="CT17" s="47"/>
-      <c r="CU17" s="47"/>
-      <c r="CV17" s="47"/>
-      <c r="CW17" s="47"/>
-      <c r="CX17" s="47"/>
-      <c r="CY17" s="47"/>
-      <c r="CZ17" s="47"/>
-      <c r="DA17" s="47"/>
-      <c r="DB17" s="47"/>
-      <c r="DC17" s="47"/>
-      <c r="DD17" s="47"/>
-      <c r="DE17" s="47"/>
-      <c r="DF17" s="47"/>
-      <c r="DG17" s="47"/>
-      <c r="DH17" s="47"/>
-      <c r="DI17" s="47"/>
-      <c r="DJ17" s="47"/>
-      <c r="DK17" s="47"/>
-      <c r="DL17" s="47"/>
-      <c r="DM17" s="47"/>
-      <c r="DN17" s="47"/>
-      <c r="DO17" s="47"/>
-      <c r="DP17" s="47"/>
-      <c r="DQ17" s="47"/>
-      <c r="DR17" s="47"/>
-      <c r="DS17" s="47"/>
-      <c r="DT17" s="47"/>
-      <c r="DU17" s="47"/>
-      <c r="DV17" s="47"/>
-      <c r="DW17" s="47"/>
-      <c r="DX17" s="47"/>
-      <c r="DY17" s="47"/>
-      <c r="DZ17" s="47"/>
-      <c r="EA17" s="47"/>
-      <c r="EB17" s="47"/>
-      <c r="EC17" s="47"/>
-      <c r="ED17" s="47"/>
-      <c r="EE17" s="47"/>
-      <c r="EF17" s="47"/>
-      <c r="EG17" s="47"/>
-      <c r="EH17" s="47"/>
-      <c r="EI17" s="47"/>
-      <c r="EJ17" s="47"/>
-      <c r="EK17" s="47"/>
-      <c r="EL17" s="47"/>
-      <c r="EM17" s="47"/>
-      <c r="EN17" s="47"/>
-      <c r="EO17" s="47"/>
-      <c r="EP17" s="47"/>
-      <c r="EQ17" s="47"/>
-      <c r="ER17" s="47"/>
-      <c r="ES17" s="47"/>
-      <c r="ET17" s="47"/>
-      <c r="EU17" s="47"/>
-      <c r="EV17" s="47"/>
-      <c r="EW17" s="47"/>
-      <c r="EX17" s="47"/>
-      <c r="EY17" s="47"/>
-      <c r="EZ17" s="47"/>
-      <c r="FA17" s="47"/>
-      <c r="FB17" s="47"/>
-      <c r="FC17" s="47"/>
-      <c r="FD17" s="47"/>
-      <c r="FE17" s="47"/>
-      <c r="FF17" s="47"/>
-      <c r="FG17" s="47"/>
-      <c r="FH17" s="47"/>
-      <c r="FI17" s="47"/>
-      <c r="FJ17" s="47"/>
-      <c r="FK17" s="47"/>
-      <c r="FL17" s="47"/>
-      <c r="FM17" s="47"/>
-      <c r="FN17" s="47"/>
-      <c r="FO17" s="47"/>
-      <c r="FP17" s="47"/>
-      <c r="FQ17" s="47"/>
-      <c r="FR17" s="47"/>
-      <c r="FS17" s="47"/>
-      <c r="FT17" s="47"/>
-      <c r="FU17" s="47"/>
-      <c r="FV17" s="47"/>
-      <c r="FW17" s="47"/>
-      <c r="FX17" s="47"/>
-      <c r="FY17" s="47"/>
-      <c r="FZ17" s="47"/>
-      <c r="GA17" s="47"/>
-      <c r="GB17" s="47"/>
-      <c r="GC17" s="47"/>
-      <c r="GD17" s="47"/>
-      <c r="GE17" s="47"/>
-      <c r="GF17" s="47"/>
-      <c r="GG17" s="47"/>
-      <c r="GH17" s="47"/>
-      <c r="GI17" s="47"/>
-      <c r="GJ17" s="47"/>
-      <c r="GK17" s="47"/>
-      <c r="GL17" s="47"/>
-      <c r="GM17" s="47"/>
-      <c r="GN17" s="47"/>
-      <c r="GO17" s="47"/>
-      <c r="GP17" s="47"/>
-      <c r="GQ17" s="47"/>
-      <c r="GR17" s="47"/>
-      <c r="GS17" s="47"/>
-      <c r="GT17" s="47"/>
-      <c r="GU17" s="47"/>
-      <c r="GV17" s="47"/>
-      <c r="GW17" s="47"/>
-      <c r="GX17" s="47"/>
-      <c r="GY17" s="47"/>
-      <c r="GZ17" s="47"/>
-      <c r="HA17" s="47"/>
-      <c r="HB17" s="47"/>
-      <c r="HC17" s="47"/>
-      <c r="HD17" s="47"/>
-      <c r="HE17" s="47"/>
-      <c r="HF17" s="47"/>
-      <c r="HG17" s="47"/>
-      <c r="HH17" s="47"/>
-      <c r="HI17" s="47"/>
-      <c r="HJ17" s="47"/>
-      <c r="HK17" s="47"/>
-      <c r="HL17" s="47"/>
-      <c r="HM17" s="47"/>
-      <c r="HN17" s="47"/>
-      <c r="HO17" s="47"/>
-      <c r="HP17" s="47"/>
-      <c r="HQ17" s="47"/>
-      <c r="HR17" s="47"/>
-      <c r="HS17" s="47"/>
-      <c r="HT17" s="47"/>
-      <c r="HU17" s="47"/>
-      <c r="HV17" s="47"/>
-      <c r="HW17" s="47"/>
-      <c r="HX17" s="47"/>
-      <c r="HY17" s="47"/>
-      <c r="HZ17" s="47"/>
-      <c r="IA17" s="47"/>
-      <c r="IB17" s="47"/>
-      <c r="IC17" s="47"/>
-      <c r="ID17" s="47"/>
-      <c r="IE17" s="47"/>
-      <c r="IF17" s="47"/>
-      <c r="IG17" s="47"/>
-      <c r="IH17" s="47"/>
-      <c r="II17" s="47"/>
-      <c r="IJ17" s="47"/>
-      <c r="IK17" s="47"/>
-      <c r="IL17" s="47"/>
-      <c r="IM17" s="47"/>
-      <c r="IN17" s="47"/>
-      <c r="IO17" s="47"/>
-      <c r="IP17" s="47"/>
-      <c r="IQ17" s="47"/>
-      <c r="IR17" s="47"/>
-      <c r="IS17" s="47"/>
-      <c r="IT17" s="47"/>
-      <c r="IU17" s="47"/>
-      <c r="IV17" s="47"/>
-      <c r="IW17" s="47"/>
-      <c r="IX17" s="47"/>
-      <c r="IY17" s="47"/>
-      <c r="IZ17" s="47"/>
-      <c r="JA17" s="47"/>
-      <c r="JB17" s="47"/>
-      <c r="JC17" s="47"/>
-      <c r="JD17" s="47"/>
-      <c r="JE17" s="47"/>
-      <c r="JF17" s="47"/>
-      <c r="JG17" s="47"/>
-      <c r="JH17" s="47"/>
-      <c r="JI17" s="47"/>
-      <c r="JJ17" s="47"/>
-      <c r="JK17" s="47"/>
-      <c r="JL17" s="47"/>
-      <c r="JM17" s="47"/>
-      <c r="JN17" s="47"/>
-      <c r="JO17" s="47"/>
-      <c r="JP17" s="47"/>
-      <c r="JQ17" s="47"/>
-      <c r="JR17" s="47"/>
-      <c r="JS17" s="47"/>
-      <c r="JT17" s="47"/>
-      <c r="JU17" s="47"/>
-      <c r="JV17" s="47"/>
-      <c r="JW17" s="47"/>
-      <c r="JX17" s="47"/>
-      <c r="JY17" s="47"/>
-      <c r="JZ17" s="47"/>
-      <c r="KA17" s="47"/>
-      <c r="KB17" s="47"/>
-      <c r="KC17" s="47"/>
-      <c r="KD17" s="47"/>
-      <c r="KE17" s="47"/>
-      <c r="KF17" s="47"/>
-      <c r="KG17" s="47"/>
-      <c r="KH17" s="47"/>
-      <c r="KI17" s="47"/>
-      <c r="KJ17" s="47"/>
-      <c r="KK17" s="47"/>
-      <c r="KL17" s="47"/>
-      <c r="KM17" s="47"/>
-      <c r="KN17" s="47"/>
-      <c r="KO17" s="47"/>
-      <c r="KP17" s="47"/>
-      <c r="KQ17" s="47"/>
-      <c r="KR17" s="47"/>
-      <c r="KS17" s="47"/>
-      <c r="KT17" s="47"/>
-      <c r="KU17" s="47"/>
-      <c r="KV17" s="47"/>
-      <c r="KW17" s="47"/>
-      <c r="KX17" s="47"/>
-      <c r="KY17" s="47"/>
-      <c r="KZ17" s="47"/>
-      <c r="LA17" s="47"/>
-      <c r="LB17" s="47"/>
-      <c r="LC17" s="47"/>
-      <c r="LD17" s="47"/>
-      <c r="LE17" s="47"/>
-      <c r="LF17" s="47"/>
-      <c r="LG17" s="47"/>
-      <c r="LH17" s="47"/>
-      <c r="LI17" s="47"/>
-      <c r="LJ17" s="47"/>
-      <c r="LK17" s="47"/>
-      <c r="LL17" s="47"/>
-      <c r="LM17" s="47"/>
-      <c r="LN17" s="47"/>
-      <c r="LO17" s="47"/>
-      <c r="LP17" s="47"/>
-      <c r="LQ17" s="47"/>
-      <c r="LR17" s="47"/>
-      <c r="LS17" s="47"/>
-      <c r="LT17" s="47"/>
-      <c r="LU17" s="47"/>
-      <c r="LV17" s="47"/>
-      <c r="LW17" s="47"/>
-      <c r="LX17" s="47"/>
-      <c r="LY17" s="47"/>
-      <c r="LZ17" s="47"/>
-      <c r="MA17" s="47"/>
-      <c r="MB17" s="47"/>
-      <c r="MC17" s="47"/>
-      <c r="MD17" s="47"/>
-      <c r="ME17" s="47"/>
-      <c r="MF17" s="47"/>
-      <c r="MG17" s="47"/>
-      <c r="MH17" s="47"/>
-      <c r="MI17" s="47"/>
-      <c r="MJ17" s="47"/>
-      <c r="MK17" s="47"/>
-      <c r="ML17" s="47"/>
-      <c r="MM17" s="47"/>
-      <c r="MN17" s="47"/>
-      <c r="MO17" s="47"/>
-      <c r="MP17" s="47"/>
-      <c r="MQ17" s="47"/>
-      <c r="MR17" s="47"/>
-      <c r="MS17" s="47"/>
-      <c r="MT17" s="47"/>
-      <c r="MU17" s="47"/>
-      <c r="MV17" s="47"/>
-      <c r="MW17" s="47"/>
-      <c r="MX17" s="47"/>
-      <c r="MY17" s="47"/>
-      <c r="MZ17" s="47"/>
-      <c r="NA17" s="47"/>
-      <c r="NB17" s="47"/>
-      <c r="NC17" s="47"/>
-      <c r="ND17" s="47"/>
-      <c r="NE17" s="47"/>
-      <c r="NF17" s="47"/>
-      <c r="NG17" s="47"/>
-      <c r="NH17" s="47"/>
-      <c r="NI17" s="47"/>
-      <c r="NJ17" s="47"/>
-      <c r="NK17" s="47"/>
-      <c r="NL17" s="47"/>
-      <c r="NM17" s="47"/>
-      <c r="NN17" s="47"/>
-      <c r="NO17" s="47"/>
-      <c r="NP17" s="47"/>
-      <c r="NQ17" s="47"/>
-      <c r="NR17" s="47"/>
-      <c r="NS17" s="47"/>
-      <c r="NT17" s="47"/>
-      <c r="NU17" s="47"/>
-      <c r="NV17" s="47"/>
-      <c r="NW17" s="47"/>
-      <c r="NX17" s="47"/>
-      <c r="NY17" s="47"/>
-      <c r="NZ17" s="47"/>
-      <c r="OA17" s="47"/>
-      <c r="OB17" s="47"/>
-      <c r="OC17" s="47"/>
-      <c r="OD17" s="47"/>
-      <c r="OE17" s="47"/>
-      <c r="OF17" s="47"/>
-      <c r="OG17" s="47"/>
-      <c r="OH17" s="47"/>
-      <c r="OI17" s="47"/>
-      <c r="OJ17" s="47"/>
-      <c r="OK17" s="47"/>
-      <c r="OL17" s="47"/>
-      <c r="OM17" s="47"/>
-      <c r="ON17" s="47"/>
-      <c r="OO17" s="47"/>
-      <c r="OP17" s="47"/>
-      <c r="OQ17" s="47"/>
-      <c r="OR17" s="47"/>
-      <c r="OS17" s="47"/>
-      <c r="OT17" s="47"/>
-      <c r="OU17" s="47"/>
-      <c r="OV17" s="47"/>
-      <c r="OW17" s="47"/>
-      <c r="OX17" s="47"/>
-      <c r="OY17" s="47"/>
-      <c r="OZ17" s="47"/>
-      <c r="PA17" s="47"/>
-      <c r="PB17" s="47"/>
-      <c r="PC17" s="47"/>
-      <c r="PD17" s="47"/>
-      <c r="PE17" s="47"/>
-      <c r="PF17" s="47"/>
-      <c r="PG17" s="47"/>
-      <c r="PH17" s="47"/>
-      <c r="PI17" s="47"/>
-      <c r="PJ17" s="47"/>
-      <c r="PK17" s="47"/>
-      <c r="PL17" s="47"/>
-      <c r="PM17" s="47"/>
-      <c r="PN17" s="47"/>
-      <c r="PO17" s="47"/>
-      <c r="PP17" s="47"/>
-      <c r="PQ17" s="47"/>
-      <c r="PR17" s="47"/>
-      <c r="PS17" s="47"/>
-      <c r="PT17" s="47"/>
-      <c r="PU17" s="47"/>
-      <c r="PV17" s="47"/>
-      <c r="PW17" s="47"/>
-      <c r="PX17" s="47"/>
-      <c r="PY17" s="47"/>
-      <c r="PZ17" s="47"/>
-      <c r="QA17" s="47"/>
-      <c r="QB17" s="47"/>
-      <c r="QC17" s="47"/>
-      <c r="QD17" s="47"/>
-      <c r="QE17" s="47"/>
-      <c r="QF17" s="47"/>
-      <c r="QG17" s="47"/>
-      <c r="QH17" s="47"/>
-      <c r="QI17" s="47"/>
-      <c r="QJ17" s="47"/>
-      <c r="QK17" s="47"/>
-      <c r="QL17" s="47"/>
-      <c r="QM17" s="47"/>
-      <c r="QN17" s="47"/>
-      <c r="QO17" s="47"/>
-      <c r="QP17" s="47"/>
-      <c r="QQ17" s="47"/>
-      <c r="QR17" s="47"/>
-      <c r="QS17" s="47"/>
-      <c r="QT17" s="47"/>
-      <c r="QU17" s="47"/>
-      <c r="QV17" s="47"/>
-      <c r="QW17" s="47"/>
-      <c r="QX17" s="47"/>
-      <c r="QY17" s="47"/>
-      <c r="QZ17" s="47"/>
-      <c r="RA17" s="47"/>
-      <c r="RB17" s="47"/>
-      <c r="RC17" s="47"/>
-      <c r="RD17" s="47"/>
-      <c r="RE17" s="47"/>
-      <c r="RF17" s="47"/>
-      <c r="RG17" s="47"/>
-      <c r="RH17" s="47"/>
-      <c r="RI17" s="47"/>
-      <c r="RJ17" s="47"/>
-      <c r="RK17" s="47"/>
-      <c r="RL17" s="47"/>
-      <c r="RM17" s="47"/>
-      <c r="RN17" s="47"/>
-      <c r="RO17" s="47"/>
-      <c r="RP17" s="47"/>
-      <c r="RQ17" s="47"/>
-      <c r="RR17" s="47"/>
-      <c r="RS17" s="47"/>
-      <c r="RT17" s="47"/>
-      <c r="RU17" s="47"/>
-      <c r="RV17" s="47"/>
-      <c r="RW17" s="47"/>
-      <c r="RX17" s="47"/>
-      <c r="RY17" s="47"/>
-      <c r="RZ17" s="47"/>
-      <c r="SA17" s="47"/>
-      <c r="SB17" s="47"/>
-      <c r="SC17" s="47"/>
-      <c r="SD17" s="47"/>
-      <c r="SE17" s="47"/>
-      <c r="SF17" s="47"/>
-      <c r="SG17" s="47"/>
-      <c r="SH17" s="47"/>
-      <c r="SI17" s="47"/>
-      <c r="SJ17" s="47"/>
-      <c r="SK17" s="47"/>
-      <c r="SL17" s="47"/>
-      <c r="SM17" s="47"/>
-      <c r="SN17" s="47"/>
-      <c r="SO17" s="47"/>
-      <c r="SP17" s="47"/>
-      <c r="SQ17" s="47"/>
-      <c r="SR17" s="47"/>
-      <c r="SS17" s="47"/>
-      <c r="ST17" s="47"/>
-      <c r="SU17" s="47"/>
-      <c r="SV17" s="47"/>
-      <c r="SW17" s="47"/>
-      <c r="SX17" s="47"/>
-      <c r="SY17" s="47"/>
-      <c r="SZ17" s="47"/>
-      <c r="TA17" s="47"/>
-      <c r="TB17" s="47"/>
-      <c r="TC17" s="47"/>
-      <c r="TD17" s="47"/>
-      <c r="TE17" s="47"/>
-      <c r="TF17" s="47"/>
-      <c r="TG17" s="47"/>
-      <c r="TH17" s="47"/>
-      <c r="TI17" s="47"/>
-      <c r="TJ17" s="47"/>
-      <c r="TK17" s="47"/>
-      <c r="TL17" s="47"/>
-      <c r="TM17" s="47"/>
-      <c r="TN17" s="47"/>
-      <c r="TO17" s="47"/>
-      <c r="TP17" s="47"/>
-      <c r="TQ17" s="47"/>
-      <c r="TR17" s="47"/>
-      <c r="TS17" s="47"/>
-      <c r="TT17" s="47"/>
-      <c r="TU17" s="47"/>
-      <c r="TV17" s="47"/>
-      <c r="TW17" s="47"/>
-      <c r="TX17" s="47"/>
-      <c r="TY17" s="47"/>
-      <c r="TZ17" s="47"/>
-      <c r="UA17" s="47"/>
-      <c r="UB17" s="47"/>
-      <c r="UC17" s="47"/>
-      <c r="UD17" s="47"/>
-      <c r="UE17" s="47"/>
-      <c r="UF17" s="47"/>
-      <c r="UG17" s="47"/>
-      <c r="UH17" s="47"/>
-      <c r="UI17" s="47"/>
-      <c r="UJ17" s="47"/>
-      <c r="UK17" s="47"/>
-      <c r="UL17" s="47"/>
-      <c r="UM17" s="47"/>
-      <c r="UN17" s="47"/>
-      <c r="UO17" s="47"/>
-      <c r="UP17" s="47"/>
-      <c r="UQ17" s="47"/>
-      <c r="UR17" s="47"/>
-      <c r="US17" s="47"/>
-      <c r="UT17" s="47"/>
-      <c r="UU17" s="47"/>
-      <c r="UV17" s="47"/>
-      <c r="UW17" s="47"/>
-      <c r="UX17" s="47"/>
-      <c r="UY17" s="47"/>
-      <c r="UZ17" s="47"/>
-      <c r="VA17" s="47"/>
-      <c r="VB17" s="47"/>
-      <c r="VC17" s="47"/>
-      <c r="VD17" s="47"/>
-      <c r="VE17" s="47"/>
-      <c r="VF17" s="47"/>
-      <c r="VG17" s="47"/>
-      <c r="VH17" s="47"/>
-      <c r="VI17" s="47"/>
-      <c r="VJ17" s="47"/>
-      <c r="VK17" s="47"/>
-      <c r="VL17" s="47"/>
-      <c r="VM17" s="47"/>
-      <c r="VN17" s="47"/>
-      <c r="VO17" s="47"/>
-      <c r="VP17" s="47"/>
-      <c r="VQ17" s="47"/>
-      <c r="VR17" s="47"/>
-      <c r="VS17" s="47"/>
-      <c r="VT17" s="47"/>
-      <c r="VU17" s="47"/>
-      <c r="VV17" s="47"/>
-      <c r="VW17" s="47"/>
-      <c r="VX17" s="47"/>
-      <c r="VY17" s="47"/>
-      <c r="VZ17" s="47"/>
-      <c r="WA17" s="47"/>
-      <c r="WB17" s="47"/>
-      <c r="WC17" s="47"/>
-      <c r="WD17" s="47"/>
-      <c r="WE17" s="47"/>
-      <c r="WF17" s="47"/>
-      <c r="WG17" s="47"/>
-      <c r="WH17" s="47"/>
-      <c r="WI17" s="47"/>
-      <c r="WJ17" s="47"/>
-      <c r="WK17" s="47"/>
-      <c r="WL17" s="47"/>
-      <c r="WM17" s="47"/>
-      <c r="WN17" s="47"/>
-      <c r="WO17" s="47"/>
-      <c r="WP17" s="47"/>
-      <c r="WQ17" s="47"/>
-      <c r="WR17" s="47"/>
-      <c r="WS17" s="47"/>
-      <c r="WT17" s="47"/>
-      <c r="WU17" s="47"/>
-      <c r="WV17" s="47"/>
-      <c r="WW17" s="47"/>
-      <c r="WX17" s="47"/>
-      <c r="WY17" s="47"/>
-      <c r="WZ17" s="47"/>
-      <c r="XA17" s="47"/>
-      <c r="XB17" s="47"/>
-      <c r="XC17" s="47"/>
-      <c r="XD17" s="47"/>
-      <c r="XE17" s="47"/>
-      <c r="XF17" s="47"/>
-      <c r="XG17" s="47"/>
-      <c r="XH17" s="47"/>
-      <c r="XI17" s="47"/>
-      <c r="XJ17" s="47"/>
-      <c r="XK17" s="47"/>
-      <c r="XL17" s="47"/>
-      <c r="XM17" s="47"/>
-      <c r="XN17" s="47"/>
-      <c r="XO17" s="47"/>
-      <c r="XP17" s="47"/>
-      <c r="XQ17" s="47"/>
-      <c r="XR17" s="47"/>
-      <c r="XS17" s="47"/>
-      <c r="XT17" s="47"/>
-      <c r="XU17" s="47"/>
-      <c r="XV17" s="47"/>
-      <c r="XW17" s="47"/>
-      <c r="XX17" s="47"/>
-      <c r="XY17" s="47"/>
-      <c r="XZ17" s="47"/>
-      <c r="YA17" s="47"/>
-      <c r="YB17" s="47"/>
-      <c r="YC17" s="47"/>
-      <c r="YD17" s="47"/>
-      <c r="YE17" s="47"/>
-      <c r="YF17" s="47"/>
-      <c r="YG17" s="47"/>
-      <c r="YH17" s="47"/>
-      <c r="YI17" s="47"/>
-      <c r="YJ17" s="47"/>
-      <c r="YK17" s="47"/>
-      <c r="YL17" s="47"/>
-      <c r="YM17" s="47"/>
-      <c r="YN17" s="47"/>
-      <c r="YO17" s="47"/>
-      <c r="YP17" s="47"/>
-      <c r="YQ17" s="47"/>
-      <c r="YR17" s="47"/>
-      <c r="YS17" s="47"/>
-      <c r="YT17" s="47"/>
-      <c r="YU17" s="47"/>
-      <c r="YV17" s="47"/>
-      <c r="YW17" s="47"/>
-      <c r="YX17" s="47"/>
-      <c r="YY17" s="47"/>
-      <c r="YZ17" s="47"/>
-      <c r="ZA17" s="47"/>
-      <c r="ZB17" s="47"/>
-      <c r="ZC17" s="47"/>
-      <c r="ZD17" s="47"/>
-      <c r="ZE17" s="47"/>
-      <c r="ZF17" s="47"/>
-      <c r="ZG17" s="47"/>
-      <c r="ZH17" s="47"/>
-      <c r="ZI17" s="47"/>
-      <c r="ZJ17" s="47"/>
-      <c r="ZK17" s="47"/>
-      <c r="ZL17" s="47"/>
-      <c r="ZM17" s="47"/>
-      <c r="ZN17" s="47"/>
-      <c r="ZO17" s="47"/>
-      <c r="ZP17" s="47"/>
-      <c r="ZQ17" s="47"/>
-      <c r="ZR17" s="47"/>
-      <c r="ZS17" s="47"/>
-      <c r="ZT17" s="47"/>
-      <c r="ZU17" s="47"/>
-      <c r="ZV17" s="47"/>
-      <c r="ZW17" s="47"/>
-      <c r="ZX17" s="47"/>
-      <c r="ZY17" s="47"/>
-      <c r="ZZ17" s="47"/>
-      <c r="AAA17" s="47"/>
-      <c r="AAB17" s="47"/>
-      <c r="AAC17" s="47"/>
-      <c r="AAD17" s="47"/>
-      <c r="AAE17" s="47"/>
-      <c r="AAF17" s="47"/>
-      <c r="AAG17" s="47"/>
-      <c r="AAH17" s="47"/>
-      <c r="AAI17" s="47"/>
-      <c r="AAJ17" s="47"/>
-      <c r="AAK17" s="47"/>
-      <c r="AAL17" s="47"/>
-      <c r="AAM17" s="47"/>
-      <c r="AAN17" s="47"/>
-      <c r="AAO17" s="47"/>
-      <c r="AAP17" s="47"/>
-      <c r="AAQ17" s="47"/>
-      <c r="AAR17" s="47"/>
-      <c r="AAS17" s="47"/>
-      <c r="AAT17" s="47"/>
-      <c r="AAU17" s="47"/>
-      <c r="AAV17" s="47"/>
-      <c r="AAW17" s="47"/>
-      <c r="AAX17" s="47"/>
-      <c r="AAY17" s="47"/>
-      <c r="AAZ17" s="47"/>
-      <c r="ABA17" s="47"/>
-      <c r="ABB17" s="47"/>
-      <c r="ABC17" s="47"/>
-      <c r="ABD17" s="47"/>
-      <c r="ABE17" s="47"/>
-      <c r="ABF17" s="47"/>
-      <c r="ABG17" s="47"/>
-      <c r="ABH17" s="47"/>
-      <c r="ABI17" s="47"/>
-      <c r="ABJ17" s="47"/>
-      <c r="ABK17" s="47"/>
-      <c r="ABL17" s="47"/>
-      <c r="ABM17" s="47"/>
-      <c r="ABN17" s="47"/>
-      <c r="ABO17" s="47"/>
-      <c r="ABP17" s="47"/>
-      <c r="ABQ17" s="47"/>
-      <c r="ABR17" s="47"/>
-      <c r="ABS17" s="47"/>
-      <c r="ABT17" s="47"/>
-      <c r="ABU17" s="47"/>
-      <c r="ABV17" s="47"/>
-      <c r="ABW17" s="47"/>
-      <c r="ABX17" s="47"/>
-      <c r="ABY17" s="47"/>
-      <c r="ABZ17" s="47"/>
-      <c r="ACA17" s="47"/>
-      <c r="ACB17" s="47"/>
-      <c r="ACC17" s="47"/>
-      <c r="ACD17" s="47"/>
-      <c r="ACE17" s="47"/>
-      <c r="ACF17" s="47"/>
-      <c r="ACG17" s="47"/>
-      <c r="ACH17" s="47"/>
-      <c r="ACI17" s="47"/>
-      <c r="ACJ17" s="47"/>
-      <c r="ACK17" s="47"/>
-      <c r="ACL17" s="47"/>
-      <c r="ACM17" s="47"/>
-      <c r="ACN17" s="47"/>
-      <c r="ACO17" s="47"/>
-      <c r="ACP17" s="47"/>
-      <c r="ACQ17" s="47"/>
-      <c r="ACR17" s="47"/>
-      <c r="ACS17" s="47"/>
-      <c r="ACT17" s="47"/>
-      <c r="ACU17" s="47"/>
-      <c r="ACV17" s="47"/>
-      <c r="ACW17" s="47"/>
-      <c r="ACX17" s="47"/>
-      <c r="ACY17" s="47"/>
-      <c r="ACZ17" s="47"/>
-      <c r="ADA17" s="47"/>
-      <c r="ADB17" s="47"/>
-      <c r="ADC17" s="47"/>
-      <c r="ADD17" s="47"/>
-      <c r="ADE17" s="47"/>
-      <c r="ADF17" s="47"/>
-      <c r="ADG17" s="47"/>
-      <c r="ADH17" s="47"/>
-      <c r="ADI17" s="47"/>
-      <c r="ADJ17" s="47"/>
-      <c r="ADK17" s="47"/>
-      <c r="ADL17" s="47"/>
-      <c r="ADM17" s="47"/>
-      <c r="ADN17" s="47"/>
-      <c r="ADO17" s="47"/>
-      <c r="ADP17" s="47"/>
-      <c r="ADQ17" s="47"/>
-      <c r="ADR17" s="47"/>
-      <c r="ADS17" s="47"/>
-      <c r="ADT17" s="47"/>
-      <c r="ADU17" s="47"/>
-      <c r="ADV17" s="47"/>
-      <c r="ADW17" s="47"/>
-      <c r="ADX17" s="47"/>
-      <c r="ADY17" s="47"/>
-      <c r="ADZ17" s="47"/>
-      <c r="AEA17" s="47"/>
-      <c r="AEB17" s="47"/>
-      <c r="AEC17" s="47"/>
-      <c r="AED17" s="47"/>
-      <c r="AEE17" s="47"/>
-      <c r="AEF17" s="47"/>
-      <c r="AEG17" s="47"/>
-      <c r="AEH17" s="47"/>
-      <c r="AEI17" s="47"/>
-      <c r="AEJ17" s="47"/>
-      <c r="AEK17" s="47"/>
-      <c r="AEL17" s="47"/>
-      <c r="AEM17" s="47"/>
-      <c r="AEN17" s="47"/>
-      <c r="AEO17" s="47"/>
-      <c r="AEP17" s="47"/>
-      <c r="AEQ17" s="47"/>
-      <c r="AER17" s="47"/>
-      <c r="AES17" s="47"/>
-      <c r="AET17" s="47"/>
-      <c r="AEU17" s="47"/>
-      <c r="AEV17" s="47"/>
-      <c r="AEW17" s="47"/>
-      <c r="AEX17" s="47"/>
-      <c r="AEY17" s="47"/>
-      <c r="AEZ17" s="47"/>
-      <c r="AFA17" s="47"/>
-      <c r="AFB17" s="47"/>
-      <c r="AFC17" s="47"/>
-      <c r="AFD17" s="47"/>
-      <c r="AFE17" s="47"/>
-      <c r="AFF17" s="47"/>
-      <c r="AFG17" s="47"/>
-      <c r="AFH17" s="47"/>
-      <c r="AFI17" s="47"/>
-      <c r="AFJ17" s="47"/>
-      <c r="AFK17" s="47"/>
-      <c r="AFL17" s="47"/>
-      <c r="AFM17" s="47"/>
-      <c r="AFN17" s="47"/>
-      <c r="AFO17" s="47"/>
-      <c r="AFP17" s="47"/>
-      <c r="AFQ17" s="47"/>
-      <c r="AFR17" s="47"/>
-      <c r="AFS17" s="47"/>
-      <c r="AFT17" s="47"/>
-      <c r="AFU17" s="47"/>
-      <c r="AFV17" s="47"/>
-      <c r="AFW17" s="47"/>
-      <c r="AFX17" s="47"/>
-      <c r="AFY17" s="47"/>
-      <c r="AFZ17" s="47"/>
-      <c r="AGA17" s="47"/>
-      <c r="AGB17" s="47"/>
-      <c r="AGC17" s="47"/>
-      <c r="AGD17" s="47"/>
-      <c r="AGE17" s="47"/>
-      <c r="AGF17" s="47"/>
-      <c r="AGG17" s="47"/>
-      <c r="AGH17" s="47"/>
-      <c r="AGI17" s="47"/>
-      <c r="AGJ17" s="47"/>
-      <c r="AGK17" s="47"/>
-      <c r="AGL17" s="47"/>
-      <c r="AGM17" s="47"/>
-      <c r="AGN17" s="47"/>
-      <c r="AGO17" s="47"/>
-      <c r="AGP17" s="47"/>
-      <c r="AGQ17" s="47"/>
-      <c r="AGR17" s="47"/>
-      <c r="AGS17" s="47"/>
-      <c r="AGT17" s="47"/>
-      <c r="AGU17" s="47"/>
-      <c r="AGV17" s="47"/>
-      <c r="AGW17" s="47"/>
-      <c r="AGX17" s="47"/>
-      <c r="AGY17" s="47"/>
-      <c r="AGZ17" s="47"/>
-      <c r="AHA17" s="47"/>
-      <c r="AHB17" s="47"/>
-      <c r="AHC17" s="47"/>
-      <c r="AHD17" s="47"/>
-      <c r="AHE17" s="47"/>
-      <c r="AHF17" s="47"/>
-      <c r="AHG17" s="47"/>
-      <c r="AHH17" s="47"/>
-      <c r="AHI17" s="47"/>
-      <c r="AHJ17" s="47"/>
-      <c r="AHK17" s="47"/>
-      <c r="AHL17" s="47"/>
-      <c r="AHM17" s="47"/>
-      <c r="AHN17" s="47"/>
-      <c r="AHO17" s="47"/>
-      <c r="AHP17" s="47"/>
-      <c r="AHQ17" s="47"/>
-      <c r="AHR17" s="47"/>
-      <c r="AHS17" s="47"/>
-      <c r="AHT17" s="47"/>
-      <c r="AHU17" s="47"/>
-      <c r="AHV17" s="47"/>
-      <c r="AHW17" s="47"/>
-      <c r="AHX17" s="47"/>
-      <c r="AHY17" s="47"/>
-      <c r="AHZ17" s="47"/>
-      <c r="AIA17" s="47"/>
-      <c r="AIB17" s="47"/>
-      <c r="AIC17" s="47"/>
-      <c r="AID17" s="47"/>
-      <c r="AIE17" s="47"/>
-      <c r="AIF17" s="47"/>
-      <c r="AIG17" s="47"/>
-      <c r="AIH17" s="47"/>
-      <c r="AII17" s="47"/>
-      <c r="AIJ17" s="47"/>
-      <c r="AIK17" s="47"/>
-      <c r="AIL17" s="47"/>
-      <c r="AIM17" s="47"/>
-      <c r="AIN17" s="47"/>
-      <c r="AIO17" s="47"/>
-      <c r="AIP17" s="47"/>
-      <c r="AIQ17" s="47"/>
-      <c r="AIR17" s="47"/>
-      <c r="AIS17" s="47"/>
-      <c r="AIT17" s="47"/>
-      <c r="AIU17" s="47"/>
-      <c r="AIV17" s="47"/>
-      <c r="AIW17" s="47"/>
-      <c r="AIX17" s="47"/>
-      <c r="AIY17" s="47"/>
-      <c r="AIZ17" s="47"/>
-      <c r="AJA17" s="47"/>
-      <c r="AJB17" s="47"/>
-      <c r="AJC17" s="47"/>
-      <c r="AJD17" s="47"/>
-      <c r="AJE17" s="47"/>
-      <c r="AJF17" s="47"/>
-      <c r="AJG17" s="47"/>
-      <c r="AJH17" s="47"/>
-      <c r="AJI17" s="47"/>
-      <c r="AJJ17" s="47"/>
-      <c r="AJK17" s="47"/>
-      <c r="AJL17" s="47"/>
-      <c r="AJM17" s="47"/>
-      <c r="AJN17" s="47"/>
-      <c r="AJO17" s="47"/>
-      <c r="AJP17" s="47"/>
-      <c r="AJQ17" s="47"/>
-      <c r="AJR17" s="47"/>
-      <c r="AJS17" s="47"/>
-      <c r="AJT17" s="47"/>
-      <c r="AJU17" s="47"/>
-      <c r="AJV17" s="47"/>
-      <c r="AJW17" s="47"/>
-      <c r="AJX17" s="47"/>
-      <c r="AJY17" s="47"/>
-      <c r="AJZ17" s="47"/>
-      <c r="AKA17" s="47"/>
-      <c r="AKB17" s="47"/>
-      <c r="AKC17" s="47"/>
-      <c r="AKD17" s="47"/>
-      <c r="AKE17" s="47"/>
-      <c r="AKF17" s="47"/>
-      <c r="AKG17" s="47"/>
-      <c r="AKH17" s="47"/>
-      <c r="AKI17" s="47"/>
-      <c r="AKJ17" s="47"/>
-      <c r="AKK17" s="47"/>
-      <c r="AKL17" s="47"/>
-      <c r="AKM17" s="47"/>
-      <c r="AKN17" s="47"/>
-      <c r="AKO17" s="47"/>
-      <c r="AKP17" s="47"/>
-      <c r="AKQ17" s="47"/>
-      <c r="AKR17" s="47"/>
-      <c r="AKS17" s="47"/>
-      <c r="AKT17" s="47"/>
-      <c r="AKU17" s="47"/>
-      <c r="AKV17" s="47"/>
-      <c r="AKW17" s="47"/>
-      <c r="AKX17" s="47"/>
-      <c r="AKY17" s="47"/>
-      <c r="AKZ17" s="47"/>
-      <c r="ALA17" s="47"/>
-      <c r="ALB17" s="47"/>
-      <c r="ALC17" s="47"/>
-      <c r="ALD17" s="47"/>
-      <c r="ALE17" s="47"/>
-      <c r="ALF17" s="47"/>
-      <c r="ALG17" s="47"/>
-      <c r="ALH17" s="47"/>
-      <c r="ALI17" s="47"/>
-      <c r="ALJ17" s="47"/>
-      <c r="ALK17" s="47"/>
-      <c r="ALL17" s="47"/>
-      <c r="ALM17" s="47"/>
-      <c r="ALN17" s="47"/>
-      <c r="ALO17" s="47"/>
-      <c r="ALP17" s="47"/>
-      <c r="ALQ17" s="47"/>
-      <c r="ALR17" s="47"/>
-      <c r="ALS17" s="47"/>
-      <c r="ALT17" s="47"/>
-      <c r="ALU17" s="47"/>
-      <c r="ALV17" s="47"/>
-      <c r="ALW17" s="47"/>
-      <c r="ALX17" s="47"/>
-      <c r="ALY17" s="47"/>
-      <c r="ALZ17" s="47"/>
-      <c r="AMA17" s="47"/>
-      <c r="AMB17" s="47"/>
-      <c r="AMC17" s="47"/>
-      <c r="AMD17" s="47"/>
-      <c r="AME17" s="47"/>
-      <c r="AMF17" s="47"/>
-      <c r="AMG17" s="47"/>
-      <c r="AMH17" s="47"/>
-      <c r="AMI17" s="47"/>
-      <c r="AMJ17" s="47"/>
-      <c r="AMK17" s="47"/>
-      <c r="AML17" s="47"/>
-      <c r="AMM17" s="47"/>
+      <c r="X17" s="45"/>
+      <c r="Y17" s="53"/>
+      <c r="Z17" s="53"/>
+      <c r="AA17" s="53"/>
+      <c r="AB17" s="53"/>
+      <c r="AC17" s="53"/>
+      <c r="AD17" s="53"/>
+      <c r="AE17" s="53"/>
+      <c r="AF17" s="53"/>
+      <c r="AG17" s="53"/>
+      <c r="AH17" s="53"/>
+      <c r="AI17" s="53"/>
+      <c r="AJ17" s="53"/>
+      <c r="AK17" s="53"/>
+      <c r="AL17" s="53"/>
+      <c r="AM17" s="53"/>
+      <c r="AN17" s="53"/>
+      <c r="AO17" s="53"/>
+      <c r="AP17" s="53"/>
+      <c r="AQ17" s="53"/>
+      <c r="AR17" s="53"/>
+      <c r="AS17" s="53"/>
+      <c r="AT17" s="53"/>
+      <c r="AU17" s="53"/>
+      <c r="AV17" s="53"/>
+      <c r="AW17" s="53"/>
+      <c r="AX17" s="53"/>
+      <c r="AY17" s="53"/>
+      <c r="AZ17" s="53"/>
+      <c r="BA17" s="53"/>
+      <c r="BB17" s="53"/>
+      <c r="BC17" s="53"/>
+      <c r="BD17" s="53"/>
+      <c r="BE17" s="53"/>
+      <c r="BF17" s="53"/>
+      <c r="BG17" s="53"/>
+      <c r="BH17" s="53"/>
+      <c r="BI17" s="53"/>
+      <c r="BJ17" s="53"/>
+      <c r="BK17" s="53"/>
+      <c r="BL17" s="53"/>
+      <c r="BM17" s="53"/>
+      <c r="BN17" s="53"/>
+      <c r="BO17" s="53"/>
+      <c r="BP17" s="53"/>
+      <c r="BQ17" s="53"/>
+      <c r="BR17" s="53"/>
+      <c r="BS17" s="53"/>
+      <c r="BT17" s="53"/>
+      <c r="BU17" s="53"/>
+      <c r="BV17" s="53"/>
+      <c r="BW17" s="53"/>
+      <c r="BX17" s="53"/>
+      <c r="BY17" s="53"/>
+      <c r="BZ17" s="53"/>
+      <c r="CA17" s="53"/>
+      <c r="CB17" s="53"/>
+      <c r="CC17" s="53"/>
+      <c r="CD17" s="53"/>
+      <c r="CE17" s="53"/>
+      <c r="CF17" s="53"/>
+      <c r="CG17" s="53"/>
+      <c r="CH17" s="53"/>
+      <c r="CI17" s="53"/>
+      <c r="CJ17" s="53"/>
+      <c r="CK17" s="53"/>
+      <c r="CL17" s="53"/>
+      <c r="CM17" s="53"/>
+      <c r="CN17" s="53"/>
+      <c r="CO17" s="53"/>
+      <c r="CP17" s="53"/>
+      <c r="CQ17" s="53"/>
+      <c r="CR17" s="53"/>
+      <c r="CS17" s="53"/>
+      <c r="CT17" s="53"/>
+      <c r="CU17" s="53"/>
+      <c r="CV17" s="53"/>
+      <c r="CW17" s="53"/>
+      <c r="CX17" s="53"/>
+      <c r="CY17" s="53"/>
+      <c r="CZ17" s="53"/>
+      <c r="DA17" s="53"/>
+      <c r="DB17" s="53"/>
+      <c r="DC17" s="53"/>
+      <c r="DD17" s="53"/>
+      <c r="DE17" s="53"/>
+      <c r="DF17" s="53"/>
+      <c r="DG17" s="53"/>
+      <c r="DH17" s="53"/>
+      <c r="DI17" s="53"/>
+      <c r="DJ17" s="53"/>
+      <c r="DK17" s="53"/>
+      <c r="DL17" s="53"/>
+      <c r="DM17" s="53"/>
+      <c r="DN17" s="53"/>
+      <c r="DO17" s="53"/>
+      <c r="DP17" s="53"/>
+      <c r="DQ17" s="53"/>
+      <c r="DR17" s="53"/>
+      <c r="DS17" s="53"/>
+      <c r="DT17" s="53"/>
+      <c r="DU17" s="53"/>
+      <c r="DV17" s="53"/>
+      <c r="DW17" s="53"/>
+      <c r="DX17" s="53"/>
+      <c r="DY17" s="53"/>
+      <c r="DZ17" s="53"/>
+      <c r="EA17" s="53"/>
+      <c r="EB17" s="53"/>
+      <c r="EC17" s="53"/>
+      <c r="ED17" s="53"/>
+      <c r="EE17" s="53"/>
+      <c r="EF17" s="53"/>
+      <c r="EG17" s="53"/>
+      <c r="EH17" s="53"/>
+      <c r="EI17" s="53"/>
+      <c r="EJ17" s="53"/>
+      <c r="EK17" s="53"/>
+      <c r="EL17" s="53"/>
+      <c r="EM17" s="53"/>
+      <c r="EN17" s="53"/>
+      <c r="EO17" s="53"/>
+      <c r="EP17" s="53"/>
+      <c r="EQ17" s="53"/>
+      <c r="ER17" s="53"/>
+      <c r="ES17" s="53"/>
+      <c r="ET17" s="53"/>
+      <c r="EU17" s="53"/>
+      <c r="EV17" s="53"/>
+      <c r="EW17" s="53"/>
+      <c r="EX17" s="53"/>
+      <c r="EY17" s="53"/>
+      <c r="EZ17" s="53"/>
+      <c r="FA17" s="53"/>
+      <c r="FB17" s="53"/>
+      <c r="FC17" s="53"/>
+      <c r="FD17" s="53"/>
+      <c r="FE17" s="53"/>
+      <c r="FF17" s="53"/>
+      <c r="FG17" s="53"/>
+      <c r="FH17" s="53"/>
+      <c r="FI17" s="53"/>
+      <c r="FJ17" s="53"/>
+      <c r="FK17" s="53"/>
+      <c r="FL17" s="53"/>
+      <c r="FM17" s="53"/>
+      <c r="FN17" s="53"/>
+      <c r="FO17" s="53"/>
+      <c r="FP17" s="53"/>
+      <c r="FQ17" s="53"/>
+      <c r="FR17" s="53"/>
+      <c r="FS17" s="53"/>
+      <c r="FT17" s="53"/>
+      <c r="FU17" s="53"/>
+      <c r="FV17" s="53"/>
+      <c r="FW17" s="53"/>
+      <c r="FX17" s="53"/>
+      <c r="FY17" s="53"/>
+      <c r="FZ17" s="53"/>
+      <c r="GA17" s="53"/>
+      <c r="GB17" s="53"/>
+      <c r="GC17" s="53"/>
+      <c r="GD17" s="53"/>
+      <c r="GE17" s="53"/>
+      <c r="GF17" s="53"/>
+      <c r="GG17" s="53"/>
+      <c r="GH17" s="53"/>
+      <c r="GI17" s="53"/>
+      <c r="GJ17" s="53"/>
+      <c r="GK17" s="53"/>
+      <c r="GL17" s="53"/>
+      <c r="GM17" s="53"/>
+      <c r="GN17" s="53"/>
+      <c r="GO17" s="53"/>
+      <c r="GP17" s="53"/>
+      <c r="GQ17" s="53"/>
+      <c r="GR17" s="53"/>
+      <c r="GS17" s="53"/>
+      <c r="GT17" s="53"/>
+      <c r="GU17" s="53"/>
+      <c r="GV17" s="53"/>
+      <c r="GW17" s="53"/>
+      <c r="GX17" s="53"/>
+      <c r="GY17" s="53"/>
+      <c r="GZ17" s="53"/>
+      <c r="HA17" s="53"/>
+      <c r="HB17" s="53"/>
+      <c r="HC17" s="53"/>
+      <c r="HD17" s="53"/>
+      <c r="HE17" s="53"/>
+      <c r="HF17" s="53"/>
+      <c r="HG17" s="53"/>
+      <c r="HH17" s="53"/>
+      <c r="HI17" s="53"/>
+      <c r="HJ17" s="53"/>
+      <c r="HK17" s="53"/>
+      <c r="HL17" s="53"/>
+      <c r="HM17" s="53"/>
+      <c r="HN17" s="53"/>
+      <c r="HO17" s="53"/>
+      <c r="HP17" s="53"/>
+      <c r="HQ17" s="53"/>
+      <c r="HR17" s="53"/>
+      <c r="HS17" s="53"/>
+      <c r="HT17" s="53"/>
+      <c r="HU17" s="53"/>
+      <c r="HV17" s="53"/>
+      <c r="HW17" s="53"/>
+      <c r="HX17" s="53"/>
+      <c r="HY17" s="53"/>
+      <c r="HZ17" s="53"/>
+      <c r="IA17" s="53"/>
+      <c r="IB17" s="53"/>
+      <c r="IC17" s="53"/>
+      <c r="ID17" s="53"/>
+      <c r="IE17" s="53"/>
+      <c r="IF17" s="53"/>
+      <c r="IG17" s="53"/>
+      <c r="IH17" s="53"/>
+      <c r="II17" s="53"/>
+      <c r="IJ17" s="53"/>
+      <c r="IK17" s="53"/>
+      <c r="IL17" s="53"/>
+      <c r="IM17" s="53"/>
+      <c r="IN17" s="53"/>
+      <c r="IO17" s="53"/>
+      <c r="IP17" s="53"/>
+      <c r="IQ17" s="53"/>
+      <c r="IR17" s="53"/>
+      <c r="IS17" s="53"/>
+      <c r="IT17" s="53"/>
+      <c r="IU17" s="53"/>
+      <c r="IV17" s="53"/>
+      <c r="IW17" s="53"/>
+      <c r="IX17" s="53"/>
+      <c r="IY17" s="53"/>
+      <c r="IZ17" s="53"/>
+      <c r="JA17" s="53"/>
+      <c r="JB17" s="53"/>
+      <c r="JC17" s="53"/>
+      <c r="JD17" s="53"/>
+      <c r="JE17" s="53"/>
+      <c r="JF17" s="53"/>
+      <c r="JG17" s="53"/>
+      <c r="JH17" s="53"/>
+      <c r="JI17" s="53"/>
+      <c r="JJ17" s="53"/>
+      <c r="JK17" s="53"/>
+      <c r="JL17" s="53"/>
+      <c r="JM17" s="53"/>
+      <c r="JN17" s="53"/>
+      <c r="JO17" s="53"/>
+      <c r="JP17" s="53"/>
+      <c r="JQ17" s="53"/>
+      <c r="JR17" s="53"/>
+      <c r="JS17" s="53"/>
+      <c r="JT17" s="53"/>
+      <c r="JU17" s="53"/>
+      <c r="JV17" s="53"/>
+      <c r="JW17" s="53"/>
+      <c r="JX17" s="53"/>
+      <c r="JY17" s="53"/>
+      <c r="JZ17" s="53"/>
+      <c r="KA17" s="53"/>
+      <c r="KB17" s="53"/>
+      <c r="KC17" s="53"/>
+      <c r="KD17" s="53"/>
+      <c r="KE17" s="53"/>
+      <c r="KF17" s="53"/>
+      <c r="KG17" s="53"/>
+      <c r="KH17" s="53"/>
+      <c r="KI17" s="53"/>
+      <c r="KJ17" s="53"/>
+      <c r="KK17" s="53"/>
+      <c r="KL17" s="53"/>
+      <c r="KM17" s="53"/>
+      <c r="KN17" s="53"/>
+      <c r="KO17" s="53"/>
+      <c r="KP17" s="53"/>
+      <c r="KQ17" s="53"/>
+      <c r="KR17" s="53"/>
+      <c r="KS17" s="53"/>
+      <c r="KT17" s="53"/>
+      <c r="KU17" s="53"/>
+      <c r="KV17" s="53"/>
+      <c r="KW17" s="53"/>
+      <c r="KX17" s="53"/>
+      <c r="KY17" s="53"/>
+      <c r="KZ17" s="53"/>
+      <c r="LA17" s="53"/>
+      <c r="LB17" s="53"/>
+      <c r="LC17" s="53"/>
+      <c r="LD17" s="53"/>
+      <c r="LE17" s="53"/>
+      <c r="LF17" s="53"/>
+      <c r="LG17" s="53"/>
+      <c r="LH17" s="53"/>
+      <c r="LI17" s="53"/>
+      <c r="LJ17" s="53"/>
+      <c r="LK17" s="53"/>
+      <c r="LL17" s="53"/>
+      <c r="LM17" s="53"/>
+      <c r="LN17" s="53"/>
+      <c r="LO17" s="53"/>
+      <c r="LP17" s="53"/>
+      <c r="LQ17" s="53"/>
+      <c r="LR17" s="53"/>
+      <c r="LS17" s="53"/>
+      <c r="LT17" s="53"/>
+      <c r="LU17" s="53"/>
+      <c r="LV17" s="53"/>
+      <c r="LW17" s="53"/>
+      <c r="LX17" s="53"/>
+      <c r="LY17" s="53"/>
+      <c r="LZ17" s="53"/>
+      <c r="MA17" s="53"/>
+      <c r="MB17" s="53"/>
+      <c r="MC17" s="53"/>
+      <c r="MD17" s="53"/>
+      <c r="ME17" s="53"/>
+      <c r="MF17" s="53"/>
+      <c r="MG17" s="53"/>
+      <c r="MH17" s="53"/>
+      <c r="MI17" s="53"/>
+      <c r="MJ17" s="53"/>
+      <c r="MK17" s="53"/>
+      <c r="ML17" s="53"/>
+      <c r="MM17" s="53"/>
+      <c r="MN17" s="53"/>
+      <c r="MO17" s="53"/>
+      <c r="MP17" s="53"/>
+      <c r="MQ17" s="53"/>
+      <c r="MR17" s="53"/>
+      <c r="MS17" s="53"/>
+      <c r="MT17" s="53"/>
+      <c r="MU17" s="53"/>
+      <c r="MV17" s="53"/>
+      <c r="MW17" s="53"/>
+      <c r="MX17" s="53"/>
+      <c r="MY17" s="53"/>
+      <c r="MZ17" s="53"/>
+      <c r="NA17" s="53"/>
+      <c r="NB17" s="53"/>
+      <c r="NC17" s="53"/>
+      <c r="ND17" s="53"/>
+      <c r="NE17" s="53"/>
+      <c r="NF17" s="53"/>
+      <c r="NG17" s="53"/>
+      <c r="NH17" s="53"/>
+      <c r="NI17" s="53"/>
+      <c r="NJ17" s="53"/>
+      <c r="NK17" s="53"/>
+      <c r="NL17" s="53"/>
+      <c r="NM17" s="53"/>
+      <c r="NN17" s="53"/>
+      <c r="NO17" s="53"/>
+      <c r="NP17" s="53"/>
+      <c r="NQ17" s="53"/>
+      <c r="NR17" s="53"/>
+      <c r="NS17" s="53"/>
+      <c r="NT17" s="53"/>
+      <c r="NU17" s="53"/>
+      <c r="NV17" s="53"/>
+      <c r="NW17" s="53"/>
+      <c r="NX17" s="53"/>
+      <c r="NY17" s="53"/>
+      <c r="NZ17" s="53"/>
+      <c r="OA17" s="53"/>
+      <c r="OB17" s="53"/>
+      <c r="OC17" s="53"/>
+      <c r="OD17" s="53"/>
+      <c r="OE17" s="53"/>
+      <c r="OF17" s="53"/>
+      <c r="OG17" s="53"/>
+      <c r="OH17" s="53"/>
+      <c r="OI17" s="53"/>
+      <c r="OJ17" s="53"/>
+      <c r="OK17" s="53"/>
+      <c r="OL17" s="53"/>
+      <c r="OM17" s="53"/>
+      <c r="ON17" s="53"/>
+      <c r="OO17" s="53"/>
+      <c r="OP17" s="53"/>
+      <c r="OQ17" s="53"/>
+      <c r="OR17" s="53"/>
+      <c r="OS17" s="53"/>
+      <c r="OT17" s="53"/>
+      <c r="OU17" s="53"/>
+      <c r="OV17" s="53"/>
+      <c r="OW17" s="53"/>
+      <c r="OX17" s="53"/>
+      <c r="OY17" s="53"/>
+      <c r="OZ17" s="53"/>
+      <c r="PA17" s="53"/>
+      <c r="PB17" s="53"/>
+      <c r="PC17" s="53"/>
+      <c r="PD17" s="53"/>
+      <c r="PE17" s="53"/>
+      <c r="PF17" s="53"/>
+      <c r="PG17" s="53"/>
+      <c r="PH17" s="53"/>
+      <c r="PI17" s="53"/>
+      <c r="PJ17" s="53"/>
+      <c r="PK17" s="53"/>
+      <c r="PL17" s="53"/>
+      <c r="PM17" s="53"/>
+      <c r="PN17" s="53"/>
+      <c r="PO17" s="53"/>
+      <c r="PP17" s="53"/>
+      <c r="PQ17" s="53"/>
+      <c r="PR17" s="53"/>
+      <c r="PS17" s="53"/>
+      <c r="PT17" s="53"/>
+      <c r="PU17" s="53"/>
+      <c r="PV17" s="53"/>
+      <c r="PW17" s="53"/>
+      <c r="PX17" s="53"/>
+      <c r="PY17" s="53"/>
+      <c r="PZ17" s="53"/>
+      <c r="QA17" s="53"/>
+      <c r="QB17" s="53"/>
+      <c r="QC17" s="53"/>
+      <c r="QD17" s="53"/>
+      <c r="QE17" s="53"/>
+      <c r="QF17" s="53"/>
+      <c r="QG17" s="53"/>
+      <c r="QH17" s="53"/>
+      <c r="QI17" s="53"/>
+      <c r="QJ17" s="53"/>
+      <c r="QK17" s="53"/>
+      <c r="QL17" s="53"/>
+      <c r="QM17" s="53"/>
+      <c r="QN17" s="53"/>
+      <c r="QO17" s="53"/>
+      <c r="QP17" s="53"/>
+      <c r="QQ17" s="53"/>
+      <c r="QR17" s="53"/>
+      <c r="QS17" s="53"/>
+      <c r="QT17" s="53"/>
+      <c r="QU17" s="53"/>
+      <c r="QV17" s="53"/>
+      <c r="QW17" s="53"/>
+      <c r="QX17" s="53"/>
+      <c r="QY17" s="53"/>
+      <c r="QZ17" s="53"/>
+      <c r="RA17" s="53"/>
+      <c r="RB17" s="53"/>
+      <c r="RC17" s="53"/>
+      <c r="RD17" s="53"/>
+      <c r="RE17" s="53"/>
+      <c r="RF17" s="53"/>
+      <c r="RG17" s="53"/>
+      <c r="RH17" s="53"/>
+      <c r="RI17" s="53"/>
+      <c r="RJ17" s="53"/>
+      <c r="RK17" s="53"/>
+      <c r="RL17" s="53"/>
+      <c r="RM17" s="53"/>
+      <c r="RN17" s="53"/>
+      <c r="RO17" s="53"/>
+      <c r="RP17" s="53"/>
+      <c r="RQ17" s="53"/>
+      <c r="RR17" s="53"/>
+      <c r="RS17" s="53"/>
+      <c r="RT17" s="53"/>
+      <c r="RU17" s="53"/>
+      <c r="RV17" s="53"/>
+      <c r="RW17" s="53"/>
+      <c r="RX17" s="53"/>
+      <c r="RY17" s="53"/>
+      <c r="RZ17" s="53"/>
+      <c r="SA17" s="53"/>
+      <c r="SB17" s="53"/>
+      <c r="SC17" s="53"/>
+      <c r="SD17" s="53"/>
+      <c r="SE17" s="53"/>
+      <c r="SF17" s="53"/>
+      <c r="SG17" s="53"/>
+      <c r="SH17" s="53"/>
+      <c r="SI17" s="53"/>
+      <c r="SJ17" s="53"/>
+      <c r="SK17" s="53"/>
+      <c r="SL17" s="53"/>
+      <c r="SM17" s="53"/>
+      <c r="SN17" s="53"/>
+      <c r="SO17" s="53"/>
+      <c r="SP17" s="53"/>
+      <c r="SQ17" s="53"/>
+      <c r="SR17" s="53"/>
+      <c r="SS17" s="53"/>
+      <c r="ST17" s="53"/>
+      <c r="SU17" s="53"/>
+      <c r="SV17" s="53"/>
+      <c r="SW17" s="53"/>
+      <c r="SX17" s="53"/>
+      <c r="SY17" s="53"/>
+      <c r="SZ17" s="53"/>
+      <c r="TA17" s="53"/>
+      <c r="TB17" s="53"/>
+      <c r="TC17" s="53"/>
+      <c r="TD17" s="53"/>
+      <c r="TE17" s="53"/>
+      <c r="TF17" s="53"/>
+      <c r="TG17" s="53"/>
+      <c r="TH17" s="53"/>
+      <c r="TI17" s="53"/>
+      <c r="TJ17" s="53"/>
+      <c r="TK17" s="53"/>
+      <c r="TL17" s="53"/>
+      <c r="TM17" s="53"/>
+      <c r="TN17" s="53"/>
+      <c r="TO17" s="53"/>
+      <c r="TP17" s="53"/>
+      <c r="TQ17" s="53"/>
+      <c r="TR17" s="53"/>
+      <c r="TS17" s="53"/>
+      <c r="TT17" s="53"/>
+      <c r="TU17" s="53"/>
+      <c r="TV17" s="53"/>
+      <c r="TW17" s="53"/>
+      <c r="TX17" s="53"/>
+      <c r="TY17" s="53"/>
+      <c r="TZ17" s="53"/>
+      <c r="UA17" s="53"/>
+      <c r="UB17" s="53"/>
+      <c r="UC17" s="53"/>
+      <c r="UD17" s="53"/>
+      <c r="UE17" s="53"/>
+      <c r="UF17" s="53"/>
+      <c r="UG17" s="53"/>
+      <c r="UH17" s="53"/>
+      <c r="UI17" s="53"/>
+      <c r="UJ17" s="53"/>
+      <c r="UK17" s="53"/>
+      <c r="UL17" s="53"/>
+      <c r="UM17" s="53"/>
+      <c r="UN17" s="53"/>
+      <c r="UO17" s="53"/>
+      <c r="UP17" s="53"/>
+      <c r="UQ17" s="53"/>
+      <c r="UR17" s="53"/>
+      <c r="US17" s="53"/>
+      <c r="UT17" s="53"/>
+      <c r="UU17" s="53"/>
+      <c r="UV17" s="53"/>
+      <c r="UW17" s="53"/>
+      <c r="UX17" s="53"/>
+      <c r="UY17" s="53"/>
+      <c r="UZ17" s="53"/>
+      <c r="VA17" s="53"/>
+      <c r="VB17" s="53"/>
+      <c r="VC17" s="53"/>
+      <c r="VD17" s="53"/>
+      <c r="VE17" s="53"/>
+      <c r="VF17" s="53"/>
+      <c r="VG17" s="53"/>
+      <c r="VH17" s="53"/>
+      <c r="VI17" s="53"/>
+      <c r="VJ17" s="53"/>
+      <c r="VK17" s="53"/>
+      <c r="VL17" s="53"/>
+      <c r="VM17" s="53"/>
+      <c r="VN17" s="53"/>
+      <c r="VO17" s="53"/>
+      <c r="VP17" s="53"/>
+      <c r="VQ17" s="53"/>
+      <c r="VR17" s="53"/>
+      <c r="VS17" s="53"/>
+      <c r="VT17" s="53"/>
+      <c r="VU17" s="53"/>
+      <c r="VV17" s="53"/>
+      <c r="VW17" s="53"/>
+      <c r="VX17" s="53"/>
+      <c r="VY17" s="53"/>
+      <c r="VZ17" s="53"/>
+      <c r="WA17" s="53"/>
+      <c r="WB17" s="53"/>
+      <c r="WC17" s="53"/>
+      <c r="WD17" s="53"/>
+      <c r="WE17" s="53"/>
+      <c r="WF17" s="53"/>
+      <c r="WG17" s="53"/>
+      <c r="WH17" s="53"/>
+      <c r="WI17" s="53"/>
+      <c r="WJ17" s="53"/>
+      <c r="WK17" s="53"/>
+      <c r="WL17" s="53"/>
+      <c r="WM17" s="53"/>
+      <c r="WN17" s="53"/>
+      <c r="WO17" s="53"/>
+      <c r="WP17" s="53"/>
+      <c r="WQ17" s="53"/>
+      <c r="WR17" s="53"/>
+      <c r="WS17" s="53"/>
+      <c r="WT17" s="53"/>
+      <c r="WU17" s="53"/>
+      <c r="WV17" s="53"/>
+      <c r="WW17" s="53"/>
+      <c r="WX17" s="53"/>
+      <c r="WY17" s="53"/>
+      <c r="WZ17" s="53"/>
+      <c r="XA17" s="53"/>
+      <c r="XB17" s="53"/>
+      <c r="XC17" s="53"/>
+      <c r="XD17" s="53"/>
+      <c r="XE17" s="53"/>
+      <c r="XF17" s="53"/>
+      <c r="XG17" s="53"/>
+      <c r="XH17" s="53"/>
+      <c r="XI17" s="53"/>
+      <c r="XJ17" s="53"/>
+      <c r="XK17" s="53"/>
+      <c r="XL17" s="53"/>
+      <c r="XM17" s="53"/>
+      <c r="XN17" s="53"/>
+      <c r="XO17" s="53"/>
+      <c r="XP17" s="53"/>
+      <c r="XQ17" s="53"/>
+      <c r="XR17" s="53"/>
+      <c r="XS17" s="53"/>
+      <c r="XT17" s="53"/>
+      <c r="XU17" s="53"/>
+      <c r="XV17" s="53"/>
+      <c r="XW17" s="53"/>
+      <c r="XX17" s="53"/>
+      <c r="XY17" s="53"/>
+      <c r="XZ17" s="53"/>
+      <c r="YA17" s="53"/>
+      <c r="YB17" s="53"/>
+      <c r="YC17" s="53"/>
+      <c r="YD17" s="53"/>
+      <c r="YE17" s="53"/>
+      <c r="YF17" s="53"/>
+      <c r="YG17" s="53"/>
+      <c r="YH17" s="53"/>
+      <c r="YI17" s="53"/>
+      <c r="YJ17" s="53"/>
+      <c r="YK17" s="53"/>
+      <c r="YL17" s="53"/>
+      <c r="YM17" s="53"/>
+      <c r="YN17" s="53"/>
+      <c r="YO17" s="53"/>
+      <c r="YP17" s="53"/>
+      <c r="YQ17" s="53"/>
+      <c r="YR17" s="53"/>
+      <c r="YS17" s="53"/>
+      <c r="YT17" s="53"/>
+      <c r="YU17" s="53"/>
+      <c r="YV17" s="53"/>
+      <c r="YW17" s="53"/>
+      <c r="YX17" s="53"/>
+      <c r="YY17" s="53"/>
+      <c r="YZ17" s="53"/>
+      <c r="ZA17" s="53"/>
+      <c r="ZB17" s="53"/>
+      <c r="ZC17" s="53"/>
+      <c r="ZD17" s="53"/>
+      <c r="ZE17" s="53"/>
+      <c r="ZF17" s="53"/>
+      <c r="ZG17" s="53"/>
+      <c r="ZH17" s="53"/>
+      <c r="ZI17" s="53"/>
+      <c r="ZJ17" s="53"/>
+      <c r="ZK17" s="53"/>
+      <c r="ZL17" s="53"/>
+      <c r="ZM17" s="53"/>
+      <c r="ZN17" s="53"/>
+      <c r="ZO17" s="53"/>
+      <c r="ZP17" s="53"/>
+      <c r="ZQ17" s="53"/>
+      <c r="ZR17" s="53"/>
+      <c r="ZS17" s="53"/>
+      <c r="ZT17" s="53"/>
+      <c r="ZU17" s="53"/>
+      <c r="ZV17" s="53"/>
+      <c r="ZW17" s="53"/>
+      <c r="ZX17" s="53"/>
+      <c r="ZY17" s="53"/>
+      <c r="ZZ17" s="53"/>
+      <c r="AAA17" s="53"/>
+      <c r="AAB17" s="53"/>
+      <c r="AAC17" s="53"/>
+      <c r="AAD17" s="53"/>
+      <c r="AAE17" s="53"/>
+      <c r="AAF17" s="53"/>
+      <c r="AAG17" s="53"/>
+      <c r="AAH17" s="53"/>
+      <c r="AAI17" s="53"/>
+      <c r="AAJ17" s="53"/>
+      <c r="AAK17" s="53"/>
+      <c r="AAL17" s="53"/>
+      <c r="AAM17" s="53"/>
+      <c r="AAN17" s="53"/>
+      <c r="AAO17" s="53"/>
+      <c r="AAP17" s="53"/>
+      <c r="AAQ17" s="53"/>
+      <c r="AAR17" s="53"/>
+      <c r="AAS17" s="53"/>
+      <c r="AAT17" s="53"/>
+      <c r="AAU17" s="53"/>
+      <c r="AAV17" s="53"/>
+      <c r="AAW17" s="53"/>
+      <c r="AAX17" s="53"/>
+      <c r="AAY17" s="53"/>
+      <c r="AAZ17" s="53"/>
+      <c r="ABA17" s="53"/>
+      <c r="ABB17" s="53"/>
+      <c r="ABC17" s="53"/>
+      <c r="ABD17" s="53"/>
+      <c r="ABE17" s="53"/>
+      <c r="ABF17" s="53"/>
+      <c r="ABG17" s="53"/>
+      <c r="ABH17" s="53"/>
+      <c r="ABI17" s="53"/>
+      <c r="ABJ17" s="53"/>
+      <c r="ABK17" s="53"/>
+      <c r="ABL17" s="53"/>
+      <c r="ABM17" s="53"/>
+      <c r="ABN17" s="53"/>
+      <c r="ABO17" s="53"/>
+      <c r="ABP17" s="53"/>
+      <c r="ABQ17" s="53"/>
+      <c r="ABR17" s="53"/>
+      <c r="ABS17" s="53"/>
+      <c r="ABT17" s="53"/>
+      <c r="ABU17" s="53"/>
+      <c r="ABV17" s="53"/>
+      <c r="ABW17" s="53"/>
+      <c r="ABX17" s="53"/>
+      <c r="ABY17" s="53"/>
+      <c r="ABZ17" s="53"/>
+      <c r="ACA17" s="53"/>
+      <c r="ACB17" s="53"/>
+      <c r="ACC17" s="53"/>
+      <c r="ACD17" s="53"/>
+      <c r="ACE17" s="53"/>
+      <c r="ACF17" s="53"/>
+      <c r="ACG17" s="53"/>
+      <c r="ACH17" s="53"/>
+      <c r="ACI17" s="53"/>
+      <c r="ACJ17" s="53"/>
+      <c r="ACK17" s="53"/>
+      <c r="ACL17" s="53"/>
+      <c r="ACM17" s="53"/>
+      <c r="ACN17" s="53"/>
+      <c r="ACO17" s="53"/>
+      <c r="ACP17" s="53"/>
+      <c r="ACQ17" s="53"/>
+      <c r="ACR17" s="53"/>
+      <c r="ACS17" s="53"/>
+      <c r="ACT17" s="53"/>
+      <c r="ACU17" s="53"/>
+      <c r="ACV17" s="53"/>
+      <c r="ACW17" s="53"/>
+      <c r="ACX17" s="53"/>
+      <c r="ACY17" s="53"/>
+      <c r="ACZ17" s="53"/>
+      <c r="ADA17" s="53"/>
+      <c r="ADB17" s="53"/>
+      <c r="ADC17" s="53"/>
+      <c r="ADD17" s="53"/>
+      <c r="ADE17" s="53"/>
+      <c r="ADF17" s="53"/>
+      <c r="ADG17" s="53"/>
+      <c r="ADH17" s="53"/>
+      <c r="ADI17" s="53"/>
+      <c r="ADJ17" s="53"/>
+      <c r="ADK17" s="53"/>
+      <c r="ADL17" s="53"/>
+      <c r="ADM17" s="53"/>
+      <c r="ADN17" s="53"/>
+      <c r="ADO17" s="53"/>
+      <c r="ADP17" s="53"/>
+      <c r="ADQ17" s="53"/>
+      <c r="ADR17" s="53"/>
+      <c r="ADS17" s="53"/>
+      <c r="ADT17" s="53"/>
+      <c r="ADU17" s="53"/>
+      <c r="ADV17" s="53"/>
+      <c r="ADW17" s="53"/>
+      <c r="ADX17" s="53"/>
+      <c r="ADY17" s="53"/>
+      <c r="ADZ17" s="53"/>
+      <c r="AEA17" s="53"/>
+      <c r="AEB17" s="53"/>
+      <c r="AEC17" s="53"/>
+      <c r="AED17" s="53"/>
+      <c r="AEE17" s="53"/>
+      <c r="AEF17" s="53"/>
+      <c r="AEG17" s="53"/>
+      <c r="AEH17" s="53"/>
+      <c r="AEI17" s="53"/>
+      <c r="AEJ17" s="53"/>
+      <c r="AEK17" s="53"/>
+      <c r="AEL17" s="53"/>
+      <c r="AEM17" s="53"/>
+      <c r="AEN17" s="53"/>
+      <c r="AEO17" s="53"/>
+      <c r="AEP17" s="53"/>
+      <c r="AEQ17" s="53"/>
+      <c r="AER17" s="53"/>
+      <c r="AES17" s="53"/>
+      <c r="AET17" s="53"/>
+      <c r="AEU17" s="53"/>
+      <c r="AEV17" s="53"/>
+      <c r="AEW17" s="53"/>
+      <c r="AEX17" s="53"/>
+      <c r="AEY17" s="53"/>
+      <c r="AEZ17" s="53"/>
+      <c r="AFA17" s="53"/>
+      <c r="AFB17" s="53"/>
+      <c r="AFC17" s="53"/>
+      <c r="AFD17" s="53"/>
+      <c r="AFE17" s="53"/>
+      <c r="AFF17" s="53"/>
+      <c r="AFG17" s="53"/>
+      <c r="AFH17" s="53"/>
+      <c r="AFI17" s="53"/>
+      <c r="AFJ17" s="53"/>
+      <c r="AFK17" s="53"/>
+      <c r="AFL17" s="53"/>
+      <c r="AFM17" s="53"/>
+      <c r="AFN17" s="53"/>
+      <c r="AFO17" s="53"/>
+      <c r="AFP17" s="53"/>
+      <c r="AFQ17" s="53"/>
+      <c r="AFR17" s="53"/>
+      <c r="AFS17" s="53"/>
+      <c r="AFT17" s="53"/>
+      <c r="AFU17" s="53"/>
+      <c r="AFV17" s="53"/>
+      <c r="AFW17" s="53"/>
+      <c r="AFX17" s="53"/>
+      <c r="AFY17" s="53"/>
+      <c r="AFZ17" s="53"/>
+      <c r="AGA17" s="53"/>
+      <c r="AGB17" s="53"/>
+      <c r="AGC17" s="53"/>
+      <c r="AGD17" s="53"/>
+      <c r="AGE17" s="53"/>
+      <c r="AGF17" s="53"/>
+      <c r="AGG17" s="53"/>
+      <c r="AGH17" s="53"/>
+      <c r="AGI17" s="53"/>
+      <c r="AGJ17" s="53"/>
+      <c r="AGK17" s="53"/>
+      <c r="AGL17" s="53"/>
+      <c r="AGM17" s="53"/>
+      <c r="AGN17" s="53"/>
+      <c r="AGO17" s="53"/>
+      <c r="AGP17" s="53"/>
+      <c r="AGQ17" s="53"/>
+      <c r="AGR17" s="53"/>
+      <c r="AGS17" s="53"/>
+      <c r="AGT17" s="53"/>
+      <c r="AGU17" s="53"/>
+      <c r="AGV17" s="53"/>
+      <c r="AGW17" s="53"/>
+      <c r="AGX17" s="53"/>
+      <c r="AGY17" s="53"/>
+      <c r="AGZ17" s="53"/>
+      <c r="AHA17" s="53"/>
+      <c r="AHB17" s="53"/>
+      <c r="AHC17" s="53"/>
+      <c r="AHD17" s="53"/>
+      <c r="AHE17" s="53"/>
+      <c r="AHF17" s="53"/>
+      <c r="AHG17" s="53"/>
+      <c r="AHH17" s="53"/>
+      <c r="AHI17" s="53"/>
+      <c r="AHJ17" s="53"/>
+      <c r="AHK17" s="53"/>
+      <c r="AHL17" s="53"/>
+      <c r="AHM17" s="53"/>
+      <c r="AHN17" s="53"/>
+      <c r="AHO17" s="53"/>
+      <c r="AHP17" s="53"/>
+      <c r="AHQ17" s="53"/>
+      <c r="AHR17" s="53"/>
+      <c r="AHS17" s="53"/>
+      <c r="AHT17" s="53"/>
+      <c r="AHU17" s="53"/>
+      <c r="AHV17" s="53"/>
+      <c r="AHW17" s="53"/>
+      <c r="AHX17" s="53"/>
+      <c r="AHY17" s="53"/>
+      <c r="AHZ17" s="53"/>
+      <c r="AIA17" s="53"/>
+      <c r="AIB17" s="53"/>
+      <c r="AIC17" s="53"/>
+      <c r="AID17" s="53"/>
+      <c r="AIE17" s="53"/>
+      <c r="AIF17" s="53"/>
+      <c r="AIG17" s="53"/>
+      <c r="AIH17" s="53"/>
+      <c r="AII17" s="53"/>
+      <c r="AIJ17" s="53"/>
+      <c r="AIK17" s="53"/>
+      <c r="AIL17" s="53"/>
+      <c r="AIM17" s="53"/>
+      <c r="AIN17" s="53"/>
+      <c r="AIO17" s="53"/>
+      <c r="AIP17" s="53"/>
+      <c r="AIQ17" s="53"/>
+      <c r="AIR17" s="53"/>
+      <c r="AIS17" s="53"/>
+      <c r="AIT17" s="53"/>
+      <c r="AIU17" s="53"/>
+      <c r="AIV17" s="53"/>
+      <c r="AIW17" s="53"/>
+      <c r="AIX17" s="53"/>
+      <c r="AIY17" s="53"/>
+      <c r="AIZ17" s="53"/>
+      <c r="AJA17" s="53"/>
+      <c r="AJB17" s="53"/>
+      <c r="AJC17" s="53"/>
+      <c r="AJD17" s="53"/>
+      <c r="AJE17" s="53"/>
+      <c r="AJF17" s="53"/>
+      <c r="AJG17" s="53"/>
+      <c r="AJH17" s="53"/>
+      <c r="AJI17" s="53"/>
+      <c r="AJJ17" s="53"/>
+      <c r="AJK17" s="53"/>
+      <c r="AJL17" s="53"/>
+      <c r="AJM17" s="53"/>
+      <c r="AJN17" s="53"/>
+      <c r="AJO17" s="53"/>
+      <c r="AJP17" s="53"/>
+      <c r="AJQ17" s="53"/>
+      <c r="AJR17" s="53"/>
+      <c r="AJS17" s="53"/>
+      <c r="AJT17" s="53"/>
+      <c r="AJU17" s="53"/>
+      <c r="AJV17" s="53"/>
+      <c r="AJW17" s="53"/>
+      <c r="AJX17" s="53"/>
+      <c r="AJY17" s="53"/>
+      <c r="AJZ17" s="53"/>
+      <c r="AKA17" s="53"/>
+      <c r="AKB17" s="53"/>
+      <c r="AKC17" s="53"/>
+      <c r="AKD17" s="53"/>
+      <c r="AKE17" s="53"/>
+      <c r="AKF17" s="53"/>
+      <c r="AKG17" s="53"/>
+      <c r="AKH17" s="53"/>
+      <c r="AKI17" s="53"/>
+      <c r="AKJ17" s="53"/>
+      <c r="AKK17" s="53"/>
+      <c r="AKL17" s="53"/>
+      <c r="AKM17" s="53"/>
+      <c r="AKN17" s="53"/>
+      <c r="AKO17" s="53"/>
+      <c r="AKP17" s="53"/>
+      <c r="AKQ17" s="53"/>
+      <c r="AKR17" s="53"/>
+      <c r="AKS17" s="53"/>
+      <c r="AKT17" s="53"/>
+      <c r="AKU17" s="53"/>
+      <c r="AKV17" s="53"/>
+      <c r="AKW17" s="53"/>
+      <c r="AKX17" s="53"/>
+      <c r="AKY17" s="53"/>
+      <c r="AKZ17" s="53"/>
+      <c r="ALA17" s="53"/>
+      <c r="ALB17" s="53"/>
+      <c r="ALC17" s="53"/>
+      <c r="ALD17" s="53"/>
+      <c r="ALE17" s="53"/>
+      <c r="ALF17" s="53"/>
+      <c r="ALG17" s="53"/>
+      <c r="ALH17" s="53"/>
+      <c r="ALI17" s="53"/>
+      <c r="ALJ17" s="53"/>
+      <c r="ALK17" s="53"/>
+      <c r="ALL17" s="53"/>
+      <c r="ALM17" s="53"/>
+      <c r="ALN17" s="53"/>
+      <c r="ALO17" s="53"/>
+      <c r="ALP17" s="53"/>
+      <c r="ALQ17" s="53"/>
+      <c r="ALR17" s="53"/>
+      <c r="ALS17" s="53"/>
+      <c r="ALT17" s="53"/>
+      <c r="ALU17" s="53"/>
+      <c r="ALV17" s="53"/>
+      <c r="ALW17" s="53"/>
+      <c r="ALX17" s="53"/>
+      <c r="ALY17" s="53"/>
+      <c r="ALZ17" s="53"/>
+      <c r="AMA17" s="53"/>
+      <c r="AMB17" s="53"/>
+      <c r="AMC17" s="53"/>
+      <c r="AMD17" s="53"/>
+      <c r="AME17" s="53"/>
+      <c r="AMF17" s="53"/>
+      <c r="AMG17" s="53"/>
+      <c r="AMH17" s="53"/>
+      <c r="AMI17" s="53"/>
+      <c r="AMJ17" s="53"/>
+      <c r="AMK17" s="53"/>
+      <c r="AML17" s="53"/>
+      <c r="AMM17" s="53"/>
+      <c r="AMN17" s="53"/>
     </row>
-    <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:1027">
+    <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:1028">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3716,14 +3762,14 @@
       <c r="N18" s="15"/>
       <c r="O18" s="33"/>
       <c r="P18" s="33"/>
-      <c r="Q18" s="15"/>
-      <c r="R18" s="30"/>
-      <c r="S18" s="15"/>
-      <c r="T18" s="30"/>
-      <c r="U18" s="15"/>
+      <c r="Q18" s="33"/>
+      <c r="R18" s="15"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="15"/>
+      <c r="U18" s="30"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
-      <c r="X18" s="5"/>
+      <c r="X18" s="15"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
       <c r="AA18" s="5"/>
@@ -4727,10 +4773,11 @@
       <c r="AMK18" s="5"/>
       <c r="AML18" s="5"/>
       <c r="AMM18" s="5"/>
+      <c r="AMN18" s="5"/>
     </row>
-    <row r="19" ht="23" customHeight="1" spans="1:25">
+    <row r="19" ht="23" customHeight="1" spans="1:26">
       <c r="A19" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -4755,17 +4802,18 @@
       <c r="V19" s="17"/>
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
-      <c r="Y19" s="56"/>
+      <c r="Y19" s="17"/>
+      <c r="Z19" s="54"/>
     </row>
-    <row r="20" ht="15.75" spans="1:25">
+    <row r="20" spans="1:26">
       <c r="A20" s="18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B20" s="19">
         <v>0</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D20" s="19">
         <v>416</v>
@@ -4786,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="J20" s="18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K20" s="18">
         <v>24</v>
@@ -4798,47 +4846,48 @@
         <v>0.0003</v>
       </c>
       <c r="N20" s="19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O20" s="34">
         <v>0.0005</v>
       </c>
       <c r="P20" s="34"/>
-      <c r="Q20" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="R20" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="S20" s="19">
+      <c r="Q20" s="34"/>
+      <c r="R20" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="S20" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="T20" s="19">
         <v>0</v>
       </c>
-      <c r="T20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="U20" s="19">
+      <c r="U20" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="V20" s="19">
         <v>0.9837</v>
       </c>
-      <c r="V20" s="48">
+      <c r="W20" s="46">
         <v>0.972</v>
       </c>
-      <c r="W20" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="X20" s="49" t="s">
+      <c r="X20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="44"/>
+      <c r="Y20" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z20" s="43"/>
     </row>
-    <row r="21" ht="15.75" spans="1:25">
+    <row r="21" spans="1:26">
       <c r="A21" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B21" s="10">
         <v>0</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D21" s="10">
         <v>416</v>
@@ -4859,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="J21" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K21" s="9">
         <v>24</v>
@@ -4871,45 +4920,46 @@
         <v>0.0001</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O21" s="31">
         <v>0.0005</v>
       </c>
       <c r="P21" s="31"/>
-      <c r="Q21" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S21" s="10">
+      <c r="Q21" s="31"/>
+      <c r="R21" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T21" s="10">
         <v>0</v>
       </c>
-      <c r="T21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U21" s="10">
+      <c r="U21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V21" s="10">
         <v>0.9846</v>
       </c>
-      <c r="V21" s="50">
+      <c r="W21" s="47">
         <v>0.973</v>
       </c>
-      <c r="W21" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="X21" s="44"/>
-      <c r="Y21" s="44"/>
+      <c r="X21" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y21" s="43"/>
+      <c r="Z21" s="43"/>
     </row>
-    <row r="22" spans="1:25">
+    <row r="22" spans="1:26">
       <c r="A22" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B22" s="21">
         <v>0</v>
       </c>
       <c r="C22" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" s="21">
         <v>416</v>
@@ -4930,7 +4980,7 @@
         <v>1</v>
       </c>
       <c r="J22" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K22" s="22">
         <v>24</v>
@@ -4942,49 +4992,50 @@
         <v>0.0003</v>
       </c>
       <c r="N22" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O22" s="36">
         <v>0.0005</v>
       </c>
       <c r="P22" s="36"/>
-      <c r="Q22" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q22" s="36"/>
       <c r="R22" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S22" s="22">
+        <v>50</v>
+      </c>
+      <c r="S22" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T22" s="22">
         <v>0</v>
       </c>
-      <c r="T22" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="U22" s="22">
+      <c r="U22" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V22" s="22">
         <v>0.9846</v>
       </c>
-      <c r="V22" s="51">
+      <c r="W22" s="48">
         <v>0.974</v>
       </c>
-      <c r="W22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="X22" s="44" t="s">
+      <c r="X22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="44" t="s">
+      <c r="Y22" s="43" t="s">
         <v>58</v>
       </c>
+      <c r="Z22" s="43" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="23" ht="15.75" spans="1:25">
+    <row r="23" spans="1:26">
       <c r="A23" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B23" s="10">
         <v>0</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" s="10">
         <v>416</v>
@@ -5005,7 +5056,7 @@
         <v>1</v>
       </c>
       <c r="J23" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K23" s="9">
         <v>24</v>
@@ -5017,45 +5068,46 @@
         <v>0.0001</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O23" s="31">
         <v>0.0005</v>
       </c>
       <c r="P23" s="31"/>
-      <c r="Q23" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R23" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S23" s="10">
+      <c r="Q23" s="31"/>
+      <c r="R23" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S23" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T23" s="10">
         <v>0</v>
       </c>
-      <c r="T23" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U23" s="10">
+      <c r="U23" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V23" s="10">
         <v>0.9861</v>
       </c>
-      <c r="V23" s="52">
+      <c r="W23" s="49">
         <v>0.971</v>
       </c>
-      <c r="W23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="X23" s="44"/>
-      <c r="Y23" s="44"/>
+      <c r="X23" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="Y23" s="43"/>
+      <c r="Z23" s="43"/>
     </row>
-    <row r="24" ht="15.75" spans="1:25">
+    <row r="24" spans="1:26">
       <c r="A24" s="9" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B24" s="10">
         <v>0</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D24" s="10">
         <v>416</v>
@@ -5076,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="J24" s="9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K24" s="9">
         <v>24</v>
@@ -5088,47 +5140,48 @@
         <v>0.0003</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="O24" s="31">
         <v>0.0005</v>
       </c>
       <c r="P24" s="31"/>
-      <c r="Q24" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="R24" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S24" s="10">
+      <c r="Q24" s="31"/>
+      <c r="R24" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S24" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T24" s="10">
         <v>0</v>
       </c>
-      <c r="T24" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="U24" s="10">
+      <c r="U24" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V24" s="10">
         <v>0.9856</v>
       </c>
-      <c r="V24" s="52">
+      <c r="W24" s="49">
         <v>0.97</v>
       </c>
-      <c r="W24" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="X24" s="44" t="s">
+      <c r="X24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="44"/>
+      <c r="Y24" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="Z24" s="43"/>
     </row>
-    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:1027">
+    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:1028">
       <c r="A25" s="22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B25" s="22">
         <v>0</v>
       </c>
       <c r="C25" s="22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D25" s="23">
         <v>384</v>
@@ -5149,7 +5202,7 @@
         <v>1</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K25" s="22">
         <v>24</v>
@@ -5161,38 +5214,38 @@
         <v>0.0003</v>
       </c>
       <c r="N25" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O25" s="36">
         <v>0.0005</v>
       </c>
       <c r="P25" s="36"/>
-      <c r="Q25" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q25" s="36"/>
       <c r="R25" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S25" s="22">
+        <v>50</v>
+      </c>
+      <c r="S25" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="22">
         <v>0</v>
       </c>
-      <c r="T25" s="22" t="s">
-        <v>36</v>
-      </c>
       <c r="U25" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="V25" s="51">
+        <v>37</v>
+      </c>
+      <c r="V25" s="22" t="s">
+        <v>64</v>
+      </c>
+      <c r="W25" s="48">
         <v>0.976</v>
       </c>
-      <c r="W25" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="X25" s="53" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y25" s="53"/>
-      <c r="Z25" s="57"/>
+      <c r="X25" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y25" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="Z25" s="56"/>
       <c r="AA25" s="57"/>
       <c r="AB25" s="57"/>
       <c r="AC25" s="57"/>
@@ -6194,16 +6247,17 @@
       <c r="AMK25" s="57"/>
       <c r="AML25" s="57"/>
       <c r="AMM25" s="57"/>
+      <c r="AMN25" s="57"/>
     </row>
-    <row r="26" ht="15.75" spans="1:25">
+    <row r="26" spans="1:26">
       <c r="A26" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B26" s="21">
         <v>0</v>
       </c>
       <c r="C26" s="24" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D26" s="21">
         <v>416</v>
@@ -6224,7 +6278,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K26" s="22">
         <v>24</v>
@@ -6236,47 +6290,48 @@
         <v>0.0003</v>
       </c>
       <c r="N26" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O26" s="36">
         <v>0.0005</v>
       </c>
       <c r="P26" s="36"/>
-      <c r="Q26" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q26" s="36"/>
       <c r="R26" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S26" s="22">
+        <v>50</v>
+      </c>
+      <c r="S26" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T26" s="22">
         <v>0</v>
       </c>
-      <c r="T26" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="U26" s="22">
+      <c r="U26" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V26" s="22">
         <v>0.9918</v>
       </c>
-      <c r="V26" s="51">
+      <c r="W26" s="48">
         <v>0.976</v>
       </c>
-      <c r="W26" s="22" t="s">
-        <v>66</v>
-      </c>
-      <c r="X26" s="44" t="s">
+      <c r="X26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="44"/>
+      <c r="Y26" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="Z26" s="43"/>
     </row>
-    <row r="27" ht="15.75" spans="1:25">
+    <row r="27" spans="1:26">
       <c r="A27" s="25" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="26">
         <v>0</v>
       </c>
       <c r="C27" s="26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D27" s="26">
         <v>416</v>
@@ -6297,7 +6352,7 @@
         <v>1</v>
       </c>
       <c r="J27" s="28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K27" s="28">
         <v>24</v>
@@ -6309,47 +6364,48 @@
         <v>0.0003</v>
       </c>
       <c r="N27" s="28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O27" s="37">
         <v>0.0005</v>
       </c>
       <c r="P27" s="37"/>
-      <c r="Q27" s="28" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q27" s="37"/>
       <c r="R27" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="S27" s="28">
+        <v>50</v>
+      </c>
+      <c r="S27" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="T27" s="28">
         <v>0</v>
       </c>
-      <c r="T27" s="28" t="s">
-        <v>36</v>
-      </c>
-      <c r="U27" s="28">
+      <c r="U27" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="V27" s="28">
         <v>0.9861</v>
       </c>
-      <c r="V27" s="54">
+      <c r="W27" s="50">
         <v>0.974</v>
       </c>
-      <c r="W27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="X27" s="44" t="s">
+      <c r="X27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="44"/>
+      <c r="Y27" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z27" s="43"/>
     </row>
-    <row r="28" ht="15.75" spans="1:25">
+    <row r="28" spans="1:26">
       <c r="A28" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B28" s="21">
         <v>0</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D28" s="21">
         <v>416</v>
@@ -6370,7 +6426,7 @@
         <v>1</v>
       </c>
       <c r="J28" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K28" s="22">
         <v>24</v>
@@ -6382,7 +6438,7 @@
         <v>0.0003</v>
       </c>
       <c r="N28" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O28" s="36">
         <v>0.0005</v>
@@ -6390,43 +6446,44 @@
       <c r="P28" s="38" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q28" s="36"/>
       <c r="R28" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S28" s="22">
+        <v>50</v>
+      </c>
+      <c r="S28" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T28" s="22">
         <v>0</v>
       </c>
-      <c r="T28" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="U28" s="22">
+      <c r="U28" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V28" s="22">
         <v>0.9861</v>
       </c>
-      <c r="V28" s="51">
+      <c r="W28" s="48">
         <v>0.976</v>
       </c>
-      <c r="W28" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="X28" s="44" t="s">
+      <c r="X28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="44" t="s">
+      <c r="Y28" s="43" t="s">
         <v>73</v>
       </c>
+      <c r="Z28" s="43" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="29" ht="15.75" spans="1:25">
+    <row r="29" ht="15.75" spans="1:26">
       <c r="A29" s="20" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B29" s="21">
         <v>0</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D29" s="21">
         <v>416</v>
@@ -6447,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="J29" s="22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K29" s="22">
         <v>24</v>
@@ -6459,50 +6516,177 @@
         <v>0.0003</v>
       </c>
       <c r="N29" s="22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="O29" s="36">
         <v>0.0005</v>
       </c>
       <c r="P29" s="36"/>
-      <c r="Q29" s="22" t="s">
-        <v>49</v>
-      </c>
+      <c r="Q29" s="36"/>
       <c r="R29" s="22" t="s">
-        <v>35</v>
-      </c>
-      <c r="S29" s="22">
+        <v>50</v>
+      </c>
+      <c r="S29" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T29" s="22">
         <v>0</v>
       </c>
-      <c r="T29" s="22" t="s">
+      <c r="U29" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V29" s="22">
+        <v>0.9875</v>
+      </c>
+      <c r="W29" s="48">
+        <v>0.976</v>
+      </c>
+      <c r="X29" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y29" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z29" s="43"/>
+    </row>
+    <row r="30" ht="15.75" spans="1:26">
+      <c r="A30" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="10">
+        <v>0</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D30" s="10">
+        <v>416</v>
+      </c>
+      <c r="E30" s="10">
+        <v>0</v>
+      </c>
+      <c r="F30" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="G30" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="I30" s="10" t="b">
+        <v>1</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K30" s="9">
+        <v>24</v>
+      </c>
+      <c r="L30" s="9">
+        <v>45</v>
+      </c>
+      <c r="M30" s="31">
+        <v>0.0003</v>
+      </c>
+      <c r="N30" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O30" s="31">
+        <v>0.0005</v>
+      </c>
+      <c r="P30" s="31" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S30" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="U29" s="22">
-        <v>0.9875</v>
-      </c>
-      <c r="V29" s="51">
-        <v>0.976</v>
-      </c>
-      <c r="W29" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="X29" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y29" s="44"/>
+      <c r="T30" s="10">
+        <v>0</v>
+      </c>
+      <c r="U30" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V30" s="10">
+        <v>0.9907</v>
+      </c>
+      <c r="W30" s="49">
+        <v>0.974</v>
+      </c>
+      <c r="X30" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y30" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z30" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="E1:J1"/>
-    <mergeCell ref="K1:Q1"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="A15:V15"/>
-    <mergeCell ref="A19:Y19"/>
+    <mergeCell ref="K1:R1"/>
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="A15:W15"/>
+    <mergeCell ref="A19:Z19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="5"/>
+  <cols>
+    <col min="1" max="1" width="62.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
   <si>
     <t>Model</t>
   </si>
@@ -253,6 +253,18 @@
   </si>
   <si>
     <t>在大数据集上使用sparsity效果不明显</t>
+  </si>
+  <si>
+    <t>efficientnet-b5</t>
+  </si>
+  <si>
+    <t>log-2019-12-17T15-04-51</t>
+  </si>
+  <si>
+    <t>未训练充足</t>
+  </si>
+  <si>
+    <t>观察曲线，加大batch_size、epoch</t>
   </si>
   <si>
     <t>Apple</t>
@@ -1145,7 +1157,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1227,6 +1239,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1239,6 +1254,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1315,9 +1333,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1707,10 +1722,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AMN30"/>
+  <dimension ref="A1:Z31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="L5" workbookViewId="0">
-      <selection activeCell="Q31" sqref="Q31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1736,8 +1751,8 @@
     <col min="23" max="23" width="10.9916666666667" style="5" customWidth="1"/>
     <col min="24" max="24" width="23.75" style="5" customWidth="1"/>
     <col min="25" max="25" width="35.9333333333333" style="5" customWidth="1"/>
-    <col min="26" max="26" width="19.4083333333333" style="5" customWidth="1"/>
-    <col min="27" max="1028" width="9" style="5" customWidth="1"/>
+    <col min="26" max="26" width="29.7083333333333" style="5" customWidth="1"/>
+    <col min="27" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:26">
@@ -1749,44 +1764,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="27" t="s">
+      <c r="E1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="29" t="s">
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="39" t="s">
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="39"/>
-      <c r="U1" s="40" t="s">
+      <c r="T1" s="41"/>
+      <c r="U1" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="39" t="s">
+      <c r="V1" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="41" t="s">
+      <c r="W1" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="42" t="s">
+      <c r="X1" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="51" t="s">
+      <c r="Y1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="52" t="s">
+      <c r="Z1" s="54" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1890,17 +1905,17 @@
       <c r="L3" s="9">
         <v>60</v>
       </c>
-      <c r="M3" s="31">
+      <c r="M3" s="33">
         <v>0.01</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="31">
+      <c r="O3" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
       <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
@@ -1919,7 +1934,7 @@
       <c r="W3" s="9">
         <v>0.954</v>
       </c>
-      <c r="X3" s="43"/>
+      <c r="X3" s="45"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:24">
       <c r="A4" s="9" t="s">
@@ -1956,17 +1971,17 @@
       <c r="L4" s="9">
         <v>60</v>
       </c>
-      <c r="M4" s="31">
+      <c r="M4" s="33">
         <v>0.01</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="31">
+      <c r="O4" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
       <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
@@ -1985,7 +2000,7 @@
       <c r="W4" s="9">
         <v>0.946</v>
       </c>
-      <c r="X4" s="43"/>
+      <c r="X4" s="45"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:24">
       <c r="A5" s="9" t="s">
@@ -2022,17 +2037,17 @@
       <c r="L5" s="9">
         <v>60</v>
       </c>
-      <c r="M5" s="31">
+      <c r="M5" s="33">
         <v>0.01</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="31">
+      <c r="O5" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P5" s="31"/>
-      <c r="Q5" s="31"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
       <c r="R5" s="9" t="s">
         <v>35</v>
       </c>
@@ -2051,7 +2066,7 @@
       <c r="W5" s="9">
         <v>0.949</v>
       </c>
-      <c r="X5" s="43"/>
+      <c r="X5" s="45"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:24">
       <c r="A6" s="9" t="s">
@@ -2088,17 +2103,17 @@
       <c r="L6" s="9">
         <v>60</v>
       </c>
-      <c r="M6" s="31">
+      <c r="M6" s="33">
         <v>0.01</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="31">
+      <c r="O6" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P6" s="31"/>
-      <c r="Q6" s="31"/>
+      <c r="P6" s="33"/>
+      <c r="Q6" s="33"/>
       <c r="R6" s="9" t="s">
         <v>35</v>
       </c>
@@ -2117,7 +2132,7 @@
       <c r="W6" s="9">
         <v>0.952</v>
       </c>
-      <c r="X6" s="43"/>
+      <c r="X6" s="45"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:24">
       <c r="A7" s="9" t="s">
@@ -2154,17 +2169,17 @@
       <c r="L7" s="9">
         <v>60</v>
       </c>
-      <c r="M7" s="31">
+      <c r="M7" s="33">
         <v>0.01</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="31">
+      <c r="O7" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="33"/>
       <c r="R7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2183,7 +2198,7 @@
       <c r="W7" s="9">
         <v>0.958</v>
       </c>
-      <c r="X7" s="43"/>
+      <c r="X7" s="45"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:24">
       <c r="A8" s="9" t="s">
@@ -2220,17 +2235,17 @@
       <c r="L8" s="9">
         <v>60</v>
       </c>
-      <c r="M8" s="31">
+      <c r="M8" s="33">
         <v>0.01</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="31">
+      <c r="O8" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P8" s="31"/>
-      <c r="Q8" s="31"/>
+      <c r="P8" s="33"/>
+      <c r="Q8" s="33"/>
       <c r="R8" s="9" t="s">
         <v>35</v>
       </c>
@@ -2249,7 +2264,7 @@
       <c r="W8" s="9">
         <v>0.959</v>
       </c>
-      <c r="X8" s="43"/>
+      <c r="X8" s="45"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:24">
       <c r="A9" s="9" t="s">
@@ -2286,17 +2301,17 @@
       <c r="L9" s="9">
         <v>60</v>
       </c>
-      <c r="M9" s="31">
+      <c r="M9" s="33">
         <v>0.01</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="31">
+      <c r="O9" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P9" s="31"/>
-      <c r="Q9" s="31"/>
+      <c r="P9" s="33"/>
+      <c r="Q9" s="33"/>
       <c r="R9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2315,7 +2330,7 @@
       <c r="W9" s="9">
         <v>0.961</v>
       </c>
-      <c r="X9" s="43"/>
+      <c r="X9" s="45"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:24">
       <c r="A10" s="9" t="s">
@@ -2352,17 +2367,17 @@
       <c r="L10" s="9">
         <v>50</v>
       </c>
-      <c r="M10" s="31">
+      <c r="M10" s="33">
         <v>0.01</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="31">
+      <c r="O10" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
       <c r="R10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2381,7 +2396,7 @@
       <c r="W10" s="9">
         <v>0.964</v>
       </c>
-      <c r="X10" s="43"/>
+      <c r="X10" s="45"/>
     </row>
     <row r="11" ht="19.5" customHeight="1"/>
     <row r="12" ht="18" customHeight="1" spans="1:24">
@@ -2419,17 +2434,17 @@
       <c r="L12" s="9">
         <v>50</v>
       </c>
-      <c r="M12" s="31">
+      <c r="M12" s="33">
         <v>0.002</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="31">
+      <c r="O12" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
       <c r="R12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2448,7 +2463,7 @@
       <c r="W12" s="10">
         <v>0.964</v>
       </c>
-      <c r="X12" s="43"/>
+      <c r="X12" s="45"/>
     </row>
     <row r="13" spans="1:24">
       <c r="A13" s="9" t="s">
@@ -2485,17 +2500,17 @@
       <c r="L13" s="9">
         <v>60</v>
       </c>
-      <c r="M13" s="31">
+      <c r="M13" s="33">
         <v>0.001</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="31">
+      <c r="O13" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P13" s="31"/>
-      <c r="Q13" s="31"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
       <c r="R13" s="10" t="s">
         <v>35</v>
       </c>
@@ -2514,7 +2529,7 @@
       <c r="W13" s="10">
         <v>0.955</v>
       </c>
-      <c r="X13" s="43"/>
+      <c r="X13" s="45"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:24">
       <c r="A14" s="9" t="s">
@@ -2551,17 +2566,17 @@
       <c r="L14" s="9">
         <v>30</v>
       </c>
-      <c r="M14" s="31" t="s">
+      <c r="M14" s="33" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="31">
+      <c r="O14" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P14" s="31"/>
-      <c r="Q14" s="31"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
       <c r="R14" s="10" t="s">
         <v>50</v>
       </c>
@@ -2580,7 +2595,7 @@
       <c r="W14" s="21">
         <v>0.971</v>
       </c>
-      <c r="X14" s="43"/>
+      <c r="X14" s="45"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:23">
       <c r="A15" s="11" t="s">
@@ -2644,17 +2659,17 @@
       <c r="L16" s="12">
         <v>30</v>
       </c>
-      <c r="M16" s="32" t="s">
+      <c r="M16" s="34" t="s">
         <v>49</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="32">
+      <c r="O16" s="34">
         <v>0.0005</v>
       </c>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="32"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
       <c r="R16" s="13" t="s">
         <v>50</v>
       </c>
@@ -2670,12 +2685,12 @@
       <c r="V16" s="13">
         <v>0.9837</v>
       </c>
-      <c r="W16" s="44">
+      <c r="W16" s="46">
         <v>0.974</v>
       </c>
-      <c r="X16" s="43"/>
+      <c r="X16" s="45"/>
     </row>
-    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:1028">
+    <row r="17" s="3" customFormat="1" ht="15.75" spans="1:26">
       <c r="A17" s="12" t="s">
         <v>39</v>
       </c>
@@ -2710,17 +2725,17 @@
       <c r="L17" s="12">
         <v>60</v>
       </c>
-      <c r="M17" s="32">
+      <c r="M17" s="34">
         <v>0.0003</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="32">
+      <c r="O17" s="34">
         <v>0.0005</v>
       </c>
-      <c r="P17" s="32"/>
-      <c r="Q17" s="32"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
       <c r="R17" s="13" t="s">
         <v>50</v>
       </c>
@@ -2739,1013 +2754,11 @@
       <c r="W17" s="13">
         <v>0.955</v>
       </c>
-      <c r="X17" s="45"/>
-      <c r="Y17" s="53"/>
-      <c r="Z17" s="53"/>
-      <c r="AA17" s="53"/>
-      <c r="AB17" s="53"/>
-      <c r="AC17" s="53"/>
-      <c r="AD17" s="53"/>
-      <c r="AE17" s="53"/>
-      <c r="AF17" s="53"/>
-      <c r="AG17" s="53"/>
-      <c r="AH17" s="53"/>
-      <c r="AI17" s="53"/>
-      <c r="AJ17" s="53"/>
-      <c r="AK17" s="53"/>
-      <c r="AL17" s="53"/>
-      <c r="AM17" s="53"/>
-      <c r="AN17" s="53"/>
-      <c r="AO17" s="53"/>
-      <c r="AP17" s="53"/>
-      <c r="AQ17" s="53"/>
-      <c r="AR17" s="53"/>
-      <c r="AS17" s="53"/>
-      <c r="AT17" s="53"/>
-      <c r="AU17" s="53"/>
-      <c r="AV17" s="53"/>
-      <c r="AW17" s="53"/>
-      <c r="AX17" s="53"/>
-      <c r="AY17" s="53"/>
-      <c r="AZ17" s="53"/>
-      <c r="BA17" s="53"/>
-      <c r="BB17" s="53"/>
-      <c r="BC17" s="53"/>
-      <c r="BD17" s="53"/>
-      <c r="BE17" s="53"/>
-      <c r="BF17" s="53"/>
-      <c r="BG17" s="53"/>
-      <c r="BH17" s="53"/>
-      <c r="BI17" s="53"/>
-      <c r="BJ17" s="53"/>
-      <c r="BK17" s="53"/>
-      <c r="BL17" s="53"/>
-      <c r="BM17" s="53"/>
-      <c r="BN17" s="53"/>
-      <c r="BO17" s="53"/>
-      <c r="BP17" s="53"/>
-      <c r="BQ17" s="53"/>
-      <c r="BR17" s="53"/>
-      <c r="BS17" s="53"/>
-      <c r="BT17" s="53"/>
-      <c r="BU17" s="53"/>
-      <c r="BV17" s="53"/>
-      <c r="BW17" s="53"/>
-      <c r="BX17" s="53"/>
-      <c r="BY17" s="53"/>
-      <c r="BZ17" s="53"/>
-      <c r="CA17" s="53"/>
-      <c r="CB17" s="53"/>
-      <c r="CC17" s="53"/>
-      <c r="CD17" s="53"/>
-      <c r="CE17" s="53"/>
-      <c r="CF17" s="53"/>
-      <c r="CG17" s="53"/>
-      <c r="CH17" s="53"/>
-      <c r="CI17" s="53"/>
-      <c r="CJ17" s="53"/>
-      <c r="CK17" s="53"/>
-      <c r="CL17" s="53"/>
-      <c r="CM17" s="53"/>
-      <c r="CN17" s="53"/>
-      <c r="CO17" s="53"/>
-      <c r="CP17" s="53"/>
-      <c r="CQ17" s="53"/>
-      <c r="CR17" s="53"/>
-      <c r="CS17" s="53"/>
-      <c r="CT17" s="53"/>
-      <c r="CU17" s="53"/>
-      <c r="CV17" s="53"/>
-      <c r="CW17" s="53"/>
-      <c r="CX17" s="53"/>
-      <c r="CY17" s="53"/>
-      <c r="CZ17" s="53"/>
-      <c r="DA17" s="53"/>
-      <c r="DB17" s="53"/>
-      <c r="DC17" s="53"/>
-      <c r="DD17" s="53"/>
-      <c r="DE17" s="53"/>
-      <c r="DF17" s="53"/>
-      <c r="DG17" s="53"/>
-      <c r="DH17" s="53"/>
-      <c r="DI17" s="53"/>
-      <c r="DJ17" s="53"/>
-      <c r="DK17" s="53"/>
-      <c r="DL17" s="53"/>
-      <c r="DM17" s="53"/>
-      <c r="DN17" s="53"/>
-      <c r="DO17" s="53"/>
-      <c r="DP17" s="53"/>
-      <c r="DQ17" s="53"/>
-      <c r="DR17" s="53"/>
-      <c r="DS17" s="53"/>
-      <c r="DT17" s="53"/>
-      <c r="DU17" s="53"/>
-      <c r="DV17" s="53"/>
-      <c r="DW17" s="53"/>
-      <c r="DX17" s="53"/>
-      <c r="DY17" s="53"/>
-      <c r="DZ17" s="53"/>
-      <c r="EA17" s="53"/>
-      <c r="EB17" s="53"/>
-      <c r="EC17" s="53"/>
-      <c r="ED17" s="53"/>
-      <c r="EE17" s="53"/>
-      <c r="EF17" s="53"/>
-      <c r="EG17" s="53"/>
-      <c r="EH17" s="53"/>
-      <c r="EI17" s="53"/>
-      <c r="EJ17" s="53"/>
-      <c r="EK17" s="53"/>
-      <c r="EL17" s="53"/>
-      <c r="EM17" s="53"/>
-      <c r="EN17" s="53"/>
-      <c r="EO17" s="53"/>
-      <c r="EP17" s="53"/>
-      <c r="EQ17" s="53"/>
-      <c r="ER17" s="53"/>
-      <c r="ES17" s="53"/>
-      <c r="ET17" s="53"/>
-      <c r="EU17" s="53"/>
-      <c r="EV17" s="53"/>
-      <c r="EW17" s="53"/>
-      <c r="EX17" s="53"/>
-      <c r="EY17" s="53"/>
-      <c r="EZ17" s="53"/>
-      <c r="FA17" s="53"/>
-      <c r="FB17" s="53"/>
-      <c r="FC17" s="53"/>
-      <c r="FD17" s="53"/>
-      <c r="FE17" s="53"/>
-      <c r="FF17" s="53"/>
-      <c r="FG17" s="53"/>
-      <c r="FH17" s="53"/>
-      <c r="FI17" s="53"/>
-      <c r="FJ17" s="53"/>
-      <c r="FK17" s="53"/>
-      <c r="FL17" s="53"/>
-      <c r="FM17" s="53"/>
-      <c r="FN17" s="53"/>
-      <c r="FO17" s="53"/>
-      <c r="FP17" s="53"/>
-      <c r="FQ17" s="53"/>
-      <c r="FR17" s="53"/>
-      <c r="FS17" s="53"/>
-      <c r="FT17" s="53"/>
-      <c r="FU17" s="53"/>
-      <c r="FV17" s="53"/>
-      <c r="FW17" s="53"/>
-      <c r="FX17" s="53"/>
-      <c r="FY17" s="53"/>
-      <c r="FZ17" s="53"/>
-      <c r="GA17" s="53"/>
-      <c r="GB17" s="53"/>
-      <c r="GC17" s="53"/>
-      <c r="GD17" s="53"/>
-      <c r="GE17" s="53"/>
-      <c r="GF17" s="53"/>
-      <c r="GG17" s="53"/>
-      <c r="GH17" s="53"/>
-      <c r="GI17" s="53"/>
-      <c r="GJ17" s="53"/>
-      <c r="GK17" s="53"/>
-      <c r="GL17" s="53"/>
-      <c r="GM17" s="53"/>
-      <c r="GN17" s="53"/>
-      <c r="GO17" s="53"/>
-      <c r="GP17" s="53"/>
-      <c r="GQ17" s="53"/>
-      <c r="GR17" s="53"/>
-      <c r="GS17" s="53"/>
-      <c r="GT17" s="53"/>
-      <c r="GU17" s="53"/>
-      <c r="GV17" s="53"/>
-      <c r="GW17" s="53"/>
-      <c r="GX17" s="53"/>
-      <c r="GY17" s="53"/>
-      <c r="GZ17" s="53"/>
-      <c r="HA17" s="53"/>
-      <c r="HB17" s="53"/>
-      <c r="HC17" s="53"/>
-      <c r="HD17" s="53"/>
-      <c r="HE17" s="53"/>
-      <c r="HF17" s="53"/>
-      <c r="HG17" s="53"/>
-      <c r="HH17" s="53"/>
-      <c r="HI17" s="53"/>
-      <c r="HJ17" s="53"/>
-      <c r="HK17" s="53"/>
-      <c r="HL17" s="53"/>
-      <c r="HM17" s="53"/>
-      <c r="HN17" s="53"/>
-      <c r="HO17" s="53"/>
-      <c r="HP17" s="53"/>
-      <c r="HQ17" s="53"/>
-      <c r="HR17" s="53"/>
-      <c r="HS17" s="53"/>
-      <c r="HT17" s="53"/>
-      <c r="HU17" s="53"/>
-      <c r="HV17" s="53"/>
-      <c r="HW17" s="53"/>
-      <c r="HX17" s="53"/>
-      <c r="HY17" s="53"/>
-      <c r="HZ17" s="53"/>
-      <c r="IA17" s="53"/>
-      <c r="IB17" s="53"/>
-      <c r="IC17" s="53"/>
-      <c r="ID17" s="53"/>
-      <c r="IE17" s="53"/>
-      <c r="IF17" s="53"/>
-      <c r="IG17" s="53"/>
-      <c r="IH17" s="53"/>
-      <c r="II17" s="53"/>
-      <c r="IJ17" s="53"/>
-      <c r="IK17" s="53"/>
-      <c r="IL17" s="53"/>
-      <c r="IM17" s="53"/>
-      <c r="IN17" s="53"/>
-      <c r="IO17" s="53"/>
-      <c r="IP17" s="53"/>
-      <c r="IQ17" s="53"/>
-      <c r="IR17" s="53"/>
-      <c r="IS17" s="53"/>
-      <c r="IT17" s="53"/>
-      <c r="IU17" s="53"/>
-      <c r="IV17" s="53"/>
-      <c r="IW17" s="53"/>
-      <c r="IX17" s="53"/>
-      <c r="IY17" s="53"/>
-      <c r="IZ17" s="53"/>
-      <c r="JA17" s="53"/>
-      <c r="JB17" s="53"/>
-      <c r="JC17" s="53"/>
-      <c r="JD17" s="53"/>
-      <c r="JE17" s="53"/>
-      <c r="JF17" s="53"/>
-      <c r="JG17" s="53"/>
-      <c r="JH17" s="53"/>
-      <c r="JI17" s="53"/>
-      <c r="JJ17" s="53"/>
-      <c r="JK17" s="53"/>
-      <c r="JL17" s="53"/>
-      <c r="JM17" s="53"/>
-      <c r="JN17" s="53"/>
-      <c r="JO17" s="53"/>
-      <c r="JP17" s="53"/>
-      <c r="JQ17" s="53"/>
-      <c r="JR17" s="53"/>
-      <c r="JS17" s="53"/>
-      <c r="JT17" s="53"/>
-      <c r="JU17" s="53"/>
-      <c r="JV17" s="53"/>
-      <c r="JW17" s="53"/>
-      <c r="JX17" s="53"/>
-      <c r="JY17" s="53"/>
-      <c r="JZ17" s="53"/>
-      <c r="KA17" s="53"/>
-      <c r="KB17" s="53"/>
-      <c r="KC17" s="53"/>
-      <c r="KD17" s="53"/>
-      <c r="KE17" s="53"/>
-      <c r="KF17" s="53"/>
-      <c r="KG17" s="53"/>
-      <c r="KH17" s="53"/>
-      <c r="KI17" s="53"/>
-      <c r="KJ17" s="53"/>
-      <c r="KK17" s="53"/>
-      <c r="KL17" s="53"/>
-      <c r="KM17" s="53"/>
-      <c r="KN17" s="53"/>
-      <c r="KO17" s="53"/>
-      <c r="KP17" s="53"/>
-      <c r="KQ17" s="53"/>
-      <c r="KR17" s="53"/>
-      <c r="KS17" s="53"/>
-      <c r="KT17" s="53"/>
-      <c r="KU17" s="53"/>
-      <c r="KV17" s="53"/>
-      <c r="KW17" s="53"/>
-      <c r="KX17" s="53"/>
-      <c r="KY17" s="53"/>
-      <c r="KZ17" s="53"/>
-      <c r="LA17" s="53"/>
-      <c r="LB17" s="53"/>
-      <c r="LC17" s="53"/>
-      <c r="LD17" s="53"/>
-      <c r="LE17" s="53"/>
-      <c r="LF17" s="53"/>
-      <c r="LG17" s="53"/>
-      <c r="LH17" s="53"/>
-      <c r="LI17" s="53"/>
-      <c r="LJ17" s="53"/>
-      <c r="LK17" s="53"/>
-      <c r="LL17" s="53"/>
-      <c r="LM17" s="53"/>
-      <c r="LN17" s="53"/>
-      <c r="LO17" s="53"/>
-      <c r="LP17" s="53"/>
-      <c r="LQ17" s="53"/>
-      <c r="LR17" s="53"/>
-      <c r="LS17" s="53"/>
-      <c r="LT17" s="53"/>
-      <c r="LU17" s="53"/>
-      <c r="LV17" s="53"/>
-      <c r="LW17" s="53"/>
-      <c r="LX17" s="53"/>
-      <c r="LY17" s="53"/>
-      <c r="LZ17" s="53"/>
-      <c r="MA17" s="53"/>
-      <c r="MB17" s="53"/>
-      <c r="MC17" s="53"/>
-      <c r="MD17" s="53"/>
-      <c r="ME17" s="53"/>
-      <c r="MF17" s="53"/>
-      <c r="MG17" s="53"/>
-      <c r="MH17" s="53"/>
-      <c r="MI17" s="53"/>
-      <c r="MJ17" s="53"/>
-      <c r="MK17" s="53"/>
-      <c r="ML17" s="53"/>
-      <c r="MM17" s="53"/>
-      <c r="MN17" s="53"/>
-      <c r="MO17" s="53"/>
-      <c r="MP17" s="53"/>
-      <c r="MQ17" s="53"/>
-      <c r="MR17" s="53"/>
-      <c r="MS17" s="53"/>
-      <c r="MT17" s="53"/>
-      <c r="MU17" s="53"/>
-      <c r="MV17" s="53"/>
-      <c r="MW17" s="53"/>
-      <c r="MX17" s="53"/>
-      <c r="MY17" s="53"/>
-      <c r="MZ17" s="53"/>
-      <c r="NA17" s="53"/>
-      <c r="NB17" s="53"/>
-      <c r="NC17" s="53"/>
-      <c r="ND17" s="53"/>
-      <c r="NE17" s="53"/>
-      <c r="NF17" s="53"/>
-      <c r="NG17" s="53"/>
-      <c r="NH17" s="53"/>
-      <c r="NI17" s="53"/>
-      <c r="NJ17" s="53"/>
-      <c r="NK17" s="53"/>
-      <c r="NL17" s="53"/>
-      <c r="NM17" s="53"/>
-      <c r="NN17" s="53"/>
-      <c r="NO17" s="53"/>
-      <c r="NP17" s="53"/>
-      <c r="NQ17" s="53"/>
-      <c r="NR17" s="53"/>
-      <c r="NS17" s="53"/>
-      <c r="NT17" s="53"/>
-      <c r="NU17" s="53"/>
-      <c r="NV17" s="53"/>
-      <c r="NW17" s="53"/>
-      <c r="NX17" s="53"/>
-      <c r="NY17" s="53"/>
-      <c r="NZ17" s="53"/>
-      <c r="OA17" s="53"/>
-      <c r="OB17" s="53"/>
-      <c r="OC17" s="53"/>
-      <c r="OD17" s="53"/>
-      <c r="OE17" s="53"/>
-      <c r="OF17" s="53"/>
-      <c r="OG17" s="53"/>
-      <c r="OH17" s="53"/>
-      <c r="OI17" s="53"/>
-      <c r="OJ17" s="53"/>
-      <c r="OK17" s="53"/>
-      <c r="OL17" s="53"/>
-      <c r="OM17" s="53"/>
-      <c r="ON17" s="53"/>
-      <c r="OO17" s="53"/>
-      <c r="OP17" s="53"/>
-      <c r="OQ17" s="53"/>
-      <c r="OR17" s="53"/>
-      <c r="OS17" s="53"/>
-      <c r="OT17" s="53"/>
-      <c r="OU17" s="53"/>
-      <c r="OV17" s="53"/>
-      <c r="OW17" s="53"/>
-      <c r="OX17" s="53"/>
-      <c r="OY17" s="53"/>
-      <c r="OZ17" s="53"/>
-      <c r="PA17" s="53"/>
-      <c r="PB17" s="53"/>
-      <c r="PC17" s="53"/>
-      <c r="PD17" s="53"/>
-      <c r="PE17" s="53"/>
-      <c r="PF17" s="53"/>
-      <c r="PG17" s="53"/>
-      <c r="PH17" s="53"/>
-      <c r="PI17" s="53"/>
-      <c r="PJ17" s="53"/>
-      <c r="PK17" s="53"/>
-      <c r="PL17" s="53"/>
-      <c r="PM17" s="53"/>
-      <c r="PN17" s="53"/>
-      <c r="PO17" s="53"/>
-      <c r="PP17" s="53"/>
-      <c r="PQ17" s="53"/>
-      <c r="PR17" s="53"/>
-      <c r="PS17" s="53"/>
-      <c r="PT17" s="53"/>
-      <c r="PU17" s="53"/>
-      <c r="PV17" s="53"/>
-      <c r="PW17" s="53"/>
-      <c r="PX17" s="53"/>
-      <c r="PY17" s="53"/>
-      <c r="PZ17" s="53"/>
-      <c r="QA17" s="53"/>
-      <c r="QB17" s="53"/>
-      <c r="QC17" s="53"/>
-      <c r="QD17" s="53"/>
-      <c r="QE17" s="53"/>
-      <c r="QF17" s="53"/>
-      <c r="QG17" s="53"/>
-      <c r="QH17" s="53"/>
-      <c r="QI17" s="53"/>
-      <c r="QJ17" s="53"/>
-      <c r="QK17" s="53"/>
-      <c r="QL17" s="53"/>
-      <c r="QM17" s="53"/>
-      <c r="QN17" s="53"/>
-      <c r="QO17" s="53"/>
-      <c r="QP17" s="53"/>
-      <c r="QQ17" s="53"/>
-      <c r="QR17" s="53"/>
-      <c r="QS17" s="53"/>
-      <c r="QT17" s="53"/>
-      <c r="QU17" s="53"/>
-      <c r="QV17" s="53"/>
-      <c r="QW17" s="53"/>
-      <c r="QX17" s="53"/>
-      <c r="QY17" s="53"/>
-      <c r="QZ17" s="53"/>
-      <c r="RA17" s="53"/>
-      <c r="RB17" s="53"/>
-      <c r="RC17" s="53"/>
-      <c r="RD17" s="53"/>
-      <c r="RE17" s="53"/>
-      <c r="RF17" s="53"/>
-      <c r="RG17" s="53"/>
-      <c r="RH17" s="53"/>
-      <c r="RI17" s="53"/>
-      <c r="RJ17" s="53"/>
-      <c r="RK17" s="53"/>
-      <c r="RL17" s="53"/>
-      <c r="RM17" s="53"/>
-      <c r="RN17" s="53"/>
-      <c r="RO17" s="53"/>
-      <c r="RP17" s="53"/>
-      <c r="RQ17" s="53"/>
-      <c r="RR17" s="53"/>
-      <c r="RS17" s="53"/>
-      <c r="RT17" s="53"/>
-      <c r="RU17" s="53"/>
-      <c r="RV17" s="53"/>
-      <c r="RW17" s="53"/>
-      <c r="RX17" s="53"/>
-      <c r="RY17" s="53"/>
-      <c r="RZ17" s="53"/>
-      <c r="SA17" s="53"/>
-      <c r="SB17" s="53"/>
-      <c r="SC17" s="53"/>
-      <c r="SD17" s="53"/>
-      <c r="SE17" s="53"/>
-      <c r="SF17" s="53"/>
-      <c r="SG17" s="53"/>
-      <c r="SH17" s="53"/>
-      <c r="SI17" s="53"/>
-      <c r="SJ17" s="53"/>
-      <c r="SK17" s="53"/>
-      <c r="SL17" s="53"/>
-      <c r="SM17" s="53"/>
-      <c r="SN17" s="53"/>
-      <c r="SO17" s="53"/>
-      <c r="SP17" s="53"/>
-      <c r="SQ17" s="53"/>
-      <c r="SR17" s="53"/>
-      <c r="SS17" s="53"/>
-      <c r="ST17" s="53"/>
-      <c r="SU17" s="53"/>
-      <c r="SV17" s="53"/>
-      <c r="SW17" s="53"/>
-      <c r="SX17" s="53"/>
-      <c r="SY17" s="53"/>
-      <c r="SZ17" s="53"/>
-      <c r="TA17" s="53"/>
-      <c r="TB17" s="53"/>
-      <c r="TC17" s="53"/>
-      <c r="TD17" s="53"/>
-      <c r="TE17" s="53"/>
-      <c r="TF17" s="53"/>
-      <c r="TG17" s="53"/>
-      <c r="TH17" s="53"/>
-      <c r="TI17" s="53"/>
-      <c r="TJ17" s="53"/>
-      <c r="TK17" s="53"/>
-      <c r="TL17" s="53"/>
-      <c r="TM17" s="53"/>
-      <c r="TN17" s="53"/>
-      <c r="TO17" s="53"/>
-      <c r="TP17" s="53"/>
-      <c r="TQ17" s="53"/>
-      <c r="TR17" s="53"/>
-      <c r="TS17" s="53"/>
-      <c r="TT17" s="53"/>
-      <c r="TU17" s="53"/>
-      <c r="TV17" s="53"/>
-      <c r="TW17" s="53"/>
-      <c r="TX17" s="53"/>
-      <c r="TY17" s="53"/>
-      <c r="TZ17" s="53"/>
-      <c r="UA17" s="53"/>
-      <c r="UB17" s="53"/>
-      <c r="UC17" s="53"/>
-      <c r="UD17" s="53"/>
-      <c r="UE17" s="53"/>
-      <c r="UF17" s="53"/>
-      <c r="UG17" s="53"/>
-      <c r="UH17" s="53"/>
-      <c r="UI17" s="53"/>
-      <c r="UJ17" s="53"/>
-      <c r="UK17" s="53"/>
-      <c r="UL17" s="53"/>
-      <c r="UM17" s="53"/>
-      <c r="UN17" s="53"/>
-      <c r="UO17" s="53"/>
-      <c r="UP17" s="53"/>
-      <c r="UQ17" s="53"/>
-      <c r="UR17" s="53"/>
-      <c r="US17" s="53"/>
-      <c r="UT17" s="53"/>
-      <c r="UU17" s="53"/>
-      <c r="UV17" s="53"/>
-      <c r="UW17" s="53"/>
-      <c r="UX17" s="53"/>
-      <c r="UY17" s="53"/>
-      <c r="UZ17" s="53"/>
-      <c r="VA17" s="53"/>
-      <c r="VB17" s="53"/>
-      <c r="VC17" s="53"/>
-      <c r="VD17" s="53"/>
-      <c r="VE17" s="53"/>
-      <c r="VF17" s="53"/>
-      <c r="VG17" s="53"/>
-      <c r="VH17" s="53"/>
-      <c r="VI17" s="53"/>
-      <c r="VJ17" s="53"/>
-      <c r="VK17" s="53"/>
-      <c r="VL17" s="53"/>
-      <c r="VM17" s="53"/>
-      <c r="VN17" s="53"/>
-      <c r="VO17" s="53"/>
-      <c r="VP17" s="53"/>
-      <c r="VQ17" s="53"/>
-      <c r="VR17" s="53"/>
-      <c r="VS17" s="53"/>
-      <c r="VT17" s="53"/>
-      <c r="VU17" s="53"/>
-      <c r="VV17" s="53"/>
-      <c r="VW17" s="53"/>
-      <c r="VX17" s="53"/>
-      <c r="VY17" s="53"/>
-      <c r="VZ17" s="53"/>
-      <c r="WA17" s="53"/>
-      <c r="WB17" s="53"/>
-      <c r="WC17" s="53"/>
-      <c r="WD17" s="53"/>
-      <c r="WE17" s="53"/>
-      <c r="WF17" s="53"/>
-      <c r="WG17" s="53"/>
-      <c r="WH17" s="53"/>
-      <c r="WI17" s="53"/>
-      <c r="WJ17" s="53"/>
-      <c r="WK17" s="53"/>
-      <c r="WL17" s="53"/>
-      <c r="WM17" s="53"/>
-      <c r="WN17" s="53"/>
-      <c r="WO17" s="53"/>
-      <c r="WP17" s="53"/>
-      <c r="WQ17" s="53"/>
-      <c r="WR17" s="53"/>
-      <c r="WS17" s="53"/>
-      <c r="WT17" s="53"/>
-      <c r="WU17" s="53"/>
-      <c r="WV17" s="53"/>
-      <c r="WW17" s="53"/>
-      <c r="WX17" s="53"/>
-      <c r="WY17" s="53"/>
-      <c r="WZ17" s="53"/>
-      <c r="XA17" s="53"/>
-      <c r="XB17" s="53"/>
-      <c r="XC17" s="53"/>
-      <c r="XD17" s="53"/>
-      <c r="XE17" s="53"/>
-      <c r="XF17" s="53"/>
-      <c r="XG17" s="53"/>
-      <c r="XH17" s="53"/>
-      <c r="XI17" s="53"/>
-      <c r="XJ17" s="53"/>
-      <c r="XK17" s="53"/>
-      <c r="XL17" s="53"/>
-      <c r="XM17" s="53"/>
-      <c r="XN17" s="53"/>
-      <c r="XO17" s="53"/>
-      <c r="XP17" s="53"/>
-      <c r="XQ17" s="53"/>
-      <c r="XR17" s="53"/>
-      <c r="XS17" s="53"/>
-      <c r="XT17" s="53"/>
-      <c r="XU17" s="53"/>
-      <c r="XV17" s="53"/>
-      <c r="XW17" s="53"/>
-      <c r="XX17" s="53"/>
-      <c r="XY17" s="53"/>
-      <c r="XZ17" s="53"/>
-      <c r="YA17" s="53"/>
-      <c r="YB17" s="53"/>
-      <c r="YC17" s="53"/>
-      <c r="YD17" s="53"/>
-      <c r="YE17" s="53"/>
-      <c r="YF17" s="53"/>
-      <c r="YG17" s="53"/>
-      <c r="YH17" s="53"/>
-      <c r="YI17" s="53"/>
-      <c r="YJ17" s="53"/>
-      <c r="YK17" s="53"/>
-      <c r="YL17" s="53"/>
-      <c r="YM17" s="53"/>
-      <c r="YN17" s="53"/>
-      <c r="YO17" s="53"/>
-      <c r="YP17" s="53"/>
-      <c r="YQ17" s="53"/>
-      <c r="YR17" s="53"/>
-      <c r="YS17" s="53"/>
-      <c r="YT17" s="53"/>
-      <c r="YU17" s="53"/>
-      <c r="YV17" s="53"/>
-      <c r="YW17" s="53"/>
-      <c r="YX17" s="53"/>
-      <c r="YY17" s="53"/>
-      <c r="YZ17" s="53"/>
-      <c r="ZA17" s="53"/>
-      <c r="ZB17" s="53"/>
-      <c r="ZC17" s="53"/>
-      <c r="ZD17" s="53"/>
-      <c r="ZE17" s="53"/>
-      <c r="ZF17" s="53"/>
-      <c r="ZG17" s="53"/>
-      <c r="ZH17" s="53"/>
-      <c r="ZI17" s="53"/>
-      <c r="ZJ17" s="53"/>
-      <c r="ZK17" s="53"/>
-      <c r="ZL17" s="53"/>
-      <c r="ZM17" s="53"/>
-      <c r="ZN17" s="53"/>
-      <c r="ZO17" s="53"/>
-      <c r="ZP17" s="53"/>
-      <c r="ZQ17" s="53"/>
-      <c r="ZR17" s="53"/>
-      <c r="ZS17" s="53"/>
-      <c r="ZT17" s="53"/>
-      <c r="ZU17" s="53"/>
-      <c r="ZV17" s="53"/>
-      <c r="ZW17" s="53"/>
-      <c r="ZX17" s="53"/>
-      <c r="ZY17" s="53"/>
-      <c r="ZZ17" s="53"/>
-      <c r="AAA17" s="53"/>
-      <c r="AAB17" s="53"/>
-      <c r="AAC17" s="53"/>
-      <c r="AAD17" s="53"/>
-      <c r="AAE17" s="53"/>
-      <c r="AAF17" s="53"/>
-      <c r="AAG17" s="53"/>
-      <c r="AAH17" s="53"/>
-      <c r="AAI17" s="53"/>
-      <c r="AAJ17" s="53"/>
-      <c r="AAK17" s="53"/>
-      <c r="AAL17" s="53"/>
-      <c r="AAM17" s="53"/>
-      <c r="AAN17" s="53"/>
-      <c r="AAO17" s="53"/>
-      <c r="AAP17" s="53"/>
-      <c r="AAQ17" s="53"/>
-      <c r="AAR17" s="53"/>
-      <c r="AAS17" s="53"/>
-      <c r="AAT17" s="53"/>
-      <c r="AAU17" s="53"/>
-      <c r="AAV17" s="53"/>
-      <c r="AAW17" s="53"/>
-      <c r="AAX17" s="53"/>
-      <c r="AAY17" s="53"/>
-      <c r="AAZ17" s="53"/>
-      <c r="ABA17" s="53"/>
-      <c r="ABB17" s="53"/>
-      <c r="ABC17" s="53"/>
-      <c r="ABD17" s="53"/>
-      <c r="ABE17" s="53"/>
-      <c r="ABF17" s="53"/>
-      <c r="ABG17" s="53"/>
-      <c r="ABH17" s="53"/>
-      <c r="ABI17" s="53"/>
-      <c r="ABJ17" s="53"/>
-      <c r="ABK17" s="53"/>
-      <c r="ABL17" s="53"/>
-      <c r="ABM17" s="53"/>
-      <c r="ABN17" s="53"/>
-      <c r="ABO17" s="53"/>
-      <c r="ABP17" s="53"/>
-      <c r="ABQ17" s="53"/>
-      <c r="ABR17" s="53"/>
-      <c r="ABS17" s="53"/>
-      <c r="ABT17" s="53"/>
-      <c r="ABU17" s="53"/>
-      <c r="ABV17" s="53"/>
-      <c r="ABW17" s="53"/>
-      <c r="ABX17" s="53"/>
-      <c r="ABY17" s="53"/>
-      <c r="ABZ17" s="53"/>
-      <c r="ACA17" s="53"/>
-      <c r="ACB17" s="53"/>
-      <c r="ACC17" s="53"/>
-      <c r="ACD17" s="53"/>
-      <c r="ACE17" s="53"/>
-      <c r="ACF17" s="53"/>
-      <c r="ACG17" s="53"/>
-      <c r="ACH17" s="53"/>
-      <c r="ACI17" s="53"/>
-      <c r="ACJ17" s="53"/>
-      <c r="ACK17" s="53"/>
-      <c r="ACL17" s="53"/>
-      <c r="ACM17" s="53"/>
-      <c r="ACN17" s="53"/>
-      <c r="ACO17" s="53"/>
-      <c r="ACP17" s="53"/>
-      <c r="ACQ17" s="53"/>
-      <c r="ACR17" s="53"/>
-      <c r="ACS17" s="53"/>
-      <c r="ACT17" s="53"/>
-      <c r="ACU17" s="53"/>
-      <c r="ACV17" s="53"/>
-      <c r="ACW17" s="53"/>
-      <c r="ACX17" s="53"/>
-      <c r="ACY17" s="53"/>
-      <c r="ACZ17" s="53"/>
-      <c r="ADA17" s="53"/>
-      <c r="ADB17" s="53"/>
-      <c r="ADC17" s="53"/>
-      <c r="ADD17" s="53"/>
-      <c r="ADE17" s="53"/>
-      <c r="ADF17" s="53"/>
-      <c r="ADG17" s="53"/>
-      <c r="ADH17" s="53"/>
-      <c r="ADI17" s="53"/>
-      <c r="ADJ17" s="53"/>
-      <c r="ADK17" s="53"/>
-      <c r="ADL17" s="53"/>
-      <c r="ADM17" s="53"/>
-      <c r="ADN17" s="53"/>
-      <c r="ADO17" s="53"/>
-      <c r="ADP17" s="53"/>
-      <c r="ADQ17" s="53"/>
-      <c r="ADR17" s="53"/>
-      <c r="ADS17" s="53"/>
-      <c r="ADT17" s="53"/>
-      <c r="ADU17" s="53"/>
-      <c r="ADV17" s="53"/>
-      <c r="ADW17" s="53"/>
-      <c r="ADX17" s="53"/>
-      <c r="ADY17" s="53"/>
-      <c r="ADZ17" s="53"/>
-      <c r="AEA17" s="53"/>
-      <c r="AEB17" s="53"/>
-      <c r="AEC17" s="53"/>
-      <c r="AED17" s="53"/>
-      <c r="AEE17" s="53"/>
-      <c r="AEF17" s="53"/>
-      <c r="AEG17" s="53"/>
-      <c r="AEH17" s="53"/>
-      <c r="AEI17" s="53"/>
-      <c r="AEJ17" s="53"/>
-      <c r="AEK17" s="53"/>
-      <c r="AEL17" s="53"/>
-      <c r="AEM17" s="53"/>
-      <c r="AEN17" s="53"/>
-      <c r="AEO17" s="53"/>
-      <c r="AEP17" s="53"/>
-      <c r="AEQ17" s="53"/>
-      <c r="AER17" s="53"/>
-      <c r="AES17" s="53"/>
-      <c r="AET17" s="53"/>
-      <c r="AEU17" s="53"/>
-      <c r="AEV17" s="53"/>
-      <c r="AEW17" s="53"/>
-      <c r="AEX17" s="53"/>
-      <c r="AEY17" s="53"/>
-      <c r="AEZ17" s="53"/>
-      <c r="AFA17" s="53"/>
-      <c r="AFB17" s="53"/>
-      <c r="AFC17" s="53"/>
-      <c r="AFD17" s="53"/>
-      <c r="AFE17" s="53"/>
-      <c r="AFF17" s="53"/>
-      <c r="AFG17" s="53"/>
-      <c r="AFH17" s="53"/>
-      <c r="AFI17" s="53"/>
-      <c r="AFJ17" s="53"/>
-      <c r="AFK17" s="53"/>
-      <c r="AFL17" s="53"/>
-      <c r="AFM17" s="53"/>
-      <c r="AFN17" s="53"/>
-      <c r="AFO17" s="53"/>
-      <c r="AFP17" s="53"/>
-      <c r="AFQ17" s="53"/>
-      <c r="AFR17" s="53"/>
-      <c r="AFS17" s="53"/>
-      <c r="AFT17" s="53"/>
-      <c r="AFU17" s="53"/>
-      <c r="AFV17" s="53"/>
-      <c r="AFW17" s="53"/>
-      <c r="AFX17" s="53"/>
-      <c r="AFY17" s="53"/>
-      <c r="AFZ17" s="53"/>
-      <c r="AGA17" s="53"/>
-      <c r="AGB17" s="53"/>
-      <c r="AGC17" s="53"/>
-      <c r="AGD17" s="53"/>
-      <c r="AGE17" s="53"/>
-      <c r="AGF17" s="53"/>
-      <c r="AGG17" s="53"/>
-      <c r="AGH17" s="53"/>
-      <c r="AGI17" s="53"/>
-      <c r="AGJ17" s="53"/>
-      <c r="AGK17" s="53"/>
-      <c r="AGL17" s="53"/>
-      <c r="AGM17" s="53"/>
-      <c r="AGN17" s="53"/>
-      <c r="AGO17" s="53"/>
-      <c r="AGP17" s="53"/>
-      <c r="AGQ17" s="53"/>
-      <c r="AGR17" s="53"/>
-      <c r="AGS17" s="53"/>
-      <c r="AGT17" s="53"/>
-      <c r="AGU17" s="53"/>
-      <c r="AGV17" s="53"/>
-      <c r="AGW17" s="53"/>
-      <c r="AGX17" s="53"/>
-      <c r="AGY17" s="53"/>
-      <c r="AGZ17" s="53"/>
-      <c r="AHA17" s="53"/>
-      <c r="AHB17" s="53"/>
-      <c r="AHC17" s="53"/>
-      <c r="AHD17" s="53"/>
-      <c r="AHE17" s="53"/>
-      <c r="AHF17" s="53"/>
-      <c r="AHG17" s="53"/>
-      <c r="AHH17" s="53"/>
-      <c r="AHI17" s="53"/>
-      <c r="AHJ17" s="53"/>
-      <c r="AHK17" s="53"/>
-      <c r="AHL17" s="53"/>
-      <c r="AHM17" s="53"/>
-      <c r="AHN17" s="53"/>
-      <c r="AHO17" s="53"/>
-      <c r="AHP17" s="53"/>
-      <c r="AHQ17" s="53"/>
-      <c r="AHR17" s="53"/>
-      <c r="AHS17" s="53"/>
-      <c r="AHT17" s="53"/>
-      <c r="AHU17" s="53"/>
-      <c r="AHV17" s="53"/>
-      <c r="AHW17" s="53"/>
-      <c r="AHX17" s="53"/>
-      <c r="AHY17" s="53"/>
-      <c r="AHZ17" s="53"/>
-      <c r="AIA17" s="53"/>
-      <c r="AIB17" s="53"/>
-      <c r="AIC17" s="53"/>
-      <c r="AID17" s="53"/>
-      <c r="AIE17" s="53"/>
-      <c r="AIF17" s="53"/>
-      <c r="AIG17" s="53"/>
-      <c r="AIH17" s="53"/>
-      <c r="AII17" s="53"/>
-      <c r="AIJ17" s="53"/>
-      <c r="AIK17" s="53"/>
-      <c r="AIL17" s="53"/>
-      <c r="AIM17" s="53"/>
-      <c r="AIN17" s="53"/>
-      <c r="AIO17" s="53"/>
-      <c r="AIP17" s="53"/>
-      <c r="AIQ17" s="53"/>
-      <c r="AIR17" s="53"/>
-      <c r="AIS17" s="53"/>
-      <c r="AIT17" s="53"/>
-      <c r="AIU17" s="53"/>
-      <c r="AIV17" s="53"/>
-      <c r="AIW17" s="53"/>
-      <c r="AIX17" s="53"/>
-      <c r="AIY17" s="53"/>
-      <c r="AIZ17" s="53"/>
-      <c r="AJA17" s="53"/>
-      <c r="AJB17" s="53"/>
-      <c r="AJC17" s="53"/>
-      <c r="AJD17" s="53"/>
-      <c r="AJE17" s="53"/>
-      <c r="AJF17" s="53"/>
-      <c r="AJG17" s="53"/>
-      <c r="AJH17" s="53"/>
-      <c r="AJI17" s="53"/>
-      <c r="AJJ17" s="53"/>
-      <c r="AJK17" s="53"/>
-      <c r="AJL17" s="53"/>
-      <c r="AJM17" s="53"/>
-      <c r="AJN17" s="53"/>
-      <c r="AJO17" s="53"/>
-      <c r="AJP17" s="53"/>
-      <c r="AJQ17" s="53"/>
-      <c r="AJR17" s="53"/>
-      <c r="AJS17" s="53"/>
-      <c r="AJT17" s="53"/>
-      <c r="AJU17" s="53"/>
-      <c r="AJV17" s="53"/>
-      <c r="AJW17" s="53"/>
-      <c r="AJX17" s="53"/>
-      <c r="AJY17" s="53"/>
-      <c r="AJZ17" s="53"/>
-      <c r="AKA17" s="53"/>
-      <c r="AKB17" s="53"/>
-      <c r="AKC17" s="53"/>
-      <c r="AKD17" s="53"/>
-      <c r="AKE17" s="53"/>
-      <c r="AKF17" s="53"/>
-      <c r="AKG17" s="53"/>
-      <c r="AKH17" s="53"/>
-      <c r="AKI17" s="53"/>
-      <c r="AKJ17" s="53"/>
-      <c r="AKK17" s="53"/>
-      <c r="AKL17" s="53"/>
-      <c r="AKM17" s="53"/>
-      <c r="AKN17" s="53"/>
-      <c r="AKO17" s="53"/>
-      <c r="AKP17" s="53"/>
-      <c r="AKQ17" s="53"/>
-      <c r="AKR17" s="53"/>
-      <c r="AKS17" s="53"/>
-      <c r="AKT17" s="53"/>
-      <c r="AKU17" s="53"/>
-      <c r="AKV17" s="53"/>
-      <c r="AKW17" s="53"/>
-      <c r="AKX17" s="53"/>
-      <c r="AKY17" s="53"/>
-      <c r="AKZ17" s="53"/>
-      <c r="ALA17" s="53"/>
-      <c r="ALB17" s="53"/>
-      <c r="ALC17" s="53"/>
-      <c r="ALD17" s="53"/>
-      <c r="ALE17" s="53"/>
-      <c r="ALF17" s="53"/>
-      <c r="ALG17" s="53"/>
-      <c r="ALH17" s="53"/>
-      <c r="ALI17" s="53"/>
-      <c r="ALJ17" s="53"/>
-      <c r="ALK17" s="53"/>
-      <c r="ALL17" s="53"/>
-      <c r="ALM17" s="53"/>
-      <c r="ALN17" s="53"/>
-      <c r="ALO17" s="53"/>
-      <c r="ALP17" s="53"/>
-      <c r="ALQ17" s="53"/>
-      <c r="ALR17" s="53"/>
-      <c r="ALS17" s="53"/>
-      <c r="ALT17" s="53"/>
-      <c r="ALU17" s="53"/>
-      <c r="ALV17" s="53"/>
-      <c r="ALW17" s="53"/>
-      <c r="ALX17" s="53"/>
-      <c r="ALY17" s="53"/>
-      <c r="ALZ17" s="53"/>
-      <c r="AMA17" s="53"/>
-      <c r="AMB17" s="53"/>
-      <c r="AMC17" s="53"/>
-      <c r="AMD17" s="53"/>
-      <c r="AME17" s="53"/>
-      <c r="AMF17" s="53"/>
-      <c r="AMG17" s="53"/>
-      <c r="AMH17" s="53"/>
-      <c r="AMI17" s="53"/>
-      <c r="AMJ17" s="53"/>
-      <c r="AMK17" s="53"/>
-      <c r="AML17" s="53"/>
-      <c r="AMM17" s="53"/>
-      <c r="AMN17" s="53"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
     </row>
-    <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:1028">
+    <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:26">
       <c r="A18" s="14"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -3755,1025 +2768,23 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="33"/>
+      <c r="J18" s="31"/>
+      <c r="K18" s="31"/>
+      <c r="L18" s="31"/>
+      <c r="M18" s="35"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="33"/>
-      <c r="P18" s="33"/>
-      <c r="Q18" s="33"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="35"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="30"/>
+      <c r="S18" s="31"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="30"/>
+      <c r="U18" s="31"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
       <c r="Y18" s="5"/>
       <c r="Z18" s="5"/>
-      <c r="AA18" s="5"/>
-      <c r="AB18" s="5"/>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5"/>
-      <c r="AE18" s="5"/>
-      <c r="AF18" s="5"/>
-      <c r="AG18" s="5"/>
-      <c r="AH18" s="5"/>
-      <c r="AI18" s="5"/>
-      <c r="AJ18" s="5"/>
-      <c r="AK18" s="5"/>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5"/>
-      <c r="AN18" s="5"/>
-      <c r="AO18" s="5"/>
-      <c r="AP18" s="5"/>
-      <c r="AQ18" s="5"/>
-      <c r="AR18" s="5"/>
-      <c r="AS18" s="5"/>
-      <c r="AT18" s="5"/>
-      <c r="AU18" s="5"/>
-      <c r="AV18" s="5"/>
-      <c r="AW18" s="5"/>
-      <c r="AX18" s="5"/>
-      <c r="AY18" s="5"/>
-      <c r="AZ18" s="5"/>
-      <c r="BA18" s="5"/>
-      <c r="BB18" s="5"/>
-      <c r="BC18" s="5"/>
-      <c r="BD18" s="5"/>
-      <c r="BE18" s="5"/>
-      <c r="BF18" s="5"/>
-      <c r="BG18" s="5"/>
-      <c r="BH18" s="5"/>
-      <c r="BI18" s="5"/>
-      <c r="BJ18" s="5"/>
-      <c r="BK18" s="5"/>
-      <c r="BL18" s="5"/>
-      <c r="BM18" s="5"/>
-      <c r="BN18" s="5"/>
-      <c r="BO18" s="5"/>
-      <c r="BP18" s="5"/>
-      <c r="BQ18" s="5"/>
-      <c r="BR18" s="5"/>
-      <c r="BS18" s="5"/>
-      <c r="BT18" s="5"/>
-      <c r="BU18" s="5"/>
-      <c r="BV18" s="5"/>
-      <c r="BW18" s="5"/>
-      <c r="BX18" s="5"/>
-      <c r="BY18" s="5"/>
-      <c r="BZ18" s="5"/>
-      <c r="CA18" s="5"/>
-      <c r="CB18" s="5"/>
-      <c r="CC18" s="5"/>
-      <c r="CD18" s="5"/>
-      <c r="CE18" s="5"/>
-      <c r="CF18" s="5"/>
-      <c r="CG18" s="5"/>
-      <c r="CH18" s="5"/>
-      <c r="CI18" s="5"/>
-      <c r="CJ18" s="5"/>
-      <c r="CK18" s="5"/>
-      <c r="CL18" s="5"/>
-      <c r="CM18" s="5"/>
-      <c r="CN18" s="5"/>
-      <c r="CO18" s="5"/>
-      <c r="CP18" s="5"/>
-      <c r="CQ18" s="5"/>
-      <c r="CR18" s="5"/>
-      <c r="CS18" s="5"/>
-      <c r="CT18" s="5"/>
-      <c r="CU18" s="5"/>
-      <c r="CV18" s="5"/>
-      <c r="CW18" s="5"/>
-      <c r="CX18" s="5"/>
-      <c r="CY18" s="5"/>
-      <c r="CZ18" s="5"/>
-      <c r="DA18" s="5"/>
-      <c r="DB18" s="5"/>
-      <c r="DC18" s="5"/>
-      <c r="DD18" s="5"/>
-      <c r="DE18" s="5"/>
-      <c r="DF18" s="5"/>
-      <c r="DG18" s="5"/>
-      <c r="DH18" s="5"/>
-      <c r="DI18" s="5"/>
-      <c r="DJ18" s="5"/>
-      <c r="DK18" s="5"/>
-      <c r="DL18" s="5"/>
-      <c r="DM18" s="5"/>
-      <c r="DN18" s="5"/>
-      <c r="DO18" s="5"/>
-      <c r="DP18" s="5"/>
-      <c r="DQ18" s="5"/>
-      <c r="DR18" s="5"/>
-      <c r="DS18" s="5"/>
-      <c r="DT18" s="5"/>
-      <c r="DU18" s="5"/>
-      <c r="DV18" s="5"/>
-      <c r="DW18" s="5"/>
-      <c r="DX18" s="5"/>
-      <c r="DY18" s="5"/>
-      <c r="DZ18" s="5"/>
-      <c r="EA18" s="5"/>
-      <c r="EB18" s="5"/>
-      <c r="EC18" s="5"/>
-      <c r="ED18" s="5"/>
-      <c r="EE18" s="5"/>
-      <c r="EF18" s="5"/>
-      <c r="EG18" s="5"/>
-      <c r="EH18" s="5"/>
-      <c r="EI18" s="5"/>
-      <c r="EJ18" s="5"/>
-      <c r="EK18" s="5"/>
-      <c r="EL18" s="5"/>
-      <c r="EM18" s="5"/>
-      <c r="EN18" s="5"/>
-      <c r="EO18" s="5"/>
-      <c r="EP18" s="5"/>
-      <c r="EQ18" s="5"/>
-      <c r="ER18" s="5"/>
-      <c r="ES18" s="5"/>
-      <c r="ET18" s="5"/>
-      <c r="EU18" s="5"/>
-      <c r="EV18" s="5"/>
-      <c r="EW18" s="5"/>
-      <c r="EX18" s="5"/>
-      <c r="EY18" s="5"/>
-      <c r="EZ18" s="5"/>
-      <c r="FA18" s="5"/>
-      <c r="FB18" s="5"/>
-      <c r="FC18" s="5"/>
-      <c r="FD18" s="5"/>
-      <c r="FE18" s="5"/>
-      <c r="FF18" s="5"/>
-      <c r="FG18" s="5"/>
-      <c r="FH18" s="5"/>
-      <c r="FI18" s="5"/>
-      <c r="FJ18" s="5"/>
-      <c r="FK18" s="5"/>
-      <c r="FL18" s="5"/>
-      <c r="FM18" s="5"/>
-      <c r="FN18" s="5"/>
-      <c r="FO18" s="5"/>
-      <c r="FP18" s="5"/>
-      <c r="FQ18" s="5"/>
-      <c r="FR18" s="5"/>
-      <c r="FS18" s="5"/>
-      <c r="FT18" s="5"/>
-      <c r="FU18" s="5"/>
-      <c r="FV18" s="5"/>
-      <c r="FW18" s="5"/>
-      <c r="FX18" s="5"/>
-      <c r="FY18" s="5"/>
-      <c r="FZ18" s="5"/>
-      <c r="GA18" s="5"/>
-      <c r="GB18" s="5"/>
-      <c r="GC18" s="5"/>
-      <c r="GD18" s="5"/>
-      <c r="GE18" s="5"/>
-      <c r="GF18" s="5"/>
-      <c r="GG18" s="5"/>
-      <c r="GH18" s="5"/>
-      <c r="GI18" s="5"/>
-      <c r="GJ18" s="5"/>
-      <c r="GK18" s="5"/>
-      <c r="GL18" s="5"/>
-      <c r="GM18" s="5"/>
-      <c r="GN18" s="5"/>
-      <c r="GO18" s="5"/>
-      <c r="GP18" s="5"/>
-      <c r="GQ18" s="5"/>
-      <c r="GR18" s="5"/>
-      <c r="GS18" s="5"/>
-      <c r="GT18" s="5"/>
-      <c r="GU18" s="5"/>
-      <c r="GV18" s="5"/>
-      <c r="GW18" s="5"/>
-      <c r="GX18" s="5"/>
-      <c r="GY18" s="5"/>
-      <c r="GZ18" s="5"/>
-      <c r="HA18" s="5"/>
-      <c r="HB18" s="5"/>
-      <c r="HC18" s="5"/>
-      <c r="HD18" s="5"/>
-      <c r="HE18" s="5"/>
-      <c r="HF18" s="5"/>
-      <c r="HG18" s="5"/>
-      <c r="HH18" s="5"/>
-      <c r="HI18" s="5"/>
-      <c r="HJ18" s="5"/>
-      <c r="HK18" s="5"/>
-      <c r="HL18" s="5"/>
-      <c r="HM18" s="5"/>
-      <c r="HN18" s="5"/>
-      <c r="HO18" s="5"/>
-      <c r="HP18" s="5"/>
-      <c r="HQ18" s="5"/>
-      <c r="HR18" s="5"/>
-      <c r="HS18" s="5"/>
-      <c r="HT18" s="5"/>
-      <c r="HU18" s="5"/>
-      <c r="HV18" s="5"/>
-      <c r="HW18" s="5"/>
-      <c r="HX18" s="5"/>
-      <c r="HY18" s="5"/>
-      <c r="HZ18" s="5"/>
-      <c r="IA18" s="5"/>
-      <c r="IB18" s="5"/>
-      <c r="IC18" s="5"/>
-      <c r="ID18" s="5"/>
-      <c r="IE18" s="5"/>
-      <c r="IF18" s="5"/>
-      <c r="IG18" s="5"/>
-      <c r="IH18" s="5"/>
-      <c r="II18" s="5"/>
-      <c r="IJ18" s="5"/>
-      <c r="IK18" s="5"/>
-      <c r="IL18" s="5"/>
-      <c r="IM18" s="5"/>
-      <c r="IN18" s="5"/>
-      <c r="IO18" s="5"/>
-      <c r="IP18" s="5"/>
-      <c r="IQ18" s="5"/>
-      <c r="IR18" s="5"/>
-      <c r="IS18" s="5"/>
-      <c r="IT18" s="5"/>
-      <c r="IU18" s="5"/>
-      <c r="IV18" s="5"/>
-      <c r="IW18" s="5"/>
-      <c r="IX18" s="5"/>
-      <c r="IY18" s="5"/>
-      <c r="IZ18" s="5"/>
-      <c r="JA18" s="5"/>
-      <c r="JB18" s="5"/>
-      <c r="JC18" s="5"/>
-      <c r="JD18" s="5"/>
-      <c r="JE18" s="5"/>
-      <c r="JF18" s="5"/>
-      <c r="JG18" s="5"/>
-      <c r="JH18" s="5"/>
-      <c r="JI18" s="5"/>
-      <c r="JJ18" s="5"/>
-      <c r="JK18" s="5"/>
-      <c r="JL18" s="5"/>
-      <c r="JM18" s="5"/>
-      <c r="JN18" s="5"/>
-      <c r="JO18" s="5"/>
-      <c r="JP18" s="5"/>
-      <c r="JQ18" s="5"/>
-      <c r="JR18" s="5"/>
-      <c r="JS18" s="5"/>
-      <c r="JT18" s="5"/>
-      <c r="JU18" s="5"/>
-      <c r="JV18" s="5"/>
-      <c r="JW18" s="5"/>
-      <c r="JX18" s="5"/>
-      <c r="JY18" s="5"/>
-      <c r="JZ18" s="5"/>
-      <c r="KA18" s="5"/>
-      <c r="KB18" s="5"/>
-      <c r="KC18" s="5"/>
-      <c r="KD18" s="5"/>
-      <c r="KE18" s="5"/>
-      <c r="KF18" s="5"/>
-      <c r="KG18" s="5"/>
-      <c r="KH18" s="5"/>
-      <c r="KI18" s="5"/>
-      <c r="KJ18" s="5"/>
-      <c r="KK18" s="5"/>
-      <c r="KL18" s="5"/>
-      <c r="KM18" s="5"/>
-      <c r="KN18" s="5"/>
-      <c r="KO18" s="5"/>
-      <c r="KP18" s="5"/>
-      <c r="KQ18" s="5"/>
-      <c r="KR18" s="5"/>
-      <c r="KS18" s="5"/>
-      <c r="KT18" s="5"/>
-      <c r="KU18" s="5"/>
-      <c r="KV18" s="5"/>
-      <c r="KW18" s="5"/>
-      <c r="KX18" s="5"/>
-      <c r="KY18" s="5"/>
-      <c r="KZ18" s="5"/>
-      <c r="LA18" s="5"/>
-      <c r="LB18" s="5"/>
-      <c r="LC18" s="5"/>
-      <c r="LD18" s="5"/>
-      <c r="LE18" s="5"/>
-      <c r="LF18" s="5"/>
-      <c r="LG18" s="5"/>
-      <c r="LH18" s="5"/>
-      <c r="LI18" s="5"/>
-      <c r="LJ18" s="5"/>
-      <c r="LK18" s="5"/>
-      <c r="LL18" s="5"/>
-      <c r="LM18" s="5"/>
-      <c r="LN18" s="5"/>
-      <c r="LO18" s="5"/>
-      <c r="LP18" s="5"/>
-      <c r="LQ18" s="5"/>
-      <c r="LR18" s="5"/>
-      <c r="LS18" s="5"/>
-      <c r="LT18" s="5"/>
-      <c r="LU18" s="5"/>
-      <c r="LV18" s="5"/>
-      <c r="LW18" s="5"/>
-      <c r="LX18" s="5"/>
-      <c r="LY18" s="5"/>
-      <c r="LZ18" s="5"/>
-      <c r="MA18" s="5"/>
-      <c r="MB18" s="5"/>
-      <c r="MC18" s="5"/>
-      <c r="MD18" s="5"/>
-      <c r="ME18" s="5"/>
-      <c r="MF18" s="5"/>
-      <c r="MG18" s="5"/>
-      <c r="MH18" s="5"/>
-      <c r="MI18" s="5"/>
-      <c r="MJ18" s="5"/>
-      <c r="MK18" s="5"/>
-      <c r="ML18" s="5"/>
-      <c r="MM18" s="5"/>
-      <c r="MN18" s="5"/>
-      <c r="MO18" s="5"/>
-      <c r="MP18" s="5"/>
-      <c r="MQ18" s="5"/>
-      <c r="MR18" s="5"/>
-      <c r="MS18" s="5"/>
-      <c r="MT18" s="5"/>
-      <c r="MU18" s="5"/>
-      <c r="MV18" s="5"/>
-      <c r="MW18" s="5"/>
-      <c r="MX18" s="5"/>
-      <c r="MY18" s="5"/>
-      <c r="MZ18" s="5"/>
-      <c r="NA18" s="5"/>
-      <c r="NB18" s="5"/>
-      <c r="NC18" s="5"/>
-      <c r="ND18" s="5"/>
-      <c r="NE18" s="5"/>
-      <c r="NF18" s="5"/>
-      <c r="NG18" s="5"/>
-      <c r="NH18" s="5"/>
-      <c r="NI18" s="5"/>
-      <c r="NJ18" s="5"/>
-      <c r="NK18" s="5"/>
-      <c r="NL18" s="5"/>
-      <c r="NM18" s="5"/>
-      <c r="NN18" s="5"/>
-      <c r="NO18" s="5"/>
-      <c r="NP18" s="5"/>
-      <c r="NQ18" s="5"/>
-      <c r="NR18" s="5"/>
-      <c r="NS18" s="5"/>
-      <c r="NT18" s="5"/>
-      <c r="NU18" s="5"/>
-      <c r="NV18" s="5"/>
-      <c r="NW18" s="5"/>
-      <c r="NX18" s="5"/>
-      <c r="NY18" s="5"/>
-      <c r="NZ18" s="5"/>
-      <c r="OA18" s="5"/>
-      <c r="OB18" s="5"/>
-      <c r="OC18" s="5"/>
-      <c r="OD18" s="5"/>
-      <c r="OE18" s="5"/>
-      <c r="OF18" s="5"/>
-      <c r="OG18" s="5"/>
-      <c r="OH18" s="5"/>
-      <c r="OI18" s="5"/>
-      <c r="OJ18" s="5"/>
-      <c r="OK18" s="5"/>
-      <c r="OL18" s="5"/>
-      <c r="OM18" s="5"/>
-      <c r="ON18" s="5"/>
-      <c r="OO18" s="5"/>
-      <c r="OP18" s="5"/>
-      <c r="OQ18" s="5"/>
-      <c r="OR18" s="5"/>
-      <c r="OS18" s="5"/>
-      <c r="OT18" s="5"/>
-      <c r="OU18" s="5"/>
-      <c r="OV18" s="5"/>
-      <c r="OW18" s="5"/>
-      <c r="OX18" s="5"/>
-      <c r="OY18" s="5"/>
-      <c r="OZ18" s="5"/>
-      <c r="PA18" s="5"/>
-      <c r="PB18" s="5"/>
-      <c r="PC18" s="5"/>
-      <c r="PD18" s="5"/>
-      <c r="PE18" s="5"/>
-      <c r="PF18" s="5"/>
-      <c r="PG18" s="5"/>
-      <c r="PH18" s="5"/>
-      <c r="PI18" s="5"/>
-      <c r="PJ18" s="5"/>
-      <c r="PK18" s="5"/>
-      <c r="PL18" s="5"/>
-      <c r="PM18" s="5"/>
-      <c r="PN18" s="5"/>
-      <c r="PO18" s="5"/>
-      <c r="PP18" s="5"/>
-      <c r="PQ18" s="5"/>
-      <c r="PR18" s="5"/>
-      <c r="PS18" s="5"/>
-      <c r="PT18" s="5"/>
-      <c r="PU18" s="5"/>
-      <c r="PV18" s="5"/>
-      <c r="PW18" s="5"/>
-      <c r="PX18" s="5"/>
-      <c r="PY18" s="5"/>
-      <c r="PZ18" s="5"/>
-      <c r="QA18" s="5"/>
-      <c r="QB18" s="5"/>
-      <c r="QC18" s="5"/>
-      <c r="QD18" s="5"/>
-      <c r="QE18" s="5"/>
-      <c r="QF18" s="5"/>
-      <c r="QG18" s="5"/>
-      <c r="QH18" s="5"/>
-      <c r="QI18" s="5"/>
-      <c r="QJ18" s="5"/>
-      <c r="QK18" s="5"/>
-      <c r="QL18" s="5"/>
-      <c r="QM18" s="5"/>
-      <c r="QN18" s="5"/>
-      <c r="QO18" s="5"/>
-      <c r="QP18" s="5"/>
-      <c r="QQ18" s="5"/>
-      <c r="QR18" s="5"/>
-      <c r="QS18" s="5"/>
-      <c r="QT18" s="5"/>
-      <c r="QU18" s="5"/>
-      <c r="QV18" s="5"/>
-      <c r="QW18" s="5"/>
-      <c r="QX18" s="5"/>
-      <c r="QY18" s="5"/>
-      <c r="QZ18" s="5"/>
-      <c r="RA18" s="5"/>
-      <c r="RB18" s="5"/>
-      <c r="RC18" s="5"/>
-      <c r="RD18" s="5"/>
-      <c r="RE18" s="5"/>
-      <c r="RF18" s="5"/>
-      <c r="RG18" s="5"/>
-      <c r="RH18" s="5"/>
-      <c r="RI18" s="5"/>
-      <c r="RJ18" s="5"/>
-      <c r="RK18" s="5"/>
-      <c r="RL18" s="5"/>
-      <c r="RM18" s="5"/>
-      <c r="RN18" s="5"/>
-      <c r="RO18" s="5"/>
-      <c r="RP18" s="5"/>
-      <c r="RQ18" s="5"/>
-      <c r="RR18" s="5"/>
-      <c r="RS18" s="5"/>
-      <c r="RT18" s="5"/>
-      <c r="RU18" s="5"/>
-      <c r="RV18" s="5"/>
-      <c r="RW18" s="5"/>
-      <c r="RX18" s="5"/>
-      <c r="RY18" s="5"/>
-      <c r="RZ18" s="5"/>
-      <c r="SA18" s="5"/>
-      <c r="SB18" s="5"/>
-      <c r="SC18" s="5"/>
-      <c r="SD18" s="5"/>
-      <c r="SE18" s="5"/>
-      <c r="SF18" s="5"/>
-      <c r="SG18" s="5"/>
-      <c r="SH18" s="5"/>
-      <c r="SI18" s="5"/>
-      <c r="SJ18" s="5"/>
-      <c r="SK18" s="5"/>
-      <c r="SL18" s="5"/>
-      <c r="SM18" s="5"/>
-      <c r="SN18" s="5"/>
-      <c r="SO18" s="5"/>
-      <c r="SP18" s="5"/>
-      <c r="SQ18" s="5"/>
-      <c r="SR18" s="5"/>
-      <c r="SS18" s="5"/>
-      <c r="ST18" s="5"/>
-      <c r="SU18" s="5"/>
-      <c r="SV18" s="5"/>
-      <c r="SW18" s="5"/>
-      <c r="SX18" s="5"/>
-      <c r="SY18" s="5"/>
-      <c r="SZ18" s="5"/>
-      <c r="TA18" s="5"/>
-      <c r="TB18" s="5"/>
-      <c r="TC18" s="5"/>
-      <c r="TD18" s="5"/>
-      <c r="TE18" s="5"/>
-      <c r="TF18" s="5"/>
-      <c r="TG18" s="5"/>
-      <c r="TH18" s="5"/>
-      <c r="TI18" s="5"/>
-      <c r="TJ18" s="5"/>
-      <c r="TK18" s="5"/>
-      <c r="TL18" s="5"/>
-      <c r="TM18" s="5"/>
-      <c r="TN18" s="5"/>
-      <c r="TO18" s="5"/>
-      <c r="TP18" s="5"/>
-      <c r="TQ18" s="5"/>
-      <c r="TR18" s="5"/>
-      <c r="TS18" s="5"/>
-      <c r="TT18" s="5"/>
-      <c r="TU18" s="5"/>
-      <c r="TV18" s="5"/>
-      <c r="TW18" s="5"/>
-      <c r="TX18" s="5"/>
-      <c r="TY18" s="5"/>
-      <c r="TZ18" s="5"/>
-      <c r="UA18" s="5"/>
-      <c r="UB18" s="5"/>
-      <c r="UC18" s="5"/>
-      <c r="UD18" s="5"/>
-      <c r="UE18" s="5"/>
-      <c r="UF18" s="5"/>
-      <c r="UG18" s="5"/>
-      <c r="UH18" s="5"/>
-      <c r="UI18" s="5"/>
-      <c r="UJ18" s="5"/>
-      <c r="UK18" s="5"/>
-      <c r="UL18" s="5"/>
-      <c r="UM18" s="5"/>
-      <c r="UN18" s="5"/>
-      <c r="UO18" s="5"/>
-      <c r="UP18" s="5"/>
-      <c r="UQ18" s="5"/>
-      <c r="UR18" s="5"/>
-      <c r="US18" s="5"/>
-      <c r="UT18" s="5"/>
-      <c r="UU18" s="5"/>
-      <c r="UV18" s="5"/>
-      <c r="UW18" s="5"/>
-      <c r="UX18" s="5"/>
-      <c r="UY18" s="5"/>
-      <c r="UZ18" s="5"/>
-      <c r="VA18" s="5"/>
-      <c r="VB18" s="5"/>
-      <c r="VC18" s="5"/>
-      <c r="VD18" s="5"/>
-      <c r="VE18" s="5"/>
-      <c r="VF18" s="5"/>
-      <c r="VG18" s="5"/>
-      <c r="VH18" s="5"/>
-      <c r="VI18" s="5"/>
-      <c r="VJ18" s="5"/>
-      <c r="VK18" s="5"/>
-      <c r="VL18" s="5"/>
-      <c r="VM18" s="5"/>
-      <c r="VN18" s="5"/>
-      <c r="VO18" s="5"/>
-      <c r="VP18" s="5"/>
-      <c r="VQ18" s="5"/>
-      <c r="VR18" s="5"/>
-      <c r="VS18" s="5"/>
-      <c r="VT18" s="5"/>
-      <c r="VU18" s="5"/>
-      <c r="VV18" s="5"/>
-      <c r="VW18" s="5"/>
-      <c r="VX18" s="5"/>
-      <c r="VY18" s="5"/>
-      <c r="VZ18" s="5"/>
-      <c r="WA18" s="5"/>
-      <c r="WB18" s="5"/>
-      <c r="WC18" s="5"/>
-      <c r="WD18" s="5"/>
-      <c r="WE18" s="5"/>
-      <c r="WF18" s="5"/>
-      <c r="WG18" s="5"/>
-      <c r="WH18" s="5"/>
-      <c r="WI18" s="5"/>
-      <c r="WJ18" s="5"/>
-      <c r="WK18" s="5"/>
-      <c r="WL18" s="5"/>
-      <c r="WM18" s="5"/>
-      <c r="WN18" s="5"/>
-      <c r="WO18" s="5"/>
-      <c r="WP18" s="5"/>
-      <c r="WQ18" s="5"/>
-      <c r="WR18" s="5"/>
-      <c r="WS18" s="5"/>
-      <c r="WT18" s="5"/>
-      <c r="WU18" s="5"/>
-      <c r="WV18" s="5"/>
-      <c r="WW18" s="5"/>
-      <c r="WX18" s="5"/>
-      <c r="WY18" s="5"/>
-      <c r="WZ18" s="5"/>
-      <c r="XA18" s="5"/>
-      <c r="XB18" s="5"/>
-      <c r="XC18" s="5"/>
-      <c r="XD18" s="5"/>
-      <c r="XE18" s="5"/>
-      <c r="XF18" s="5"/>
-      <c r="XG18" s="5"/>
-      <c r="XH18" s="5"/>
-      <c r="XI18" s="5"/>
-      <c r="XJ18" s="5"/>
-      <c r="XK18" s="5"/>
-      <c r="XL18" s="5"/>
-      <c r="XM18" s="5"/>
-      <c r="XN18" s="5"/>
-      <c r="XO18" s="5"/>
-      <c r="XP18" s="5"/>
-      <c r="XQ18" s="5"/>
-      <c r="XR18" s="5"/>
-      <c r="XS18" s="5"/>
-      <c r="XT18" s="5"/>
-      <c r="XU18" s="5"/>
-      <c r="XV18" s="5"/>
-      <c r="XW18" s="5"/>
-      <c r="XX18" s="5"/>
-      <c r="XY18" s="5"/>
-      <c r="XZ18" s="5"/>
-      <c r="YA18" s="5"/>
-      <c r="YB18" s="5"/>
-      <c r="YC18" s="5"/>
-      <c r="YD18" s="5"/>
-      <c r="YE18" s="5"/>
-      <c r="YF18" s="5"/>
-      <c r="YG18" s="5"/>
-      <c r="YH18" s="5"/>
-      <c r="YI18" s="5"/>
-      <c r="YJ18" s="5"/>
-      <c r="YK18" s="5"/>
-      <c r="YL18" s="5"/>
-      <c r="YM18" s="5"/>
-      <c r="YN18" s="5"/>
-      <c r="YO18" s="5"/>
-      <c r="YP18" s="5"/>
-      <c r="YQ18" s="5"/>
-      <c r="YR18" s="5"/>
-      <c r="YS18" s="5"/>
-      <c r="YT18" s="5"/>
-      <c r="YU18" s="5"/>
-      <c r="YV18" s="5"/>
-      <c r="YW18" s="5"/>
-      <c r="YX18" s="5"/>
-      <c r="YY18" s="5"/>
-      <c r="YZ18" s="5"/>
-      <c r="ZA18" s="5"/>
-      <c r="ZB18" s="5"/>
-      <c r="ZC18" s="5"/>
-      <c r="ZD18" s="5"/>
-      <c r="ZE18" s="5"/>
-      <c r="ZF18" s="5"/>
-      <c r="ZG18" s="5"/>
-      <c r="ZH18" s="5"/>
-      <c r="ZI18" s="5"/>
-      <c r="ZJ18" s="5"/>
-      <c r="ZK18" s="5"/>
-      <c r="ZL18" s="5"/>
-      <c r="ZM18" s="5"/>
-      <c r="ZN18" s="5"/>
-      <c r="ZO18" s="5"/>
-      <c r="ZP18" s="5"/>
-      <c r="ZQ18" s="5"/>
-      <c r="ZR18" s="5"/>
-      <c r="ZS18" s="5"/>
-      <c r="ZT18" s="5"/>
-      <c r="ZU18" s="5"/>
-      <c r="ZV18" s="5"/>
-      <c r="ZW18" s="5"/>
-      <c r="ZX18" s="5"/>
-      <c r="ZY18" s="5"/>
-      <c r="ZZ18" s="5"/>
-      <c r="AAA18" s="5"/>
-      <c r="AAB18" s="5"/>
-      <c r="AAC18" s="5"/>
-      <c r="AAD18" s="5"/>
-      <c r="AAE18" s="5"/>
-      <c r="AAF18" s="5"/>
-      <c r="AAG18" s="5"/>
-      <c r="AAH18" s="5"/>
-      <c r="AAI18" s="5"/>
-      <c r="AAJ18" s="5"/>
-      <c r="AAK18" s="5"/>
-      <c r="AAL18" s="5"/>
-      <c r="AAM18" s="5"/>
-      <c r="AAN18" s="5"/>
-      <c r="AAO18" s="5"/>
-      <c r="AAP18" s="5"/>
-      <c r="AAQ18" s="5"/>
-      <c r="AAR18" s="5"/>
-      <c r="AAS18" s="5"/>
-      <c r="AAT18" s="5"/>
-      <c r="AAU18" s="5"/>
-      <c r="AAV18" s="5"/>
-      <c r="AAW18" s="5"/>
-      <c r="AAX18" s="5"/>
-      <c r="AAY18" s="5"/>
-      <c r="AAZ18" s="5"/>
-      <c r="ABA18" s="5"/>
-      <c r="ABB18" s="5"/>
-      <c r="ABC18" s="5"/>
-      <c r="ABD18" s="5"/>
-      <c r="ABE18" s="5"/>
-      <c r="ABF18" s="5"/>
-      <c r="ABG18" s="5"/>
-      <c r="ABH18" s="5"/>
-      <c r="ABI18" s="5"/>
-      <c r="ABJ18" s="5"/>
-      <c r="ABK18" s="5"/>
-      <c r="ABL18" s="5"/>
-      <c r="ABM18" s="5"/>
-      <c r="ABN18" s="5"/>
-      <c r="ABO18" s="5"/>
-      <c r="ABP18" s="5"/>
-      <c r="ABQ18" s="5"/>
-      <c r="ABR18" s="5"/>
-      <c r="ABS18" s="5"/>
-      <c r="ABT18" s="5"/>
-      <c r="ABU18" s="5"/>
-      <c r="ABV18" s="5"/>
-      <c r="ABW18" s="5"/>
-      <c r="ABX18" s="5"/>
-      <c r="ABY18" s="5"/>
-      <c r="ABZ18" s="5"/>
-      <c r="ACA18" s="5"/>
-      <c r="ACB18" s="5"/>
-      <c r="ACC18" s="5"/>
-      <c r="ACD18" s="5"/>
-      <c r="ACE18" s="5"/>
-      <c r="ACF18" s="5"/>
-      <c r="ACG18" s="5"/>
-      <c r="ACH18" s="5"/>
-      <c r="ACI18" s="5"/>
-      <c r="ACJ18" s="5"/>
-      <c r="ACK18" s="5"/>
-      <c r="ACL18" s="5"/>
-      <c r="ACM18" s="5"/>
-      <c r="ACN18" s="5"/>
-      <c r="ACO18" s="5"/>
-      <c r="ACP18" s="5"/>
-      <c r="ACQ18" s="5"/>
-      <c r="ACR18" s="5"/>
-      <c r="ACS18" s="5"/>
-      <c r="ACT18" s="5"/>
-      <c r="ACU18" s="5"/>
-      <c r="ACV18" s="5"/>
-      <c r="ACW18" s="5"/>
-      <c r="ACX18" s="5"/>
-      <c r="ACY18" s="5"/>
-      <c r="ACZ18" s="5"/>
-      <c r="ADA18" s="5"/>
-      <c r="ADB18" s="5"/>
-      <c r="ADC18" s="5"/>
-      <c r="ADD18" s="5"/>
-      <c r="ADE18" s="5"/>
-      <c r="ADF18" s="5"/>
-      <c r="ADG18" s="5"/>
-      <c r="ADH18" s="5"/>
-      <c r="ADI18" s="5"/>
-      <c r="ADJ18" s="5"/>
-      <c r="ADK18" s="5"/>
-      <c r="ADL18" s="5"/>
-      <c r="ADM18" s="5"/>
-      <c r="ADN18" s="5"/>
-      <c r="ADO18" s="5"/>
-      <c r="ADP18" s="5"/>
-      <c r="ADQ18" s="5"/>
-      <c r="ADR18" s="5"/>
-      <c r="ADS18" s="5"/>
-      <c r="ADT18" s="5"/>
-      <c r="ADU18" s="5"/>
-      <c r="ADV18" s="5"/>
-      <c r="ADW18" s="5"/>
-      <c r="ADX18" s="5"/>
-      <c r="ADY18" s="5"/>
-      <c r="ADZ18" s="5"/>
-      <c r="AEA18" s="5"/>
-      <c r="AEB18" s="5"/>
-      <c r="AEC18" s="5"/>
-      <c r="AED18" s="5"/>
-      <c r="AEE18" s="5"/>
-      <c r="AEF18" s="5"/>
-      <c r="AEG18" s="5"/>
-      <c r="AEH18" s="5"/>
-      <c r="AEI18" s="5"/>
-      <c r="AEJ18" s="5"/>
-      <c r="AEK18" s="5"/>
-      <c r="AEL18" s="5"/>
-      <c r="AEM18" s="5"/>
-      <c r="AEN18" s="5"/>
-      <c r="AEO18" s="5"/>
-      <c r="AEP18" s="5"/>
-      <c r="AEQ18" s="5"/>
-      <c r="AER18" s="5"/>
-      <c r="AES18" s="5"/>
-      <c r="AET18" s="5"/>
-      <c r="AEU18" s="5"/>
-      <c r="AEV18" s="5"/>
-      <c r="AEW18" s="5"/>
-      <c r="AEX18" s="5"/>
-      <c r="AEY18" s="5"/>
-      <c r="AEZ18" s="5"/>
-      <c r="AFA18" s="5"/>
-      <c r="AFB18" s="5"/>
-      <c r="AFC18" s="5"/>
-      <c r="AFD18" s="5"/>
-      <c r="AFE18" s="5"/>
-      <c r="AFF18" s="5"/>
-      <c r="AFG18" s="5"/>
-      <c r="AFH18" s="5"/>
-      <c r="AFI18" s="5"/>
-      <c r="AFJ18" s="5"/>
-      <c r="AFK18" s="5"/>
-      <c r="AFL18" s="5"/>
-      <c r="AFM18" s="5"/>
-      <c r="AFN18" s="5"/>
-      <c r="AFO18" s="5"/>
-      <c r="AFP18" s="5"/>
-      <c r="AFQ18" s="5"/>
-      <c r="AFR18" s="5"/>
-      <c r="AFS18" s="5"/>
-      <c r="AFT18" s="5"/>
-      <c r="AFU18" s="5"/>
-      <c r="AFV18" s="5"/>
-      <c r="AFW18" s="5"/>
-      <c r="AFX18" s="5"/>
-      <c r="AFY18" s="5"/>
-      <c r="AFZ18" s="5"/>
-      <c r="AGA18" s="5"/>
-      <c r="AGB18" s="5"/>
-      <c r="AGC18" s="5"/>
-      <c r="AGD18" s="5"/>
-      <c r="AGE18" s="5"/>
-      <c r="AGF18" s="5"/>
-      <c r="AGG18" s="5"/>
-      <c r="AGH18" s="5"/>
-      <c r="AGI18" s="5"/>
-      <c r="AGJ18" s="5"/>
-      <c r="AGK18" s="5"/>
-      <c r="AGL18" s="5"/>
-      <c r="AGM18" s="5"/>
-      <c r="AGN18" s="5"/>
-      <c r="AGO18" s="5"/>
-      <c r="AGP18" s="5"/>
-      <c r="AGQ18" s="5"/>
-      <c r="AGR18" s="5"/>
-      <c r="AGS18" s="5"/>
-      <c r="AGT18" s="5"/>
-      <c r="AGU18" s="5"/>
-      <c r="AGV18" s="5"/>
-      <c r="AGW18" s="5"/>
-      <c r="AGX18" s="5"/>
-      <c r="AGY18" s="5"/>
-      <c r="AGZ18" s="5"/>
-      <c r="AHA18" s="5"/>
-      <c r="AHB18" s="5"/>
-      <c r="AHC18" s="5"/>
-      <c r="AHD18" s="5"/>
-      <c r="AHE18" s="5"/>
-      <c r="AHF18" s="5"/>
-      <c r="AHG18" s="5"/>
-      <c r="AHH18" s="5"/>
-      <c r="AHI18" s="5"/>
-      <c r="AHJ18" s="5"/>
-      <c r="AHK18" s="5"/>
-      <c r="AHL18" s="5"/>
-      <c r="AHM18" s="5"/>
-      <c r="AHN18" s="5"/>
-      <c r="AHO18" s="5"/>
-      <c r="AHP18" s="5"/>
-      <c r="AHQ18" s="5"/>
-      <c r="AHR18" s="5"/>
-      <c r="AHS18" s="5"/>
-      <c r="AHT18" s="5"/>
-      <c r="AHU18" s="5"/>
-      <c r="AHV18" s="5"/>
-      <c r="AHW18" s="5"/>
-      <c r="AHX18" s="5"/>
-      <c r="AHY18" s="5"/>
-      <c r="AHZ18" s="5"/>
-      <c r="AIA18" s="5"/>
-      <c r="AIB18" s="5"/>
-      <c r="AIC18" s="5"/>
-      <c r="AID18" s="5"/>
-      <c r="AIE18" s="5"/>
-      <c r="AIF18" s="5"/>
-      <c r="AIG18" s="5"/>
-      <c r="AIH18" s="5"/>
-      <c r="AII18" s="5"/>
-      <c r="AIJ18" s="5"/>
-      <c r="AIK18" s="5"/>
-      <c r="AIL18" s="5"/>
-      <c r="AIM18" s="5"/>
-      <c r="AIN18" s="5"/>
-      <c r="AIO18" s="5"/>
-      <c r="AIP18" s="5"/>
-      <c r="AIQ18" s="5"/>
-      <c r="AIR18" s="5"/>
-      <c r="AIS18" s="5"/>
-      <c r="AIT18" s="5"/>
-      <c r="AIU18" s="5"/>
-      <c r="AIV18" s="5"/>
-      <c r="AIW18" s="5"/>
-      <c r="AIX18" s="5"/>
-      <c r="AIY18" s="5"/>
-      <c r="AIZ18" s="5"/>
-      <c r="AJA18" s="5"/>
-      <c r="AJB18" s="5"/>
-      <c r="AJC18" s="5"/>
-      <c r="AJD18" s="5"/>
-      <c r="AJE18" s="5"/>
-      <c r="AJF18" s="5"/>
-      <c r="AJG18" s="5"/>
-      <c r="AJH18" s="5"/>
-      <c r="AJI18" s="5"/>
-      <c r="AJJ18" s="5"/>
-      <c r="AJK18" s="5"/>
-      <c r="AJL18" s="5"/>
-      <c r="AJM18" s="5"/>
-      <c r="AJN18" s="5"/>
-      <c r="AJO18" s="5"/>
-      <c r="AJP18" s="5"/>
-      <c r="AJQ18" s="5"/>
-      <c r="AJR18" s="5"/>
-      <c r="AJS18" s="5"/>
-      <c r="AJT18" s="5"/>
-      <c r="AJU18" s="5"/>
-      <c r="AJV18" s="5"/>
-      <c r="AJW18" s="5"/>
-      <c r="AJX18" s="5"/>
-      <c r="AJY18" s="5"/>
-      <c r="AJZ18" s="5"/>
-      <c r="AKA18" s="5"/>
-      <c r="AKB18" s="5"/>
-      <c r="AKC18" s="5"/>
-      <c r="AKD18" s="5"/>
-      <c r="AKE18" s="5"/>
-      <c r="AKF18" s="5"/>
-      <c r="AKG18" s="5"/>
-      <c r="AKH18" s="5"/>
-      <c r="AKI18" s="5"/>
-      <c r="AKJ18" s="5"/>
-      <c r="AKK18" s="5"/>
-      <c r="AKL18" s="5"/>
-      <c r="AKM18" s="5"/>
-      <c r="AKN18" s="5"/>
-      <c r="AKO18" s="5"/>
-      <c r="AKP18" s="5"/>
-      <c r="AKQ18" s="5"/>
-      <c r="AKR18" s="5"/>
-      <c r="AKS18" s="5"/>
-      <c r="AKT18" s="5"/>
-      <c r="AKU18" s="5"/>
-      <c r="AKV18" s="5"/>
-      <c r="AKW18" s="5"/>
-      <c r="AKX18" s="5"/>
-      <c r="AKY18" s="5"/>
-      <c r="AKZ18" s="5"/>
-      <c r="ALA18" s="5"/>
-      <c r="ALB18" s="5"/>
-      <c r="ALC18" s="5"/>
-      <c r="ALD18" s="5"/>
-      <c r="ALE18" s="5"/>
-      <c r="ALF18" s="5"/>
-      <c r="ALG18" s="5"/>
-      <c r="ALH18" s="5"/>
-      <c r="ALI18" s="5"/>
-      <c r="ALJ18" s="5"/>
-      <c r="ALK18" s="5"/>
-      <c r="ALL18" s="5"/>
-      <c r="ALM18" s="5"/>
-      <c r="ALN18" s="5"/>
-      <c r="ALO18" s="5"/>
-      <c r="ALP18" s="5"/>
-      <c r="ALQ18" s="5"/>
-      <c r="ALR18" s="5"/>
-      <c r="ALS18" s="5"/>
-      <c r="ALT18" s="5"/>
-      <c r="ALU18" s="5"/>
-      <c r="ALV18" s="5"/>
-      <c r="ALW18" s="5"/>
-      <c r="ALX18" s="5"/>
-      <c r="ALY18" s="5"/>
-      <c r="ALZ18" s="5"/>
-      <c r="AMA18" s="5"/>
-      <c r="AMB18" s="5"/>
-      <c r="AMC18" s="5"/>
-      <c r="AMD18" s="5"/>
-      <c r="AME18" s="5"/>
-      <c r="AMF18" s="5"/>
-      <c r="AMG18" s="5"/>
-      <c r="AMH18" s="5"/>
-      <c r="AMI18" s="5"/>
-      <c r="AMJ18" s="5"/>
-      <c r="AMK18" s="5"/>
-      <c r="AML18" s="5"/>
-      <c r="AMM18" s="5"/>
-      <c r="AMN18" s="5"/>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:26">
       <c r="A19" s="16" t="s">
@@ -4803,7 +2814,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="54"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" spans="1:26">
       <c r="A20" s="18" t="s">
@@ -4842,17 +2853,17 @@
       <c r="L20" s="18">
         <v>50</v>
       </c>
-      <c r="M20" s="34">
+      <c r="M20" s="36">
         <v>0.0003</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="34">
+      <c r="O20" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
       <c r="R20" s="19" t="s">
         <v>50</v>
       </c>
@@ -4868,16 +2879,16 @@
       <c r="V20" s="19">
         <v>0.9837</v>
       </c>
-      <c r="W20" s="46">
+      <c r="W20" s="48">
         <v>0.972</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="55" t="s">
+      <c r="Y20" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="43"/>
+      <c r="Z20" s="45"/>
     </row>
     <row r="21" spans="1:26">
       <c r="A21" s="9" t="s">
@@ -4916,17 +2927,17 @@
       <c r="L21" s="9">
         <v>50</v>
       </c>
-      <c r="M21" s="35">
+      <c r="M21" s="37">
         <v>0.0001</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="31">
+      <c r="O21" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P21" s="31"/>
-      <c r="Q21" s="31"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="33"/>
       <c r="R21" s="10" t="s">
         <v>50</v>
       </c>
@@ -4942,14 +2953,14 @@
       <c r="V21" s="10">
         <v>0.9846</v>
       </c>
-      <c r="W21" s="47">
+      <c r="W21" s="49">
         <v>0.973</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="43"/>
+      <c r="Y21" s="45"/>
+      <c r="Z21" s="45"/>
     </row>
     <row r="22" spans="1:26">
       <c r="A22" s="20" t="s">
@@ -4988,17 +2999,17 @@
       <c r="L22" s="22">
         <v>40</v>
       </c>
-      <c r="M22" s="36">
+      <c r="M22" s="38">
         <v>0.0003</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="36">
+      <c r="O22" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P22" s="36"/>
-      <c r="Q22" s="36"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="38"/>
       <c r="R22" s="22" t="s">
         <v>50</v>
       </c>
@@ -5014,16 +3025,16 @@
       <c r="V22" s="22">
         <v>0.9846</v>
       </c>
-      <c r="W22" s="48">
+      <c r="W22" s="50">
         <v>0.974</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="43" t="s">
+      <c r="Y22" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="43" t="s">
+      <c r="Z22" s="45" t="s">
         <v>59</v>
       </c>
     </row>
@@ -5064,17 +3075,17 @@
       <c r="L23" s="9">
         <v>45</v>
       </c>
-      <c r="M23" s="31">
+      <c r="M23" s="33">
         <v>0.0001</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="31">
+      <c r="O23" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P23" s="31"/>
-      <c r="Q23" s="31"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="33"/>
       <c r="R23" s="10" t="s">
         <v>50</v>
       </c>
@@ -5090,14 +3101,14 @@
       <c r="V23" s="10">
         <v>0.9861</v>
       </c>
-      <c r="W23" s="49">
+      <c r="W23" s="51">
         <v>0.971</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="43"/>
-      <c r="Z23" s="43"/>
+      <c r="Y23" s="45"/>
+      <c r="Z23" s="45"/>
     </row>
     <row r="24" spans="1:26">
       <c r="A24" s="9" t="s">
@@ -5136,17 +3147,17 @@
       <c r="L24" s="9">
         <v>40</v>
       </c>
-      <c r="M24" s="31">
+      <c r="M24" s="33">
         <v>0.0003</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="31">
+      <c r="O24" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="33"/>
       <c r="R24" s="10" t="s">
         <v>50</v>
       </c>
@@ -5162,18 +3173,18 @@
       <c r="V24" s="10">
         <v>0.9856</v>
       </c>
-      <c r="W24" s="49">
+      <c r="W24" s="51">
         <v>0.97</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="43" t="s">
+      <c r="Y24" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="Z24" s="43"/>
+      <c r="Z24" s="45"/>
     </row>
-    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:1028">
+    <row r="25" s="4" customFormat="1" ht="15.75" spans="1:26">
       <c r="A25" s="22" t="s">
         <v>39</v>
       </c>
@@ -5210,17 +3221,17 @@
       <c r="L25" s="22">
         <v>40</v>
       </c>
-      <c r="M25" s="36">
+      <c r="M25" s="38">
         <v>0.0003</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="36">
+      <c r="O25" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P25" s="36"/>
-      <c r="Q25" s="36"/>
+      <c r="P25" s="38"/>
+      <c r="Q25" s="38"/>
       <c r="R25" s="22" t="s">
         <v>50</v>
       </c>
@@ -5236,1018 +3247,16 @@
       <c r="V25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="48">
+      <c r="W25" s="50">
         <v>0.976</v>
       </c>
       <c r="X25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="56" t="s">
+      <c r="Y25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="56"/>
-      <c r="AA25" s="57"/>
-      <c r="AB25" s="57"/>
-      <c r="AC25" s="57"/>
-      <c r="AD25" s="57"/>
-      <c r="AE25" s="57"/>
-      <c r="AF25" s="57"/>
-      <c r="AG25" s="57"/>
-      <c r="AH25" s="57"/>
-      <c r="AI25" s="57"/>
-      <c r="AJ25" s="57"/>
-      <c r="AK25" s="57"/>
-      <c r="AL25" s="57"/>
-      <c r="AM25" s="57"/>
-      <c r="AN25" s="57"/>
-      <c r="AO25" s="57"/>
-      <c r="AP25" s="57"/>
-      <c r="AQ25" s="57"/>
-      <c r="AR25" s="57"/>
-      <c r="AS25" s="57"/>
-      <c r="AT25" s="57"/>
-      <c r="AU25" s="57"/>
-      <c r="AV25" s="57"/>
-      <c r="AW25" s="57"/>
-      <c r="AX25" s="57"/>
-      <c r="AY25" s="57"/>
-      <c r="AZ25" s="57"/>
-      <c r="BA25" s="57"/>
-      <c r="BB25" s="57"/>
-      <c r="BC25" s="57"/>
-      <c r="BD25" s="57"/>
-      <c r="BE25" s="57"/>
-      <c r="BF25" s="57"/>
-      <c r="BG25" s="57"/>
-      <c r="BH25" s="57"/>
-      <c r="BI25" s="57"/>
-      <c r="BJ25" s="57"/>
-      <c r="BK25" s="57"/>
-      <c r="BL25" s="57"/>
-      <c r="BM25" s="57"/>
-      <c r="BN25" s="57"/>
-      <c r="BO25" s="57"/>
-      <c r="BP25" s="57"/>
-      <c r="BQ25" s="57"/>
-      <c r="BR25" s="57"/>
-      <c r="BS25" s="57"/>
-      <c r="BT25" s="57"/>
-      <c r="BU25" s="57"/>
-      <c r="BV25" s="57"/>
-      <c r="BW25" s="57"/>
-      <c r="BX25" s="57"/>
-      <c r="BY25" s="57"/>
-      <c r="BZ25" s="57"/>
-      <c r="CA25" s="57"/>
-      <c r="CB25" s="57"/>
-      <c r="CC25" s="57"/>
-      <c r="CD25" s="57"/>
-      <c r="CE25" s="57"/>
-      <c r="CF25" s="57"/>
-      <c r="CG25" s="57"/>
-      <c r="CH25" s="57"/>
-      <c r="CI25" s="57"/>
-      <c r="CJ25" s="57"/>
-      <c r="CK25" s="57"/>
-      <c r="CL25" s="57"/>
-      <c r="CM25" s="57"/>
-      <c r="CN25" s="57"/>
-      <c r="CO25" s="57"/>
-      <c r="CP25" s="57"/>
-      <c r="CQ25" s="57"/>
-      <c r="CR25" s="57"/>
-      <c r="CS25" s="57"/>
-      <c r="CT25" s="57"/>
-      <c r="CU25" s="57"/>
-      <c r="CV25" s="57"/>
-      <c r="CW25" s="57"/>
-      <c r="CX25" s="57"/>
-      <c r="CY25" s="57"/>
-      <c r="CZ25" s="57"/>
-      <c r="DA25" s="57"/>
-      <c r="DB25" s="57"/>
-      <c r="DC25" s="57"/>
-      <c r="DD25" s="57"/>
-      <c r="DE25" s="57"/>
-      <c r="DF25" s="57"/>
-      <c r="DG25" s="57"/>
-      <c r="DH25" s="57"/>
-      <c r="DI25" s="57"/>
-      <c r="DJ25" s="57"/>
-      <c r="DK25" s="57"/>
-      <c r="DL25" s="57"/>
-      <c r="DM25" s="57"/>
-      <c r="DN25" s="57"/>
-      <c r="DO25" s="57"/>
-      <c r="DP25" s="57"/>
-      <c r="DQ25" s="57"/>
-      <c r="DR25" s="57"/>
-      <c r="DS25" s="57"/>
-      <c r="DT25" s="57"/>
-      <c r="DU25" s="57"/>
-      <c r="DV25" s="57"/>
-      <c r="DW25" s="57"/>
-      <c r="DX25" s="57"/>
-      <c r="DY25" s="57"/>
-      <c r="DZ25" s="57"/>
-      <c r="EA25" s="57"/>
-      <c r="EB25" s="57"/>
-      <c r="EC25" s="57"/>
-      <c r="ED25" s="57"/>
-      <c r="EE25" s="57"/>
-      <c r="EF25" s="57"/>
-      <c r="EG25" s="57"/>
-      <c r="EH25" s="57"/>
-      <c r="EI25" s="57"/>
-      <c r="EJ25" s="57"/>
-      <c r="EK25" s="57"/>
-      <c r="EL25" s="57"/>
-      <c r="EM25" s="57"/>
-      <c r="EN25" s="57"/>
-      <c r="EO25" s="57"/>
-      <c r="EP25" s="57"/>
-      <c r="EQ25" s="57"/>
-      <c r="ER25" s="57"/>
-      <c r="ES25" s="57"/>
-      <c r="ET25" s="57"/>
-      <c r="EU25" s="57"/>
-      <c r="EV25" s="57"/>
-      <c r="EW25" s="57"/>
-      <c r="EX25" s="57"/>
-      <c r="EY25" s="57"/>
-      <c r="EZ25" s="57"/>
-      <c r="FA25" s="57"/>
-      <c r="FB25" s="57"/>
-      <c r="FC25" s="57"/>
-      <c r="FD25" s="57"/>
-      <c r="FE25" s="57"/>
-      <c r="FF25" s="57"/>
-      <c r="FG25" s="57"/>
-      <c r="FH25" s="57"/>
-      <c r="FI25" s="57"/>
-      <c r="FJ25" s="57"/>
-      <c r="FK25" s="57"/>
-      <c r="FL25" s="57"/>
-      <c r="FM25" s="57"/>
-      <c r="FN25" s="57"/>
-      <c r="FO25" s="57"/>
-      <c r="FP25" s="57"/>
-      <c r="FQ25" s="57"/>
-      <c r="FR25" s="57"/>
-      <c r="FS25" s="57"/>
-      <c r="FT25" s="57"/>
-      <c r="FU25" s="57"/>
-      <c r="FV25" s="57"/>
-      <c r="FW25" s="57"/>
-      <c r="FX25" s="57"/>
-      <c r="FY25" s="57"/>
-      <c r="FZ25" s="57"/>
-      <c r="GA25" s="57"/>
-      <c r="GB25" s="57"/>
-      <c r="GC25" s="57"/>
-      <c r="GD25" s="57"/>
-      <c r="GE25" s="57"/>
-      <c r="GF25" s="57"/>
-      <c r="GG25" s="57"/>
-      <c r="GH25" s="57"/>
-      <c r="GI25" s="57"/>
-      <c r="GJ25" s="57"/>
-      <c r="GK25" s="57"/>
-      <c r="GL25" s="57"/>
-      <c r="GM25" s="57"/>
-      <c r="GN25" s="57"/>
-      <c r="GO25" s="57"/>
-      <c r="GP25" s="57"/>
-      <c r="GQ25" s="57"/>
-      <c r="GR25" s="57"/>
-      <c r="GS25" s="57"/>
-      <c r="GT25" s="57"/>
-      <c r="GU25" s="57"/>
-      <c r="GV25" s="57"/>
-      <c r="GW25" s="57"/>
-      <c r="GX25" s="57"/>
-      <c r="GY25" s="57"/>
-      <c r="GZ25" s="57"/>
-      <c r="HA25" s="57"/>
-      <c r="HB25" s="57"/>
-      <c r="HC25" s="57"/>
-      <c r="HD25" s="57"/>
-      <c r="HE25" s="57"/>
-      <c r="HF25" s="57"/>
-      <c r="HG25" s="57"/>
-      <c r="HH25" s="57"/>
-      <c r="HI25" s="57"/>
-      <c r="HJ25" s="57"/>
-      <c r="HK25" s="57"/>
-      <c r="HL25" s="57"/>
-      <c r="HM25" s="57"/>
-      <c r="HN25" s="57"/>
-      <c r="HO25" s="57"/>
-      <c r="HP25" s="57"/>
-      <c r="HQ25" s="57"/>
-      <c r="HR25" s="57"/>
-      <c r="HS25" s="57"/>
-      <c r="HT25" s="57"/>
-      <c r="HU25" s="57"/>
-      <c r="HV25" s="57"/>
-      <c r="HW25" s="57"/>
-      <c r="HX25" s="57"/>
-      <c r="HY25" s="57"/>
-      <c r="HZ25" s="57"/>
-      <c r="IA25" s="57"/>
-      <c r="IB25" s="57"/>
-      <c r="IC25" s="57"/>
-      <c r="ID25" s="57"/>
-      <c r="IE25" s="57"/>
-      <c r="IF25" s="57"/>
-      <c r="IG25" s="57"/>
-      <c r="IH25" s="57"/>
-      <c r="II25" s="57"/>
-      <c r="IJ25" s="57"/>
-      <c r="IK25" s="57"/>
-      <c r="IL25" s="57"/>
-      <c r="IM25" s="57"/>
-      <c r="IN25" s="57"/>
-      <c r="IO25" s="57"/>
-      <c r="IP25" s="57"/>
-      <c r="IQ25" s="57"/>
-      <c r="IR25" s="57"/>
-      <c r="IS25" s="57"/>
-      <c r="IT25" s="57"/>
-      <c r="IU25" s="57"/>
-      <c r="IV25" s="57"/>
-      <c r="IW25" s="57"/>
-      <c r="IX25" s="57"/>
-      <c r="IY25" s="57"/>
-      <c r="IZ25" s="57"/>
-      <c r="JA25" s="57"/>
-      <c r="JB25" s="57"/>
-      <c r="JC25" s="57"/>
-      <c r="JD25" s="57"/>
-      <c r="JE25" s="57"/>
-      <c r="JF25" s="57"/>
-      <c r="JG25" s="57"/>
-      <c r="JH25" s="57"/>
-      <c r="JI25" s="57"/>
-      <c r="JJ25" s="57"/>
-      <c r="JK25" s="57"/>
-      <c r="JL25" s="57"/>
-      <c r="JM25" s="57"/>
-      <c r="JN25" s="57"/>
-      <c r="JO25" s="57"/>
-      <c r="JP25" s="57"/>
-      <c r="JQ25" s="57"/>
-      <c r="JR25" s="57"/>
-      <c r="JS25" s="57"/>
-      <c r="JT25" s="57"/>
-      <c r="JU25" s="57"/>
-      <c r="JV25" s="57"/>
-      <c r="JW25" s="57"/>
-      <c r="JX25" s="57"/>
-      <c r="JY25" s="57"/>
-      <c r="JZ25" s="57"/>
-      <c r="KA25" s="57"/>
-      <c r="KB25" s="57"/>
-      <c r="KC25" s="57"/>
-      <c r="KD25" s="57"/>
-      <c r="KE25" s="57"/>
-      <c r="KF25" s="57"/>
-      <c r="KG25" s="57"/>
-      <c r="KH25" s="57"/>
-      <c r="KI25" s="57"/>
-      <c r="KJ25" s="57"/>
-      <c r="KK25" s="57"/>
-      <c r="KL25" s="57"/>
-      <c r="KM25" s="57"/>
-      <c r="KN25" s="57"/>
-      <c r="KO25" s="57"/>
-      <c r="KP25" s="57"/>
-      <c r="KQ25" s="57"/>
-      <c r="KR25" s="57"/>
-      <c r="KS25" s="57"/>
-      <c r="KT25" s="57"/>
-      <c r="KU25" s="57"/>
-      <c r="KV25" s="57"/>
-      <c r="KW25" s="57"/>
-      <c r="KX25" s="57"/>
-      <c r="KY25" s="57"/>
-      <c r="KZ25" s="57"/>
-      <c r="LA25" s="57"/>
-      <c r="LB25" s="57"/>
-      <c r="LC25" s="57"/>
-      <c r="LD25" s="57"/>
-      <c r="LE25" s="57"/>
-      <c r="LF25" s="57"/>
-      <c r="LG25" s="57"/>
-      <c r="LH25" s="57"/>
-      <c r="LI25" s="57"/>
-      <c r="LJ25" s="57"/>
-      <c r="LK25" s="57"/>
-      <c r="LL25" s="57"/>
-      <c r="LM25" s="57"/>
-      <c r="LN25" s="57"/>
-      <c r="LO25" s="57"/>
-      <c r="LP25" s="57"/>
-      <c r="LQ25" s="57"/>
-      <c r="LR25" s="57"/>
-      <c r="LS25" s="57"/>
-      <c r="LT25" s="57"/>
-      <c r="LU25" s="57"/>
-      <c r="LV25" s="57"/>
-      <c r="LW25" s="57"/>
-      <c r="LX25" s="57"/>
-      <c r="LY25" s="57"/>
-      <c r="LZ25" s="57"/>
-      <c r="MA25" s="57"/>
-      <c r="MB25" s="57"/>
-      <c r="MC25" s="57"/>
-      <c r="MD25" s="57"/>
-      <c r="ME25" s="57"/>
-      <c r="MF25" s="57"/>
-      <c r="MG25" s="57"/>
-      <c r="MH25" s="57"/>
-      <c r="MI25" s="57"/>
-      <c r="MJ25" s="57"/>
-      <c r="MK25" s="57"/>
-      <c r="ML25" s="57"/>
-      <c r="MM25" s="57"/>
-      <c r="MN25" s="57"/>
-      <c r="MO25" s="57"/>
-      <c r="MP25" s="57"/>
-      <c r="MQ25" s="57"/>
-      <c r="MR25" s="57"/>
-      <c r="MS25" s="57"/>
-      <c r="MT25" s="57"/>
-      <c r="MU25" s="57"/>
-      <c r="MV25" s="57"/>
-      <c r="MW25" s="57"/>
-      <c r="MX25" s="57"/>
-      <c r="MY25" s="57"/>
-      <c r="MZ25" s="57"/>
-      <c r="NA25" s="57"/>
-      <c r="NB25" s="57"/>
-      <c r="NC25" s="57"/>
-      <c r="ND25" s="57"/>
-      <c r="NE25" s="57"/>
-      <c r="NF25" s="57"/>
-      <c r="NG25" s="57"/>
-      <c r="NH25" s="57"/>
-      <c r="NI25" s="57"/>
-      <c r="NJ25" s="57"/>
-      <c r="NK25" s="57"/>
-      <c r="NL25" s="57"/>
-      <c r="NM25" s="57"/>
-      <c r="NN25" s="57"/>
-      <c r="NO25" s="57"/>
-      <c r="NP25" s="57"/>
-      <c r="NQ25" s="57"/>
-      <c r="NR25" s="57"/>
-      <c r="NS25" s="57"/>
-      <c r="NT25" s="57"/>
-      <c r="NU25" s="57"/>
-      <c r="NV25" s="57"/>
-      <c r="NW25" s="57"/>
-      <c r="NX25" s="57"/>
-      <c r="NY25" s="57"/>
-      <c r="NZ25" s="57"/>
-      <c r="OA25" s="57"/>
-      <c r="OB25" s="57"/>
-      <c r="OC25" s="57"/>
-      <c r="OD25" s="57"/>
-      <c r="OE25" s="57"/>
-      <c r="OF25" s="57"/>
-      <c r="OG25" s="57"/>
-      <c r="OH25" s="57"/>
-      <c r="OI25" s="57"/>
-      <c r="OJ25" s="57"/>
-      <c r="OK25" s="57"/>
-      <c r="OL25" s="57"/>
-      <c r="OM25" s="57"/>
-      <c r="ON25" s="57"/>
-      <c r="OO25" s="57"/>
-      <c r="OP25" s="57"/>
-      <c r="OQ25" s="57"/>
-      <c r="OR25" s="57"/>
-      <c r="OS25" s="57"/>
-      <c r="OT25" s="57"/>
-      <c r="OU25" s="57"/>
-      <c r="OV25" s="57"/>
-      <c r="OW25" s="57"/>
-      <c r="OX25" s="57"/>
-      <c r="OY25" s="57"/>
-      <c r="OZ25" s="57"/>
-      <c r="PA25" s="57"/>
-      <c r="PB25" s="57"/>
-      <c r="PC25" s="57"/>
-      <c r="PD25" s="57"/>
-      <c r="PE25" s="57"/>
-      <c r="PF25" s="57"/>
-      <c r="PG25" s="57"/>
-      <c r="PH25" s="57"/>
-      <c r="PI25" s="57"/>
-      <c r="PJ25" s="57"/>
-      <c r="PK25" s="57"/>
-      <c r="PL25" s="57"/>
-      <c r="PM25" s="57"/>
-      <c r="PN25" s="57"/>
-      <c r="PO25" s="57"/>
-      <c r="PP25" s="57"/>
-      <c r="PQ25" s="57"/>
-      <c r="PR25" s="57"/>
-      <c r="PS25" s="57"/>
-      <c r="PT25" s="57"/>
-      <c r="PU25" s="57"/>
-      <c r="PV25" s="57"/>
-      <c r="PW25" s="57"/>
-      <c r="PX25" s="57"/>
-      <c r="PY25" s="57"/>
-      <c r="PZ25" s="57"/>
-      <c r="QA25" s="57"/>
-      <c r="QB25" s="57"/>
-      <c r="QC25" s="57"/>
-      <c r="QD25" s="57"/>
-      <c r="QE25" s="57"/>
-      <c r="QF25" s="57"/>
-      <c r="QG25" s="57"/>
-      <c r="QH25" s="57"/>
-      <c r="QI25" s="57"/>
-      <c r="QJ25" s="57"/>
-      <c r="QK25" s="57"/>
-      <c r="QL25" s="57"/>
-      <c r="QM25" s="57"/>
-      <c r="QN25" s="57"/>
-      <c r="QO25" s="57"/>
-      <c r="QP25" s="57"/>
-      <c r="QQ25" s="57"/>
-      <c r="QR25" s="57"/>
-      <c r="QS25" s="57"/>
-      <c r="QT25" s="57"/>
-      <c r="QU25" s="57"/>
-      <c r="QV25" s="57"/>
-      <c r="QW25" s="57"/>
-      <c r="QX25" s="57"/>
-      <c r="QY25" s="57"/>
-      <c r="QZ25" s="57"/>
-      <c r="RA25" s="57"/>
-      <c r="RB25" s="57"/>
-      <c r="RC25" s="57"/>
-      <c r="RD25" s="57"/>
-      <c r="RE25" s="57"/>
-      <c r="RF25" s="57"/>
-      <c r="RG25" s="57"/>
-      <c r="RH25" s="57"/>
-      <c r="RI25" s="57"/>
-      <c r="RJ25" s="57"/>
-      <c r="RK25" s="57"/>
-      <c r="RL25" s="57"/>
-      <c r="RM25" s="57"/>
-      <c r="RN25" s="57"/>
-      <c r="RO25" s="57"/>
-      <c r="RP25" s="57"/>
-      <c r="RQ25" s="57"/>
-      <c r="RR25" s="57"/>
-      <c r="RS25" s="57"/>
-      <c r="RT25" s="57"/>
-      <c r="RU25" s="57"/>
-      <c r="RV25" s="57"/>
-      <c r="RW25" s="57"/>
-      <c r="RX25" s="57"/>
-      <c r="RY25" s="57"/>
-      <c r="RZ25" s="57"/>
-      <c r="SA25" s="57"/>
-      <c r="SB25" s="57"/>
-      <c r="SC25" s="57"/>
-      <c r="SD25" s="57"/>
-      <c r="SE25" s="57"/>
-      <c r="SF25" s="57"/>
-      <c r="SG25" s="57"/>
-      <c r="SH25" s="57"/>
-      <c r="SI25" s="57"/>
-      <c r="SJ25" s="57"/>
-      <c r="SK25" s="57"/>
-      <c r="SL25" s="57"/>
-      <c r="SM25" s="57"/>
-      <c r="SN25" s="57"/>
-      <c r="SO25" s="57"/>
-      <c r="SP25" s="57"/>
-      <c r="SQ25" s="57"/>
-      <c r="SR25" s="57"/>
-      <c r="SS25" s="57"/>
-      <c r="ST25" s="57"/>
-      <c r="SU25" s="57"/>
-      <c r="SV25" s="57"/>
-      <c r="SW25" s="57"/>
-      <c r="SX25" s="57"/>
-      <c r="SY25" s="57"/>
-      <c r="SZ25" s="57"/>
-      <c r="TA25" s="57"/>
-      <c r="TB25" s="57"/>
-      <c r="TC25" s="57"/>
-      <c r="TD25" s="57"/>
-      <c r="TE25" s="57"/>
-      <c r="TF25" s="57"/>
-      <c r="TG25" s="57"/>
-      <c r="TH25" s="57"/>
-      <c r="TI25" s="57"/>
-      <c r="TJ25" s="57"/>
-      <c r="TK25" s="57"/>
-      <c r="TL25" s="57"/>
-      <c r="TM25" s="57"/>
-      <c r="TN25" s="57"/>
-      <c r="TO25" s="57"/>
-      <c r="TP25" s="57"/>
-      <c r="TQ25" s="57"/>
-      <c r="TR25" s="57"/>
-      <c r="TS25" s="57"/>
-      <c r="TT25" s="57"/>
-      <c r="TU25" s="57"/>
-      <c r="TV25" s="57"/>
-      <c r="TW25" s="57"/>
-      <c r="TX25" s="57"/>
-      <c r="TY25" s="57"/>
-      <c r="TZ25" s="57"/>
-      <c r="UA25" s="57"/>
-      <c r="UB25" s="57"/>
-      <c r="UC25" s="57"/>
-      <c r="UD25" s="57"/>
-      <c r="UE25" s="57"/>
-      <c r="UF25" s="57"/>
-      <c r="UG25" s="57"/>
-      <c r="UH25" s="57"/>
-      <c r="UI25" s="57"/>
-      <c r="UJ25" s="57"/>
-      <c r="UK25" s="57"/>
-      <c r="UL25" s="57"/>
-      <c r="UM25" s="57"/>
-      <c r="UN25" s="57"/>
-      <c r="UO25" s="57"/>
-      <c r="UP25" s="57"/>
-      <c r="UQ25" s="57"/>
-      <c r="UR25" s="57"/>
-      <c r="US25" s="57"/>
-      <c r="UT25" s="57"/>
-      <c r="UU25" s="57"/>
-      <c r="UV25" s="57"/>
-      <c r="UW25" s="57"/>
-      <c r="UX25" s="57"/>
-      <c r="UY25" s="57"/>
-      <c r="UZ25" s="57"/>
-      <c r="VA25" s="57"/>
-      <c r="VB25" s="57"/>
-      <c r="VC25" s="57"/>
-      <c r="VD25" s="57"/>
-      <c r="VE25" s="57"/>
-      <c r="VF25" s="57"/>
-      <c r="VG25" s="57"/>
-      <c r="VH25" s="57"/>
-      <c r="VI25" s="57"/>
-      <c r="VJ25" s="57"/>
-      <c r="VK25" s="57"/>
-      <c r="VL25" s="57"/>
-      <c r="VM25" s="57"/>
-      <c r="VN25" s="57"/>
-      <c r="VO25" s="57"/>
-      <c r="VP25" s="57"/>
-      <c r="VQ25" s="57"/>
-      <c r="VR25" s="57"/>
-      <c r="VS25" s="57"/>
-      <c r="VT25" s="57"/>
-      <c r="VU25" s="57"/>
-      <c r="VV25" s="57"/>
-      <c r="VW25" s="57"/>
-      <c r="VX25" s="57"/>
-      <c r="VY25" s="57"/>
-      <c r="VZ25" s="57"/>
-      <c r="WA25" s="57"/>
-      <c r="WB25" s="57"/>
-      <c r="WC25" s="57"/>
-      <c r="WD25" s="57"/>
-      <c r="WE25" s="57"/>
-      <c r="WF25" s="57"/>
-      <c r="WG25" s="57"/>
-      <c r="WH25" s="57"/>
-      <c r="WI25" s="57"/>
-      <c r="WJ25" s="57"/>
-      <c r="WK25" s="57"/>
-      <c r="WL25" s="57"/>
-      <c r="WM25" s="57"/>
-      <c r="WN25" s="57"/>
-      <c r="WO25" s="57"/>
-      <c r="WP25" s="57"/>
-      <c r="WQ25" s="57"/>
-      <c r="WR25" s="57"/>
-      <c r="WS25" s="57"/>
-      <c r="WT25" s="57"/>
-      <c r="WU25" s="57"/>
-      <c r="WV25" s="57"/>
-      <c r="WW25" s="57"/>
-      <c r="WX25" s="57"/>
-      <c r="WY25" s="57"/>
-      <c r="WZ25" s="57"/>
-      <c r="XA25" s="57"/>
-      <c r="XB25" s="57"/>
-      <c r="XC25" s="57"/>
-      <c r="XD25" s="57"/>
-      <c r="XE25" s="57"/>
-      <c r="XF25" s="57"/>
-      <c r="XG25" s="57"/>
-      <c r="XH25" s="57"/>
-      <c r="XI25" s="57"/>
-      <c r="XJ25" s="57"/>
-      <c r="XK25" s="57"/>
-      <c r="XL25" s="57"/>
-      <c r="XM25" s="57"/>
-      <c r="XN25" s="57"/>
-      <c r="XO25" s="57"/>
-      <c r="XP25" s="57"/>
-      <c r="XQ25" s="57"/>
-      <c r="XR25" s="57"/>
-      <c r="XS25" s="57"/>
-      <c r="XT25" s="57"/>
-      <c r="XU25" s="57"/>
-      <c r="XV25" s="57"/>
-      <c r="XW25" s="57"/>
-      <c r="XX25" s="57"/>
-      <c r="XY25" s="57"/>
-      <c r="XZ25" s="57"/>
-      <c r="YA25" s="57"/>
-      <c r="YB25" s="57"/>
-      <c r="YC25" s="57"/>
-      <c r="YD25" s="57"/>
-      <c r="YE25" s="57"/>
-      <c r="YF25" s="57"/>
-      <c r="YG25" s="57"/>
-      <c r="YH25" s="57"/>
-      <c r="YI25" s="57"/>
-      <c r="YJ25" s="57"/>
-      <c r="YK25" s="57"/>
-      <c r="YL25" s="57"/>
-      <c r="YM25" s="57"/>
-      <c r="YN25" s="57"/>
-      <c r="YO25" s="57"/>
-      <c r="YP25" s="57"/>
-      <c r="YQ25" s="57"/>
-      <c r="YR25" s="57"/>
-      <c r="YS25" s="57"/>
-      <c r="YT25" s="57"/>
-      <c r="YU25" s="57"/>
-      <c r="YV25" s="57"/>
-      <c r="YW25" s="57"/>
-      <c r="YX25" s="57"/>
-      <c r="YY25" s="57"/>
-      <c r="YZ25" s="57"/>
-      <c r="ZA25" s="57"/>
-      <c r="ZB25" s="57"/>
-      <c r="ZC25" s="57"/>
-      <c r="ZD25" s="57"/>
-      <c r="ZE25" s="57"/>
-      <c r="ZF25" s="57"/>
-      <c r="ZG25" s="57"/>
-      <c r="ZH25" s="57"/>
-      <c r="ZI25" s="57"/>
-      <c r="ZJ25" s="57"/>
-      <c r="ZK25" s="57"/>
-      <c r="ZL25" s="57"/>
-      <c r="ZM25" s="57"/>
-      <c r="ZN25" s="57"/>
-      <c r="ZO25" s="57"/>
-      <c r="ZP25" s="57"/>
-      <c r="ZQ25" s="57"/>
-      <c r="ZR25" s="57"/>
-      <c r="ZS25" s="57"/>
-      <c r="ZT25" s="57"/>
-      <c r="ZU25" s="57"/>
-      <c r="ZV25" s="57"/>
-      <c r="ZW25" s="57"/>
-      <c r="ZX25" s="57"/>
-      <c r="ZY25" s="57"/>
-      <c r="ZZ25" s="57"/>
-      <c r="AAA25" s="57"/>
-      <c r="AAB25" s="57"/>
-      <c r="AAC25" s="57"/>
-      <c r="AAD25" s="57"/>
-      <c r="AAE25" s="57"/>
-      <c r="AAF25" s="57"/>
-      <c r="AAG25" s="57"/>
-      <c r="AAH25" s="57"/>
-      <c r="AAI25" s="57"/>
-      <c r="AAJ25" s="57"/>
-      <c r="AAK25" s="57"/>
-      <c r="AAL25" s="57"/>
-      <c r="AAM25" s="57"/>
-      <c r="AAN25" s="57"/>
-      <c r="AAO25" s="57"/>
-      <c r="AAP25" s="57"/>
-      <c r="AAQ25" s="57"/>
-      <c r="AAR25" s="57"/>
-      <c r="AAS25" s="57"/>
-      <c r="AAT25" s="57"/>
-      <c r="AAU25" s="57"/>
-      <c r="AAV25" s="57"/>
-      <c r="AAW25" s="57"/>
-      <c r="AAX25" s="57"/>
-      <c r="AAY25" s="57"/>
-      <c r="AAZ25" s="57"/>
-      <c r="ABA25" s="57"/>
-      <c r="ABB25" s="57"/>
-      <c r="ABC25" s="57"/>
-      <c r="ABD25" s="57"/>
-      <c r="ABE25" s="57"/>
-      <c r="ABF25" s="57"/>
-      <c r="ABG25" s="57"/>
-      <c r="ABH25" s="57"/>
-      <c r="ABI25" s="57"/>
-      <c r="ABJ25" s="57"/>
-      <c r="ABK25" s="57"/>
-      <c r="ABL25" s="57"/>
-      <c r="ABM25" s="57"/>
-      <c r="ABN25" s="57"/>
-      <c r="ABO25" s="57"/>
-      <c r="ABP25" s="57"/>
-      <c r="ABQ25" s="57"/>
-      <c r="ABR25" s="57"/>
-      <c r="ABS25" s="57"/>
-      <c r="ABT25" s="57"/>
-      <c r="ABU25" s="57"/>
-      <c r="ABV25" s="57"/>
-      <c r="ABW25" s="57"/>
-      <c r="ABX25" s="57"/>
-      <c r="ABY25" s="57"/>
-      <c r="ABZ25" s="57"/>
-      <c r="ACA25" s="57"/>
-      <c r="ACB25" s="57"/>
-      <c r="ACC25" s="57"/>
-      <c r="ACD25" s="57"/>
-      <c r="ACE25" s="57"/>
-      <c r="ACF25" s="57"/>
-      <c r="ACG25" s="57"/>
-      <c r="ACH25" s="57"/>
-      <c r="ACI25" s="57"/>
-      <c r="ACJ25" s="57"/>
-      <c r="ACK25" s="57"/>
-      <c r="ACL25" s="57"/>
-      <c r="ACM25" s="57"/>
-      <c r="ACN25" s="57"/>
-      <c r="ACO25" s="57"/>
-      <c r="ACP25" s="57"/>
-      <c r="ACQ25" s="57"/>
-      <c r="ACR25" s="57"/>
-      <c r="ACS25" s="57"/>
-      <c r="ACT25" s="57"/>
-      <c r="ACU25" s="57"/>
-      <c r="ACV25" s="57"/>
-      <c r="ACW25" s="57"/>
-      <c r="ACX25" s="57"/>
-      <c r="ACY25" s="57"/>
-      <c r="ACZ25" s="57"/>
-      <c r="ADA25" s="57"/>
-      <c r="ADB25" s="57"/>
-      <c r="ADC25" s="57"/>
-      <c r="ADD25" s="57"/>
-      <c r="ADE25" s="57"/>
-      <c r="ADF25" s="57"/>
-      <c r="ADG25" s="57"/>
-      <c r="ADH25" s="57"/>
-      <c r="ADI25" s="57"/>
-      <c r="ADJ25" s="57"/>
-      <c r="ADK25" s="57"/>
-      <c r="ADL25" s="57"/>
-      <c r="ADM25" s="57"/>
-      <c r="ADN25" s="57"/>
-      <c r="ADO25" s="57"/>
-      <c r="ADP25" s="57"/>
-      <c r="ADQ25" s="57"/>
-      <c r="ADR25" s="57"/>
-      <c r="ADS25" s="57"/>
-      <c r="ADT25" s="57"/>
-      <c r="ADU25" s="57"/>
-      <c r="ADV25" s="57"/>
-      <c r="ADW25" s="57"/>
-      <c r="ADX25" s="57"/>
-      <c r="ADY25" s="57"/>
-      <c r="ADZ25" s="57"/>
-      <c r="AEA25" s="57"/>
-      <c r="AEB25" s="57"/>
-      <c r="AEC25" s="57"/>
-      <c r="AED25" s="57"/>
-      <c r="AEE25" s="57"/>
-      <c r="AEF25" s="57"/>
-      <c r="AEG25" s="57"/>
-      <c r="AEH25" s="57"/>
-      <c r="AEI25" s="57"/>
-      <c r="AEJ25" s="57"/>
-      <c r="AEK25" s="57"/>
-      <c r="AEL25" s="57"/>
-      <c r="AEM25" s="57"/>
-      <c r="AEN25" s="57"/>
-      <c r="AEO25" s="57"/>
-      <c r="AEP25" s="57"/>
-      <c r="AEQ25" s="57"/>
-      <c r="AER25" s="57"/>
-      <c r="AES25" s="57"/>
-      <c r="AET25" s="57"/>
-      <c r="AEU25" s="57"/>
-      <c r="AEV25" s="57"/>
-      <c r="AEW25" s="57"/>
-      <c r="AEX25" s="57"/>
-      <c r="AEY25" s="57"/>
-      <c r="AEZ25" s="57"/>
-      <c r="AFA25" s="57"/>
-      <c r="AFB25" s="57"/>
-      <c r="AFC25" s="57"/>
-      <c r="AFD25" s="57"/>
-      <c r="AFE25" s="57"/>
-      <c r="AFF25" s="57"/>
-      <c r="AFG25" s="57"/>
-      <c r="AFH25" s="57"/>
-      <c r="AFI25" s="57"/>
-      <c r="AFJ25" s="57"/>
-      <c r="AFK25" s="57"/>
-      <c r="AFL25" s="57"/>
-      <c r="AFM25" s="57"/>
-      <c r="AFN25" s="57"/>
-      <c r="AFO25" s="57"/>
-      <c r="AFP25" s="57"/>
-      <c r="AFQ25" s="57"/>
-      <c r="AFR25" s="57"/>
-      <c r="AFS25" s="57"/>
-      <c r="AFT25" s="57"/>
-      <c r="AFU25" s="57"/>
-      <c r="AFV25" s="57"/>
-      <c r="AFW25" s="57"/>
-      <c r="AFX25" s="57"/>
-      <c r="AFY25" s="57"/>
-      <c r="AFZ25" s="57"/>
-      <c r="AGA25" s="57"/>
-      <c r="AGB25" s="57"/>
-      <c r="AGC25" s="57"/>
-      <c r="AGD25" s="57"/>
-      <c r="AGE25" s="57"/>
-      <c r="AGF25" s="57"/>
-      <c r="AGG25" s="57"/>
-      <c r="AGH25" s="57"/>
-      <c r="AGI25" s="57"/>
-      <c r="AGJ25" s="57"/>
-      <c r="AGK25" s="57"/>
-      <c r="AGL25" s="57"/>
-      <c r="AGM25" s="57"/>
-      <c r="AGN25" s="57"/>
-      <c r="AGO25" s="57"/>
-      <c r="AGP25" s="57"/>
-      <c r="AGQ25" s="57"/>
-      <c r="AGR25" s="57"/>
-      <c r="AGS25" s="57"/>
-      <c r="AGT25" s="57"/>
-      <c r="AGU25" s="57"/>
-      <c r="AGV25" s="57"/>
-      <c r="AGW25" s="57"/>
-      <c r="AGX25" s="57"/>
-      <c r="AGY25" s="57"/>
-      <c r="AGZ25" s="57"/>
-      <c r="AHA25" s="57"/>
-      <c r="AHB25" s="57"/>
-      <c r="AHC25" s="57"/>
-      <c r="AHD25" s="57"/>
-      <c r="AHE25" s="57"/>
-      <c r="AHF25" s="57"/>
-      <c r="AHG25" s="57"/>
-      <c r="AHH25" s="57"/>
-      <c r="AHI25" s="57"/>
-      <c r="AHJ25" s="57"/>
-      <c r="AHK25" s="57"/>
-      <c r="AHL25" s="57"/>
-      <c r="AHM25" s="57"/>
-      <c r="AHN25" s="57"/>
-      <c r="AHO25" s="57"/>
-      <c r="AHP25" s="57"/>
-      <c r="AHQ25" s="57"/>
-      <c r="AHR25" s="57"/>
-      <c r="AHS25" s="57"/>
-      <c r="AHT25" s="57"/>
-      <c r="AHU25" s="57"/>
-      <c r="AHV25" s="57"/>
-      <c r="AHW25" s="57"/>
-      <c r="AHX25" s="57"/>
-      <c r="AHY25" s="57"/>
-      <c r="AHZ25" s="57"/>
-      <c r="AIA25" s="57"/>
-      <c r="AIB25" s="57"/>
-      <c r="AIC25" s="57"/>
-      <c r="AID25" s="57"/>
-      <c r="AIE25" s="57"/>
-      <c r="AIF25" s="57"/>
-      <c r="AIG25" s="57"/>
-      <c r="AIH25" s="57"/>
-      <c r="AII25" s="57"/>
-      <c r="AIJ25" s="57"/>
-      <c r="AIK25" s="57"/>
-      <c r="AIL25" s="57"/>
-      <c r="AIM25" s="57"/>
-      <c r="AIN25" s="57"/>
-      <c r="AIO25" s="57"/>
-      <c r="AIP25" s="57"/>
-      <c r="AIQ25" s="57"/>
-      <c r="AIR25" s="57"/>
-      <c r="AIS25" s="57"/>
-      <c r="AIT25" s="57"/>
-      <c r="AIU25" s="57"/>
-      <c r="AIV25" s="57"/>
-      <c r="AIW25" s="57"/>
-      <c r="AIX25" s="57"/>
-      <c r="AIY25" s="57"/>
-      <c r="AIZ25" s="57"/>
-      <c r="AJA25" s="57"/>
-      <c r="AJB25" s="57"/>
-      <c r="AJC25" s="57"/>
-      <c r="AJD25" s="57"/>
-      <c r="AJE25" s="57"/>
-      <c r="AJF25" s="57"/>
-      <c r="AJG25" s="57"/>
-      <c r="AJH25" s="57"/>
-      <c r="AJI25" s="57"/>
-      <c r="AJJ25" s="57"/>
-      <c r="AJK25" s="57"/>
-      <c r="AJL25" s="57"/>
-      <c r="AJM25" s="57"/>
-      <c r="AJN25" s="57"/>
-      <c r="AJO25" s="57"/>
-      <c r="AJP25" s="57"/>
-      <c r="AJQ25" s="57"/>
-      <c r="AJR25" s="57"/>
-      <c r="AJS25" s="57"/>
-      <c r="AJT25" s="57"/>
-      <c r="AJU25" s="57"/>
-      <c r="AJV25" s="57"/>
-      <c r="AJW25" s="57"/>
-      <c r="AJX25" s="57"/>
-      <c r="AJY25" s="57"/>
-      <c r="AJZ25" s="57"/>
-      <c r="AKA25" s="57"/>
-      <c r="AKB25" s="57"/>
-      <c r="AKC25" s="57"/>
-      <c r="AKD25" s="57"/>
-      <c r="AKE25" s="57"/>
-      <c r="AKF25" s="57"/>
-      <c r="AKG25" s="57"/>
-      <c r="AKH25" s="57"/>
-      <c r="AKI25" s="57"/>
-      <c r="AKJ25" s="57"/>
-      <c r="AKK25" s="57"/>
-      <c r="AKL25" s="57"/>
-      <c r="AKM25" s="57"/>
-      <c r="AKN25" s="57"/>
-      <c r="AKO25" s="57"/>
-      <c r="AKP25" s="57"/>
-      <c r="AKQ25" s="57"/>
-      <c r="AKR25" s="57"/>
-      <c r="AKS25" s="57"/>
-      <c r="AKT25" s="57"/>
-      <c r="AKU25" s="57"/>
-      <c r="AKV25" s="57"/>
-      <c r="AKW25" s="57"/>
-      <c r="AKX25" s="57"/>
-      <c r="AKY25" s="57"/>
-      <c r="AKZ25" s="57"/>
-      <c r="ALA25" s="57"/>
-      <c r="ALB25" s="57"/>
-      <c r="ALC25" s="57"/>
-      <c r="ALD25" s="57"/>
-      <c r="ALE25" s="57"/>
-      <c r="ALF25" s="57"/>
-      <c r="ALG25" s="57"/>
-      <c r="ALH25" s="57"/>
-      <c r="ALI25" s="57"/>
-      <c r="ALJ25" s="57"/>
-      <c r="ALK25" s="57"/>
-      <c r="ALL25" s="57"/>
-      <c r="ALM25" s="57"/>
-      <c r="ALN25" s="57"/>
-      <c r="ALO25" s="57"/>
-      <c r="ALP25" s="57"/>
-      <c r="ALQ25" s="57"/>
-      <c r="ALR25" s="57"/>
-      <c r="ALS25" s="57"/>
-      <c r="ALT25" s="57"/>
-      <c r="ALU25" s="57"/>
-      <c r="ALV25" s="57"/>
-      <c r="ALW25" s="57"/>
-      <c r="ALX25" s="57"/>
-      <c r="ALY25" s="57"/>
-      <c r="ALZ25" s="57"/>
-      <c r="AMA25" s="57"/>
-      <c r="AMB25" s="57"/>
-      <c r="AMC25" s="57"/>
-      <c r="AMD25" s="57"/>
-      <c r="AME25" s="57"/>
-      <c r="AMF25" s="57"/>
-      <c r="AMG25" s="57"/>
-      <c r="AMH25" s="57"/>
-      <c r="AMI25" s="57"/>
-      <c r="AMJ25" s="57"/>
-      <c r="AMK25" s="57"/>
-      <c r="AML25" s="57"/>
-      <c r="AMM25" s="57"/>
-      <c r="AMN25" s="57"/>
+      <c r="Z25" s="58"/>
     </row>
     <row r="26" spans="1:26">
       <c r="A26" s="20" t="s">
@@ -6286,17 +3295,17 @@
       <c r="L26" s="22">
         <v>40</v>
       </c>
-      <c r="M26" s="36">
+      <c r="M26" s="38">
         <v>0.0003</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="36">
+      <c r="O26" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P26" s="36"/>
-      <c r="Q26" s="36"/>
+      <c r="P26" s="38"/>
+      <c r="Q26" s="38"/>
       <c r="R26" s="22" t="s">
         <v>50</v>
       </c>
@@ -6312,16 +3321,16 @@
       <c r="V26" s="22">
         <v>0.9918</v>
       </c>
-      <c r="W26" s="48">
+      <c r="W26" s="50">
         <v>0.976</v>
       </c>
       <c r="X26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="43" t="s">
+      <c r="Y26" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="43"/>
+      <c r="Z26" s="45"/>
     </row>
     <row r="27" spans="1:26">
       <c r="A27" s="25" t="s">
@@ -6342,60 +3351,60 @@
       <c r="F27" s="26">
         <v>0.2</v>
       </c>
-      <c r="G27" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="28">
+      <c r="G27" s="29">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="29">
         <v>0.25</v>
       </c>
-      <c r="I27" s="28" t="b">
+      <c r="I27" s="29" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="29">
         <v>24</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="29">
         <v>40</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="39">
         <v>0.0003</v>
       </c>
-      <c r="N27" s="28" t="s">
+      <c r="N27" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="39">
         <v>0.0005</v>
       </c>
-      <c r="P27" s="37"/>
-      <c r="Q27" s="37"/>
-      <c r="R27" s="28" t="s">
+      <c r="P27" s="39"/>
+      <c r="Q27" s="39"/>
+      <c r="R27" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S27" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="T27" s="28">
-        <v>0</v>
-      </c>
-      <c r="U27" s="28" t="s">
+      <c r="T27" s="29">
+        <v>0</v>
+      </c>
+      <c r="U27" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="28">
+      <c r="V27" s="29">
         <v>0.9861</v>
       </c>
-      <c r="W27" s="50">
+      <c r="W27" s="52">
         <v>0.974</v>
       </c>
-      <c r="X27" s="28" t="s">
+      <c r="X27" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="43" t="s">
+      <c r="Y27" s="45" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="43"/>
+      <c r="Z27" s="45"/>
     </row>
     <row r="28" spans="1:26">
       <c r="A28" s="20" t="s">
@@ -6434,19 +3443,19 @@
       <c r="L28" s="22">
         <v>40</v>
       </c>
-      <c r="M28" s="36">
+      <c r="M28" s="38">
         <v>0.0003</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="36">
+      <c r="O28" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P28" s="38" t="b">
+      <c r="P28" s="40" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="36"/>
+      <c r="Q28" s="38"/>
       <c r="R28" s="22" t="s">
         <v>50</v>
       </c>
@@ -6462,16 +3471,16 @@
       <c r="V28" s="22">
         <v>0.9861</v>
       </c>
-      <c r="W28" s="48">
+      <c r="W28" s="50">
         <v>0.976</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="43" t="s">
+      <c r="Y28" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" s="43" t="s">
+      <c r="Z28" s="45" t="s">
         <v>74</v>
       </c>
     </row>
@@ -6500,7 +3509,7 @@
       <c r="H29" s="22">
         <v>0.25</v>
       </c>
-      <c r="I29" s="23" t="b">
+      <c r="I29" s="22" t="b">
         <v>1</v>
       </c>
       <c r="J29" s="22" t="s">
@@ -6509,20 +3518,20 @@
       <c r="K29" s="22">
         <v>24</v>
       </c>
-      <c r="L29" s="22">
+      <c r="L29" s="32">
         <v>30</v>
       </c>
-      <c r="M29" s="36">
+      <c r="M29" s="38">
         <v>0.0003</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="36">
+      <c r="O29" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P29" s="36"/>
-      <c r="Q29" s="36"/>
+      <c r="P29" s="38"/>
+      <c r="Q29" s="38"/>
       <c r="R29" s="22" t="s">
         <v>50</v>
       </c>
@@ -6538,16 +3547,16 @@
       <c r="V29" s="22">
         <v>0.9875</v>
       </c>
-      <c r="W29" s="48">
+      <c r="W29" s="50">
         <v>0.976</v>
       </c>
       <c r="X29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="43" t="s">
+      <c r="Y29" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="Z29" s="43"/>
+      <c r="Z29" s="45"/>
     </row>
     <row r="30" ht="15.75" spans="1:26">
       <c r="A30" s="9" t="s">
@@ -6586,19 +3595,19 @@
       <c r="L30" s="9">
         <v>45</v>
       </c>
-      <c r="M30" s="31">
+      <c r="M30" s="33">
         <v>0.0003</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="31">
+      <c r="O30" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P30" s="31" t="b">
+      <c r="P30" s="33" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="31"/>
+      <c r="Q30" s="33"/>
       <c r="R30" s="10" t="s">
         <v>50</v>
       </c>
@@ -6614,16 +3623,92 @@
       <c r="V30" s="10">
         <v>0.9907</v>
       </c>
-      <c r="W30" s="49">
+      <c r="W30" s="51">
         <v>0.974</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Y30" s="43" t="s">
+      <c r="Y30" s="45" t="s">
         <v>78</v>
       </c>
-      <c r="Z30" s="43"/>
+      <c r="Z30" s="45"/>
+    </row>
+    <row r="31" ht="15.75" spans="1:26">
+      <c r="A31" s="27" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="27">
+        <v>0</v>
+      </c>
+      <c r="C31" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="D31" s="27">
+        <v>416</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.2</v>
+      </c>
+      <c r="G31" s="27">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="27">
+        <v>0.25</v>
+      </c>
+      <c r="I31" s="27" t="b">
+        <v>1</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="K31" s="9">
+        <v>22</v>
+      </c>
+      <c r="L31" s="27">
+        <v>30</v>
+      </c>
+      <c r="M31" s="33">
+        <v>0.0003</v>
+      </c>
+      <c r="N31" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O31" s="33">
+        <v>0.0005</v>
+      </c>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S31" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="T31" s="10">
+        <v>0</v>
+      </c>
+      <c r="U31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="V31" s="27">
+        <v>0.9822</v>
+      </c>
+      <c r="W31" s="27">
+        <v>0.969</v>
+      </c>
+      <c r="X31" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y31" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z31" s="27" t="s">
+        <v>82</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -6657,32 +3742,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
   <si>
     <t>Model</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>观察曲线，加大batch_size、epoch</t>
+  </si>
+  <si>
+    <t>log-2019-12-17T18-24-58</t>
+  </si>
+  <si>
+    <t>重新训练带来微小提升</t>
   </si>
   <si>
     <t>Apple</t>
@@ -1722,7 +1728,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z31"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C32" sqref="C32"/>
@@ -3710,6 +3716,80 @@
         <v>82</v>
       </c>
     </row>
+    <row r="32" customFormat="1" ht="15.75" spans="1:26">
+      <c r="A32" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="21">
+        <v>0</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D32" s="21">
+        <v>416</v>
+      </c>
+      <c r="E32" s="21">
+        <v>0</v>
+      </c>
+      <c r="F32" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G32" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="I32" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K32" s="22">
+        <v>24</v>
+      </c>
+      <c r="L32" s="22">
+        <v>30</v>
+      </c>
+      <c r="M32" s="38">
+        <v>0.0003</v>
+      </c>
+      <c r="N32" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O32" s="38">
+        <v>0.0005</v>
+      </c>
+      <c r="P32" s="38"/>
+      <c r="Q32" s="38"/>
+      <c r="R32" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T32" s="22">
+        <v>0</v>
+      </c>
+      <c r="U32" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V32" s="22">
+        <v>0.987</v>
+      </c>
+      <c r="W32" s="50">
+        <v>0.976</v>
+      </c>
+      <c r="X32" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y32" s="45" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z32" s="45"/>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="A1:B1"/>
@@ -3742,32 +3822,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -296,10 +296,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -350,13 +350,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -371,17 +374,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -393,30 +410,29 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,20 +446,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -452,31 +454,22 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -492,7 +485,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -591,19 +591,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -615,13 +699,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -633,55 +711,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,7 +729,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -705,55 +741,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,11 +926,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -958,212 +1023,147 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="15" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,9 +1243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,8 +1727,8 @@
   <sheetPr/>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="U30" sqref="U30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1770,44 +1767,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="41" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1911,17 +1908,17 @@
       <c r="L3" s="9">
         <v>60</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="32">
         <v>0.01</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
       <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1937,7 @@
       <c r="W3" s="9">
         <v>0.954</v>
       </c>
-      <c r="X3" s="45"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:24">
       <c r="A4" s="9" t="s">
@@ -1977,17 +1974,17 @@
       <c r="L4" s="9">
         <v>60</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <v>0.01</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
       <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2006,7 +2003,7 @@
       <c r="W4" s="9">
         <v>0.946</v>
       </c>
-      <c r="X4" s="45"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:24">
       <c r="A5" s="9" t="s">
@@ -2043,17 +2040,17 @@
       <c r="L5" s="9">
         <v>60</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>0.01</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="9" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2069,7 @@
       <c r="W5" s="9">
         <v>0.949</v>
       </c>
-      <c r="X5" s="45"/>
+      <c r="X5" s="44"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:24">
       <c r="A6" s="9" t="s">
@@ -2109,17 +2106,17 @@
       <c r="L6" s="9">
         <v>60</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <v>0.01</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="9" t="s">
         <v>35</v>
       </c>
@@ -2138,7 +2135,7 @@
       <c r="W6" s="9">
         <v>0.952</v>
       </c>
-      <c r="X6" s="45"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:24">
       <c r="A7" s="9" t="s">
@@ -2175,17 +2172,17 @@
       <c r="L7" s="9">
         <v>60</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <v>0.01</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2204,7 +2201,7 @@
       <c r="W7" s="9">
         <v>0.958</v>
       </c>
-      <c r="X7" s="45"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:24">
       <c r="A8" s="9" t="s">
@@ -2241,17 +2238,17 @@
       <c r="L8" s="9">
         <v>60</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>0.01</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="9" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2267,7 @@
       <c r="W8" s="9">
         <v>0.959</v>
       </c>
-      <c r="X8" s="45"/>
+      <c r="X8" s="44"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:24">
       <c r="A9" s="9" t="s">
@@ -2307,17 +2304,17 @@
       <c r="L9" s="9">
         <v>60</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>0.01</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2336,7 +2333,7 @@
       <c r="W9" s="9">
         <v>0.961</v>
       </c>
-      <c r="X9" s="45"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:24">
       <c r="A10" s="9" t="s">
@@ -2373,17 +2370,17 @@
       <c r="L10" s="9">
         <v>50</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>0.01</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2399,7 @@
       <c r="W10" s="9">
         <v>0.964</v>
       </c>
-      <c r="X10" s="45"/>
+      <c r="X10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1"/>
     <row r="12" ht="18" customHeight="1" spans="1:24">
@@ -2440,17 +2437,17 @@
       <c r="L12" s="9">
         <v>50</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>0.002</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2469,9 +2466,9 @@
       <c r="W12" s="10">
         <v>0.964</v>
       </c>
-      <c r="X12" s="45"/>
+      <c r="X12" s="44"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" ht="15.75" spans="1:24">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -2506,17 +2503,17 @@
       <c r="L13" s="9">
         <v>60</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <v>0.001</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="10" t="s">
         <v>35</v>
       </c>
@@ -2535,7 +2532,7 @@
       <c r="W13" s="10">
         <v>0.955</v>
       </c>
-      <c r="X13" s="45"/>
+      <c r="X13" s="44"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:24">
       <c r="A14" s="9" t="s">
@@ -2572,17 +2569,17 @@
       <c r="L14" s="9">
         <v>30</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="32" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="10" t="s">
         <v>50</v>
       </c>
@@ -2601,7 +2598,7 @@
       <c r="W14" s="21">
         <v>0.971</v>
       </c>
-      <c r="X14" s="45"/>
+      <c r="X14" s="44"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:23">
       <c r="A15" s="11" t="s">
@@ -2665,17 +2662,17 @@
       <c r="L16" s="12">
         <v>30</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="33" t="s">
         <v>49</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="13" t="s">
         <v>50</v>
       </c>
@@ -2691,10 +2688,10 @@
       <c r="V16" s="13">
         <v>0.9837</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16" s="45">
         <v>0.974</v>
       </c>
-      <c r="X16" s="45"/>
+      <c r="X16" s="44"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.75" spans="1:26">
       <c r="A17" s="12" t="s">
@@ -2731,17 +2728,17 @@
       <c r="L17" s="12">
         <v>60</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>0.0003</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
       <c r="R17" s="13" t="s">
         <v>50</v>
       </c>
@@ -2760,9 +2757,9 @@
       <c r="W17" s="13">
         <v>0.955</v>
       </c>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
     </row>
     <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:26">
       <c r="A18" s="14"/>
@@ -2774,18 +2771,18 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="35"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="31"/>
+      <c r="S18" s="30"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="31"/>
+      <c r="U18" s="30"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -2820,9 +2817,9 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="56"/>
+      <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" ht="15.75" spans="1:26">
       <c r="A20" s="18" t="s">
         <v>39</v>
       </c>
@@ -2859,17 +2856,17 @@
       <c r="L20" s="18">
         <v>50</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>0.0003</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="35">
         <v>0.0005</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
       <c r="R20" s="19" t="s">
         <v>50</v>
       </c>
@@ -2885,18 +2882,18 @@
       <c r="V20" s="19">
         <v>0.9837</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="47">
         <v>0.972</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="57" t="s">
+      <c r="Y20" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="45"/>
+      <c r="Z20" s="44"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" ht="15.75" spans="1:26">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -2933,17 +2930,17 @@
       <c r="L21" s="9">
         <v>50</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <v>0.0001</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="10" t="s">
         <v>50</v>
       </c>
@@ -2959,16 +2956,16 @@
       <c r="V21" s="10">
         <v>0.9846</v>
       </c>
-      <c r="W21" s="49">
+      <c r="W21" s="48">
         <v>0.973</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" ht="15.75" spans="1:26">
       <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
@@ -3005,17 +3002,17 @@
       <c r="L22" s="22">
         <v>40</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <v>0.0003</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="22" t="s">
         <v>50</v>
       </c>
@@ -3031,20 +3028,20 @@
       <c r="V22" s="22">
         <v>0.9846</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="49">
         <v>0.974</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="45" t="s">
+      <c r="Y22" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="45" t="s">
+      <c r="Z22" s="44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" ht="15.75" spans="1:26">
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3081,17 +3078,17 @@
       <c r="L23" s="9">
         <v>45</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <v>0.0001</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
       <c r="R23" s="10" t="s">
         <v>50</v>
       </c>
@@ -3107,16 +3104,16 @@
       <c r="V23" s="10">
         <v>0.9861</v>
       </c>
-      <c r="W23" s="51">
+      <c r="W23" s="50">
         <v>0.971</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" ht="15.75" spans="1:26">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3153,17 +3150,17 @@
       <c r="L24" s="9">
         <v>40</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>0.0003</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="10" t="s">
         <v>50</v>
       </c>
@@ -3179,16 +3176,16 @@
       <c r="V24" s="10">
         <v>0.9856</v>
       </c>
-      <c r="W24" s="51">
+      <c r="W24" s="50">
         <v>0.97</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="45" t="s">
+      <c r="Y24" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Z24" s="45"/>
+      <c r="Z24" s="44"/>
     </row>
     <row r="25" s="4" customFormat="1" ht="15.75" spans="1:26">
       <c r="A25" s="22" t="s">
@@ -3227,17 +3224,17 @@
       <c r="L25" s="22">
         <v>40</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="37">
         <v>0.0003</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
       <c r="R25" s="22" t="s">
         <v>50</v>
       </c>
@@ -3253,18 +3250,18 @@
       <c r="V25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="50">
+      <c r="W25" s="49">
         <v>0.976</v>
       </c>
       <c r="X25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="58" t="s">
+      <c r="Y25" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="58"/>
+      <c r="Z25" s="57"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" ht="15.75" spans="1:26">
       <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
@@ -3301,17 +3298,17 @@
       <c r="L26" s="22">
         <v>40</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="37">
         <v>0.0003</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
       <c r="R26" s="22" t="s">
         <v>50</v>
       </c>
@@ -3327,18 +3324,18 @@
       <c r="V26" s="22">
         <v>0.9918</v>
       </c>
-      <c r="W26" s="50">
+      <c r="W26" s="49">
         <v>0.976</v>
       </c>
       <c r="X26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="45" t="s">
+      <c r="Y26" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="45"/>
+      <c r="Z26" s="44"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" ht="15.75" spans="1:26">
       <c r="A27" s="25" t="s">
         <v>69</v>
       </c>
@@ -3357,62 +3354,62 @@
       <c r="F27" s="26">
         <v>0.2</v>
       </c>
-      <c r="G27" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="29">
+      <c r="G27" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="28">
         <v>0.25</v>
       </c>
-      <c r="I27" s="29" t="b">
+      <c r="I27" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="28">
         <v>24</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="28">
         <v>40</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="38">
         <v>0.0003</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="29" t="s">
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T27" s="29">
-        <v>0</v>
-      </c>
-      <c r="U27" s="29" t="s">
+      <c r="T27" s="28">
+        <v>0</v>
+      </c>
+      <c r="U27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="28">
         <v>0.9861</v>
       </c>
-      <c r="W27" s="52">
+      <c r="W27" s="51">
         <v>0.974</v>
       </c>
-      <c r="X27" s="29" t="s">
+      <c r="X27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="45" t="s">
+      <c r="Y27" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="45"/>
+      <c r="Z27" s="44"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" ht="15.75" spans="1:26">
       <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
@@ -3449,19 +3446,19 @@
       <c r="L28" s="22">
         <v>40</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="37">
         <v>0.0003</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P28" s="40" t="b">
+      <c r="P28" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="38"/>
+      <c r="Q28" s="37"/>
       <c r="R28" s="22" t="s">
         <v>50</v>
       </c>
@@ -3477,16 +3474,16 @@
       <c r="V28" s="22">
         <v>0.9861</v>
       </c>
-      <c r="W28" s="50">
+      <c r="W28" s="49">
         <v>0.976</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="45" t="s">
+      <c r="Y28" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" s="45" t="s">
+      <c r="Z28" s="44" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3524,20 +3521,20 @@
       <c r="K29" s="22">
         <v>24</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="31">
         <v>30</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="37">
         <v>0.0003</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
       <c r="R29" s="22" t="s">
         <v>50</v>
       </c>
@@ -3553,16 +3550,16 @@
       <c r="V29" s="22">
         <v>0.9875</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="49">
         <v>0.976</v>
       </c>
       <c r="X29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="45" t="s">
+      <c r="Y29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="Z29" s="45"/>
+      <c r="Z29" s="44"/>
     </row>
     <row r="30" ht="15.75" spans="1:26">
       <c r="A30" s="9" t="s">
@@ -3601,19 +3598,19 @@
       <c r="L30" s="9">
         <v>45</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="32">
         <v>0.0003</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P30" s="33" t="b">
+      <c r="P30" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="32"/>
       <c r="R30" s="10" t="s">
         <v>50</v>
       </c>
@@ -3629,43 +3626,43 @@
       <c r="V30" s="10">
         <v>0.9907</v>
       </c>
-      <c r="W30" s="51">
+      <c r="W30" s="50">
         <v>0.974</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Y30" s="45" t="s">
+      <c r="Y30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Z30" s="45"/>
+      <c r="Z30" s="44"/>
     </row>
     <row r="31" ht="15.75" spans="1:26">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="27">
-        <v>0</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="10">
         <v>416</v>
       </c>
-      <c r="E31" s="27">
-        <v>0</v>
-      </c>
-      <c r="F31" s="27">
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
         <v>0.2</v>
       </c>
-      <c r="G31" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="G31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="10">
         <v>0.25</v>
       </c>
-      <c r="I31" s="27" t="b">
+      <c r="I31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -3674,20 +3671,20 @@
       <c r="K31" s="9">
         <v>22</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="10">
         <v>30</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="32">
         <v>0.0003</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="10" t="s">
         <v>50</v>
       </c>
@@ -3700,19 +3697,19 @@
       <c r="U31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="27">
+      <c r="V31" s="10">
         <v>0.9822</v>
       </c>
-      <c r="W31" s="27">
+      <c r="W31" s="10">
         <v>0.969</v>
       </c>
-      <c r="X31" s="27" t="s">
+      <c r="X31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Y31" s="27" t="s">
+      <c r="Y31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Z31" s="27" t="s">
+      <c r="Z31" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3753,17 +3750,17 @@
       <c r="L32" s="22">
         <v>30</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="37">
         <v>0.0003</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="22" t="s">
         <v>50</v>
       </c>
@@ -3779,16 +3776,16 @@
       <c r="V32" s="22">
         <v>0.987</v>
       </c>
-      <c r="W32" s="50">
-        <v>0.976</v>
+      <c r="W32" s="49">
+        <v>0.977</v>
       </c>
       <c r="X32" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="Y32" s="45" t="s">
+      <c r="Y32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="45"/>
+      <c r="Z32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -296,9 +296,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
@@ -342,23 +342,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -371,7 +371,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -386,22 +386,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -415,8 +401,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,13 +431,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -461,7 +448,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -469,14 +471,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,13 +484,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="44">
     <fill>
@@ -585,13 +585,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,157 +753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -944,6 +944,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -959,17 +974,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1000,26 +1009,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,142 +1028,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="38" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1243,9 +1243,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1730,8 +1727,8 @@
   <sheetPr/>
   <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M8" workbookViewId="0">
+      <selection activeCell="W33" sqref="W33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1770,44 +1767,44 @@
         <v>1</v>
       </c>
       <c r="D1" s="7"/>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="30" t="s">
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="41" t="s">
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="29"/>
+      <c r="P1" s="29"/>
+      <c r="Q1" s="29"/>
+      <c r="R1" s="29"/>
+      <c r="S1" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="41"/>
-      <c r="U1" s="42" t="s">
+      <c r="T1" s="40"/>
+      <c r="U1" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="41" t="s">
+      <c r="V1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="43" t="s">
+      <c r="W1" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="44" t="s">
+      <c r="X1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="52" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="53" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1911,17 +1908,17 @@
       <c r="L3" s="9">
         <v>60</v>
       </c>
-      <c r="M3" s="33">
+      <c r="M3" s="32">
         <v>0.01</v>
       </c>
       <c r="N3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="33">
+      <c r="O3" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
       <c r="R3" s="9" t="s">
         <v>35</v>
       </c>
@@ -1940,7 +1937,7 @@
       <c r="W3" s="9">
         <v>0.954</v>
       </c>
-      <c r="X3" s="45"/>
+      <c r="X3" s="44"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:24">
       <c r="A4" s="9" t="s">
@@ -1977,17 +1974,17 @@
       <c r="L4" s="9">
         <v>60</v>
       </c>
-      <c r="M4" s="33">
+      <c r="M4" s="32">
         <v>0.01</v>
       </c>
       <c r="N4" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="33">
+      <c r="O4" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P4" s="33"/>
-      <c r="Q4" s="33"/>
+      <c r="P4" s="32"/>
+      <c r="Q4" s="32"/>
       <c r="R4" s="9" t="s">
         <v>35</v>
       </c>
@@ -2006,7 +2003,7 @@
       <c r="W4" s="9">
         <v>0.946</v>
       </c>
-      <c r="X4" s="45"/>
+      <c r="X4" s="44"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:24">
       <c r="A5" s="9" t="s">
@@ -2043,17 +2040,17 @@
       <c r="L5" s="9">
         <v>60</v>
       </c>
-      <c r="M5" s="33">
+      <c r="M5" s="32">
         <v>0.01</v>
       </c>
       <c r="N5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="33">
+      <c r="O5" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P5" s="33"/>
-      <c r="Q5" s="33"/>
+      <c r="P5" s="32"/>
+      <c r="Q5" s="32"/>
       <c r="R5" s="9" t="s">
         <v>35</v>
       </c>
@@ -2072,7 +2069,7 @@
       <c r="W5" s="9">
         <v>0.949</v>
       </c>
-      <c r="X5" s="45"/>
+      <c r="X5" s="44"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:24">
       <c r="A6" s="9" t="s">
@@ -2109,17 +2106,17 @@
       <c r="L6" s="9">
         <v>60</v>
       </c>
-      <c r="M6" s="33">
+      <c r="M6" s="32">
         <v>0.01</v>
       </c>
       <c r="N6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="33">
+      <c r="O6" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
       <c r="R6" s="9" t="s">
         <v>35</v>
       </c>
@@ -2138,7 +2135,7 @@
       <c r="W6" s="9">
         <v>0.952</v>
       </c>
-      <c r="X6" s="45"/>
+      <c r="X6" s="44"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:24">
       <c r="A7" s="9" t="s">
@@ -2175,17 +2172,17 @@
       <c r="L7" s="9">
         <v>60</v>
       </c>
-      <c r="M7" s="33">
+      <c r="M7" s="32">
         <v>0.01</v>
       </c>
       <c r="N7" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="33">
+      <c r="O7" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
       <c r="R7" s="9" t="s">
         <v>35</v>
       </c>
@@ -2204,7 +2201,7 @@
       <c r="W7" s="9">
         <v>0.958</v>
       </c>
-      <c r="X7" s="45"/>
+      <c r="X7" s="44"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:24">
       <c r="A8" s="9" t="s">
@@ -2241,17 +2238,17 @@
       <c r="L8" s="9">
         <v>60</v>
       </c>
-      <c r="M8" s="33">
+      <c r="M8" s="32">
         <v>0.01</v>
       </c>
       <c r="N8" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="33">
+      <c r="O8" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
       <c r="R8" s="9" t="s">
         <v>35</v>
       </c>
@@ -2270,7 +2267,7 @@
       <c r="W8" s="9">
         <v>0.959</v>
       </c>
-      <c r="X8" s="45"/>
+      <c r="X8" s="44"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:24">
       <c r="A9" s="9" t="s">
@@ -2307,17 +2304,17 @@
       <c r="L9" s="9">
         <v>60</v>
       </c>
-      <c r="M9" s="33">
+      <c r="M9" s="32">
         <v>0.01</v>
       </c>
       <c r="N9" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="33">
+      <c r="O9" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
       <c r="R9" s="9" t="s">
         <v>35</v>
       </c>
@@ -2336,7 +2333,7 @@
       <c r="W9" s="9">
         <v>0.961</v>
       </c>
-      <c r="X9" s="45"/>
+      <c r="X9" s="44"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:24">
       <c r="A10" s="9" t="s">
@@ -2373,17 +2370,17 @@
       <c r="L10" s="9">
         <v>50</v>
       </c>
-      <c r="M10" s="33">
+      <c r="M10" s="32">
         <v>0.01</v>
       </c>
       <c r="N10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="33">
+      <c r="O10" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P10" s="33"/>
-      <c r="Q10" s="33"/>
+      <c r="P10" s="32"/>
+      <c r="Q10" s="32"/>
       <c r="R10" s="9" t="s">
         <v>35</v>
       </c>
@@ -2402,7 +2399,7 @@
       <c r="W10" s="9">
         <v>0.964</v>
       </c>
-      <c r="X10" s="45"/>
+      <c r="X10" s="44"/>
     </row>
     <row r="11" ht="19.5" customHeight="1"/>
     <row r="12" ht="18" customHeight="1" spans="1:24">
@@ -2440,17 +2437,17 @@
       <c r="L12" s="9">
         <v>50</v>
       </c>
-      <c r="M12" s="33">
+      <c r="M12" s="32">
         <v>0.002</v>
       </c>
       <c r="N12" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="33">
+      <c r="O12" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P12" s="33"/>
-      <c r="Q12" s="33"/>
+      <c r="P12" s="32"/>
+      <c r="Q12" s="32"/>
       <c r="R12" s="10" t="s">
         <v>35</v>
       </c>
@@ -2469,9 +2466,9 @@
       <c r="W12" s="10">
         <v>0.964</v>
       </c>
-      <c r="X12" s="45"/>
+      <c r="X12" s="44"/>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" ht="15.75" spans="1:24">
       <c r="A13" s="9" t="s">
         <v>39</v>
       </c>
@@ -2506,17 +2503,17 @@
       <c r="L13" s="9">
         <v>60</v>
       </c>
-      <c r="M13" s="33">
+      <c r="M13" s="32">
         <v>0.001</v>
       </c>
       <c r="N13" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="33">
+      <c r="O13" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P13" s="33"/>
-      <c r="Q13" s="33"/>
+      <c r="P13" s="32"/>
+      <c r="Q13" s="32"/>
       <c r="R13" s="10" t="s">
         <v>35</v>
       </c>
@@ -2535,7 +2532,7 @@
       <c r="W13" s="10">
         <v>0.955</v>
       </c>
-      <c r="X13" s="45"/>
+      <c r="X13" s="44"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:24">
       <c r="A14" s="9" t="s">
@@ -2572,17 +2569,17 @@
       <c r="L14" s="9">
         <v>30</v>
       </c>
-      <c r="M14" s="33" t="s">
+      <c r="M14" s="32" t="s">
         <v>49</v>
       </c>
       <c r="N14" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="33">
+      <c r="O14" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
+      <c r="P14" s="32"/>
+      <c r="Q14" s="32"/>
       <c r="R14" s="10" t="s">
         <v>50</v>
       </c>
@@ -2601,7 +2598,7 @@
       <c r="W14" s="21">
         <v>0.971</v>
       </c>
-      <c r="X14" s="45"/>
+      <c r="X14" s="44"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:23">
       <c r="A15" s="11" t="s">
@@ -2665,17 +2662,17 @@
       <c r="L16" s="12">
         <v>30</v>
       </c>
-      <c r="M16" s="34" t="s">
+      <c r="M16" s="33" t="s">
         <v>49</v>
       </c>
       <c r="N16" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="34">
+      <c r="O16" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
       <c r="R16" s="13" t="s">
         <v>50</v>
       </c>
@@ -2691,10 +2688,10 @@
       <c r="V16" s="13">
         <v>0.9837</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16" s="45">
         <v>0.974</v>
       </c>
-      <c r="X16" s="45"/>
+      <c r="X16" s="44"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.75" spans="1:26">
       <c r="A17" s="12" t="s">
@@ -2731,17 +2728,17 @@
       <c r="L17" s="12">
         <v>60</v>
       </c>
-      <c r="M17" s="34">
+      <c r="M17" s="33">
         <v>0.0003</v>
       </c>
       <c r="N17" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="34">
+      <c r="O17" s="33">
         <v>0.0005</v>
       </c>
-      <c r="P17" s="34"/>
-      <c r="Q17" s="34"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
       <c r="R17" s="13" t="s">
         <v>50</v>
       </c>
@@ -2760,9 +2757,9 @@
       <c r="W17" s="13">
         <v>0.955</v>
       </c>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
+      <c r="X17" s="46"/>
+      <c r="Y17" s="54"/>
+      <c r="Z17" s="54"/>
     </row>
     <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:26">
       <c r="A18" s="14"/>
@@ -2774,18 +2771,18 @@
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="31"/>
-      <c r="K18" s="31"/>
-      <c r="L18" s="31"/>
-      <c r="M18" s="35"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="30"/>
+      <c r="L18" s="30"/>
+      <c r="M18" s="34"/>
       <c r="N18" s="15"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
       <c r="R18" s="15"/>
-      <c r="S18" s="31"/>
+      <c r="S18" s="30"/>
       <c r="T18" s="15"/>
-      <c r="U18" s="31"/>
+      <c r="U18" s="30"/>
       <c r="V18" s="15"/>
       <c r="W18" s="15"/>
       <c r="X18" s="15"/>
@@ -2820,9 +2817,9 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="56"/>
+      <c r="Z19" s="55"/>
     </row>
-    <row r="20" spans="1:26">
+    <row r="20" ht="15.75" spans="1:26">
       <c r="A20" s="18" t="s">
         <v>39</v>
       </c>
@@ -2859,17 +2856,17 @@
       <c r="L20" s="18">
         <v>50</v>
       </c>
-      <c r="M20" s="36">
+      <c r="M20" s="35">
         <v>0.0003</v>
       </c>
       <c r="N20" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="36">
+      <c r="O20" s="35">
         <v>0.0005</v>
       </c>
-      <c r="P20" s="36"/>
-      <c r="Q20" s="36"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
       <c r="R20" s="19" t="s">
         <v>50</v>
       </c>
@@ -2885,18 +2882,18 @@
       <c r="V20" s="19">
         <v>0.9837</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="47">
         <v>0.972</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="57" t="s">
+      <c r="Y20" s="56" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="45"/>
+      <c r="Z20" s="44"/>
     </row>
-    <row r="21" spans="1:26">
+    <row r="21" ht="15.75" spans="1:26">
       <c r="A21" s="9" t="s">
         <v>39</v>
       </c>
@@ -2933,17 +2930,17 @@
       <c r="L21" s="9">
         <v>50</v>
       </c>
-      <c r="M21" s="37">
+      <c r="M21" s="36">
         <v>0.0001</v>
       </c>
       <c r="N21" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="33">
+      <c r="O21" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P21" s="33"/>
-      <c r="Q21" s="33"/>
+      <c r="P21" s="32"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="10" t="s">
         <v>50</v>
       </c>
@@ -2959,16 +2956,16 @@
       <c r="V21" s="10">
         <v>0.9846</v>
       </c>
-      <c r="W21" s="49">
+      <c r="W21" s="48">
         <v>0.973</v>
       </c>
       <c r="X21" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="Y21" s="45"/>
-      <c r="Z21" s="45"/>
+      <c r="Y21" s="44"/>
+      <c r="Z21" s="44"/>
     </row>
-    <row r="22" spans="1:26">
+    <row r="22" ht="15.75" spans="1:26">
       <c r="A22" s="20" t="s">
         <v>39</v>
       </c>
@@ -3005,17 +3002,17 @@
       <c r="L22" s="22">
         <v>40</v>
       </c>
-      <c r="M22" s="38">
+      <c r="M22" s="37">
         <v>0.0003</v>
       </c>
       <c r="N22" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="38">
+      <c r="O22" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="38"/>
+      <c r="P22" s="37"/>
+      <c r="Q22" s="37"/>
       <c r="R22" s="22" t="s">
         <v>50</v>
       </c>
@@ -3031,20 +3028,20 @@
       <c r="V22" s="22">
         <v>0.9846</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="49">
         <v>0.974</v>
       </c>
       <c r="X22" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="45" t="s">
+      <c r="Y22" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="45" t="s">
+      <c r="Z22" s="44" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:26">
+    <row r="23" ht="15.75" spans="1:26">
       <c r="A23" s="9" t="s">
         <v>39</v>
       </c>
@@ -3081,17 +3078,17 @@
       <c r="L23" s="9">
         <v>45</v>
       </c>
-      <c r="M23" s="33">
+      <c r="M23" s="32">
         <v>0.0001</v>
       </c>
       <c r="N23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="33">
+      <c r="O23" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P23" s="33"/>
-      <c r="Q23" s="33"/>
+      <c r="P23" s="32"/>
+      <c r="Q23" s="32"/>
       <c r="R23" s="10" t="s">
         <v>50</v>
       </c>
@@ -3107,16 +3104,16 @@
       <c r="V23" s="10">
         <v>0.9861</v>
       </c>
-      <c r="W23" s="51">
+      <c r="W23" s="50">
         <v>0.971</v>
       </c>
       <c r="X23" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="45"/>
-      <c r="Z23" s="45"/>
+      <c r="Y23" s="44"/>
+      <c r="Z23" s="44"/>
     </row>
-    <row r="24" spans="1:26">
+    <row r="24" ht="15.75" spans="1:26">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
@@ -3153,17 +3150,17 @@
       <c r="L24" s="9">
         <v>40</v>
       </c>
-      <c r="M24" s="33">
+      <c r="M24" s="32">
         <v>0.0003</v>
       </c>
       <c r="N24" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="33">
+      <c r="O24" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P24" s="33"/>
-      <c r="Q24" s="33"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="32"/>
       <c r="R24" s="10" t="s">
         <v>50</v>
       </c>
@@ -3179,16 +3176,16 @@
       <c r="V24" s="10">
         <v>0.9856</v>
       </c>
-      <c r="W24" s="51">
+      <c r="W24" s="50">
         <v>0.97</v>
       </c>
       <c r="X24" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="45" t="s">
+      <c r="Y24" s="44" t="s">
         <v>63</v>
       </c>
-      <c r="Z24" s="45"/>
+      <c r="Z24" s="44"/>
     </row>
     <row r="25" s="4" customFormat="1" ht="15.75" spans="1:26">
       <c r="A25" s="22" t="s">
@@ -3227,17 +3224,17 @@
       <c r="L25" s="22">
         <v>40</v>
       </c>
-      <c r="M25" s="38">
+      <c r="M25" s="37">
         <v>0.0003</v>
       </c>
       <c r="N25" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="38">
+      <c r="O25" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
+      <c r="P25" s="37"/>
+      <c r="Q25" s="37"/>
       <c r="R25" s="22" t="s">
         <v>50</v>
       </c>
@@ -3253,18 +3250,18 @@
       <c r="V25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="50">
+      <c r="W25" s="49">
         <v>0.976</v>
       </c>
       <c r="X25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="58" t="s">
+      <c r="Y25" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="58"/>
+      <c r="Z25" s="57"/>
     </row>
-    <row r="26" spans="1:26">
+    <row r="26" ht="15.75" spans="1:26">
       <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
@@ -3301,17 +3298,17 @@
       <c r="L26" s="22">
         <v>40</v>
       </c>
-      <c r="M26" s="38">
+      <c r="M26" s="37">
         <v>0.0003</v>
       </c>
       <c r="N26" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="38">
+      <c r="O26" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P26" s="38"/>
-      <c r="Q26" s="38"/>
+      <c r="P26" s="37"/>
+      <c r="Q26" s="37"/>
       <c r="R26" s="22" t="s">
         <v>50</v>
       </c>
@@ -3327,18 +3324,18 @@
       <c r="V26" s="22">
         <v>0.9918</v>
       </c>
-      <c r="W26" s="50">
+      <c r="W26" s="49">
         <v>0.976</v>
       </c>
       <c r="X26" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="45" t="s">
+      <c r="Y26" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="45"/>
+      <c r="Z26" s="44"/>
     </row>
-    <row r="27" spans="1:26">
+    <row r="27" ht="15.75" spans="1:26">
       <c r="A27" s="25" t="s">
         <v>69</v>
       </c>
@@ -3357,62 +3354,62 @@
       <c r="F27" s="26">
         <v>0.2</v>
       </c>
-      <c r="G27" s="29">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="29">
+      <c r="G27" s="28">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="28">
         <v>0.25</v>
       </c>
-      <c r="I27" s="29" t="b">
+      <c r="I27" s="28" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="29" t="s">
+      <c r="J27" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="29">
+      <c r="K27" s="28">
         <v>24</v>
       </c>
-      <c r="L27" s="29">
+      <c r="L27" s="28">
         <v>40</v>
       </c>
-      <c r="M27" s="39">
+      <c r="M27" s="38">
         <v>0.0003</v>
       </c>
-      <c r="N27" s="29" t="s">
+      <c r="N27" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="39">
+      <c r="O27" s="38">
         <v>0.0005</v>
       </c>
-      <c r="P27" s="39"/>
-      <c r="Q27" s="39"/>
-      <c r="R27" s="29" t="s">
+      <c r="P27" s="38"/>
+      <c r="Q27" s="38"/>
+      <c r="R27" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="29" t="s">
+      <c r="S27" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="T27" s="29">
-        <v>0</v>
-      </c>
-      <c r="U27" s="29" t="s">
+      <c r="T27" s="28">
+        <v>0</v>
+      </c>
+      <c r="U27" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="29">
+      <c r="V27" s="28">
         <v>0.9861</v>
       </c>
-      <c r="W27" s="52">
+      <c r="W27" s="51">
         <v>0.974</v>
       </c>
-      <c r="X27" s="29" t="s">
+      <c r="X27" s="28" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="45" t="s">
+      <c r="Y27" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="45"/>
+      <c r="Z27" s="44"/>
     </row>
-    <row r="28" spans="1:26">
+    <row r="28" ht="15.75" spans="1:26">
       <c r="A28" s="20" t="s">
         <v>39</v>
       </c>
@@ -3449,19 +3446,19 @@
       <c r="L28" s="22">
         <v>40</v>
       </c>
-      <c r="M28" s="38">
+      <c r="M28" s="37">
         <v>0.0003</v>
       </c>
       <c r="N28" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="38">
+      <c r="O28" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P28" s="40" t="b">
+      <c r="P28" s="39" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="38"/>
+      <c r="Q28" s="37"/>
       <c r="R28" s="22" t="s">
         <v>50</v>
       </c>
@@ -3477,16 +3474,16 @@
       <c r="V28" s="22">
         <v>0.9861</v>
       </c>
-      <c r="W28" s="50">
+      <c r="W28" s="49">
         <v>0.976</v>
       </c>
       <c r="X28" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="45" t="s">
+      <c r="Y28" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" s="45" t="s">
+      <c r="Z28" s="44" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3524,20 +3521,20 @@
       <c r="K29" s="22">
         <v>24</v>
       </c>
-      <c r="L29" s="32">
+      <c r="L29" s="31">
         <v>30</v>
       </c>
-      <c r="M29" s="38">
+      <c r="M29" s="37">
         <v>0.0003</v>
       </c>
       <c r="N29" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="38">
+      <c r="O29" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P29" s="38"/>
-      <c r="Q29" s="38"/>
+      <c r="P29" s="37"/>
+      <c r="Q29" s="37"/>
       <c r="R29" s="22" t="s">
         <v>50</v>
       </c>
@@ -3553,16 +3550,16 @@
       <c r="V29" s="22">
         <v>0.9875</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="49">
         <v>0.976</v>
       </c>
       <c r="X29" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="45" t="s">
+      <c r="Y29" s="44" t="s">
         <v>76</v>
       </c>
-      <c r="Z29" s="45"/>
+      <c r="Z29" s="44"/>
     </row>
     <row r="30" ht="15.75" spans="1:26">
       <c r="A30" s="9" t="s">
@@ -3601,19 +3598,19 @@
       <c r="L30" s="9">
         <v>45</v>
       </c>
-      <c r="M30" s="33">
+      <c r="M30" s="32">
         <v>0.0003</v>
       </c>
       <c r="N30" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="33">
+      <c r="O30" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P30" s="33" t="b">
+      <c r="P30" s="32" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="33"/>
+      <c r="Q30" s="32"/>
       <c r="R30" s="10" t="s">
         <v>50</v>
       </c>
@@ -3629,43 +3626,43 @@
       <c r="V30" s="10">
         <v>0.9907</v>
       </c>
-      <c r="W30" s="51">
+      <c r="W30" s="50">
         <v>0.974</v>
       </c>
       <c r="X30" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="Y30" s="45" t="s">
+      <c r="Y30" s="44" t="s">
         <v>78</v>
       </c>
-      <c r="Z30" s="45"/>
+      <c r="Z30" s="44"/>
     </row>
     <row r="31" ht="15.75" spans="1:26">
-      <c r="A31" s="27" t="s">
+      <c r="A31" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="27">
-        <v>0</v>
-      </c>
-      <c r="C31" s="27" t="s">
+      <c r="B31" s="10">
+        <v>0</v>
+      </c>
+      <c r="C31" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="10">
         <v>416</v>
       </c>
-      <c r="E31" s="27">
-        <v>0</v>
-      </c>
-      <c r="F31" s="27">
+      <c r="E31" s="10">
+        <v>0</v>
+      </c>
+      <c r="F31" s="10">
         <v>0.2</v>
       </c>
-      <c r="G31" s="27">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="G31" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="10">
         <v>0.25</v>
       </c>
-      <c r="I31" s="27" t="b">
+      <c r="I31" s="10" t="b">
         <v>1</v>
       </c>
       <c r="J31" s="9" t="s">
@@ -3674,20 +3671,20 @@
       <c r="K31" s="9">
         <v>22</v>
       </c>
-      <c r="L31" s="27">
+      <c r="L31" s="10">
         <v>30</v>
       </c>
-      <c r="M31" s="33">
+      <c r="M31" s="32">
         <v>0.0003</v>
       </c>
       <c r="N31" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="33">
+      <c r="O31" s="32">
         <v>0.0005</v>
       </c>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
       <c r="R31" s="10" t="s">
         <v>50</v>
       </c>
@@ -3700,19 +3697,19 @@
       <c r="U31" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="27">
+      <c r="V31" s="10">
         <v>0.9822</v>
       </c>
-      <c r="W31" s="27">
+      <c r="W31" s="10">
         <v>0.969</v>
       </c>
-      <c r="X31" s="27" t="s">
+      <c r="X31" s="10" t="s">
         <v>80</v>
       </c>
-      <c r="Y31" s="27" t="s">
+      <c r="Y31" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="Z31" s="27" t="s">
+      <c r="Z31" s="10" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3753,17 +3750,17 @@
       <c r="L32" s="22">
         <v>30</v>
       </c>
-      <c r="M32" s="38">
+      <c r="M32" s="37">
         <v>0.0003</v>
       </c>
       <c r="N32" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="38">
+      <c r="O32" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P32" s="38"/>
-      <c r="Q32" s="38"/>
+      <c r="P32" s="37"/>
+      <c r="Q32" s="37"/>
       <c r="R32" s="22" t="s">
         <v>50</v>
       </c>
@@ -3779,16 +3776,16 @@
       <c r="V32" s="22">
         <v>0.987</v>
       </c>
-      <c r="W32" s="50">
-        <v>0.976</v>
+      <c r="W32" s="49">
+        <v>0.977</v>
       </c>
       <c r="X32" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="Y32" s="45" t="s">
+      <c r="Y32" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="45"/>
+      <c r="Z32" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
   <si>
     <t>Model</t>
   </si>
@@ -271,6 +271,12 @@
   </si>
   <si>
     <t>重新训练带来微小提升</t>
+  </si>
+  <si>
+    <t>log-2019-12-20T08-42-53</t>
+  </si>
+  <si>
+    <t>去除权重衰减</t>
   </si>
   <si>
     <t>Apple</t>
@@ -296,10 +302,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -342,71 +348,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -418,59 +370,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -494,11 +394,117 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="45">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -573,6 +579,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -585,19 +597,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -609,151 +693,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -926,24 +938,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -955,6 +949,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -977,8 +995,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1009,17 +1027,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1028,142 +1040,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="21" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1299,7 +1311,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1311,7 +1326,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1320,10 +1335,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1725,10 +1740,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z32"/>
+  <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="M8" workbookViewId="0">
-      <selection activeCell="W33" sqref="W33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
@@ -1801,10 +1816,10 @@
       <c r="X1" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="52" t="s">
+      <c r="Y1" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="53" t="s">
+      <c r="Z1" s="54" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2595,7 +2610,7 @@
       <c r="V14" s="10">
         <v>0.9827</v>
       </c>
-      <c r="W14" s="21">
+      <c r="W14" s="45">
         <v>0.971</v>
       </c>
       <c r="X14" s="44"/>
@@ -2688,7 +2703,7 @@
       <c r="V16" s="13">
         <v>0.9837</v>
       </c>
-      <c r="W16" s="45">
+      <c r="W16" s="46">
         <v>0.974</v>
       </c>
       <c r="X16" s="44"/>
@@ -2757,9 +2772,9 @@
       <c r="W17" s="13">
         <v>0.955</v>
       </c>
-      <c r="X17" s="46"/>
-      <c r="Y17" s="54"/>
-      <c r="Z17" s="54"/>
+      <c r="X17" s="47"/>
+      <c r="Y17" s="55"/>
+      <c r="Z17" s="55"/>
     </row>
     <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:26">
       <c r="A18" s="14"/>
@@ -2817,7 +2832,7 @@
       <c r="W19" s="17"/>
       <c r="X19" s="17"/>
       <c r="Y19" s="17"/>
-      <c r="Z19" s="55"/>
+      <c r="Z19" s="56"/>
     </row>
     <row r="20" ht="15.75" spans="1:26">
       <c r="A20" s="18" t="s">
@@ -2882,13 +2897,13 @@
       <c r="V20" s="19">
         <v>0.9837</v>
       </c>
-      <c r="W20" s="47">
+      <c r="W20" s="48">
         <v>0.972</v>
       </c>
       <c r="X20" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="56" t="s">
+      <c r="Y20" s="57" t="s">
         <v>55</v>
       </c>
       <c r="Z20" s="44"/>
@@ -2956,7 +2971,7 @@
       <c r="V21" s="10">
         <v>0.9846</v>
       </c>
-      <c r="W21" s="48">
+      <c r="W21" s="49">
         <v>0.973</v>
       </c>
       <c r="X21" s="10" t="s">
@@ -3028,7 +3043,7 @@
       <c r="V22" s="22">
         <v>0.9846</v>
       </c>
-      <c r="W22" s="49">
+      <c r="W22" s="50">
         <v>0.974</v>
       </c>
       <c r="X22" s="22" t="s">
@@ -3104,7 +3119,7 @@
       <c r="V23" s="10">
         <v>0.9861</v>
       </c>
-      <c r="W23" s="50">
+      <c r="W23" s="51">
         <v>0.971</v>
       </c>
       <c r="X23" s="10" t="s">
@@ -3176,7 +3191,7 @@
       <c r="V24" s="10">
         <v>0.9856</v>
       </c>
-      <c r="W24" s="50">
+      <c r="W24" s="51">
         <v>0.97</v>
       </c>
       <c r="X24" s="10" t="s">
@@ -3250,16 +3265,16 @@
       <c r="V25" s="22" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="49">
+      <c r="W25" s="50">
         <v>0.976</v>
       </c>
       <c r="X25" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="57" t="s">
+      <c r="Y25" s="58" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="57"/>
+      <c r="Z25" s="58"/>
     </row>
     <row r="26" ht="15.75" spans="1:26">
       <c r="A26" s="20" t="s">
@@ -3324,7 +3339,7 @@
       <c r="V26" s="22">
         <v>0.9918</v>
       </c>
-      <c r="W26" s="49">
+      <c r="W26" s="50">
         <v>0.976</v>
       </c>
       <c r="X26" s="22" t="s">
@@ -3398,7 +3413,7 @@
       <c r="V27" s="28">
         <v>0.9861</v>
       </c>
-      <c r="W27" s="51">
+      <c r="W27" s="52">
         <v>0.974</v>
       </c>
       <c r="X27" s="28" t="s">
@@ -3474,7 +3489,7 @@
       <c r="V28" s="22">
         <v>0.9861</v>
       </c>
-      <c r="W28" s="49">
+      <c r="W28" s="50">
         <v>0.976</v>
       </c>
       <c r="X28" s="22" t="s">
@@ -3550,7 +3565,7 @@
       <c r="V29" s="22">
         <v>0.9875</v>
       </c>
-      <c r="W29" s="49">
+      <c r="W29" s="50">
         <v>0.976</v>
       </c>
       <c r="X29" s="22" t="s">
@@ -3626,7 +3641,7 @@
       <c r="V30" s="10">
         <v>0.9907</v>
       </c>
-      <c r="W30" s="50">
+      <c r="W30" s="51">
         <v>0.974</v>
       </c>
       <c r="X30" s="10" t="s">
@@ -3776,7 +3791,7 @@
       <c r="V32" s="22">
         <v>0.987</v>
       </c>
-      <c r="W32" s="49">
+      <c r="W32" s="50">
         <v>0.977</v>
       </c>
       <c r="X32" s="22" t="s">
@@ -3786,6 +3801,80 @@
         <v>84</v>
       </c>
       <c r="Z32" s="44"/>
+    </row>
+    <row r="33" customFormat="1" ht="15.75" spans="1:26">
+      <c r="A33" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="B33" s="21">
+        <v>0</v>
+      </c>
+      <c r="C33" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" s="21">
+        <v>416</v>
+      </c>
+      <c r="E33" s="21">
+        <v>0</v>
+      </c>
+      <c r="F33" s="21">
+        <v>0.3</v>
+      </c>
+      <c r="G33" s="22">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0.25</v>
+      </c>
+      <c r="I33" s="22" t="b">
+        <v>1</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="K33" s="22">
+        <v>24</v>
+      </c>
+      <c r="L33" s="22">
+        <v>30</v>
+      </c>
+      <c r="M33" s="37">
+        <v>0.0003</v>
+      </c>
+      <c r="N33" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="37">
+        <v>0</v>
+      </c>
+      <c r="P33" s="37"/>
+      <c r="Q33" s="37"/>
+      <c r="R33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="S33" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="T33" s="22">
+        <v>0</v>
+      </c>
+      <c r="U33" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="V33" s="22">
+        <v>0.9875</v>
+      </c>
+      <c r="W33" s="50">
+        <v>0.978</v>
+      </c>
+      <c r="X33" s="22" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y33" s="44" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z33" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3819,32 +3908,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/record_mxq.xlsx
+++ b/record_mxq.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="94">
   <si>
     <t>Model</t>
   </si>
@@ -277,6 +277,9 @@
   </si>
   <si>
     <t>去除权重衰减</t>
+  </si>
+  <si>
+    <t>更换权重衰减方式，加大epoch</t>
   </si>
   <si>
     <t>Apple</t>
@@ -303,11 +306,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -337,6 +340,12 @@
       <b/>
       <sz val="14"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -376,21 +385,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -398,15 +392,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -421,16 +416,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -445,9 +439,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -460,22 +454,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -489,27 +468,63 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -537,6 +552,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFBDD7EE"/>
         <bgColor rgb="FFD6DCE5"/>
       </patternFill>
@@ -585,13 +606,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -603,169 +630,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -953,17 +974,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -972,7 +989,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -992,11 +1009,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1018,11 +1041,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1031,7 +1052,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1040,142 +1061,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="44" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1191,15 +1212,18 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,19 +1260,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1257,19 +1281,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1284,37 +1317,40 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="0" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="11" fontId="3" fillId="10" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1326,7 +1362,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1335,10 +1371,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1351,6 +1390,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1740,2141 +1782,2215 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Z33"/>
+  <dimension ref="A1:Z34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.2916666666667" style="5" customWidth="1"/>
-    <col min="2" max="2" width="9.55833333333333" style="5" customWidth="1"/>
-    <col min="3" max="3" width="34.5583333333333" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.6416666666667" style="5" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9" style="5" customWidth="1"/>
-    <col min="7" max="7" width="15.75" style="5" customWidth="1"/>
-    <col min="8" max="9" width="19" style="5" customWidth="1"/>
-    <col min="10" max="10" width="19.1333333333333" style="5" customWidth="1"/>
-    <col min="11" max="11" width="24.25" style="5" customWidth="1"/>
-    <col min="12" max="12" width="9" style="5" customWidth="1"/>
-    <col min="13" max="13" width="18.3416666666667" style="5" customWidth="1"/>
-    <col min="14" max="14" width="14.6333333333333" style="5" customWidth="1"/>
-    <col min="15" max="17" width="16" style="5" customWidth="1"/>
-    <col min="18" max="18" width="12.7" style="5" customWidth="1"/>
-    <col min="19" max="20" width="18.1166666666667" style="5" customWidth="1"/>
-    <col min="21" max="21" width="27.8833333333333" style="5" customWidth="1"/>
-    <col min="22" max="22" width="12.3833333333333" style="5" customWidth="1"/>
-    <col min="23" max="23" width="10.9916666666667" style="5" customWidth="1"/>
-    <col min="24" max="24" width="23.75" style="5" customWidth="1"/>
-    <col min="25" max="25" width="35.9333333333333" style="5" customWidth="1"/>
-    <col min="26" max="26" width="29.7083333333333" style="5" customWidth="1"/>
+    <col min="1" max="1" width="30.2916666666667" style="6" customWidth="1"/>
+    <col min="2" max="2" width="9.55833333333333" style="6" customWidth="1"/>
+    <col min="3" max="3" width="34.5583333333333" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.6416666666667" style="6" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="6" customWidth="1"/>
+    <col min="6" max="6" width="9" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.75" style="6" customWidth="1"/>
+    <col min="8" max="9" width="19" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.1333333333333" style="6" customWidth="1"/>
+    <col min="11" max="11" width="24.25" style="6" customWidth="1"/>
+    <col min="12" max="12" width="9" style="6" customWidth="1"/>
+    <col min="13" max="13" width="18.3416666666667" style="6" customWidth="1"/>
+    <col min="14" max="14" width="14.6333333333333" style="6" customWidth="1"/>
+    <col min="15" max="17" width="16" style="6" customWidth="1"/>
+    <col min="18" max="18" width="12.7" style="6" customWidth="1"/>
+    <col min="19" max="20" width="18.1166666666667" style="6" customWidth="1"/>
+    <col min="21" max="21" width="27.8833333333333" style="6" customWidth="1"/>
+    <col min="22" max="22" width="12.3833333333333" style="6" customWidth="1"/>
+    <col min="23" max="23" width="10.9916666666667" style="6" customWidth="1"/>
+    <col min="24" max="24" width="23.75" style="6" customWidth="1"/>
+    <col min="25" max="25" width="35.9333333333333" style="6" customWidth="1"/>
+    <col min="26" max="26" width="29.7083333333333" style="6" customWidth="1"/>
     <col min="27" max="16384" width="9" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="22.5" customHeight="1" spans="1:26">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="7" t="s">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="7"/>
-      <c r="E1" s="27" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="29" t="s">
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="40" t="s">
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="T1" s="40"/>
-      <c r="U1" s="41" t="s">
+      <c r="T1" s="45"/>
+      <c r="U1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="V1" s="40" t="s">
+      <c r="V1" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="W1" s="42" t="s">
+      <c r="W1" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="43" t="s">
+      <c r="X1" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="Y1" s="53" t="s">
+      <c r="Y1" s="59" t="s">
         <v>9</v>
       </c>
-      <c r="Z1" s="54" t="s">
+      <c r="Z1" s="60" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" s="2" customFormat="1" ht="22.5" customHeight="1" spans="1:23">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="F2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="8" t="s">
+      <c r="J2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="8" t="s">
+      <c r="L2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="8" t="s">
+      <c r="N2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="O2" s="8" t="s">
+      <c r="O2" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="P2" s="8" t="s">
+      <c r="P2" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="Q2" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="R2" s="8" t="s">
+      <c r="R2" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="S2" s="8" t="s">
+      <c r="S2" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="T2" s="8" t="s">
+      <c r="T2" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="8"/>
+      <c r="U2" s="9"/>
+      <c r="V2" s="9"/>
+      <c r="W2" s="9"/>
     </row>
     <row r="3" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="B3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="10">
         <v>256</v>
       </c>
-      <c r="E3" s="9">
-        <v>0</v>
-      </c>
-      <c r="F3" s="9">
-        <v>0</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H3" s="9">
+      <c r="E3" s="10">
+        <v>0</v>
+      </c>
+      <c r="F3" s="10">
+        <v>0</v>
+      </c>
+      <c r="G3" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="10">
         <v>0.25</v>
       </c>
-      <c r="I3" s="9"/>
-      <c r="J3" s="9" t="s">
+      <c r="I3" s="10"/>
+      <c r="J3" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K3" s="9">
+      <c r="K3" s="10">
         <v>24</v>
       </c>
-      <c r="L3" s="9">
+      <c r="L3" s="10">
         <v>60</v>
       </c>
-      <c r="M3" s="32">
+      <c r="M3" s="36">
         <v>0.01</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O3" s="32">
+      <c r="O3" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="9" t="s">
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T3" s="9">
+      <c r="T3" s="10">
         <v>1</v>
       </c>
-      <c r="U3" s="9" t="s">
+      <c r="U3" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V3" s="9" t="s">
+      <c r="V3" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="W3" s="9">
+      <c r="W3" s="10">
         <v>0.954</v>
       </c>
-      <c r="X3" s="44"/>
+      <c r="X3" s="49"/>
     </row>
     <row r="4" ht="22.5" customHeight="1" spans="1:24">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B4" s="9">
-        <v>0</v>
-      </c>
-      <c r="C4" s="9" t="s">
+      <c r="B4" s="10">
+        <v>0</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="10">
         <v>256</v>
       </c>
-      <c r="E4" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F4" s="9">
+      <c r="E4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="10">
         <v>0.2</v>
       </c>
-      <c r="G4" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H4" s="9">
+      <c r="G4" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="10">
         <v>0.25</v>
       </c>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9" t="s">
+      <c r="I4" s="10"/>
+      <c r="J4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="9">
+      <c r="K4" s="10">
         <v>24</v>
       </c>
-      <c r="L4" s="9">
+      <c r="L4" s="10">
         <v>60</v>
       </c>
-      <c r="M4" s="32">
+      <c r="M4" s="36">
         <v>0.01</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O4" s="32">
+      <c r="O4" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="9" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T4" s="9">
+      <c r="T4" s="10">
         <v>1</v>
       </c>
-      <c r="U4" s="9" t="s">
+      <c r="U4" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="V4" s="9">
+      <c r="V4" s="10">
         <v>0.957</v>
       </c>
-      <c r="W4" s="9">
+      <c r="W4" s="10">
         <v>0.946</v>
       </c>
-      <c r="X4" s="44"/>
+      <c r="X4" s="49"/>
     </row>
     <row r="5" ht="21.75" customHeight="1" spans="1:24">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="9">
-        <v>0</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="10">
+        <v>0</v>
+      </c>
+      <c r="C5" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="10">
         <v>256</v>
       </c>
-      <c r="E5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F5" s="9">
+      <c r="E5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="10">
         <v>0.2</v>
       </c>
-      <c r="G5" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H5" s="9">
+      <c r="G5" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H5" s="10">
         <v>0.25</v>
       </c>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9" t="s">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="9">
+      <c r="K5" s="10">
         <v>24</v>
       </c>
-      <c r="L5" s="9">
+      <c r="L5" s="10">
         <v>60</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="36">
         <v>0.01</v>
       </c>
-      <c r="N5" s="9" t="s">
+      <c r="N5" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O5" s="32">
+      <c r="O5" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P5" s="32"/>
-      <c r="Q5" s="32"/>
-      <c r="R5" s="9" t="s">
+      <c r="P5" s="36"/>
+      <c r="Q5" s="36"/>
+      <c r="R5" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S5" s="9" t="s">
+      <c r="S5" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T5" s="9">
+      <c r="T5" s="10">
         <v>1</v>
       </c>
-      <c r="U5" s="9" t="s">
+      <c r="U5" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="V5" s="9">
+      <c r="V5" s="10">
         <v>0.9643</v>
       </c>
-      <c r="W5" s="9">
+      <c r="W5" s="10">
         <v>0.949</v>
       </c>
-      <c r="X5" s="44"/>
+      <c r="X5" s="49"/>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:24">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="9">
-        <v>0</v>
-      </c>
-      <c r="C6" s="9" t="s">
+      <c r="B6" s="10">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D6" s="9">
+      <c r="D6" s="10">
         <v>256</v>
       </c>
-      <c r="E6" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F6" s="9">
+      <c r="E6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="10">
         <v>0.2</v>
       </c>
-      <c r="G6" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="9">
+      <c r="G6" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="10">
         <v>0.25</v>
       </c>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="10">
         <v>24</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="10">
         <v>60</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="36">
         <v>0.01</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O6" s="32">
+      <c r="O6" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="9" t="s">
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="10">
         <v>1</v>
       </c>
-      <c r="U6" s="9" t="s">
+      <c r="U6" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V6" s="9">
+      <c r="V6" s="10">
         <v>0.9669</v>
       </c>
-      <c r="W6" s="9">
+      <c r="W6" s="10">
         <v>0.952</v>
       </c>
-      <c r="X6" s="44"/>
+      <c r="X6" s="49"/>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:24">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="9">
-        <v>0</v>
-      </c>
-      <c r="C7" s="9" t="s">
+      <c r="B7" s="10">
+        <v>0</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="9">
+      <c r="D7" s="10">
         <v>256</v>
       </c>
-      <c r="E7" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F7" s="9">
+      <c r="E7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="10">
         <v>0.2</v>
       </c>
-      <c r="G7" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="9">
+      <c r="G7" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="10">
         <v>0.25</v>
       </c>
-      <c r="I7" s="9"/>
-      <c r="J7" s="9" t="s">
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="10">
         <v>24</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="10">
         <v>60</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="36">
         <v>0.01</v>
       </c>
-      <c r="N7" s="9" t="s">
+      <c r="N7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="32">
+      <c r="O7" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="9" t="s">
+      <c r="P7" s="36"/>
+      <c r="Q7" s="36"/>
+      <c r="R7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T7" s="9">
+      <c r="T7" s="10">
         <v>1</v>
       </c>
-      <c r="U7" s="9" t="s">
+      <c r="U7" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="V7" s="9" t="s">
+      <c r="V7" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="W7" s="9">
+      <c r="W7" s="10">
         <v>0.958</v>
       </c>
-      <c r="X7" s="44"/>
+      <c r="X7" s="49"/>
     </row>
     <row r="8" ht="19.5" customHeight="1" spans="1:24">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B8" s="9">
-        <v>0</v>
-      </c>
-      <c r="C8" s="9" t="s">
+      <c r="B8" s="10">
+        <v>0</v>
+      </c>
+      <c r="C8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="10">
         <v>256</v>
       </c>
-      <c r="E8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F8" s="9">
+      <c r="E8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="10">
         <v>0.2</v>
       </c>
-      <c r="G8" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H8" s="9">
+      <c r="G8" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H8" s="10">
         <v>0.25</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K8" s="9">
+      <c r="K8" s="10">
         <v>24</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="10">
         <v>60</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="36">
         <v>0.01</v>
       </c>
-      <c r="N8" s="9" t="s">
+      <c r="N8" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O8" s="32">
+      <c r="O8" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="9" t="s">
+      <c r="P8" s="36"/>
+      <c r="Q8" s="36"/>
+      <c r="R8" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T8" s="9">
+      <c r="T8" s="10">
         <v>1</v>
       </c>
-      <c r="U8" s="9" t="s">
+      <c r="U8" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="V8" s="9">
+      <c r="V8" s="10">
         <v>0.9663</v>
       </c>
-      <c r="W8" s="9">
+      <c r="W8" s="10">
         <v>0.959</v>
       </c>
-      <c r="X8" s="44"/>
+      <c r="X8" s="49"/>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="9">
-        <v>0</v>
-      </c>
-      <c r="C9" s="9" t="s">
+      <c r="B9" s="10">
+        <v>0</v>
+      </c>
+      <c r="C9" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="10">
         <v>256</v>
       </c>
-      <c r="E9" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F9" s="9">
+      <c r="E9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="10">
         <v>0.2</v>
       </c>
-      <c r="G9" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H9" s="9">
+      <c r="G9" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H9" s="10">
         <v>0.25</v>
       </c>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9" t="s">
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K9" s="9">
+      <c r="K9" s="10">
         <v>24</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="10">
         <v>60</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="36">
         <v>0.01</v>
       </c>
-      <c r="N9" s="9" t="s">
+      <c r="N9" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O9" s="32">
+      <c r="O9" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="9" t="s">
+      <c r="P9" s="36"/>
+      <c r="Q9" s="36"/>
+      <c r="R9" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S9" s="9" t="s">
+      <c r="S9" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T9" s="9">
+      <c r="T9" s="10">
         <v>1</v>
       </c>
-      <c r="U9" s="9" t="s">
+      <c r="U9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V9" s="9">
+      <c r="V9" s="10">
         <v>0.9673</v>
       </c>
-      <c r="W9" s="9">
+      <c r="W9" s="10">
         <v>0.961</v>
       </c>
-      <c r="X9" s="44"/>
+      <c r="X9" s="49"/>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:24">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="9">
-        <v>0</v>
-      </c>
-      <c r="C10" s="9" t="s">
+      <c r="B10" s="10">
+        <v>0</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="10">
         <v>256</v>
       </c>
-      <c r="E10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="F10" s="9">
+      <c r="E10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="10">
         <v>0.2</v>
       </c>
-      <c r="G10" s="9">
-        <v>0.5</v>
-      </c>
-      <c r="H10" s="9">
+      <c r="G10" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="10">
         <v>0.25</v>
       </c>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9" t="s">
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K10" s="9">
+      <c r="K10" s="10">
         <v>24</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="10">
         <v>50</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="36">
         <v>0.01</v>
       </c>
-      <c r="N10" s="9" t="s">
+      <c r="N10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="O10" s="32">
+      <c r="O10" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P10" s="32"/>
-      <c r="Q10" s="32"/>
-      <c r="R10" s="9" t="s">
+      <c r="P10" s="36"/>
+      <c r="Q10" s="36"/>
+      <c r="R10" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="S10" s="9" t="s">
+      <c r="S10" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T10" s="9">
-        <v>0</v>
-      </c>
-      <c r="U10" s="9" t="s">
+      <c r="T10" s="10">
+        <v>0</v>
+      </c>
+      <c r="U10" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V10" s="9">
+      <c r="V10" s="10">
         <v>0.981</v>
       </c>
-      <c r="W10" s="9">
+      <c r="W10" s="10">
         <v>0.964</v>
       </c>
-      <c r="X10" s="44"/>
+      <c r="X10" s="49"/>
     </row>
     <row r="11" ht="19.5" customHeight="1"/>
     <row r="12" ht="18" customHeight="1" spans="1:24">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="10">
-        <v>0</v>
-      </c>
-      <c r="C12" s="10" t="s">
+      <c r="B12" s="11">
+        <v>0</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D12" s="11">
         <v>256</v>
       </c>
-      <c r="E12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F12" s="10">
+      <c r="E12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="11">
         <v>0.2</v>
       </c>
-      <c r="G12" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H12" s="10">
+      <c r="G12" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H12" s="11">
         <v>0.25</v>
       </c>
-      <c r="I12" s="10"/>
-      <c r="J12" s="9" t="s">
+      <c r="I12" s="11"/>
+      <c r="J12" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K12" s="9">
+      <c r="K12" s="10">
         <v>24</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="10">
         <v>50</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="36">
         <v>0.002</v>
       </c>
-      <c r="N12" s="10" t="s">
+      <c r="N12" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O12" s="32">
+      <c r="O12" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P12" s="32"/>
-      <c r="Q12" s="32"/>
-      <c r="R12" s="10" t="s">
+      <c r="P12" s="36"/>
+      <c r="Q12" s="36"/>
+      <c r="R12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S12" s="9" t="s">
+      <c r="S12" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T12" s="10">
+      <c r="T12" s="11">
         <v>2</v>
       </c>
-      <c r="U12" s="9" t="s">
+      <c r="U12" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V12" s="10">
+      <c r="V12" s="11">
         <v>0.9804</v>
       </c>
-      <c r="W12" s="10">
+      <c r="W12" s="11">
         <v>0.964</v>
       </c>
-      <c r="X12" s="44"/>
+      <c r="X12" s="49"/>
     </row>
     <row r="13" ht="15.75" spans="1:24">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="10">
-        <v>0</v>
-      </c>
-      <c r="C13" s="10" t="s">
+      <c r="B13" s="11">
+        <v>0</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D13" s="11">
         <v>256</v>
       </c>
-      <c r="E13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F13" s="10">
+      <c r="E13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="11">
         <v>0.2</v>
       </c>
-      <c r="G13" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H13" s="10">
+      <c r="G13" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H13" s="11">
         <v>0.25</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="9" t="s">
+      <c r="I13" s="11"/>
+      <c r="J13" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K13" s="9">
+      <c r="K13" s="10">
         <v>24</v>
       </c>
-      <c r="L13" s="9">
+      <c r="L13" s="10">
         <v>60</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="36">
         <v>0.001</v>
       </c>
-      <c r="N13" s="10" t="s">
+      <c r="N13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="O13" s="32">
+      <c r="O13" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P13" s="32"/>
-      <c r="Q13" s="32"/>
-      <c r="R13" s="10" t="s">
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="S13" s="9" t="s">
+      <c r="S13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T13" s="10">
+      <c r="T13" s="11">
         <v>2</v>
       </c>
-      <c r="U13" s="9" t="s">
+      <c r="U13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V13" s="10">
+      <c r="V13" s="11">
         <v>0.9783</v>
       </c>
-      <c r="W13" s="10">
+      <c r="W13" s="11">
         <v>0.955</v>
       </c>
-      <c r="X13" s="44"/>
+      <c r="X13" s="49"/>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:24">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="10">
-        <v>0</v>
-      </c>
-      <c r="C14" s="10" t="s">
+      <c r="B14" s="11">
+        <v>0</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D14" s="11">
         <v>256</v>
       </c>
-      <c r="E14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F14" s="10">
+      <c r="E14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="11">
         <v>0.2</v>
       </c>
-      <c r="G14" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H14" s="10">
+      <c r="G14" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H14" s="11">
         <v>0.25</v>
       </c>
-      <c r="I14" s="10"/>
-      <c r="J14" s="9" t="s">
+      <c r="I14" s="11"/>
+      <c r="J14" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K14" s="9">
+      <c r="K14" s="10">
         <v>24</v>
       </c>
-      <c r="L14" s="9">
+      <c r="L14" s="10">
         <v>30</v>
       </c>
-      <c r="M14" s="32" t="s">
+      <c r="M14" s="36" t="s">
         <v>49</v>
       </c>
-      <c r="N14" s="10" t="s">
+      <c r="N14" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O14" s="32">
+      <c r="O14" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="10" t="s">
+      <c r="P14" s="36"/>
+      <c r="Q14" s="36"/>
+      <c r="R14" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S14" s="9" t="s">
+      <c r="S14" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T14" s="10">
-        <v>0</v>
-      </c>
-      <c r="U14" s="9" t="s">
+      <c r="T14" s="11">
+        <v>0</v>
+      </c>
+      <c r="U14" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V14" s="10">
+      <c r="V14" s="11">
         <v>0.9827</v>
       </c>
-      <c r="W14" s="45">
+      <c r="W14" s="50">
         <v>0.971</v>
       </c>
-      <c r="X14" s="44"/>
+      <c r="X14" s="49"/>
     </row>
     <row r="15" ht="20.25" customHeight="1" spans="1:23">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
-      <c r="U15" s="11"/>
-      <c r="V15" s="11"/>
-      <c r="W15" s="11"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:24">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="13">
-        <v>0</v>
-      </c>
-      <c r="C16" s="13" t="s">
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="C16" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="13">
+      <c r="D16" s="14">
         <v>416</v>
       </c>
-      <c r="E16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="13">
+      <c r="E16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="14">
         <v>0.2</v>
       </c>
-      <c r="G16" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H16" s="13">
+      <c r="G16" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H16" s="14">
         <v>0.25</v>
       </c>
-      <c r="I16" s="13"/>
-      <c r="J16" s="12" t="s">
+      <c r="I16" s="14"/>
+      <c r="J16" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="13">
         <v>8</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="13">
         <v>30</v>
       </c>
-      <c r="M16" s="33" t="s">
+      <c r="M16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="13" t="s">
+      <c r="N16" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O16" s="33">
+      <c r="O16" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="33"/>
-      <c r="R16" s="13" t="s">
+      <c r="P16" s="37"/>
+      <c r="Q16" s="37"/>
+      <c r="R16" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="S16" s="12" t="s">
+      <c r="S16" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T16" s="13">
-        <v>0</v>
-      </c>
-      <c r="U16" s="12" t="s">
+      <c r="T16" s="14">
+        <v>0</v>
+      </c>
+      <c r="U16" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V16" s="13">
+      <c r="V16" s="14">
         <v>0.9837</v>
       </c>
-      <c r="W16" s="46">
+      <c r="W16" s="51">
         <v>0.974</v>
       </c>
-      <c r="X16" s="44"/>
+      <c r="X16" s="49"/>
     </row>
     <row r="17" s="3" customFormat="1" ht="15.75" spans="1:26">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="B17" s="13">
-        <v>0</v>
-      </c>
-      <c r="C17" s="13" t="s">
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="D17" s="13">
+      <c r="D17" s="14">
         <v>256</v>
       </c>
-      <c r="E17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="F17" s="13">
+      <c r="E17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="14">
         <v>0.2</v>
       </c>
-      <c r="G17" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="H17" s="13">
+      <c r="G17" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="H17" s="14">
         <v>0.25</v>
       </c>
-      <c r="I17" s="13"/>
-      <c r="J17" s="12" t="s">
+      <c r="I17" s="14"/>
+      <c r="J17" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="13">
         <v>24</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="13">
         <v>60</v>
       </c>
-      <c r="M17" s="33">
+      <c r="M17" s="37">
         <v>0.0003</v>
       </c>
-      <c r="N17" s="13" t="s">
+      <c r="N17" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="O17" s="33">
+      <c r="O17" s="37">
         <v>0.0005</v>
       </c>
-      <c r="P17" s="33"/>
-      <c r="Q17" s="33"/>
-      <c r="R17" s="13" t="s">
+      <c r="P17" s="37"/>
+      <c r="Q17" s="37"/>
+      <c r="R17" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="S17" s="12" t="s">
+      <c r="S17" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="T17" s="13">
-        <v>0</v>
-      </c>
-      <c r="U17" s="12" t="s">
+      <c r="T17" s="14">
+        <v>0</v>
+      </c>
+      <c r="U17" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="V17" s="13">
+      <c r="V17" s="14">
         <v>0.9827</v>
       </c>
-      <c r="W17" s="13">
+      <c r="W17" s="14">
         <v>0.955</v>
       </c>
-      <c r="X17" s="47"/>
-      <c r="Y17" s="55"/>
-      <c r="Z17" s="55"/>
+      <c r="X17" s="52"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="61"/>
     </row>
     <row r="18" customFormat="1" ht="28" customHeight="1" spans="1:26">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="30"/>
-      <c r="L18" s="30"/>
-      <c r="M18" s="34"/>
-      <c r="N18" s="15"/>
-      <c r="O18" s="34"/>
-      <c r="P18" s="34"/>
-      <c r="Q18" s="34"/>
-      <c r="R18" s="15"/>
-      <c r="S18" s="30"/>
-      <c r="T18" s="15"/>
-      <c r="U18" s="30"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-      <c r="X18" s="15"/>
-      <c r="Y18" s="5"/>
-      <c r="Z18" s="5"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="38"/>
+      <c r="P18" s="38"/>
+      <c r="Q18" s="38"/>
+      <c r="R18" s="16"/>
+      <c r="S18" s="34"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="16"/>
+      <c r="W18" s="16"/>
+      <c r="X18" s="16"/>
+      <c r="Y18" s="6"/>
+      <c r="Z18" s="6"/>
     </row>
     <row r="19" ht="23" customHeight="1" spans="1:26">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="17"/>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="17"/>
-      <c r="N19" s="17"/>
-      <c r="O19" s="17"/>
-      <c r="P19" s="17"/>
-      <c r="Q19" s="17"/>
-      <c r="R19" s="17"/>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="17"/>
-      <c r="X19" s="17"/>
-      <c r="Y19" s="17"/>
-      <c r="Z19" s="56"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="18"/>
+      <c r="L19" s="18"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="18"/>
+      <c r="O19" s="18"/>
+      <c r="P19" s="18"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="18"/>
+      <c r="T19" s="18"/>
+      <c r="U19" s="18"/>
+      <c r="V19" s="18"/>
+      <c r="W19" s="18"/>
+      <c r="X19" s="18"/>
+      <c r="Y19" s="18"/>
+      <c r="Z19" s="62"/>
     </row>
     <row r="20" ht="15.75" spans="1:26">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="19">
-        <v>0</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B20" s="20">
+        <v>0</v>
+      </c>
+      <c r="C20" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="19">
+      <c r="D20" s="20">
         <v>416</v>
       </c>
-      <c r="E20" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="19">
+      <c r="E20" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="20">
         <v>0.2</v>
       </c>
-      <c r="G20" s="19">
-        <v>0.5</v>
-      </c>
-      <c r="H20" s="19">
+      <c r="G20" s="20">
+        <v>0.5</v>
+      </c>
+      <c r="H20" s="20">
         <v>0.25</v>
       </c>
-      <c r="I20" s="19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="18" t="s">
+      <c r="I20" s="20" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="K20" s="18">
+      <c r="K20" s="19">
         <v>24</v>
       </c>
-      <c r="L20" s="18">
+      <c r="L20" s="19">
         <v>50</v>
       </c>
-      <c r="M20" s="35">
+      <c r="M20" s="39">
         <v>0.0003</v>
       </c>
-      <c r="N20" s="19" t="s">
+      <c r="N20" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="35">
+      <c r="O20" s="39">
         <v>0.0005</v>
       </c>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="19" t="s">
+      <c r="P20" s="39"/>
+      <c r="Q20" s="39"/>
+      <c r="R20" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="S20" s="18" t="s">
+      <c r="S20" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="T20" s="19">
-        <v>0</v>
-      </c>
-      <c r="U20" s="18" t="s">
+      <c r="T20" s="20">
+        <v>0</v>
+      </c>
+      <c r="U20" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="V20" s="19">
+      <c r="V20" s="20">
         <v>0.9837</v>
       </c>
-      <c r="W20" s="48">
+      <c r="W20" s="53">
         <v>0.972</v>
       </c>
-      <c r="X20" s="19" t="s">
+      <c r="X20" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="Y20" s="57" t="s">
+      <c r="Y20" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="Z20" s="44"/>
+      <c r="Z20" s="49"/>
     </row>
     <row r="21" ht="15.75" spans="1:26">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="10">
-        <v>0</v>
-      </c>
-      <c r="C21" s="10" t="s">
+      <c r="B21" s="11">
+        <v>0</v>
+      </c>
+      <c r="C21" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D21" s="11">
         <v>416</v>
       </c>
-      <c r="E21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="F21" s="10">
+      <c r="E21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="F21" s="11">
         <v>0.2</v>
       </c>
-      <c r="G21" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H21" s="10">
+      <c r="G21" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H21" s="11">
         <v>0.25</v>
       </c>
-      <c r="I21" s="10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="I21" s="11" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K21" s="9">
+      <c r="K21" s="10">
         <v>24</v>
       </c>
-      <c r="L21" s="9">
+      <c r="L21" s="10">
         <v>50</v>
       </c>
-      <c r="M21" s="36">
+      <c r="M21" s="40">
         <v>0.0001</v>
       </c>
-      <c r="N21" s="10" t="s">
+      <c r="N21" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O21" s="32">
+      <c r="O21" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P21" s="32"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="10" t="s">
+      <c r="P21" s="36"/>
+      <c r="Q21" s="36"/>
+      <c r="R21" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S21" s="9" t="s">
+      <c r="S21" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T21" s="10">
-        <v>0</v>
-      </c>
-      <c r="U21" s="9" t="s">
+      <c r="T21" s="11">
+        <v>0</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V21" s="10">
+      <c r="V21" s="11">
         <v>0.9846</v>
       </c>
-      <c r="W21" s="49">
+      <c r="W21" s="54">
         <v>0.973</v>
       </c>
-      <c r="X21" s="10" t="s">
+      <c r="X21" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Y21" s="44"/>
-      <c r="Z21" s="44"/>
+      <c r="Y21" s="49"/>
+      <c r="Z21" s="49"/>
     </row>
     <row r="22" ht="15.75" spans="1:26">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B22" s="21">
-        <v>0</v>
-      </c>
-      <c r="C22" s="21" t="s">
+      <c r="B22" s="22">
+        <v>0</v>
+      </c>
+      <c r="C22" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D22" s="21">
+      <c r="D22" s="22">
         <v>416</v>
       </c>
-      <c r="E22" s="21">
-        <v>0</v>
-      </c>
-      <c r="F22" s="21">
+      <c r="E22" s="22">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
         <v>0.2</v>
       </c>
-      <c r="G22" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H22" s="22">
+      <c r="G22" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H22" s="23">
         <v>0.25</v>
       </c>
-      <c r="I22" s="23" t="b">
+      <c r="I22" s="24" t="b">
         <v>1</v>
       </c>
-      <c r="J22" s="22" t="s">
+      <c r="J22" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="22">
+      <c r="K22" s="23">
         <v>24</v>
       </c>
-      <c r="L22" s="22">
+      <c r="L22" s="23">
         <v>40</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N22" s="22" t="s">
+      <c r="N22" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O22" s="37">
+      <c r="O22" s="41">
         <v>0.0005</v>
       </c>
-      <c r="P22" s="37"/>
-      <c r="Q22" s="37"/>
-      <c r="R22" s="22" t="s">
+      <c r="P22" s="41"/>
+      <c r="Q22" s="41"/>
+      <c r="R22" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S22" s="22" t="s">
+      <c r="S22" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T22" s="22">
-        <v>0</v>
-      </c>
-      <c r="U22" s="22" t="s">
+      <c r="T22" s="23">
+        <v>0</v>
+      </c>
+      <c r="U22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="22">
+      <c r="V22" s="23">
         <v>0.9846</v>
       </c>
-      <c r="W22" s="50">
+      <c r="W22" s="55">
         <v>0.974</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="Y22" s="44" t="s">
+      <c r="Y22" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="Z22" s="44" t="s">
+      <c r="Z22" s="49" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="23" ht="15.75" spans="1:26">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="10">
-        <v>0</v>
-      </c>
-      <c r="C23" s="10" t="s">
+      <c r="B23" s="11">
+        <v>0</v>
+      </c>
+      <c r="C23" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D23" s="11">
         <v>416</v>
       </c>
-      <c r="E23" s="10">
-        <v>0</v>
-      </c>
-      <c r="F23" s="10">
+      <c r="E23" s="11">
+        <v>0</v>
+      </c>
+      <c r="F23" s="11">
         <v>0.2</v>
       </c>
-      <c r="G23" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H23" s="10">
+      <c r="G23" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H23" s="11">
         <v>0.25</v>
       </c>
-      <c r="I23" s="10" t="b">
+      <c r="I23" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J23" s="9" t="s">
+      <c r="J23" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K23" s="9">
+      <c r="K23" s="10">
         <v>24</v>
       </c>
-      <c r="L23" s="9">
+      <c r="L23" s="10">
         <v>45</v>
       </c>
-      <c r="M23" s="32">
+      <c r="M23" s="36">
         <v>0.0001</v>
       </c>
-      <c r="N23" s="10" t="s">
+      <c r="N23" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O23" s="32">
+      <c r="O23" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P23" s="32"/>
-      <c r="Q23" s="32"/>
-      <c r="R23" s="10" t="s">
+      <c r="P23" s="36"/>
+      <c r="Q23" s="36"/>
+      <c r="R23" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S23" s="9" t="s">
+      <c r="S23" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T23" s="10">
-        <v>0</v>
-      </c>
-      <c r="U23" s="9" t="s">
+      <c r="T23" s="11">
+        <v>0</v>
+      </c>
+      <c r="U23" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V23" s="10">
+      <c r="V23" s="11">
         <v>0.9861</v>
       </c>
-      <c r="W23" s="51">
+      <c r="W23" s="56">
         <v>0.971</v>
       </c>
-      <c r="X23" s="10" t="s">
+      <c r="X23" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="Y23" s="44"/>
-      <c r="Z23" s="44"/>
+      <c r="Y23" s="49"/>
+      <c r="Z23" s="49"/>
     </row>
     <row r="24" ht="15.75" spans="1:26">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="10">
-        <v>0</v>
-      </c>
-      <c r="C24" s="10" t="s">
+      <c r="B24" s="11">
+        <v>0</v>
+      </c>
+      <c r="C24" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D24" s="11">
         <v>416</v>
       </c>
-      <c r="E24" s="10">
-        <v>0</v>
-      </c>
-      <c r="F24" s="10">
+      <c r="E24" s="11">
+        <v>0</v>
+      </c>
+      <c r="F24" s="11">
         <v>0.2</v>
       </c>
-      <c r="G24" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H24" s="10">
+      <c r="G24" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H24" s="11">
         <v>0.25</v>
       </c>
-      <c r="I24" s="10" t="b">
+      <c r="I24" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J24" s="9" t="s">
+      <c r="J24" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K24" s="9">
+      <c r="K24" s="10">
         <v>24</v>
       </c>
-      <c r="L24" s="9">
+      <c r="L24" s="10">
         <v>40</v>
       </c>
-      <c r="M24" s="32">
+      <c r="M24" s="36">
         <v>0.0003</v>
       </c>
-      <c r="N24" s="10" t="s">
+      <c r="N24" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="O24" s="32">
+      <c r="O24" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P24" s="32"/>
-      <c r="Q24" s="32"/>
-      <c r="R24" s="10" t="s">
+      <c r="P24" s="36"/>
+      <c r="Q24" s="36"/>
+      <c r="R24" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S24" s="9" t="s">
+      <c r="S24" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T24" s="10">
-        <v>0</v>
-      </c>
-      <c r="U24" s="9" t="s">
+      <c r="T24" s="11">
+        <v>0</v>
+      </c>
+      <c r="U24" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V24" s="10">
+      <c r="V24" s="11">
         <v>0.9856</v>
       </c>
-      <c r="W24" s="51">
+      <c r="W24" s="56">
         <v>0.97</v>
       </c>
-      <c r="X24" s="10" t="s">
+      <c r="X24" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="Y24" s="44" t="s">
+      <c r="Y24" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="Z24" s="44"/>
+      <c r="Z24" s="49"/>
     </row>
     <row r="25" s="4" customFormat="1" ht="15.75" spans="1:26">
-      <c r="A25" s="22" t="s">
+      <c r="A25" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="B25" s="22">
-        <v>0</v>
-      </c>
-      <c r="C25" s="22" t="s">
+      <c r="B25" s="23">
+        <v>0</v>
+      </c>
+      <c r="C25" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="24">
         <v>384</v>
       </c>
-      <c r="E25" s="22">
-        <v>0</v>
-      </c>
-      <c r="F25" s="22">
+      <c r="E25" s="23">
+        <v>0</v>
+      </c>
+      <c r="F25" s="23">
         <v>0.2</v>
       </c>
-      <c r="G25" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H25" s="22">
+      <c r="G25" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H25" s="23">
         <v>0.25</v>
       </c>
-      <c r="I25" s="22" t="b">
+      <c r="I25" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J25" s="22" t="s">
+      <c r="J25" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K25" s="22">
+      <c r="K25" s="23">
         <v>24</v>
       </c>
-      <c r="L25" s="22">
+      <c r="L25" s="23">
         <v>40</v>
       </c>
-      <c r="M25" s="37">
+      <c r="M25" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N25" s="22" t="s">
+      <c r="N25" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O25" s="37">
+      <c r="O25" s="41">
         <v>0.0005</v>
       </c>
-      <c r="P25" s="37"/>
-      <c r="Q25" s="37"/>
-      <c r="R25" s="22" t="s">
+      <c r="P25" s="41"/>
+      <c r="Q25" s="41"/>
+      <c r="R25" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S25" s="22" t="s">
+      <c r="S25" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T25" s="22">
-        <v>0</v>
-      </c>
-      <c r="U25" s="22" t="s">
+      <c r="T25" s="23">
+        <v>0</v>
+      </c>
+      <c r="U25" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V25" s="22" t="s">
+      <c r="V25" s="23" t="s">
         <v>64</v>
       </c>
-      <c r="W25" s="50">
+      <c r="W25" s="55">
         <v>0.976</v>
       </c>
-      <c r="X25" s="22" t="s">
+      <c r="X25" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="Y25" s="58" t="s">
+      <c r="Y25" s="64" t="s">
         <v>65</v>
       </c>
-      <c r="Z25" s="58"/>
+      <c r="Z25" s="64"/>
     </row>
     <row r="26" ht="15.75" spans="1:26">
-      <c r="A26" s="20" t="s">
+      <c r="A26" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B26" s="21">
-        <v>0</v>
-      </c>
-      <c r="C26" s="24" t="s">
+      <c r="B26" s="22">
+        <v>0</v>
+      </c>
+      <c r="C26" s="25" t="s">
         <v>66</v>
       </c>
-      <c r="D26" s="21">
+      <c r="D26" s="22">
         <v>416</v>
       </c>
-      <c r="E26" s="21">
-        <v>0</v>
-      </c>
-      <c r="F26" s="21">
+      <c r="E26" s="22">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22">
         <v>0.2</v>
       </c>
-      <c r="G26" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H26" s="22">
+      <c r="G26" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H26" s="23">
         <v>0.25</v>
       </c>
-      <c r="I26" s="22" t="b">
+      <c r="I26" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J26" s="22" t="s">
+      <c r="J26" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K26" s="22">
+      <c r="K26" s="23">
         <v>24</v>
       </c>
-      <c r="L26" s="22">
+      <c r="L26" s="23">
         <v>40</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N26" s="22" t="s">
+      <c r="N26" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="41">
         <v>0.0005</v>
       </c>
-      <c r="P26" s="37"/>
-      <c r="Q26" s="37"/>
-      <c r="R26" s="22" t="s">
+      <c r="P26" s="41"/>
+      <c r="Q26" s="41"/>
+      <c r="R26" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S26" s="22" t="s">
+      <c r="S26" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T26" s="22">
-        <v>0</v>
-      </c>
-      <c r="U26" s="22" t="s">
+      <c r="T26" s="23">
+        <v>0</v>
+      </c>
+      <c r="U26" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V26" s="22">
+      <c r="V26" s="23">
         <v>0.9918</v>
       </c>
-      <c r="W26" s="50">
+      <c r="W26" s="55">
         <v>0.976</v>
       </c>
-      <c r="X26" s="22" t="s">
+      <c r="X26" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="Y26" s="44" t="s">
+      <c r="Y26" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="Z26" s="44"/>
+      <c r="Z26" s="49"/>
     </row>
     <row r="27" ht="15.75" spans="1:26">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B27" s="26">
-        <v>0</v>
-      </c>
-      <c r="C27" s="26" t="s">
+      <c r="B27" s="27">
+        <v>0</v>
+      </c>
+      <c r="C27" s="27" t="s">
         <v>48</v>
       </c>
-      <c r="D27" s="26">
+      <c r="D27" s="27">
         <v>416</v>
       </c>
-      <c r="E27" s="26">
-        <v>0</v>
-      </c>
-      <c r="F27" s="26">
+      <c r="E27" s="27">
+        <v>0</v>
+      </c>
+      <c r="F27" s="27">
         <v>0.2</v>
       </c>
-      <c r="G27" s="28">
-        <v>0.5</v>
-      </c>
-      <c r="H27" s="28">
+      <c r="G27" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="H27" s="31">
         <v>0.25</v>
       </c>
-      <c r="I27" s="28" t="b">
+      <c r="I27" s="31" t="b">
         <v>1</v>
       </c>
-      <c r="J27" s="28" t="s">
+      <c r="J27" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="K27" s="28">
+      <c r="K27" s="31">
         <v>24</v>
       </c>
-      <c r="L27" s="28">
+      <c r="L27" s="31">
         <v>40</v>
       </c>
-      <c r="M27" s="38">
+      <c r="M27" s="42">
         <v>0.0003</v>
       </c>
-      <c r="N27" s="28" t="s">
+      <c r="N27" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="O27" s="38">
+      <c r="O27" s="42">
         <v>0.0005</v>
       </c>
-      <c r="P27" s="38"/>
-      <c r="Q27" s="38"/>
-      <c r="R27" s="28" t="s">
+      <c r="P27" s="42"/>
+      <c r="Q27" s="42"/>
+      <c r="R27" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="S27" s="28" t="s">
+      <c r="S27" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="T27" s="28">
-        <v>0</v>
-      </c>
-      <c r="U27" s="28" t="s">
+      <c r="T27" s="31">
+        <v>0</v>
+      </c>
+      <c r="U27" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="V27" s="28">
+      <c r="V27" s="31">
         <v>0.9861</v>
       </c>
-      <c r="W27" s="52">
+      <c r="W27" s="57">
         <v>0.974</v>
       </c>
-      <c r="X27" s="28" t="s">
+      <c r="X27" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="Y27" s="44" t="s">
+      <c r="Y27" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="Z27" s="44"/>
+      <c r="Z27" s="49"/>
     </row>
     <row r="28" ht="15.75" spans="1:26">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B28" s="21">
-        <v>0</v>
-      </c>
-      <c r="C28" s="21" t="s">
+      <c r="B28" s="22">
+        <v>0</v>
+      </c>
+      <c r="C28" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D28" s="21">
+      <c r="D28" s="22">
         <v>416</v>
       </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="21">
+      <c r="E28" s="22">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
         <v>0.2</v>
       </c>
-      <c r="G28" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H28" s="22">
+      <c r="G28" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H28" s="23">
         <v>0.25</v>
       </c>
-      <c r="I28" s="22" t="b">
+      <c r="I28" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K28" s="22">
+      <c r="K28" s="23">
         <v>24</v>
       </c>
-      <c r="L28" s="22">
+      <c r="L28" s="23">
         <v>40</v>
       </c>
-      <c r="M28" s="37">
+      <c r="M28" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N28" s="22" t="s">
+      <c r="N28" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O28" s="37">
+      <c r="O28" s="41">
         <v>0.0005</v>
       </c>
-      <c r="P28" s="39" t="b">
+      <c r="P28" s="43" t="b">
         <v>1</v>
       </c>
-      <c r="Q28" s="37"/>
-      <c r="R28" s="22" t="s">
+      <c r="Q28" s="41"/>
+      <c r="R28" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S28" s="22" t="s">
+      <c r="S28" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T28" s="22">
-        <v>0</v>
-      </c>
-      <c r="U28" s="22" t="s">
+      <c r="T28" s="23">
+        <v>0</v>
+      </c>
+      <c r="U28" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V28" s="22">
+      <c r="V28" s="23">
         <v>0.9861</v>
       </c>
-      <c r="W28" s="50">
+      <c r="W28" s="55">
         <v>0.976</v>
       </c>
-      <c r="X28" s="22" t="s">
+      <c r="X28" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="Y28" s="44" t="s">
+      <c r="Y28" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="Z28" s="44" t="s">
+      <c r="Z28" s="49" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="29" ht="15.75" spans="1:26">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="21">
-        <v>0</v>
-      </c>
-      <c r="C29" s="21" t="s">
+      <c r="B29" s="22">
+        <v>0</v>
+      </c>
+      <c r="C29" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="22">
         <v>416</v>
       </c>
-      <c r="E29" s="21">
-        <v>0</v>
-      </c>
-      <c r="F29" s="21">
+      <c r="E29" s="22">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
         <v>0.2</v>
       </c>
-      <c r="G29" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H29" s="22">
+      <c r="G29" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H29" s="23">
         <v>0.25</v>
       </c>
-      <c r="I29" s="22" t="b">
+      <c r="I29" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J29" s="22" t="s">
+      <c r="J29" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K29" s="22">
+      <c r="K29" s="23">
         <v>24</v>
       </c>
-      <c r="L29" s="31">
+      <c r="L29" s="35">
         <v>30</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N29" s="22" t="s">
+      <c r="N29" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="41">
         <v>0.0005</v>
       </c>
-      <c r="P29" s="37"/>
-      <c r="Q29" s="37"/>
-      <c r="R29" s="22" t="s">
+      <c r="P29" s="41"/>
+      <c r="Q29" s="41"/>
+      <c r="R29" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S29" s="22" t="s">
+      <c r="S29" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T29" s="22">
-        <v>0</v>
-      </c>
-      <c r="U29" s="22" t="s">
+      <c r="T29" s="23">
+        <v>0</v>
+      </c>
+      <c r="U29" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V29" s="22">
+      <c r="V29" s="23">
         <v>0.9875</v>
       </c>
-      <c r="W29" s="50">
+      <c r="W29" s="55">
         <v>0.976</v>
       </c>
-      <c r="X29" s="22" t="s">
+      <c r="X29" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="Y29" s="44" t="s">
+      <c r="Y29" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Z29" s="44"/>
+      <c r="Z29" s="49"/>
     </row>
     <row r="30" ht="15.75" spans="1:26">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="10">
-        <v>0</v>
-      </c>
-      <c r="C30" s="10" t="s">
+      <c r="B30" s="11">
+        <v>0</v>
+      </c>
+      <c r="C30" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D30" s="11">
         <v>416</v>
       </c>
-      <c r="E30" s="10">
-        <v>0</v>
-      </c>
-      <c r="F30" s="10">
+      <c r="E30" s="11">
+        <v>0</v>
+      </c>
+      <c r="F30" s="11">
         <v>0.2</v>
       </c>
-      <c r="G30" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H30" s="10">
+      <c r="G30" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H30" s="11">
         <v>0.25</v>
       </c>
-      <c r="I30" s="10" t="b">
+      <c r="I30" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J30" s="9" t="s">
+      <c r="J30" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K30" s="9">
+      <c r="K30" s="10">
         <v>24</v>
       </c>
-      <c r="L30" s="9">
+      <c r="L30" s="10">
         <v>45</v>
       </c>
-      <c r="M30" s="32">
+      <c r="M30" s="36">
         <v>0.0003</v>
       </c>
-      <c r="N30" s="10" t="s">
+      <c r="N30" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O30" s="32">
+      <c r="O30" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P30" s="32" t="b">
+      <c r="P30" s="36" t="b">
         <v>1</v>
       </c>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="10" t="s">
+      <c r="Q30" s="36"/>
+      <c r="R30" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T30" s="10">
-        <v>0</v>
-      </c>
-      <c r="U30" s="9" t="s">
+      <c r="T30" s="11">
+        <v>0</v>
+      </c>
+      <c r="U30" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V30" s="10">
+      <c r="V30" s="11">
         <v>0.9907</v>
       </c>
-      <c r="W30" s="51">
+      <c r="W30" s="56">
         <v>0.974</v>
       </c>
-      <c r="X30" s="10" t="s">
+      <c r="X30" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="Y30" s="44" t="s">
+      <c r="Y30" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="Z30" s="44"/>
+      <c r="Z30" s="49"/>
     </row>
     <row r="31" ht="15.75" spans="1:26">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="B31" s="10">
-        <v>0</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="11">
+        <v>0</v>
+      </c>
+      <c r="C31" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D31" s="11">
         <v>416</v>
       </c>
-      <c r="E31" s="10">
-        <v>0</v>
-      </c>
-      <c r="F31" s="10">
+      <c r="E31" s="11">
+        <v>0</v>
+      </c>
+      <c r="F31" s="11">
         <v>0.2</v>
       </c>
-      <c r="G31" s="10">
-        <v>0.5</v>
-      </c>
-      <c r="H31" s="10">
+      <c r="G31" s="11">
+        <v>0.5</v>
+      </c>
+      <c r="H31" s="11">
         <v>0.25</v>
       </c>
-      <c r="I31" s="10" t="b">
+      <c r="I31" s="11" t="b">
         <v>1</v>
       </c>
-      <c r="J31" s="9" t="s">
+      <c r="J31" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="K31" s="9">
+      <c r="K31" s="10">
         <v>22</v>
       </c>
-      <c r="L31" s="10">
+      <c r="L31" s="11">
         <v>30</v>
       </c>
-      <c r="M31" s="32">
+      <c r="M31" s="36">
         <v>0.0003</v>
       </c>
-      <c r="N31" s="10" t="s">
+      <c r="N31" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O31" s="32">
+      <c r="O31" s="36">
         <v>0.0005</v>
       </c>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10" t="s">
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="S31" s="9" t="s">
+      <c r="S31" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="T31" s="10">
-        <v>0</v>
-      </c>
-      <c r="U31" s="9" t="s">
+      <c r="T31" s="11">
+        <v>0</v>
+      </c>
+      <c r="U31" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="V31" s="10">
+      <c r="V31" s="11">
         <v>0.9822</v>
       </c>
-      <c r="W31" s="10">
+      <c r="W31" s="11">
         <v>0.969</v>
       </c>
-      <c r="X31" s="10" t="s">
+      <c r="X31" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="Y31" s="10" t="s">
+      <c r="Y31" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Z31" s="10" t="s">
+      <c r="Z31" s="11" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="32" customFormat="1" ht="15.75" spans="1:26">
-      <c r="A32" s="20" t="s">
+      <c r="A32" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B32" s="21">
-        <v>0</v>
-      </c>
-      <c r="C32" s="21" t="s">
+      <c r="B32" s="22">
+        <v>0</v>
+      </c>
+      <c r="C32" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="22">
         <v>416</v>
       </c>
-      <c r="E32" s="21">
-        <v>0</v>
-      </c>
-      <c r="F32" s="21">
+      <c r="E32" s="22">
+        <v>0</v>
+      </c>
+      <c r="F32" s="22">
         <v>0.3</v>
       </c>
-      <c r="G32" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H32" s="22">
+      <c r="G32" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H32" s="23">
         <v>0.25</v>
       </c>
-      <c r="I32" s="22" t="b">
+      <c r="I32" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J32" s="22" t="s">
+      <c r="J32" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K32" s="22">
+      <c r="K32" s="23">
         <v>24</v>
       </c>
-      <c r="L32" s="22">
+      <c r="L32" s="23">
         <v>30</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N32" s="22" t="s">
+      <c r="N32" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="41">
         <v>0.0005</v>
       </c>
-      <c r="P32" s="37"/>
-      <c r="Q32" s="37"/>
-      <c r="R32" s="22" t="s">
+      <c r="P32" s="41"/>
+      <c r="Q32" s="41"/>
+      <c r="R32" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S32" s="22" t="s">
+      <c r="S32" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T32" s="22">
-        <v>0</v>
-      </c>
-      <c r="U32" s="22" t="s">
+      <c r="T32" s="23">
+        <v>0</v>
+      </c>
+      <c r="U32" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V32" s="22">
+      <c r="V32" s="23">
         <v>0.987</v>
       </c>
-      <c r="W32" s="50">
+      <c r="W32" s="55">
         <v>0.977</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="X32" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="Y32" s="44" t="s">
+      <c r="Y32" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="Z32" s="44"/>
+      <c r="Z32" s="49"/>
     </row>
     <row r="33" customFormat="1" ht="15.75" spans="1:26">
-      <c r="A33" s="20" t="s">
+      <c r="A33" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="B33" s="21">
-        <v>0</v>
-      </c>
-      <c r="C33" s="21" t="s">
+      <c r="B33" s="22">
+        <v>0</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="D33" s="21">
+      <c r="D33" s="22">
         <v>416</v>
       </c>
-      <c r="E33" s="21">
-        <v>0</v>
-      </c>
-      <c r="F33" s="21">
+      <c r="E33" s="22">
+        <v>0</v>
+      </c>
+      <c r="F33" s="22">
         <v>0.3</v>
       </c>
-      <c r="G33" s="22">
-        <v>0.5</v>
-      </c>
-      <c r="H33" s="22">
+      <c r="G33" s="23">
+        <v>0.5</v>
+      </c>
+      <c r="H33" s="23">
         <v>0.25</v>
       </c>
-      <c r="I33" s="22" t="b">
+      <c r="I33" s="23" t="b">
         <v>1</v>
       </c>
-      <c r="J33" s="22" t="s">
+      <c r="J33" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="K33" s="22">
+      <c r="K33" s="23">
         <v>24</v>
       </c>
-      <c r="L33" s="22">
+      <c r="L33" s="23">
         <v>30</v>
       </c>
-      <c r="M33" s="37">
+      <c r="M33" s="41">
         <v>0.0003</v>
       </c>
-      <c r="N33" s="22" t="s">
+      <c r="N33" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="O33" s="37">
-        <v>0</v>
-      </c>
-      <c r="P33" s="37"/>
-      <c r="Q33" s="37"/>
-      <c r="R33" s="22" t="s">
+      <c r="O33" s="41">
+        <v>0</v>
+      </c>
+      <c r="P33" s="41"/>
+      <c r="Q33" s="41"/>
+      <c r="R33" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="S33" s="22" t="s">
+      <c r="S33" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="T33" s="22">
-        <v>0</v>
-      </c>
-      <c r="U33" s="22" t="s">
+      <c r="T33" s="23">
+        <v>0</v>
+      </c>
+      <c r="U33" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="V33" s="22">
+      <c r="V33" s="23">
         <v>0.9875</v>
       </c>
-      <c r="W33" s="50">
+      <c r="W33" s="55">
         <v>0.978</v>
       </c>
-      <c r="X33" s="22" t="s">
+      <c r="X33" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="Y33" s="44" t="s">
+      <c r="Y33" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="Z33" s="44"/>
+      <c r="Z33" s="49"/>
+    </row>
+    <row r="34" s="5" customFormat="1" ht="15.75" spans="1:26">
+      <c r="A34" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B34" s="29">
+        <v>0</v>
+      </c>
+      <c r="C34" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="D34" s="29">
+        <v>416</v>
+      </c>
+      <c r="E34" s="29">
+        <v>0</v>
+      </c>
+      <c r="F34" s="29">
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="32">
+        <v>0.5</v>
+      </c>
+      <c r="H34" s="32">
+        <v>0.25</v>
+      </c>
+      <c r="I34" s="32" t="b">
+        <v>1</v>
+      </c>
+      <c r="J34" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" s="32">
+        <v>24</v>
+      </c>
+      <c r="L34" s="32">
+        <v>80</v>
+      </c>
+      <c r="M34" s="44">
+        <v>0.0003</v>
+      </c>
+      <c r="N34" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="O34" s="44">
+        <v>0</v>
+      </c>
+      <c r="P34" s="44"/>
+      <c r="Q34" s="44"/>
+      <c r="R34" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="S34" s="32" t="s">
+        <v>36</v>
+      </c>
+      <c r="T34" s="32">
+        <v>0</v>
+      </c>
+      <c r="U34" s="32" t="s">
+        <v>37</v>
+      </c>
+      <c r="V34" s="32">
+        <v>0.9875</v>
+      </c>
+      <c r="W34" s="58">
+        <v>0.979</v>
+      </c>
+      <c r="X34" s="32" t="s">
+        <v>85</v>
+      </c>
+      <c r="Y34" s="65" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z34" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3908,32 +4024,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
